--- a/src/main/resources/excel/data_temp.xlsx
+++ b/src/main/resources/excel/data_temp.xlsx
@@ -1238,10 +1238,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1258,6 +1258,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1270,13 +1276,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1285,7 +1284,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1390,29 +1404,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1435,31 +1434,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,6 +1501,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,36 +1584,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1616,6 +1591,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1629,17 +1628,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1655,15 +1663,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1703,17 +1702,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1734,10 +1733,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1749,91 +1748,106 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1842,57 +1856,45 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2246,7 +2248,7 @@
   <dimension ref="A1:AF170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="W94" sqref="W94"/>
+      <selection activeCell="A170" sqref="$A170:$XFD170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2257,100 +2259,100 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:32">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3237,7 +3239,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:32">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5468,7 +5470,7 @@
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:29">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -17004,41 +17006,41 @@
       </c>
       <c r="AF169" s="1"/>
     </row>
-    <row r="170" spans="1:31">
-      <c r="A170" s="5" t="s">
+    <row r="170" s="2" customFormat="1" spans="1:31">
+      <c r="A170" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D170" s="5">
-        <v>1</v>
-      </c>
-      <c r="E170" s="5">
+      <c r="D170" s="6">
+        <v>1</v>
+      </c>
+      <c r="E170" s="6">
         <v>443</v>
       </c>
-      <c r="F170" s="5">
+      <c r="F170" s="6">
         <v>623</v>
       </c>
-      <c r="G170" s="5">
+      <c r="G170" s="6">
         <v>732</v>
       </c>
-      <c r="H170" s="5" t="s">
+      <c r="H170" s="6" t="s">
         <v>49</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J170" s="5" t="s">
+      <c r="J170" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K170" s="5" t="s">
+      <c r="K170" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L170" s="5" t="s">
+      <c r="L170" s="6" t="s">
         <v>404</v>
       </c>
       <c r="M170" s="1" t="s">
@@ -17060,10 +17062,10 @@
         <v>38</v>
       </c>
       <c r="S170" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T170" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U170" s="1" t="s">
         <v>40</v>
@@ -17072,10 +17074,10 @@
         <v>41</v>
       </c>
       <c r="W170" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X170" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Y170" s="1">
         <v>540</v>
@@ -17101,27 +17103,27 @@
     </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 N11 M14 N14 M19 N19 M22 N22 M23 N23 M24 N24 M25 N25 M26 N26 M27 N27 M28 N28 M31 N31 M32 N32 M33 N33 M34 N34 M35 N35 M36 N36 M37 N37 M38 N38 M39 N39 M40 N40 M41 N41 M42 N42 M43 N43 M44 N44 M45 N45 M46 N46 M47 N47 M48 N48 M49 N49 M50 N50 M51 N51 M52 N52 M53 N53 M54 N54 M55 N55 M56 N56 M57 N57 M58 N58 M59 N59 M60 N60 M61 N61 M62 N62 M63 N63 M64 N64 M65 N65 M66 N66 M67 N67 M68 N68 M69 N69 M70 N70 M71 N71 M72 N72 M73 N73 M74 N74 M75 N75 M76 N76 M77 N77 M78 N78 M79 N79 M80 N80 M81 N81 M82 N82 M83 N83 M84 N84 M85 N85 M86 N86 M87 N87 M88 N88 M89 N89 M90 N90 M91 N91 M92 N92 M93 N93 M94 N94 M95 N95 M96 N96 M97 N97 M98 N98 M99 N99 M100 N100 M101 N101 M102 N102 M103 N103 M104 N104 M105 N105 M106 N106 M107 N107 M108 N108 M109 N109 M110 N110 M111 N111 M112 N112 M113 N113 M114 N114 M115 N115 M116 N116 M117 N117 M118 N118 M119 N119 M120 N120 M121 N121 M122 N122 M123 N123 M124 N124 M125 N125 M128 N128 M129 N129 M130 N130 M133 N133 M136 N136 M137 N137 M138 N138 M139 N139 M140 N140 M141 N141 M142 N142 M143 N143 M144 N144 M145 N145 M146 N146 M147 N147 M148 N148 M149 N149 M150 N150 M151 N151 M152 N152 M153 N153 M154 N154 M155 N155 M156 N156 M157 N157 M158 N158 M159 N159 M160 N160 M161 N161 M162 N162 M163 N163 M164 N164 M165 N165 M166 N166 M167 N167 M168 N168 M169 N169 M170 N170 M2:M10 M12:M13 M15:M18 M20:M21 M29:M30 M126:M127 M131:M132 M134:M135 N2:N10 N12:N13 N15:N18 N20:N21 N29:N30 N126:N127 N131:N132 N134:N135">
-      <formula1>"盾枪兵,长戟兵,重骑兵,骠骑兵,火矢兵,连弩兵"</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 H1 I1 J1 K1 M1 N1 O1 P1 Q1 R1 S1 T1 U1 V1 W1 X1 AB1 AC1 AD1:AF1 L11 B14 L14 L19 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L133 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 B1:B13 B15:B1048576 L1:L10 L12:L13 L15:L18 L20:L22 L131:L132 L134:L135 L166:L169"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD10 AE10 AF10 AD11 AE11 AF11 AD14 AE14 AF14 AD35 AE35 AD51 AE51 AD71 AE71 AD87 AE87 AF87 AD91 AE91 AD95 AE95 AD96 AE96 AF96 AD102 AE102 AD128 AE128 AD132 AE132 AD133 AE133 AF133 AD157 AE157 AD164 AE164 AD165 AE165 AF165 AD169 AE169 AD170 AE170 AD2:AD9 AD12:AD13 AD15:AD34 AD36:AD50 AD52:AD70 AD72:AD86 AD88:AD90 AD92:AD94 AD97:AD101 AD103:AD127 AD129:AD131 AD134:AD156 AD158:AD163 AD166:AD168 AE2:AE9 AE12:AE13 AE15:AE34 AE36:AE50 AE52:AE70 AE72:AE86 AE88:AE90 AE92:AE94 AE97:AE101 AE103:AE127 AE129:AE131 AE134:AE156 AE158:AE163 AE166:AE168 AF2:AF9 AF12:AF13 AF15:AF86 AF88:AF95 AF97:AF132 AF134:AF164 AF166:AF169">
+      <formula1>"天机之钥,天相之圭,太阴之精,太阳之焰,贪狼之爪,廉贞之锋,七杀之气,破军之血"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11 I14 I19 I23 I24 I25 I26 I27 I28 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I125 I126 I127 I128 I129 I130 I133 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I170 I2:I10 I12:I13 I15:I18 I20:I22 I29:I30 I44:I45 I122:I124 I131:I132 I134:I135 I136:I138 I152:I153 I166:I169">
+      <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C14 C19 C24 C25 C26 C27 C28 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C111 C112 C113 C114 C115 C116 C117 C118 C121 C122 C133 C161 C165 C2:C10 C12:C13 C15:C18 C20:C23 C29:C30 C107:C110 C119:C120 C123:C132 C134:C135 C136:C138 C139:C142 C143:C146 C147:C149 C150:C160 C162:C164 C166:C169">
+      <formula1>"魏,蜀,吴,群"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H14 H19 H23 H24 H25 H26 H27 H28 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101 H102 H103 H104 H105 H106 H107 H108 H109 H110 H111 H112 H113 H114 H115 H116 H117 H118 H119 H120 H121 H125 H126 H127 H128 H129 H130 H133 H139 H140 H141 H144 H145 H146 H147 H148 H149 H150 H151 H154 H155 H156 H157 H158 H159 H160 H161 H165 H2:H10 H12:H13 H15:H18 H20:H22 H29:H30 H44:H45 H122:H124 H131:H132 H134:H135 H136:H138 H142:H143 H152:H153 H162:H164 H166:H169">
+      <formula1>"男,女"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11 J14 J19 J23 J24 J25 J26 J27 J28 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69 J70 J71 J72 J73 J74 J75 J76 J77 J78 J79 J80 J81 J82 J83 J84 J85 J86 J87 J88 J89 J90 J91 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J125 J126 J127 J128 J129 J130 J133 J139 J140 J141 J142 J143 J144 J145 J146 J147 J148 J149 J150 J151 J154 J155 J156 J157 J158 J159 J160 J161 J162 J163 J164 J165 J2:J10 J12:J13 J15:J18 J20:J22 J29:J30 J44:J45 J122:J124 J131:J132 J134:J135 J136:J138 J152:J153 J166:J169">
       <formula1>"枪,弓,骑"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD10 AE10 AF10 AD11 AE11 AF11 AD14 AE14 AF14 AD35 AE35 AD51 AE51 AD71 AE71 AD87 AE87 AF87 AD91 AE91 AD95 AE95 AD96 AE96 AF96 AD102 AE102 AD128 AE128 AD132 AE132 AD133 AE133 AF133 AD157 AE157 AD164 AE164 AD165 AE165 AF165 AD169 AE169 AD170 AE170 AD2:AD9 AD12:AD13 AD15:AD34 AD36:AD50 AD52:AD70 AD72:AD86 AD88:AD90 AD92:AD94 AD97:AD101 AD103:AD127 AD129:AD131 AD134:AD156 AD158:AD163 AD166:AD168 AE2:AE9 AE12:AE13 AE15:AE34 AE36:AE50 AE52:AE70 AE72:AE86 AE88:AE90 AE92:AE94 AE97:AE101 AE103:AE127 AE129:AE131 AE134:AE156 AE158:AE163 AE166:AE168 AF2:AF9 AF12:AF13 AF15:AF86 AF88:AF95 AF97:AF132 AF134:AF164 AF166:AF169">
-      <formula1>"天机之钥,天相之圭,太阴之精,太阳之焰,贪狼之爪,廉贞之锋,七杀之气,破军之血"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 H1 I1 J1 K1 M1 N1 O1 P1 Q1 R1 S1 T1 U1 V1 W1 X1 AB1 AC1 AD1:AF1 L11 B14 L14 L19 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L133 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 B1:B13 B15:B1048576 L1:L10 L12:L13 L15:L18 L20:L22 L131:L132 L134:L135 L166:L169"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C14 C19 C24 C25 C26 C27 C28 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C111 C112 C113 C114 C115 C116 C117 C118 C121 C122 C133 C161 C165 C2:C10 C12:C13 C15:C18 C20:C23 C29:C30 C107:C110 C119:C120 C123:C132 C134:C135 C136:C138 C139:C142 C143:C146 C147:C149 C150:C160 C162:C164 C166:C169">
-      <formula1>"魏,蜀,吴,群"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11 K14 K19 K23 K24 K25 K26 K27 K28 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K59 K60 K61 K62 K63 K64 K65 K66 K67 K68 K69 K70 K71 K72 K73 K74 K75 K76 K77 K78 K79 K80 K81 K82 K83 K84 K85 K86 K87 K88 K89 K90 K91 K92 K93 K94 K95 K96 K97 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K125 K126 K127 K128 K129 K130 K133 K144 K154 K155 K156 K157 K158 K159 K160 K161 K162 K163 K164 K165 K2:K10 K12:K13 K15:K18 K20:K22 K29:K30 K44:K45 K122:K124 K131:K132 K134:K135 K136:K139 K140:K143 K145:K147 K148:K150 K151:K153 K166:K169">
       <formula1>"刀,剑,枪,弓,扇"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H14 H19 H23 H24 H25 H26 H27 H28 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101 H102 H103 H104 H105 H106 H107 H108 H109 H110 H111 H112 H113 H114 H115 H116 H117 H118 H119 H120 H121 H125 H126 H127 H128 H129 H130 H133 H139 H140 H141 H144 H145 H146 H147 H148 H149 H150 H151 H154 H155 H156 H157 H158 H159 H160 H161 H165 H2:H10 H12:H13 H15:H18 H20:H22 H29:H30 H44:H45 H122:H124 H131:H132 H134:H135 H136:H138 H142:H143 H152:H153 H162:H164 H166:H169">
-      <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11 I14 I19 I23 I24 I25 I26 I27 I28 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I125 I126 I127 I128 I129 I130 I133 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I170 I2:I10 I12:I13 I15:I18 I20:I22 I29:I30 I44:I45 I122:I124 I131:I132 I134:I135 I136:I138 I152:I153 I166:I169">
-      <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 N11 M14 N14 M19 N19 M22 N22 M23 N23 M24 N24 M25 N25 M26 N26 M27 N27 M28 N28 M31 N31 M32 N32 M33 N33 M34 N34 M35 N35 M36 N36 M37 N37 M38 N38 M39 N39 M40 N40 M41 N41 M42 N42 M43 N43 M44 N44 M45 N45 M46 N46 M47 N47 M48 N48 M49 N49 M50 N50 M51 N51 M52 N52 M53 N53 M54 N54 M55 N55 M56 N56 M57 N57 M58 N58 M59 N59 M60 N60 M61 N61 M62 N62 M63 N63 M64 N64 M65 N65 M66 N66 M67 N67 M68 N68 M69 N69 M70 N70 M71 N71 M72 N72 M73 N73 M74 N74 M75 N75 M76 N76 M77 N77 M78 N78 M79 N79 M80 N80 M81 N81 M82 N82 M83 N83 M84 N84 M85 N85 M86 N86 M87 N87 M88 N88 M89 N89 M90 N90 M91 N91 M92 N92 M93 N93 M94 N94 M95 N95 M96 N96 M97 N97 M98 N98 M99 N99 M100 N100 M101 N101 M102 N102 M103 N103 M104 N104 M105 N105 M106 N106 M107 N107 M108 N108 M109 N109 M110 N110 M111 N111 M112 N112 M113 N113 M114 N114 M115 N115 M116 N116 M117 N117 M118 N118 M119 N119 M120 N120 M121 N121 M122 N122 M123 N123 M124 N124 M125 N125 M128 N128 M129 N129 M130 N130 M133 N133 M136 N136 M137 N137 M138 N138 M139 N139 M140 N140 M141 N141 M142 N142 M143 N143 M144 N144 M145 N145 M146 N146 M147 N147 M148 N148 M149 N149 M150 N150 M151 N151 M152 N152 M153 N153 M154 N154 M155 N155 M156 N156 M157 N157 M158 N158 M159 N159 M160 N160 M161 N161 M162 N162 M163 N163 M164 N164 M165 N165 M166 N166 M167 N167 M168 N168 M169 N169 M170 N170 M2:M10 M12:M13 M15:M18 M20:M21 M29:M30 M126:M127 M131:M132 M134:M135 N2:N10 N12:N13 N15:N18 N20:N21 N29:N30 N126:N127 N131:N132 N134:N135">
+      <formula1>"盾枪兵,长戟兵,重骑兵,骠骑兵,火矢兵,连弩兵"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11 P11 Q11 R11 S11 T11 U11 V11 W11 X11 O14 P14 Q14 R14 S14 T14 U14 V14 W14 X14 O15 P15 Q15 R15 S15 T15 U15 V15 W15 X15 O16 P16 Q16 R16 S16 T16 U16 V16 W16 X16 O17 P17 Q17 R17 S17 T17 U17 V17 W17 X17 O18 P18 Q18 R18 S18 T18 U18 V18 W18 X18 O19 P19 Q19 R19 S19 T19 U19 V19 W19 X19 O22 P22 Q22 R22 S22 T22 U22 V22 W22 X22 O23 P23 Q23 R23 S23 T23 U23 V23 W23 X23 O24 P24 Q24 R24 S24 T24 U24 V24 W24 X24 O25 P25 Q25 R25 S25 T25 U25 V25 W25 X25 O26 P26 Q26 R26 S26 T26 U26 V26 W26 X26 O27 P27 Q27 R27 S27 T27 U27 V27 W27 X27 O28 P28 Q28 R28 S28 T28 U28 V28 W28 X28 O29 P29 Q29 R29 S29 T29 U29 V29 W29 X29 O30 P30 Q30 R30 S30 T30 U30 V30 W30 X30 O31 P31 Q31 R31 S31 T31 U31 V31 W31 X31 O32 P32 Q32 R32 S32 T32 U32 V32 W32 X32 O33 P33 Q33 R33 S33 T33 U33 V33 W33 X33 O34 P34 Q34 R34 S34 T34 U34 V34 W34 X34 O35 P35 Q35 R35 S35 T35 U35 V35 W35 X35 O36 P36 Q36 R36 S36 T36 U36 V36 W36 X36 O37 P37 Q37 R37 S37 T37 U37 V37 W37 X37 O38 P38 Q38 R38 S38 T38 U38 V38 W38 X38 O39 P39 Q39 R39 S39 T39 U39 V39 W39 X39 O40 P40 Q40 R40 S40 T40 U40 V40 W40 X40 O41 P41 Q41 R41 S41 T41 U41 V41 W41 X41 O42 P42 Q42 R42 S42 T42 U42 V42 W42 X42 O43 P43 Q43 R43 S43 T43 U43 V43 W43 X43 O44 P44 Q44 R44 S44 T44 U44 V44 W44 X44 O45 P45 Q45 R45 S45 T45 U45 V45 W45 X45 O46 P46 Q46 R46 S46 T46 U46 V46 W46 X46 O47 P47 Q47 R47 S47 T47 U47 V47 W47 X47 O48 P48 Q48 R48 S48 T48 U48 V48 W48 X48 O49 P49 Q49 R49 S49 T49 U49 V49 W49 X49 O50 P50 Q50 R50 S50 T50 U50 V50 W50 X50 O51 P51 Q51 R51 S51 T51 U51 V51 W51 X51 O52 P52 Q52 R52 S52 T52 U52 V52 W52 X52 O53 P53 Q53 R53 S53 T53 U53 V53 W53 X53 O54 P54 Q54 R54 S54 T54 U54 V54 W54 X54 O55 P55 Q55 R55 S55 T55 U55 V55 W55 X55 O56 P56 Q56 R56 S56 T56 U56 V56 W56 X56 O57 P57 Q57 R57 S57 T57 U57 V57 W57 X57 O58 P58 Q58 R58 S58 T58 U58 V58 W58 X58 O59 P59 Q59 R59 S59 T59 U59 V59 W59 X59 O60 P60 Q60 R60 S60 T60 U60 V60 W60 X60 O61 P61 Q61 R61 S61 T61 U61 V61 W61 X61 O62 P62 Q62 R62 S62 T62 U62 V62 W62 X62 O63 P63 Q63 R63 S63 T63 U63 V63 W63 X63 O64 P64 Q64 R64 S64 T64 U64 V64 W64 X64 O65 P65 Q65 R65 S65 T65 U65 V65 W65 X65 O66 P66 Q66 R66 S66 T66 U66 V66 W66 X66 O67 P67 Q67 R67 S67 T67 U67 V67 W67 X67 O68 P68 Q68 R68 S68 T68 U68 V68 W68 X68 O69 P69 Q69 R69 S69 T69 U69 V69 W69 X69 O70 P70 Q70 R70 S70 T70 U70 V70 W70 X70 O71 P71 Q71 R71 S71 T71 U71 V71 W71 X71 O72 P72 Q72 R72 S72 T72 U72 V72 W72 X72 O73 P73 Q73 R73 S73 T73 U73 V73 W73 X73 O74 P74 Q74 R74 S74 T74 U74 V74 W74 X74 O75 P75 Q75 R75 S75 T75 U75 V75 W75 X75 O76 P76 Q76 R76 S76 T76 U76 V76 W76 X76 O77 P77 Q77 R77 S77 T77 U77 V77 W77 X77 O78 P78 Q78 R78 S78 T78 U78 V78 W78 X78 O79 P79 Q79 R79 S79 T79 U79 V79 W79 X79 O80 P80 Q80 R80 S80 T80 U80 V80 W80 X80 O81 P81 Q81 R81 S81 T81 U81 V81 W81 X81 O82 P82 Q82 R82 S82 T82 U82 V82 W82 X82 O83 P83 Q83 R83 S83 T83 U83 V83 W83 X83 O84 P84 Q84 R84 S84 T84 U84 V84 W84 X84 O85 P85 Q85 R85 S85 T85 U85 V85 W85 X85 O86 P86 Q86 R86 S86 T86 U86 V86 W86 X86 O87 P87 Q87 R87 S87 T87 U87 V87 W87 X87 O88 P88 Q88 R88 S88 T88 U88 V88 W88 X88 O89 P89 Q89 R89 S89 T89 U89 V89 W89 X89 O90 P90 Q90 R90 S90 T90 U90 V90 W90 X90 O91 P91 Q91 R91 S91 T91 U91 V91 W91 X91 O92 P92 Q92 R92 S92 T92 U92 V92 W92 X92 O93 P93 Q93 R93 S93 T93 U93 V93 W93 X93 O94 P94 Q94 R94 S94 T94 U94 V94 W94 X94 O95 P95 Q95 R95 S95 T95 U95 V95 W95 X95 O96 P96 Q96 R96 S96 T96 U96 V96 W96 X96 O97 P97 Q97 R97 S97 T97 U97 V97 W97 X97 O98 P98 Q98 R98 S98 T98 U98 V98 W98 X98 O99 P99 Q99 R99 S99 T99 U99 V99 W99 X99 O100 P100 Q100 R100 S100 T100 U100 V100 W100 X100 O101 P101 Q101 R101 S101 T101 U101 V101 W101 X101 O102 P102 Q102 R102 S102 T102 U102 V102 W102 X102 O103 P103 Q103 R103 S103 T103 U103 V103 W103 X103 O104 P104 Q104 R104 S104 T104 U104 V104 W104 X104 O105 P105 Q105 R105 S105 T105 U105 V105 W105 X105 O106 P106 Q106 R106 S106 T106 U106 V106 W106 X106 O107 P107 Q107 R107 S107 T107 U107 V107 W107 X107 O108 P108 Q108 R108 S108 T108 U108 V108 W108 X108 O109 P109 Q109 R109 S109 T109 U109 V109 W109 X109 O110 P110 Q110 R110 S110 T110 U110 V110 W110 X110 O111 P111 Q111 R111 S111 T111 U111 V111 W111 X111 O112 P112 Q112 R112 S112 T112 U112 V112 W112 X112 O113 P113 Q113 R113 S113 T113 U113 V113 W113 X113 O114 P114 Q114 R114 S114 T114 U114 V114 W114 X114 O115 P115 Q115 R115 S115 T115 U115 V115 W115 X115 O116 P116 Q116 R116 S116 T116 U116 V116 W116 X116 O117 P117 Q117 R117 S117 T117 U117 V117 W117 X117 O118 P118 Q118 R118 S118 T118 U118 V118 W118 X118 O119 P119 Q119 R119 S119 T119 U119 V119 W119 X119 O120 P120 Q120 R120 S120 T120 U120 V120 W120 X120 O121 P121 Q121 R121 S121 T121 U121 V121 W121 X121 O122 P122 Q122 R122 S122 T122 U122 V122 W122 X122 O123 P123 Q123 R123 S123 T123 U123 V123 W123 X123 O124 P124 Q124 R124 S124 T124 U124 V124 W124 X124 O125 P125 Q125 R125 S125 T125 U125 V125 W125 X125 O126 P126 Q126 R126 S126 T126 U126 V126 W126 X126 O127 P127 Q127 R127 S127 T127 U127 V127 W127 X127 O128 P128 Q128 R128 S128 T128 U128 V128 W128 X128 O129 P129 Q129 R129 S129 T129 U129 V129 W129 X129 O130 P130 Q130 R130 S130 T130 U130 V130 W130 X130 O131 P131 Q131 R131 S131 T131 U131 V131 W131 X131 O132 P132 Q132 R132 S132 T132 U132 V132 W132 X132 O133 P133 Q133 R133 S133 T133 U133 V133 W133 X133 O134 P134 Q134 R134 S134 T134 U134 V134 W134 X134 O135 P135 Q135 R135 S135 T135 U135 V135 W135 X135 O136 P136 Q136 R136 S136 T136 U136 V136 W136 X136 O137 P137 Q137 R137 S137 T137 U137 V137 W137 X137 O138 P138 Q138 R138 S138 T138 U138 V138 W138 X138 O139 P139 Q139 R139 S139 T139 U139 V139 W139 X139 O140 P140 Q140 R140 S140 T140 U140 V140 W140 X140 O141 P141 Q141 R141 S141 T141 U141 V141 W141 X141 O144 P144 Q144 R144 S144 T144 U144 V144 W144 X144 O145 P145 Q145 R145 S145 T145 U145 V145 W145 X145 O146 P146 Q146 R146 S146 T146 U146 V146 W146 X146 O147 P147 Q147 R147 S147 T147 U147 V147 W147 X147 O148 P148 Q148 R148 S148 T148 U148 V148 W148 X148 O149 P149 Q149 R149 S149 T149 U149 V149 W149 X149 O150 P150 Q150 R150 S150 T150 U150 V150 W150 X150 O151 P151 Q151 R151 S151 T151 U151 V151 W151 X151 O152 P152 Q152 R152 S152 T152 U152 V152 W152 X152 O153 P153 Q153 R153 S153 T153 U153 V153 W153 X153 O154 P154 Q154 R154 S154 T154 U154 V154 W154 X154 O155 P155 Q155 R155 S155 T155 U155 V155 W155 X155 O156 P156 Q156 R156 S156 T156 U156 V156 W156 X156 O157 P157 Q157 R157 S157 T157 U157 V157 W157 X157 O158 P158 Q158 R158 S158 T158 U158 V158 W158 X158 O159 P159 Q159 R159 S159 T159 U159 V159 W159 X159 O160 P160 Q160 R160 S160 T160 U160 V160 W160 X160 O161 P161 Q161 R161 S161 T161 U161 V161 W161 X161 O162 P162 Q162 R162 S162 T162 U162 V162 W162 X162 O163 P163 Q163 R163 S163 T163 U163 V163 W163 X163 O164 P164 Q164 R164 S164 T164 U164 V164 W164 X164 O165 P165 Q165 R165 S165 T165 U165 V165 W165 X165 O166 P166 Q166 R166 S166 T166 U166 V166 W166 X166 O167 P167 Q167 R167 S167 T167 U167 V167 W167 X167 O168 P168 Q168 R168 S168 T168 U168 V168 W168 X168 O169 P169 Q169 R169 S169 T169 U169 V169 W169 X169 O170 P170 Q170 R170 S170 T170 U170 V170 W170 X170 O2:O10 O12:O13 O20:O21 O142:O143 P2:P10 P12:P13 P20:P21 P142:P143 Q2:Q10 Q12:Q13 Q20:Q21 Q142:Q143 R2:R10 R12:R13 R20:R21 R142:R143 S2:S10 S12:S13 S20:S21 S142:S143 T2:T10 T12:T13 T20:T21 T142:T143 U2:U10 U12:U13 U20:U21 U142:U143 V2:V10 V12:V13 V20:V21 V142:V143 W2:W10 W12:W13 W20:W21 W142:W143 X2:X10 X12:X13 X20:X21 X142:X143">
       <formula1>"武锋,三疑,兵道,军略,金鼓,文伐"</formula1>

--- a/src/main/resources/excel/data_temp.xlsx
+++ b/src/main/resources/excel/data_temp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3510" uniqueCount="407">
   <si>
     <t>武将名称</t>
   </si>
@@ -537,6 +537,9 @@
     <t>曹操,曹丕,蔡文姬,夏侯惇,甄姬</t>
   </si>
   <si>
+    <t>伶歌卞夫人_限</t>
+  </si>
+  <si>
     <t>洛神甄姬</t>
   </si>
   <si>
@@ -979,6 +982,9 @@
   </si>
   <si>
     <t>小乔,曹操,甄姬,孙策,貂蝉</t>
+  </si>
+  <si>
+    <t>挽歌大乔_限</t>
   </si>
   <si>
     <t>望月大乔</t>
@@ -1238,12 +1244,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1255,6 +1261,13 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1276,15 +1289,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,15 +1310,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1323,6 +1354,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1330,22 +1369,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1361,49 +1408,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1413,7 +1424,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1429,6 +1448,150 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,60 +1627,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1528,96 +1637,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1625,45 +1644,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1678,26 +1658,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1720,8 +1680,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1733,10 +1752,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1745,137 +1764,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1885,16 +1904,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2245,10 +2267,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF170"/>
+  <dimension ref="A1:AF172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A170" sqref="$A170:$XFD170"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2259,100 +2281,100 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:32">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3239,7 +3261,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:32">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5470,7 +5492,7 @@
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:29">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -6644,12 +6666,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:29">
+    <row r="52" s="1" customFormat="1" spans="1:31">
       <c r="A52" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>73</v>
@@ -6658,34 +6680,34 @@
         <v>1</v>
       </c>
       <c r="E52" s="1">
-        <v>377</v>
+        <v>532</v>
       </c>
       <c r="F52" s="1">
-        <v>698</v>
+        <v>627</v>
       </c>
       <c r="G52" s="1">
-        <v>697</v>
+        <v>813</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>37</v>
@@ -6694,16 +6716,16 @@
         <v>38</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>40</v>
@@ -6718,48 +6740,54 @@
         <v>42</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Z52" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AB52" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>105</v>
+        <v>135</v>
+      </c>
+      <c r="AD52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE52" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:29">
       <c r="A53" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="F53" s="1">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="G53" s="1">
-        <v>605</v>
+        <v>697</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>65</v>
@@ -6768,7 +6796,7 @@
         <v>66</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>68</v>
@@ -6824,10 +6852,10 @@
     </row>
     <row r="54" s="1" customFormat="1" spans="1:29">
       <c r="A54" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>29</v>
@@ -6836,13 +6864,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="1">
-        <v>594</v>
+        <v>540</v>
       </c>
       <c r="F54" s="1">
-        <v>690</v>
+        <v>627</v>
       </c>
       <c r="G54" s="1">
-        <v>665</v>
+        <v>605</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>49</v>
@@ -6857,7 +6885,7 @@
         <v>66</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>68</v>
@@ -6916,43 +6944,43 @@
         <v>179</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="F55" s="1">
-        <v>477</v>
+        <v>690</v>
       </c>
       <c r="G55" s="1">
-        <v>844</v>
+        <v>665</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>37</v>
@@ -6961,13 +6989,13 @@
         <v>38</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T55" s="1" t="s">
         <v>40</v>
@@ -7002,10 +7030,10 @@
     </row>
     <row r="56" s="1" customFormat="1" spans="1:29">
       <c r="A56" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>85</v>
@@ -7014,13 +7042,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>645</v>
+        <v>587</v>
       </c>
       <c r="F56" s="1">
-        <v>524</v>
+        <v>477</v>
       </c>
       <c r="G56" s="1">
-        <v>928</v>
+        <v>844</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>30</v>
@@ -7035,7 +7063,7 @@
         <v>33</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>35</v>
@@ -7094,43 +7122,43 @@
         <v>183</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F57" s="1">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="G57" s="1">
-        <v>805</v>
+        <v>928</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>37</v>
@@ -7145,10 +7173,10 @@
         <v>38</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>40</v>
@@ -7180,25 +7208,25 @@
     </row>
     <row r="58" s="1" customFormat="1" spans="1:29">
       <c r="A58" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <v>821</v>
+        <v>643</v>
       </c>
       <c r="F58" s="1">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="G58" s="1">
-        <v>636</v>
+        <v>805</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>30</v>
@@ -7210,10 +7238,10 @@
         <v>51</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>53</v>
@@ -7234,10 +7262,10 @@
         <v>38</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U58" s="1" t="s">
         <v>40</v>
@@ -7269,46 +7297,46 @@
     </row>
     <row r="59" s="1" customFormat="1" spans="1:29">
       <c r="A59" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
       <c r="E59" s="1">
-        <v>735</v>
+        <v>821</v>
       </c>
       <c r="F59" s="1">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="G59" s="1">
-        <v>708</v>
+        <v>636</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>37</v>
@@ -7317,16 +7345,16 @@
         <v>38</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>40</v>
@@ -7358,10 +7386,10 @@
     </row>
     <row r="60" s="1" customFormat="1" spans="1:29">
       <c r="A60" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>85</v>
@@ -7370,13 +7398,13 @@
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <v>808</v>
+        <v>735</v>
       </c>
       <c r="F60" s="1">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="G60" s="1">
-        <v>778</v>
+        <v>708</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>30</v>
@@ -7391,7 +7419,7 @@
         <v>60</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>35</v>
@@ -7445,12 +7473,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:14">
+    <row r="61" s="1" customFormat="1" spans="1:29">
       <c r="A61" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>85</v>
@@ -7459,42 +7487,87 @@
         <v>1</v>
       </c>
       <c r="E61" s="1">
-        <v>454</v>
+        <v>808</v>
       </c>
       <c r="F61" s="1">
-        <v>724</v>
+        <v>501</v>
       </c>
       <c r="G61" s="1">
-        <v>718</v>
+        <v>778</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L61" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:14">
+      <c r="A62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:29">
-      <c r="A62" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>85</v>
@@ -7503,13 +7576,13 @@
         <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="F62" s="1">
-        <v>800</v>
+        <v>724</v>
       </c>
       <c r="G62" s="1">
-        <v>656</v>
+        <v>718</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>30</v>
@@ -7524,66 +7597,21 @@
         <v>66</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>68</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W62" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y62" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:29">
       <c r="A63" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>85</v>
@@ -7592,13 +7620,13 @@
         <v>1</v>
       </c>
       <c r="E63" s="1">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="F63" s="1">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="G63" s="1">
-        <v>722</v>
+        <v>656</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>30</v>
@@ -7613,7 +7641,7 @@
         <v>66</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>68</v>
@@ -7672,7 +7700,7 @@
         <v>197</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>85</v>
@@ -7681,13 +7709,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="F64" s="1">
-        <v>711</v>
+        <v>880</v>
       </c>
       <c r="G64" s="1">
-        <v>606</v>
+        <v>722</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>30</v>
@@ -7699,10 +7727,10 @@
         <v>65</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>68</v>
@@ -7726,7 +7754,7 @@
         <v>39</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>40</v>
@@ -7758,7 +7786,7 @@
     </row>
     <row r="65" s="1" customFormat="1" spans="1:29">
       <c r="A65" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>91</v>
@@ -7770,34 +7798,34 @@
         <v>1</v>
       </c>
       <c r="E65" s="1">
-        <v>557</v>
+        <v>471</v>
       </c>
       <c r="F65" s="1">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="G65" s="1">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>37</v>
@@ -7806,16 +7834,16 @@
         <v>38</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>40</v>
@@ -7847,7 +7875,7 @@
     </row>
     <row r="66" s="1" customFormat="1" spans="1:29">
       <c r="A66" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>91</v>
@@ -7859,13 +7887,13 @@
         <v>1</v>
       </c>
       <c r="E66" s="1">
-        <v>612</v>
+        <v>557</v>
       </c>
       <c r="F66" s="1">
-        <v>700</v>
+        <v>637</v>
       </c>
       <c r="G66" s="1">
-        <v>651</v>
+        <v>592</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>30</v>
@@ -7880,7 +7908,7 @@
         <v>65</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>53</v>
@@ -7939,7 +7967,7 @@
         <v>202</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>85</v>
@@ -7948,28 +7976,28 @@
         <v>1</v>
       </c>
       <c r="E67" s="1">
-        <v>715</v>
+        <v>612</v>
       </c>
       <c r="F67" s="1">
-        <v>443</v>
+        <v>700</v>
       </c>
       <c r="G67" s="1">
-        <v>688</v>
+        <v>651</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>53</v>
@@ -8025,10 +8053,10 @@
     </row>
     <row r="68" s="1" customFormat="1" spans="1:29">
       <c r="A68" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>85</v>
@@ -8037,13 +8065,13 @@
         <v>1</v>
       </c>
       <c r="E68" s="1">
-        <v>806</v>
+        <v>715</v>
       </c>
       <c r="F68" s="1">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="G68" s="1">
-        <v>742</v>
+        <v>688</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>30</v>
@@ -8058,7 +8086,7 @@
         <v>32</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>53</v>
@@ -8117,22 +8145,22 @@
         <v>206</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F69" s="1">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="G69" s="1">
-        <v>605</v>
+        <v>742</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>30</v>
@@ -8147,7 +8175,7 @@
         <v>32</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>53</v>
@@ -8203,10 +8231,10 @@
     </row>
     <row r="70" s="1" customFormat="1" spans="1:29">
       <c r="A70" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>29</v>
@@ -8215,13 +8243,13 @@
         <v>1</v>
       </c>
       <c r="E70" s="1">
-        <v>894</v>
+        <v>813</v>
       </c>
       <c r="F70" s="1">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="G70" s="1">
-        <v>665</v>
+        <v>605</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>30</v>
@@ -8236,7 +8264,7 @@
         <v>32</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>53</v>
@@ -8290,33 +8318,33 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" spans="1:31">
+    <row r="71" s="1" customFormat="1" spans="1:29">
       <c r="A71" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <v>624</v>
+        <v>894</v>
       </c>
       <c r="F71" s="1">
-        <v>611</v>
+        <v>470</v>
       </c>
       <c r="G71" s="1">
-        <v>611</v>
+        <v>665</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>51</v>
@@ -8325,7 +8353,7 @@
         <v>32</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>53</v>
@@ -8364,33 +8392,27 @@
         <v>42</v>
       </c>
       <c r="Y71" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AA71" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AB71" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD71" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE71" s="1" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" spans="1:14">
+    <row r="72" s="1" customFormat="1" spans="1:31">
       <c r="A72" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>85</v>
@@ -8399,34 +8421,85 @@
         <v>1</v>
       </c>
       <c r="E72" s="1">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="F72" s="1">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="G72" s="1">
-        <v>697</v>
+        <v>611</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>540</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>330</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>585</v>
+      </c>
+      <c r="AB72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE72" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:14">
@@ -8434,7 +8507,7 @@
         <v>213</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>85</v>
@@ -8443,13 +8516,13 @@
         <v>1</v>
       </c>
       <c r="E73" s="1">
-        <v>623</v>
+        <v>566</v>
       </c>
       <c r="F73" s="1">
-        <v>641</v>
+        <v>583</v>
       </c>
       <c r="G73" s="1">
-        <v>767</v>
+        <v>697</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>30</v>
@@ -8464,7 +8537,7 @@
         <v>32</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>35</v>
@@ -8473,12 +8546,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" spans="1:29">
+    <row r="74" s="1" customFormat="1" spans="1:14">
       <c r="A74" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>85</v>
@@ -8487,84 +8560,39 @@
         <v>1</v>
       </c>
       <c r="E74" s="1">
-        <v>579</v>
+        <v>623</v>
       </c>
       <c r="F74" s="1">
-        <v>447</v>
+        <v>641</v>
       </c>
       <c r="G74" s="1">
-        <v>808</v>
+        <v>767</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>35</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W74" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y74" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC74" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:29">
       <c r="A75" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>88</v>
@@ -8576,13 +8604,13 @@
         <v>1</v>
       </c>
       <c r="E75" s="1">
-        <v>637</v>
+        <v>579</v>
       </c>
       <c r="F75" s="1">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="G75" s="1">
-        <v>889</v>
+        <v>808</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>30</v>
@@ -8597,7 +8625,7 @@
         <v>33</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>35</v>
@@ -8665,13 +8693,13 @@
         <v>1</v>
       </c>
       <c r="E76" s="1">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="F76" s="1">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="G76" s="1">
-        <v>760</v>
+        <v>889</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>30</v>
@@ -8686,7 +8714,7 @@
         <v>33</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>35</v>
@@ -8742,7 +8770,7 @@
     </row>
     <row r="77" s="1" customFormat="1" spans="1:29">
       <c r="A77" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>88</v>
@@ -8754,13 +8782,13 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>671</v>
+        <v>610</v>
       </c>
       <c r="F77" s="1">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="G77" s="1">
-        <v>836</v>
+        <v>760</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>30</v>
@@ -8775,7 +8803,7 @@
         <v>33</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>35</v>
@@ -8829,12 +8857,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" spans="1:14">
+    <row r="78" s="1" customFormat="1" spans="1:29">
       <c r="A78" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>85</v>
@@ -8843,39 +8871,84 @@
         <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>758</v>
+        <v>671</v>
       </c>
       <c r="F78" s="1">
-        <v>384</v>
+        <v>511</v>
       </c>
       <c r="G78" s="1">
-        <v>761</v>
+        <v>836</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>35</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:14">
       <c r="A79" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>84</v>
@@ -8887,13 +8960,13 @@
         <v>1</v>
       </c>
       <c r="E79" s="1">
-        <v>811</v>
+        <v>758</v>
       </c>
       <c r="F79" s="1">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="G79" s="1">
-        <v>640</v>
+        <v>761</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>30</v>
@@ -8908,7 +8981,7 @@
         <v>60</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>35</v>
@@ -8919,10 +8992,10 @@
     </row>
     <row r="80" s="1" customFormat="1" spans="1:14">
       <c r="A80" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>85</v>
@@ -8931,13 +9004,13 @@
         <v>1</v>
       </c>
       <c r="E80" s="1">
-        <v>694</v>
+        <v>811</v>
       </c>
       <c r="F80" s="1">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="G80" s="1">
-        <v>701</v>
+        <v>640</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>30</v>
@@ -8946,27 +9019,27 @@
         <v>50</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L80" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:14">
+      <c r="A81" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:29">
-      <c r="A81" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>85</v>
@@ -8975,13 +9048,13 @@
         <v>1</v>
       </c>
       <c r="E81" s="1">
-        <v>790</v>
+        <v>694</v>
       </c>
       <c r="F81" s="1">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G81" s="1">
-        <v>610</v>
+        <v>701</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>30</v>
@@ -8990,72 +9063,27 @@
         <v>50</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S81" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T81" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U81" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V81" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W81" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y81" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC81" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" spans="1:29">
       <c r="A82" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>85</v>
@@ -9064,13 +9092,13 @@
         <v>1</v>
       </c>
       <c r="E82" s="1">
-        <v>852</v>
+        <v>790</v>
       </c>
       <c r="F82" s="1">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="G82" s="1">
-        <v>684</v>
+        <v>610</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>30</v>
@@ -9085,7 +9113,7 @@
         <v>65</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>68</v>
@@ -9139,12 +9167,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" spans="1:14">
+    <row r="83" s="1" customFormat="1" spans="1:29">
       <c r="A83" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>85</v>
@@ -9153,13 +9181,13 @@
         <v>1</v>
       </c>
       <c r="E83" s="1">
-        <v>703</v>
+        <v>852</v>
       </c>
       <c r="F83" s="1">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="G83" s="1">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>30</v>
@@ -9168,27 +9196,72 @@
         <v>50</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:14">
+      <c r="A84" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="1:29">
-      <c r="A84" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>85</v>
@@ -9197,13 +9270,13 @@
         <v>1</v>
       </c>
       <c r="E84" s="1">
-        <v>668</v>
+        <v>703</v>
       </c>
       <c r="F84" s="1">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="G84" s="1">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>30</v>
@@ -9212,72 +9285,27 @@
         <v>50</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T84" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U84" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V84" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W84" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X84" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y84" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z84" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC84" s="1" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:29">
       <c r="A85" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>85</v>
@@ -9286,13 +9314,13 @@
         <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>734</v>
+        <v>668</v>
       </c>
       <c r="F85" s="1">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="G85" s="1">
-        <v>764</v>
+        <v>695</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>30</v>
@@ -9307,7 +9335,7 @@
         <v>60</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>53</v>
@@ -9361,12 +9389,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" spans="1:31">
+    <row r="86" s="1" customFormat="1" spans="1:29">
       <c r="A86" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>85</v>
@@ -9375,34 +9403,34 @@
         <v>1</v>
       </c>
       <c r="E86" s="1">
-        <v>575</v>
+        <v>734</v>
       </c>
       <c r="F86" s="1">
-        <v>599</v>
+        <v>441</v>
       </c>
       <c r="G86" s="1">
-        <v>622</v>
+        <v>764</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="O86" s="1" t="s">
         <v>37</v>
@@ -9411,22 +9439,22 @@
         <v>38</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S86" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W86" s="1" t="s">
         <v>39</v>
@@ -9435,33 +9463,27 @@
         <v>42</v>
       </c>
       <c r="Y86" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="Z86" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AA86" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AB86" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD86" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE86" s="1" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:31">
       <c r="A87" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>85</v>
@@ -9470,13 +9492,13 @@
         <v>1</v>
       </c>
       <c r="E87" s="1">
-        <v>633</v>
+        <v>575</v>
       </c>
       <c r="F87" s="1">
-        <v>660</v>
+        <v>599</v>
       </c>
       <c r="G87" s="1">
-        <v>684</v>
+        <v>622</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>49</v>
@@ -9491,7 +9513,7 @@
         <v>65</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>68</v>
@@ -9551,12 +9573,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" spans="1:29">
+    <row r="88" s="1" customFormat="1" spans="1:31">
       <c r="A88" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>85</v>
@@ -9565,19 +9587,19 @@
         <v>1</v>
       </c>
       <c r="E88" s="1">
-        <v>753</v>
+        <v>633</v>
       </c>
       <c r="F88" s="1">
-        <v>416</v>
+        <v>660</v>
       </c>
       <c r="G88" s="1">
-        <v>624</v>
+        <v>684</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>65</v>
@@ -9586,7 +9608,7 @@
         <v>65</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>68</v>
@@ -9613,10 +9635,10 @@
         <v>40</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W88" s="1" t="s">
         <v>39</v>
@@ -9625,27 +9647,33 @@
         <v>42</v>
       </c>
       <c r="Y88" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Z88" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AA88" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AB88" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>105</v>
+        <v>135</v>
+      </c>
+      <c r="AD88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE88" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:29">
       <c r="A89" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>85</v>
@@ -9654,13 +9682,13 @@
         <v>1</v>
       </c>
       <c r="E89" s="1">
-        <v>702</v>
+        <v>753</v>
       </c>
       <c r="F89" s="1">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="G89" s="1">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>49</v>
@@ -9675,7 +9703,7 @@
         <v>65</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>68</v>
@@ -9731,10 +9759,10 @@
     </row>
     <row r="90" s="1" customFormat="1" spans="1:29">
       <c r="A90" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>85</v>
@@ -9743,13 +9771,13 @@
         <v>1</v>
       </c>
       <c r="E90" s="1">
-        <v>772</v>
+        <v>702</v>
       </c>
       <c r="F90" s="1">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="G90" s="1">
-        <v>713</v>
+        <v>648</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>49</v>
@@ -9764,7 +9792,7 @@
         <v>65</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>68</v>
@@ -9818,27 +9846,27 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" spans="1:31">
+    <row r="91" s="1" customFormat="1" spans="1:29">
       <c r="A91" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
       </c>
       <c r="E91" s="1">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="F91" s="1">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="G91" s="1">
-        <v>611</v>
+        <v>713</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>49</v>
@@ -9853,7 +9881,7 @@
         <v>65</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>68</v>
@@ -9892,54 +9920,48 @@
         <v>42</v>
       </c>
       <c r="Y91" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AA91" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AB91" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD91" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE91" s="1" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" spans="1:29">
+    <row r="92" s="1" customFormat="1" spans="1:31">
       <c r="A92" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
       </c>
       <c r="E92" s="1">
-        <v>401</v>
+        <v>757</v>
       </c>
       <c r="F92" s="1">
-        <v>717</v>
+        <v>433</v>
       </c>
       <c r="G92" s="1">
-        <v>682</v>
+        <v>611</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>65</v>
@@ -9948,7 +9970,7 @@
         <v>65</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>68</v>
@@ -9987,27 +10009,33 @@
         <v>42</v>
       </c>
       <c r="Y92" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Z92" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AA92" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AB92" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>105</v>
+        <v>135</v>
+      </c>
+      <c r="AD92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE92" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:32">
+    <row r="93" s="1" customFormat="1" spans="1:29">
       <c r="A93" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>85</v>
@@ -10016,34 +10044,34 @@
         <v>1</v>
       </c>
       <c r="E93" s="1">
-        <v>559</v>
+        <v>401</v>
       </c>
       <c r="F93" s="1">
-        <v>401</v>
+        <v>717</v>
       </c>
       <c r="G93" s="1">
-        <v>840</v>
+        <v>682</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O93" s="1" t="s">
         <v>37</v>
@@ -10052,13 +10080,13 @@
         <v>38</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T93" s="1" t="s">
         <v>40</v>
@@ -10090,16 +10118,13 @@
       <c r="AC93" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AD93" s="1"/>
-      <c r="AE93" s="1"/>
-      <c r="AF93" s="1"/>
     </row>
     <row r="94" spans="1:32">
       <c r="A94" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>85</v>
@@ -10108,13 +10133,13 @@
         <v>1</v>
       </c>
       <c r="E94" s="1">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="F94" s="1">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="G94" s="1">
-        <v>913</v>
+        <v>840</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>49</v>
@@ -10129,7 +10154,7 @@
         <v>65</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>35</v>
@@ -10191,7 +10216,7 @@
         <v>254</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>85</v>
@@ -10200,34 +10225,34 @@
         <v>1</v>
       </c>
       <c r="E95" s="1">
-        <v>661</v>
+        <v>580</v>
       </c>
       <c r="F95" s="1">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="G95" s="1">
-        <v>688</v>
+        <v>913</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>37</v>
@@ -10236,16 +10261,16 @@
         <v>38</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U95" s="1" t="s">
         <v>40</v>
@@ -10260,34 +10285,30 @@
         <v>42</v>
       </c>
       <c r="Y95" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="Z95" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AA95" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AB95" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD95" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE95" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
       <c r="AF95" s="1"/>
     </row>
     <row r="96" spans="1:32">
       <c r="A96" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>85</v>
@@ -10296,34 +10317,34 @@
         <v>1</v>
       </c>
       <c r="E96" s="1">
-        <v>384</v>
+        <v>661</v>
       </c>
       <c r="F96" s="1">
-        <v>698</v>
+        <v>393</v>
       </c>
       <c r="G96" s="1">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="O96" s="1" t="s">
         <v>37</v>
@@ -10332,22 +10353,22 @@
         <v>38</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S96" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W96" s="1" t="s">
         <v>39</v>
@@ -10380,25 +10401,25 @@
     </row>
     <row r="97" spans="1:32">
       <c r="A97" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
       </c>
       <c r="E97" s="1">
-        <v>455</v>
+        <v>384</v>
       </c>
       <c r="F97" s="1">
-        <v>786</v>
+        <v>698</v>
       </c>
       <c r="G97" s="1">
-        <v>649</v>
+        <v>713</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>30</v>
@@ -10410,10 +10431,10 @@
         <v>65</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>68</v>
@@ -10437,13 +10458,13 @@
         <v>39</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W97" s="1" t="s">
         <v>39</v>
@@ -10452,30 +10473,34 @@
         <v>42</v>
       </c>
       <c r="Y97" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Z97" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AA97" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AB97" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD97" s="1"/>
-      <c r="AE97" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="AD97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE97" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="AF97" s="1"/>
     </row>
     <row r="98" spans="1:32">
       <c r="A98" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>95</v>
@@ -10484,13 +10509,13 @@
         <v>1</v>
       </c>
       <c r="E98" s="1">
-        <v>501</v>
+        <v>455</v>
       </c>
       <c r="F98" s="1">
-        <v>865</v>
+        <v>786</v>
       </c>
       <c r="G98" s="1">
-        <v>712</v>
+        <v>649</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>30</v>
@@ -10505,7 +10530,7 @@
         <v>65</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>68</v>
@@ -10567,7 +10592,7 @@
         <v>264</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>95</v>
@@ -10576,13 +10601,13 @@
         <v>1</v>
       </c>
       <c r="E99" s="1">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="F99" s="1">
-        <v>707</v>
+        <v>865</v>
       </c>
       <c r="G99" s="1">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>30</v>
@@ -10597,7 +10622,7 @@
         <v>65</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>68</v>
@@ -10605,31 +10630,61 @@
       <c r="N99" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
-      <c r="AA99" s="1"/>
-      <c r="AB99" s="1"/>
-      <c r="AC99" s="1"/>
+      <c r="O99" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y99" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
       <c r="AF99" s="1"/>
     </row>
     <row r="100" spans="1:32">
       <c r="A100" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>95</v>
@@ -10638,19 +10693,19 @@
         <v>1</v>
       </c>
       <c r="E100" s="1">
-        <v>774</v>
+        <v>475</v>
       </c>
       <c r="F100" s="1">
-        <v>643</v>
+        <v>707</v>
       </c>
       <c r="G100" s="1">
-        <v>481</v>
+        <v>708</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>65</v>
@@ -10659,7 +10714,7 @@
         <v>65</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>68</v>
@@ -10667,58 +10722,28 @@
       <c r="N100" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O100" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q100" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S100" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T100" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U100" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W100" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y100" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC100" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
       <c r="AF100" s="1"/>
     </row>
     <row r="101" spans="1:32">
       <c r="A101" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>94</v>
@@ -10730,13 +10755,13 @@
         <v>1</v>
       </c>
       <c r="E101" s="1">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="F101" s="1">
-        <v>460</v>
+        <v>643</v>
       </c>
       <c r="G101" s="1">
-        <v>646</v>
+        <v>481</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>30</v>
@@ -10751,7 +10776,7 @@
         <v>65</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>68</v>
@@ -10810,10 +10835,10 @@
     </row>
     <row r="102" spans="1:32">
       <c r="A102" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>95</v>
@@ -10822,34 +10847,34 @@
         <v>1</v>
       </c>
       <c r="E102" s="1">
-        <v>456</v>
+        <v>792</v>
       </c>
       <c r="F102" s="1">
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="G102" s="1">
-        <v>780</v>
+        <v>646</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O102" s="1" t="s">
         <v>37</v>
@@ -10858,13 +10883,13 @@
         <v>38</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T102" s="1" t="s">
         <v>40</v>
@@ -10882,34 +10907,30 @@
         <v>42</v>
       </c>
       <c r="Y102" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC102" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD102" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE102" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
       <c r="AF102" s="1"/>
     </row>
     <row r="103" spans="1:32">
       <c r="A103" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>95</v>
@@ -10918,34 +10939,34 @@
         <v>1</v>
       </c>
       <c r="E103" s="1">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="F103" s="1">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="G103" s="1">
-        <v>660</v>
+        <v>780</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="O103" s="1" t="s">
         <v>37</v>
@@ -10954,13 +10975,13 @@
         <v>38</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T103" s="1" t="s">
         <v>40</v>
@@ -10978,30 +10999,34 @@
         <v>42</v>
       </c>
       <c r="Y103" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Z103" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AA103" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AB103" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD103" s="1"/>
-      <c r="AE103" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="AD103" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE103" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="AF103" s="1"/>
     </row>
     <row r="104" spans="1:32">
       <c r="A104" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>95</v>
@@ -11010,13 +11035,13 @@
         <v>1</v>
       </c>
       <c r="E104" s="1">
-        <v>534</v>
+        <v>486</v>
       </c>
       <c r="F104" s="1">
-        <v>704</v>
+        <v>640</v>
       </c>
       <c r="G104" s="1">
-        <v>726</v>
+        <v>660</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>30</v>
@@ -11031,7 +11056,7 @@
         <v>66</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>68</v>
@@ -11093,7 +11118,7 @@
         <v>276</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>95</v>
@@ -11102,28 +11127,28 @@
         <v>1</v>
       </c>
       <c r="E105" s="1">
-        <v>414</v>
+        <v>534</v>
       </c>
       <c r="F105" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G105" s="1">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>68</v>
@@ -11182,10 +11207,10 @@
     </row>
     <row r="106" spans="1:32">
       <c r="A106" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>95</v>
@@ -11194,19 +11219,19 @@
         <v>1</v>
       </c>
       <c r="E106" s="1">
-        <v>576</v>
+        <v>414</v>
       </c>
       <c r="F106" s="1">
-        <v>640</v>
+        <v>703</v>
       </c>
       <c r="G106" s="1">
-        <v>640</v>
+        <v>739</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>65</v>
@@ -11215,7 +11240,7 @@
         <v>65</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>68</v>
@@ -11274,10 +11299,10 @@
     </row>
     <row r="107" spans="1:32">
       <c r="A107" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>95</v>
@@ -11286,13 +11311,13 @@
         <v>1</v>
       </c>
       <c r="E107" s="1">
-        <v>634</v>
+        <v>576</v>
       </c>
       <c r="F107" s="1">
-        <v>704</v>
+        <v>640</v>
       </c>
       <c r="G107" s="1">
-        <v>704</v>
+        <v>640</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>30</v>
@@ -11307,7 +11332,7 @@
         <v>65</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>68</v>
@@ -11369,7 +11394,7 @@
         <v>282</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>95</v>
@@ -11378,28 +11403,28 @@
         <v>1</v>
       </c>
       <c r="E108" s="1">
-        <v>549</v>
+        <v>634</v>
       </c>
       <c r="F108" s="1">
-        <v>600</v>
+        <v>704</v>
       </c>
       <c r="G108" s="1">
-        <v>733</v>
+        <v>704</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>68</v>
@@ -11458,7 +11483,7 @@
     </row>
     <row r="109" spans="1:32">
       <c r="A109" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>98</v>
@@ -11470,19 +11495,19 @@
         <v>1</v>
       </c>
       <c r="E109" s="1">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="F109" s="1">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="G109" s="1">
-        <v>652</v>
+        <v>733</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>65</v>
@@ -11491,7 +11516,7 @@
         <v>32</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>68</v>
@@ -11550,7 +11575,7 @@
     </row>
     <row r="110" spans="1:32">
       <c r="A110" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>98</v>
@@ -11562,13 +11587,13 @@
         <v>1</v>
       </c>
       <c r="E110" s="1">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="F110" s="1">
-        <v>720</v>
+        <v>642</v>
       </c>
       <c r="G110" s="1">
-        <v>702</v>
+        <v>652</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>30</v>
@@ -11583,7 +11608,7 @@
         <v>32</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>68</v>
@@ -11645,7 +11670,7 @@
         <v>287</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>95</v>
@@ -11654,28 +11679,28 @@
         <v>1</v>
       </c>
       <c r="E111" s="1">
-        <v>814</v>
+        <v>650</v>
       </c>
       <c r="F111" s="1">
-        <v>415</v>
+        <v>720</v>
       </c>
       <c r="G111" s="1">
-        <v>639</v>
+        <v>702</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>68</v>
@@ -11734,10 +11759,10 @@
     </row>
     <row r="112" spans="1:32">
       <c r="A112" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>95</v>
@@ -11746,34 +11771,34 @@
         <v>1</v>
       </c>
       <c r="E112" s="1">
-        <v>600</v>
+        <v>814</v>
       </c>
       <c r="F112" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G112" s="1">
-        <v>854</v>
+        <v>639</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>37</v>
@@ -11782,13 +11807,13 @@
         <v>38</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T112" s="1" t="s">
         <v>40</v>
@@ -11826,10 +11851,10 @@
     </row>
     <row r="113" spans="1:32">
       <c r="A113" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>95</v>
@@ -11838,13 +11863,13 @@
         <v>1</v>
       </c>
       <c r="E113" s="1">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="F113" s="1">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="G113" s="1">
-        <v>940</v>
+        <v>854</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>30</v>
@@ -11859,7 +11884,7 @@
         <v>60</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>35</v>
@@ -11921,7 +11946,7 @@
         <v>293</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>95</v>
@@ -11930,34 +11955,34 @@
         <v>1</v>
       </c>
       <c r="E114" s="1">
-        <v>818</v>
+        <v>660</v>
       </c>
       <c r="F114" s="1">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="G114" s="1">
-        <v>629</v>
+        <v>940</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="O114" s="1" t="s">
         <v>37</v>
@@ -11966,13 +11991,13 @@
         <v>38</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R114" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T114" s="1" t="s">
         <v>40</v>
@@ -12010,10 +12035,10 @@
     </row>
     <row r="115" spans="1:32">
       <c r="A115" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>95</v>
@@ -12022,13 +12047,13 @@
         <v>1</v>
       </c>
       <c r="E115" s="1">
-        <v>900</v>
+        <v>818</v>
       </c>
       <c r="F115" s="1">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="G115" s="1">
-        <v>692</v>
+        <v>629</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>30</v>
@@ -12043,7 +12068,7 @@
         <v>32</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>68</v>
@@ -12105,7 +12130,7 @@
         <v>297</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>95</v>
@@ -12114,13 +12139,13 @@
         <v>1</v>
       </c>
       <c r="E116" s="1">
-        <v>715</v>
+        <v>900</v>
       </c>
       <c r="F116" s="1">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="G116" s="1">
-        <v>723</v>
+        <v>692</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>30</v>
@@ -12129,19 +12154,19 @@
         <v>50</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O116" s="1" t="s">
         <v>37</v>
@@ -12150,13 +12175,13 @@
         <v>38</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R116" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T116" s="1" t="s">
         <v>40</v>
@@ -12194,10 +12219,10 @@
     </row>
     <row r="117" spans="1:32">
       <c r="A117" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>95</v>
@@ -12206,13 +12231,13 @@
         <v>1</v>
       </c>
       <c r="E117" s="1">
-        <v>786</v>
+        <v>715</v>
       </c>
       <c r="F117" s="1">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="G117" s="1">
-        <v>795</v>
+        <v>723</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>30</v>
@@ -12227,7 +12252,7 @@
         <v>32</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>35</v>
@@ -12289,7 +12314,7 @@
         <v>300</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>95</v>
@@ -12298,13 +12323,13 @@
         <v>1</v>
       </c>
       <c r="E118" s="1">
-        <v>815</v>
+        <v>786</v>
       </c>
       <c r="F118" s="1">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="G118" s="1">
-        <v>616</v>
+        <v>795</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>30</v>
@@ -12313,19 +12338,19 @@
         <v>50</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="O118" s="1" t="s">
         <v>37</v>
@@ -12334,13 +12359,13 @@
         <v>38</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R118" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S118" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T118" s="1" t="s">
         <v>40</v>
@@ -12378,10 +12403,10 @@
     </row>
     <row r="119" spans="1:32">
       <c r="A119" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>95</v>
@@ -12390,13 +12415,13 @@
         <v>1</v>
       </c>
       <c r="E119" s="1">
-        <v>701</v>
+        <v>815</v>
       </c>
       <c r="F119" s="1">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="G119" s="1">
-        <v>728</v>
+        <v>616</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>30</v>
@@ -12405,19 +12430,19 @@
         <v>50</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O119" s="1" t="s">
         <v>37</v>
@@ -12426,16 +12451,16 @@
         <v>38</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R119" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S119" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T119" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U119" s="1" t="s">
         <v>40</v>
@@ -12470,10 +12495,10 @@
     </row>
     <row r="120" spans="1:32">
       <c r="A120" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>95</v>
@@ -12482,13 +12507,13 @@
         <v>1</v>
       </c>
       <c r="E120" s="1">
-        <v>771</v>
+        <v>701</v>
       </c>
       <c r="F120" s="1">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="G120" s="1">
-        <v>800</v>
+        <v>728</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>30</v>
@@ -12503,7 +12528,7 @@
         <v>60</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>53</v>
@@ -12565,7 +12590,7 @@
         <v>306</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>95</v>
@@ -12574,13 +12599,13 @@
         <v>1</v>
       </c>
       <c r="E121" s="1">
-        <v>707</v>
+        <v>771</v>
       </c>
       <c r="F121" s="1">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="G121" s="1">
-        <v>723</v>
+        <v>800</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>30</v>
@@ -12589,19 +12614,19 @@
         <v>50</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O121" s="1" t="s">
         <v>37</v>
@@ -12610,16 +12635,16 @@
         <v>38</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R121" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S121" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U121" s="1" t="s">
         <v>40</v>
@@ -12654,10 +12679,10 @@
     </row>
     <row r="122" spans="1:32">
       <c r="A122" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>95</v>
@@ -12666,13 +12691,13 @@
         <v>1</v>
       </c>
       <c r="E122" s="1">
-        <v>812</v>
+        <v>707</v>
       </c>
       <c r="F122" s="1">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="G122" s="1">
-        <v>630</v>
+        <v>723</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>30</v>
@@ -12681,19 +12706,19 @@
         <v>50</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="O122" s="1" t="s">
         <v>37</v>
@@ -12702,13 +12727,13 @@
         <v>38</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R122" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S122" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T122" s="1" t="s">
         <v>40</v>
@@ -12746,10 +12771,10 @@
     </row>
     <row r="123" spans="1:32">
       <c r="A123" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>95</v>
@@ -12758,13 +12783,13 @@
         <v>1</v>
       </c>
       <c r="E123" s="1">
-        <v>893</v>
+        <v>812</v>
       </c>
       <c r="F123" s="1">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="G123" s="1">
-        <v>693</v>
+        <v>630</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>30</v>
@@ -12779,7 +12804,7 @@
         <v>65</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>68</v>
@@ -12841,7 +12866,7 @@
         <v>312</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>101</v>
+        <v>308</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>95</v>
@@ -12850,13 +12875,13 @@
         <v>1</v>
       </c>
       <c r="E124" s="1">
-        <v>679</v>
+        <v>893</v>
       </c>
       <c r="F124" s="1">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="G124" s="1">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>30</v>
@@ -12865,19 +12890,19 @@
         <v>50</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O124" s="1" t="s">
         <v>37</v>
@@ -12886,13 +12911,13 @@
         <v>38</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R124" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S124" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T124" s="1" t="s">
         <v>40</v>
@@ -12930,7 +12955,7 @@
     </row>
     <row r="125" spans="1:32">
       <c r="A125" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>101</v>
@@ -12942,13 +12967,13 @@
         <v>1</v>
       </c>
       <c r="E125" s="1">
-        <v>747</v>
+        <v>679</v>
       </c>
       <c r="F125" s="1">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="G125" s="1">
-        <v>787</v>
+        <v>716</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>30</v>
@@ -12963,7 +12988,7 @@
         <v>33</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>35</v>
@@ -13034,34 +13059,34 @@
         <v>1</v>
       </c>
       <c r="E126" s="1">
-        <v>574</v>
+        <v>747</v>
       </c>
       <c r="F126" s="1">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="G126" s="1">
-        <v>814</v>
+        <v>787</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="O126" s="1" t="s">
         <v>37</v>
@@ -13076,10 +13101,10 @@
         <v>38</v>
       </c>
       <c r="S126" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U126" s="1" t="s">
         <v>40</v>
@@ -13114,7 +13139,7 @@
     </row>
     <row r="127" spans="1:32">
       <c r="A127" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>101</v>
@@ -13126,13 +13151,13 @@
         <v>1</v>
       </c>
       <c r="E127" s="1">
-        <v>631</v>
+        <v>574</v>
       </c>
       <c r="F127" s="1">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="G127" s="1">
-        <v>895</v>
+        <v>814</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>30</v>
@@ -13147,7 +13172,7 @@
         <v>33</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>53</v>
@@ -13209,7 +13234,7 @@
         <v>318</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>95</v>
@@ -13218,28 +13243,28 @@
         <v>1</v>
       </c>
       <c r="E128" s="1">
-        <v>410</v>
+        <v>631</v>
       </c>
       <c r="F128" s="1">
-        <v>645</v>
+        <v>455</v>
       </c>
       <c r="G128" s="1">
-        <v>700</v>
+        <v>895</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>53</v>
@@ -13278,34 +13303,30 @@
         <v>42</v>
       </c>
       <c r="Y128" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="Z128" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AA128" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AB128" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC128" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD128" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE128" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
       <c r="AF128" s="1"/>
     </row>
     <row r="129" spans="1:32">
       <c r="A129" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>95</v>
@@ -13314,13 +13335,13 @@
         <v>1</v>
       </c>
       <c r="E129" s="1">
-        <v>489</v>
+        <v>410</v>
       </c>
       <c r="F129" s="1">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="G129" s="1">
-        <v>631</v>
+        <v>700</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>49</v>
@@ -13329,19 +13350,19 @@
         <v>64</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>37</v>
@@ -13350,16 +13371,16 @@
         <v>38</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S129" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U129" s="1" t="s">
         <v>40</v>
@@ -13374,122 +13395,130 @@
         <v>42</v>
       </c>
       <c r="Y129" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Z129" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AA129" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AB129" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD129" s="1"/>
-      <c r="AE129" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="AD129" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE129" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="AF129" s="1"/>
     </row>
-    <row r="130" spans="1:32">
-      <c r="A130" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C130" s="1" t="s">
+    <row r="130" s="2" customFormat="1" spans="1:32">
+      <c r="A130" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D130" s="1">
-        <v>1</v>
-      </c>
-      <c r="E130" s="1">
-        <v>538</v>
-      </c>
-      <c r="F130" s="1">
-        <v>699</v>
-      </c>
-      <c r="G130" s="1">
-        <v>695</v>
-      </c>
-      <c r="H130" s="1" t="s">
+      <c r="D130" s="7">
+        <v>1</v>
+      </c>
+      <c r="E130" s="7">
+        <v>451</v>
+      </c>
+      <c r="F130" s="7">
+        <v>710</v>
+      </c>
+      <c r="G130" s="7">
+        <v>770</v>
+      </c>
+      <c r="H130" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="I130" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J130" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O130" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P130" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q130" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R130" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S130" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T130" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U130" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V130" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W130" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X130" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y130" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z130" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA130" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB130" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC130" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD130" s="1"/>
-      <c r="AE130" s="1"/>
-      <c r="AF130" s="1"/>
+      <c r="J130" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L130" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M130" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N130" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O130" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P130" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q130" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R130" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S130" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T130" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U130" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V130" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W130" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X130" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y130" s="7">
+        <v>540</v>
+      </c>
+      <c r="Z130" s="7">
+        <v>330</v>
+      </c>
+      <c r="AA130" s="7">
+        <v>585</v>
+      </c>
+      <c r="AB130" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC130" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD130" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE130" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF130" s="7"/>
     </row>
     <row r="131" spans="1:32">
       <c r="A131" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>95</v>
@@ -13498,13 +13527,13 @@
         <v>1</v>
       </c>
       <c r="E131" s="1">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="F131" s="1">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G131" s="1">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>49</v>
@@ -13519,7 +13548,7 @@
         <v>66</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>68</v>
@@ -13578,10 +13607,10 @@
     </row>
     <row r="132" spans="1:32">
       <c r="A132" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>95</v>
@@ -13590,13 +13619,13 @@
         <v>1</v>
       </c>
       <c r="E132" s="1">
-        <v>450</v>
+        <v>538</v>
       </c>
       <c r="F132" s="1">
-        <v>605</v>
+        <v>699</v>
       </c>
       <c r="G132" s="1">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>49</v>
@@ -13605,19 +13634,19 @@
         <v>64</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O132" s="1" t="s">
         <v>37</v>
@@ -13626,16 +13655,16 @@
         <v>38</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S132" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U132" s="1" t="s">
         <v>40</v>
@@ -13650,34 +13679,30 @@
         <v>42</v>
       </c>
       <c r="Y132" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="Z132" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AA132" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AB132" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD132" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE132" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AD132" s="1"/>
+      <c r="AE132" s="1"/>
       <c r="AF132" s="1"/>
     </row>
     <row r="133" spans="1:32">
       <c r="A133" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>95</v>
@@ -13686,13 +13711,13 @@
         <v>1</v>
       </c>
       <c r="E133" s="1">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="F133" s="1">
-        <v>559</v>
+        <v>640</v>
       </c>
       <c r="G133" s="1">
-        <v>688</v>
+        <v>643</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>49</v>
@@ -13704,10 +13729,10 @@
         <v>65</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>68</v>
@@ -13722,16 +13747,16 @@
         <v>38</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R133" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S133" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U133" s="1" t="s">
         <v>40</v>
@@ -13746,34 +13771,30 @@
         <v>42</v>
       </c>
       <c r="Y133" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="Z133" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AA133" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AB133" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD133" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE133" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AD133" s="1"/>
+      <c r="AE133" s="1"/>
       <c r="AF133" s="1"/>
     </row>
     <row r="134" spans="1:32">
       <c r="A134" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>95</v>
@@ -13782,28 +13803,28 @@
         <v>1</v>
       </c>
       <c r="E134" s="1">
-        <v>614</v>
+        <v>450</v>
       </c>
       <c r="F134" s="1">
-        <v>405</v>
+        <v>605</v>
       </c>
       <c r="G134" s="1">
-        <v>840</v>
+        <v>700</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>53</v>
@@ -13818,16 +13839,16 @@
         <v>38</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S134" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U134" s="1" t="s">
         <v>40</v>
@@ -13842,30 +13863,34 @@
         <v>42</v>
       </c>
       <c r="Y134" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Z134" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AA134" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AB134" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD134" s="1"/>
-      <c r="AE134" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="AD134" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE134" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="AF134" s="1"/>
     </row>
     <row r="135" spans="1:32">
       <c r="A135" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>95</v>
@@ -13874,34 +13899,34 @@
         <v>1</v>
       </c>
       <c r="E135" s="1">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="F135" s="1">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="G135" s="1">
-        <v>865</v>
+        <v>688</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J135" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K135" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K135" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="L135" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O135" s="1" t="s">
         <v>37</v>
@@ -13910,16 +13935,16 @@
         <v>38</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R135" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U135" s="1" t="s">
         <v>40</v>
@@ -13934,60 +13959,64 @@
         <v>42</v>
       </c>
       <c r="Y135" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Z135" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AA135" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AB135" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD135" s="1"/>
-      <c r="AE135" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="AD135" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE135" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="AF135" s="1"/>
     </row>
     <row r="136" spans="1:32">
       <c r="A136" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D136" s="1">
         <v>1</v>
       </c>
       <c r="E136" s="1">
-        <v>694</v>
+        <v>614</v>
       </c>
       <c r="F136" s="1">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="G136" s="1">
-        <v>739</v>
+        <v>840</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M136" s="1" t="s">
         <v>53</v>
@@ -14002,16 +14031,16 @@
         <v>38</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R136" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S136" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U136" s="1" t="s">
         <v>40</v>
@@ -14046,46 +14075,46 @@
     </row>
     <row r="137" spans="1:32">
       <c r="A137" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1">
+        <v>553</v>
+      </c>
+      <c r="F137" s="1">
+        <v>418</v>
+      </c>
+      <c r="G137" s="1">
+        <v>865</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L137" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D137" s="1">
-        <v>1</v>
-      </c>
-      <c r="E137" s="1">
-        <v>763</v>
-      </c>
-      <c r="F137" s="1">
-        <v>432</v>
-      </c>
-      <c r="G137" s="1">
-        <v>813</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="M137" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="O137" s="1" t="s">
         <v>37</v>
@@ -14094,16 +14123,16 @@
         <v>38</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R137" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U137" s="1" t="s">
         <v>40</v>
@@ -14138,10 +14167,10 @@
     </row>
     <row r="138" spans="1:32">
       <c r="A138" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>29</v>
@@ -14150,13 +14179,13 @@
         <v>1</v>
       </c>
       <c r="E138" s="1">
-        <v>797</v>
+        <v>694</v>
       </c>
       <c r="F138" s="1">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G138" s="1">
-        <v>637</v>
+        <v>739</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>49</v>
@@ -14165,19 +14194,19 @@
         <v>50</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="O138" s="1" t="s">
         <v>37</v>
@@ -14186,16 +14215,16 @@
         <v>38</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S138" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U138" s="1" t="s">
         <v>40</v>
@@ -14230,10 +14259,10 @@
     </row>
     <row r="139" spans="1:32">
       <c r="A139" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>29</v>
@@ -14242,13 +14271,13 @@
         <v>1</v>
       </c>
       <c r="E139" s="1">
-        <v>868</v>
+        <v>763</v>
       </c>
       <c r="F139" s="1">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G139" s="1">
-        <v>701</v>
+        <v>813</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>49</v>
@@ -14257,19 +14286,19 @@
         <v>50</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="O139" s="1" t="s">
         <v>37</v>
@@ -14278,16 +14307,16 @@
         <v>38</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S139" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U139" s="1" t="s">
         <v>40</v>
@@ -14322,10 +14351,10 @@
     </row>
     <row r="140" spans="1:32">
       <c r="A140" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>48</v>
+        <v>341</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>29</v>
@@ -14334,13 +14363,13 @@
         <v>1</v>
       </c>
       <c r="E140" s="1">
-        <v>677</v>
+        <v>797</v>
       </c>
       <c r="F140" s="1">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="G140" s="1">
-        <v>718</v>
+        <v>637</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>49</v>
@@ -14349,19 +14378,19 @@
         <v>50</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O140" s="1" t="s">
         <v>37</v>
@@ -14370,16 +14399,16 @@
         <v>38</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S140" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U140" s="1" t="s">
         <v>40</v>
@@ -14414,10 +14443,10 @@
     </row>
     <row r="141" spans="1:32">
       <c r="A141" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>48</v>
+        <v>341</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>29</v>
@@ -14426,13 +14455,13 @@
         <v>1</v>
       </c>
       <c r="E141" s="1">
-        <v>745</v>
+        <v>868</v>
       </c>
       <c r="F141" s="1">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="G141" s="1">
-        <v>790</v>
+        <v>701</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>49</v>
@@ -14441,19 +14470,19 @@
         <v>50</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>37</v>
@@ -14462,16 +14491,16 @@
         <v>38</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S141" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U141" s="1" t="s">
         <v>40</v>
@@ -14506,7 +14535,7 @@
     </row>
     <row r="142" spans="1:32">
       <c r="A142" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>48</v>
@@ -14518,13 +14547,13 @@
         <v>1</v>
       </c>
       <c r="E142" s="1">
-        <v>781</v>
+        <v>677</v>
       </c>
       <c r="F142" s="1">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="G142" s="1">
-        <v>622</v>
+        <v>718</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>49</v>
@@ -14539,7 +14568,7 @@
         <v>32</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>53</v>
@@ -14547,21 +14576,51 @@
       <c r="N142" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O142" s="1"/>
-      <c r="P142" s="1"/>
-      <c r="Q142" s="1"/>
-      <c r="R142" s="1"/>
-      <c r="S142" s="1"/>
-      <c r="T142" s="1"/>
-      <c r="U142" s="1"/>
-      <c r="V142" s="1"/>
-      <c r="W142" s="1"/>
-      <c r="X142" s="1"/>
-      <c r="Y142" s="1"/>
-      <c r="Z142" s="1"/>
-      <c r="AA142" s="1"/>
-      <c r="AB142" s="1"/>
-      <c r="AC142" s="1"/>
+      <c r="O142" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S142" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T142" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U142" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V142" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W142" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y142" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z142" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA142" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB142" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC142" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AD142" s="1"/>
       <c r="AE142" s="1"/>
       <c r="AF142" s="1"/>
@@ -14580,13 +14639,13 @@
         <v>1</v>
       </c>
       <c r="E143" s="1">
-        <v>854</v>
+        <v>745</v>
       </c>
       <c r="F143" s="1">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="G143" s="1">
-        <v>697</v>
+        <v>790</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>49</v>
@@ -14601,7 +14660,7 @@
         <v>32</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>53</v>
@@ -14609,21 +14668,51 @@
       <c r="N143" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O143" s="1"/>
-      <c r="P143" s="1"/>
-      <c r="Q143" s="1"/>
-      <c r="R143" s="1"/>
-      <c r="S143" s="1"/>
-      <c r="T143" s="1"/>
-      <c r="U143" s="1"/>
-      <c r="V143" s="1"/>
-      <c r="W143" s="1"/>
-      <c r="X143" s="1"/>
-      <c r="Y143" s="1"/>
-      <c r="Z143" s="1"/>
-      <c r="AA143" s="1"/>
-      <c r="AB143" s="1"/>
-      <c r="AC143" s="1"/>
+      <c r="O143" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R143" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S143" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T143" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U143" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V143" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W143" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X143" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y143" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z143" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA143" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB143" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC143" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AD143" s="1"/>
       <c r="AE143" s="1"/>
       <c r="AF143" s="1"/>
@@ -14633,7 +14722,7 @@
         <v>350</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>29</v>
@@ -14642,90 +14731,60 @@
         <v>1</v>
       </c>
       <c r="E144" s="1">
+        <v>781</v>
+      </c>
+      <c r="F144" s="1">
         <v>405</v>
       </c>
-      <c r="F144" s="1">
-        <v>673</v>
-      </c>
       <c r="G144" s="1">
-        <v>656</v>
+        <v>622</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O144" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P144" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q144" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S144" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T144" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U144" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V144" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W144" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y144" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB144" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC144" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
+      <c r="Y144" s="1"/>
+      <c r="Z144" s="1"/>
+      <c r="AA144" s="1"/>
+      <c r="AB144" s="1"/>
+      <c r="AC144" s="1"/>
       <c r="AD144" s="1"/>
       <c r="AE144" s="1"/>
       <c r="AF144" s="1"/>
     </row>
     <row r="145" spans="1:32">
       <c r="A145" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>29</v>
@@ -14734,87 +14793,57 @@
         <v>1</v>
       </c>
       <c r="E145" s="1">
-        <v>468</v>
+        <v>854</v>
       </c>
       <c r="F145" s="1">
-        <v>726</v>
+        <v>448</v>
       </c>
       <c r="G145" s="1">
-        <v>744</v>
+        <v>697</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O145" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P145" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q145" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S145" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T145" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U145" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V145" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W145" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y145" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z145" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA145" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB145" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC145" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
+      <c r="Y145" s="1"/>
+      <c r="Z145" s="1"/>
+      <c r="AA145" s="1"/>
+      <c r="AB145" s="1"/>
+      <c r="AC145" s="1"/>
       <c r="AD145" s="1"/>
       <c r="AE145" s="1"/>
       <c r="AF145" s="1"/>
     </row>
     <row r="146" spans="1:32">
       <c r="A146" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>63</v>
@@ -14826,19 +14855,19 @@
         <v>1</v>
       </c>
       <c r="E146" s="1">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="F146" s="1">
-        <v>770</v>
+        <v>673</v>
       </c>
       <c r="G146" s="1">
-        <v>570</v>
+        <v>656</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>65</v>
@@ -14847,7 +14876,7 @@
         <v>66</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>68</v>
@@ -14871,7 +14900,7 @@
         <v>39</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U146" s="1" t="s">
         <v>40</v>
@@ -14918,19 +14947,19 @@
         <v>1</v>
       </c>
       <c r="E147" s="1">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="F147" s="1">
-        <v>847</v>
+        <v>726</v>
       </c>
       <c r="G147" s="1">
-        <v>627</v>
+        <v>744</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>65</v>
@@ -14939,7 +14968,7 @@
         <v>66</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M147" s="1" t="s">
         <v>68</v>
@@ -14963,7 +14992,7 @@
         <v>39</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U147" s="1" t="s">
         <v>40</v>
@@ -15001,7 +15030,7 @@
         <v>355</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>29</v>
@@ -15010,34 +15039,34 @@
         <v>1</v>
       </c>
       <c r="E148" s="1">
-        <v>590</v>
+        <v>393</v>
       </c>
       <c r="F148" s="1">
-        <v>374</v>
+        <v>770</v>
       </c>
       <c r="G148" s="1">
-        <v>860</v>
+        <v>570</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O148" s="1" t="s">
         <v>37</v>
@@ -15046,16 +15075,16 @@
         <v>38</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U148" s="1" t="s">
         <v>40</v>
@@ -15090,10 +15119,10 @@
     </row>
     <row r="149" spans="1:32">
       <c r="A149" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>29</v>
@@ -15102,34 +15131,34 @@
         <v>1</v>
       </c>
       <c r="E149" s="1">
-        <v>619</v>
+        <v>433</v>
       </c>
       <c r="F149" s="1">
-        <v>409</v>
+        <v>847</v>
       </c>
       <c r="G149" s="1">
-        <v>796</v>
+        <v>627</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O149" s="1" t="s">
         <v>37</v>
@@ -15138,16 +15167,16 @@
         <v>38</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R149" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S149" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="U149" s="1" t="s">
         <v>40</v>
@@ -15182,7 +15211,7 @@
     </row>
     <row r="150" spans="1:32">
       <c r="A150" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>59</v>
@@ -15194,13 +15223,13 @@
         <v>1</v>
       </c>
       <c r="E150" s="1">
-        <v>681</v>
+        <v>590</v>
       </c>
       <c r="F150" s="1">
-        <v>450</v>
+        <v>374</v>
       </c>
       <c r="G150" s="1">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>30</v>
@@ -15209,7 +15238,7 @@
         <v>31</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K150" s="1" t="s">
         <v>60</v>
@@ -15218,10 +15247,10 @@
         <v>358</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="O150" s="1" t="s">
         <v>37</v>
@@ -15230,16 +15259,16 @@
         <v>38</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U150" s="1" t="s">
         <v>40</v>
@@ -15274,10 +15303,10 @@
     </row>
     <row r="151" spans="1:32">
       <c r="A151" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>29</v>
@@ -15286,13 +15315,13 @@
         <v>1</v>
       </c>
       <c r="E151" s="1">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F151" s="1">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="G151" s="1">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>30</v>
@@ -15304,10 +15333,10 @@
         <v>51</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>53</v>
@@ -15366,10 +15395,10 @@
     </row>
     <row r="152" spans="1:32">
       <c r="A152" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>29</v>
@@ -15378,13 +15407,13 @@
         <v>1</v>
       </c>
       <c r="E152" s="1">
-        <v>543</v>
+        <v>681</v>
       </c>
       <c r="F152" s="1">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="G152" s="1">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>30</v>
@@ -15393,19 +15422,19 @@
         <v>31</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O152" s="1" t="s">
         <v>37</v>
@@ -15414,16 +15443,16 @@
         <v>38</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R152" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U152" s="1" t="s">
         <v>40</v>
@@ -15458,7 +15487,7 @@
     </row>
     <row r="153" spans="1:32">
       <c r="A153" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>28</v>
@@ -15470,13 +15499,13 @@
         <v>1</v>
       </c>
       <c r="E153" s="1">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="F153" s="1">
-        <v>448</v>
+        <v>385</v>
       </c>
       <c r="G153" s="1">
-        <v>946</v>
+        <v>795</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>30</v>
@@ -15485,7 +15514,7 @@
         <v>31</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>33</v>
@@ -15494,10 +15523,10 @@
         <v>363</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O153" s="1" t="s">
         <v>37</v>
@@ -15506,16 +15535,16 @@
         <v>38</v>
       </c>
       <c r="Q153" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R153" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S153" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U153" s="1" t="s">
         <v>40</v>
@@ -15550,10 +15579,10 @@
     </row>
     <row r="154" spans="1:32">
       <c r="A154" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>366</v>
+        <v>28</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>29</v>
@@ -15562,34 +15591,34 @@
         <v>1</v>
       </c>
       <c r="E154" s="1">
-        <v>810</v>
+        <v>543</v>
       </c>
       <c r="F154" s="1">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="G154" s="1">
-        <v>638</v>
+        <v>860</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="O154" s="1" t="s">
         <v>37</v>
@@ -15598,16 +15627,16 @@
         <v>38</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R154" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="S154" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U154" s="1" t="s">
         <v>40</v>
@@ -15642,10 +15671,10 @@
     </row>
     <row r="155" spans="1:32">
       <c r="A155" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>366</v>
+        <v>28</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>29</v>
@@ -15654,28 +15683,28 @@
         <v>1</v>
       </c>
       <c r="E155" s="1">
-        <v>728</v>
+        <v>597</v>
       </c>
       <c r="F155" s="1">
-        <v>387</v>
+        <v>448</v>
       </c>
       <c r="G155" s="1">
-        <v>699</v>
+        <v>946</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>35</v>
@@ -15734,10 +15763,10 @@
     </row>
     <row r="156" spans="1:32">
       <c r="A156" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>29</v>
@@ -15746,13 +15775,13 @@
         <v>1</v>
       </c>
       <c r="E156" s="1">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="F156" s="1">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="G156" s="1">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>30</v>
@@ -15767,7 +15796,7 @@
         <v>32</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>53</v>
@@ -15826,10 +15855,10 @@
     </row>
     <row r="157" spans="1:32">
       <c r="A157" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>29</v>
@@ -15838,13 +15867,13 @@
         <v>1</v>
       </c>
       <c r="E157" s="1">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="F157" s="1">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="G157" s="1">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>30</v>
@@ -15859,7 +15888,7 @@
         <v>32</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>35</v>
@@ -15898,34 +15927,30 @@
         <v>42</v>
       </c>
       <c r="Y157" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="Z157" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AA157" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AB157" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC157" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD157" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE157" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AD157" s="1"/>
+      <c r="AE157" s="1"/>
       <c r="AF157" s="1"/>
     </row>
     <row r="158" spans="1:32">
       <c r="A158" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>29</v>
@@ -15934,13 +15959,13 @@
         <v>1</v>
       </c>
       <c r="E158" s="1">
-        <v>724</v>
+        <v>799</v>
       </c>
       <c r="F158" s="1">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G158" s="1">
-        <v>712</v>
+        <v>632</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>30</v>
@@ -15955,7 +15980,7 @@
         <v>32</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>53</v>
@@ -15963,31 +15988,61 @@
       <c r="N158" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
-      <c r="S158" s="1"/>
-      <c r="T158" s="1"/>
-      <c r="U158" s="1"/>
-      <c r="V158" s="1"/>
-      <c r="W158" s="1"/>
-      <c r="X158" s="1"/>
-      <c r="Y158" s="1"/>
-      <c r="Z158" s="1"/>
-      <c r="AA158" s="1"/>
-      <c r="AB158" s="1"/>
-      <c r="AC158" s="1"/>
+      <c r="O158" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T158" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V158" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W158" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X158" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y158" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z158" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA158" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB158" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC158" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AD158" s="1"/>
       <c r="AE158" s="1"/>
       <c r="AF158" s="1"/>
     </row>
     <row r="159" spans="1:32">
       <c r="A159" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>29</v>
@@ -15996,13 +16051,13 @@
         <v>1</v>
       </c>
       <c r="E159" s="1">
-        <v>830</v>
+        <v>724</v>
       </c>
       <c r="F159" s="1">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="G159" s="1">
-        <v>619</v>
+        <v>712</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>30</v>
@@ -16011,19 +16066,19 @@
         <v>50</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="O159" s="1" t="s">
         <v>37</v>
@@ -16032,16 +16087,16 @@
         <v>38</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R159" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="S159" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T159" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U159" s="1" t="s">
         <v>40</v>
@@ -16056,30 +16111,34 @@
         <v>42</v>
       </c>
       <c r="Y159" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Z159" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AA159" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AB159" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC159" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD159" s="1"/>
-      <c r="AE159" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="AD159" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE159" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="AF159" s="1"/>
     </row>
     <row r="160" spans="1:32">
       <c r="A160" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>29</v>
@@ -16088,13 +16147,13 @@
         <v>1</v>
       </c>
       <c r="E160" s="1">
-        <v>913</v>
+        <v>724</v>
       </c>
       <c r="F160" s="1">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="G160" s="1">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>30</v>
@@ -16117,61 +16176,31 @@
       <c r="N160" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O160" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P160" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q160" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R160" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S160" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T160" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U160" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V160" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W160" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X160" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y160" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z160" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA160" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB160" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC160" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+      <c r="V160" s="1"/>
+      <c r="W160" s="1"/>
+      <c r="X160" s="1"/>
+      <c r="Y160" s="1"/>
+      <c r="Z160" s="1"/>
+      <c r="AA160" s="1"/>
+      <c r="AB160" s="1"/>
+      <c r="AC160" s="1"/>
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
     </row>
     <row r="161" spans="1:32">
       <c r="A161" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>29</v>
@@ -16180,34 +16209,34 @@
         <v>1</v>
       </c>
       <c r="E161" s="1">
-        <v>388</v>
+        <v>830</v>
       </c>
       <c r="F161" s="1">
-        <v>767</v>
+        <v>361</v>
       </c>
       <c r="G161" s="1">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="O161" s="1" t="s">
         <v>37</v>
@@ -16216,16 +16245,16 @@
         <v>38</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R161" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S161" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T161" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U161" s="1" t="s">
         <v>40</v>
@@ -16260,10 +16289,10 @@
     </row>
     <row r="162" spans="1:32">
       <c r="A162" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>29</v>
@@ -16272,34 +16301,34 @@
         <v>1</v>
       </c>
       <c r="E162" s="1">
-        <v>393</v>
+        <v>913</v>
       </c>
       <c r="F162" s="1">
-        <v>665</v>
+        <v>397</v>
       </c>
       <c r="G162" s="1">
-        <v>713</v>
+        <v>680</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="O162" s="1" t="s">
         <v>37</v>
@@ -16308,16 +16337,16 @@
         <v>38</v>
       </c>
       <c r="Q162" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R162" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S162" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T162" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U162" s="1" t="s">
         <v>40</v>
@@ -16352,10 +16381,10 @@
     </row>
     <row r="163" spans="1:32">
       <c r="A163" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>29</v>
@@ -16364,13 +16393,13 @@
         <v>1</v>
       </c>
       <c r="E163" s="1">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="F163" s="1">
-        <v>731</v>
+        <v>767</v>
       </c>
       <c r="G163" s="1">
-        <v>784</v>
+        <v>616</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>30</v>
@@ -16444,10 +16473,10 @@
     </row>
     <row r="164" spans="1:32">
       <c r="A164" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>29</v>
@@ -16456,34 +16485,34 @@
         <v>1</v>
       </c>
       <c r="E164" s="1">
-        <v>815</v>
+        <v>393</v>
       </c>
       <c r="F164" s="1">
-        <v>462</v>
+        <v>665</v>
       </c>
       <c r="G164" s="1">
-        <v>528</v>
+        <v>713</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O164" s="1" t="s">
         <v>37</v>
@@ -16492,16 +16521,16 @@
         <v>38</v>
       </c>
       <c r="Q164" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R164" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S164" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T164" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U164" s="1" t="s">
         <v>40</v>
@@ -16516,34 +16545,30 @@
         <v>42</v>
       </c>
       <c r="Y164" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="Z164" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AA164" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AB164" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC164" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD164" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE164" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AD164" s="1"/>
+      <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
     </row>
     <row r="165" spans="1:32">
       <c r="A165" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>29</v>
@@ -16552,34 +16577,34 @@
         <v>1</v>
       </c>
       <c r="E165" s="1">
-        <v>897</v>
+        <v>432</v>
       </c>
       <c r="F165" s="1">
-        <v>508</v>
+        <v>731</v>
       </c>
       <c r="G165" s="1">
-        <v>581</v>
+        <v>784</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O165" s="1" t="s">
         <v>37</v>
@@ -16588,16 +16613,16 @@
         <v>38</v>
       </c>
       <c r="Q165" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R165" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S165" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T165" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U165" s="1" t="s">
         <v>40</v>
@@ -16612,34 +16637,30 @@
         <v>42</v>
       </c>
       <c r="Y165" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="Z165" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AA165" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AB165" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC165" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD165" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE165" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AD165" s="1"/>
+      <c r="AE165" s="1"/>
       <c r="AF165" s="1"/>
     </row>
     <row r="166" spans="1:32">
       <c r="A166" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>29</v>
@@ -16648,34 +16669,34 @@
         <v>1</v>
       </c>
       <c r="E166" s="1">
-        <v>518</v>
+        <v>815</v>
       </c>
       <c r="F166" s="1">
-        <v>517</v>
+        <v>462</v>
       </c>
       <c r="G166" s="1">
-        <v>840</v>
+        <v>528</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K166" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O166" s="1" t="s">
         <v>37</v>
@@ -16684,16 +16705,16 @@
         <v>38</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R166" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S166" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T166" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U166" s="1" t="s">
         <v>40</v>
@@ -16708,30 +16729,34 @@
         <v>42</v>
       </c>
       <c r="Y166" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Z166" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AA166" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AB166" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC166" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD166" s="1"/>
-      <c r="AE166" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="AD166" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE166" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="AF166" s="1"/>
     </row>
     <row r="167" spans="1:32">
       <c r="A167" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>29</v>
@@ -16740,34 +16765,34 @@
         <v>1</v>
       </c>
       <c r="E167" s="1">
-        <v>491</v>
+        <v>897</v>
       </c>
       <c r="F167" s="1">
-        <v>591</v>
+        <v>508</v>
       </c>
       <c r="G167" s="1">
-        <v>723</v>
+        <v>581</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K167" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O167" s="1" t="s">
         <v>37</v>
@@ -16776,16 +16801,16 @@
         <v>38</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R167" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S167" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T167" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U167" s="1" t="s">
         <v>40</v>
@@ -16800,30 +16825,34 @@
         <v>42</v>
       </c>
       <c r="Y167" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Z167" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AA167" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AB167" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC167" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD167" s="1"/>
-      <c r="AE167" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="AD167" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE167" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="AF167" s="1"/>
     </row>
     <row r="168" spans="1:32">
       <c r="A168" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>29</v>
@@ -16832,34 +16861,34 @@
         <v>1</v>
       </c>
       <c r="E168" s="1">
-        <v>388</v>
+        <v>518</v>
       </c>
       <c r="F168" s="1">
-        <v>703</v>
+        <v>517</v>
       </c>
       <c r="G168" s="1">
-        <v>707</v>
+        <v>840</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="O168" s="1" t="s">
         <v>37</v>
@@ -16868,13 +16897,13 @@
         <v>38</v>
       </c>
       <c r="Q168" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R168" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S168" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T168" s="1" t="s">
         <v>40</v>
@@ -16912,10 +16941,10 @@
     </row>
     <row r="169" spans="1:32">
       <c r="A169" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>29</v>
@@ -16924,19 +16953,19 @@
         <v>1</v>
       </c>
       <c r="E169" s="1">
-        <v>587</v>
+        <v>491</v>
       </c>
       <c r="F169" s="1">
-        <v>352</v>
+        <v>591</v>
       </c>
       <c r="G169" s="1">
-        <v>840</v>
+        <v>723</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>32</v>
@@ -16945,7 +16974,7 @@
         <v>32</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>35</v>
@@ -16960,16 +16989,16 @@
         <v>38</v>
       </c>
       <c r="Q169" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R169" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="S169" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U169" s="1" t="s">
         <v>40</v>
@@ -16981,67 +17010,63 @@
         <v>39</v>
       </c>
       <c r="X169" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Y169" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="Z169" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AA169" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AB169" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC169" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD169" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE169" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AD169" s="1"/>
+      <c r="AE169" s="1"/>
       <c r="AF169" s="1"/>
     </row>
-    <row r="170" s="2" customFormat="1" spans="1:31">
-      <c r="A170" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C170" s="6" t="s">
+    <row r="170" spans="1:32">
+      <c r="A170" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D170" s="6">
-        <v>1</v>
-      </c>
-      <c r="E170" s="6">
-        <v>443</v>
-      </c>
-      <c r="F170" s="6">
-        <v>623</v>
-      </c>
-      <c r="G170" s="6">
-        <v>732</v>
-      </c>
-      <c r="H170" s="6" t="s">
-        <v>49</v>
+      <c r="D170" s="1">
+        <v>1</v>
+      </c>
+      <c r="E170" s="1">
+        <v>388</v>
+      </c>
+      <c r="F170" s="1">
+        <v>703</v>
+      </c>
+      <c r="G170" s="1">
+        <v>707</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J170" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J170" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K170" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L170" s="6" t="s">
-        <v>404</v>
+      <c r="K170" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>53</v>
@@ -17056,13 +17081,13 @@
         <v>38</v>
       </c>
       <c r="Q170" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R170" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S170" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T170" s="1" t="s">
         <v>40</v>
@@ -17074,64 +17099,252 @@
         <v>41</v>
       </c>
       <c r="W170" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X170" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y170" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z170" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA170" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB170" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC170" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD170" s="1"/>
+      <c r="AE170" s="1"/>
+      <c r="AF170" s="1"/>
+    </row>
+    <row r="171" spans="1:32">
+      <c r="A171" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" s="1">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1">
+        <v>587</v>
+      </c>
+      <c r="F171" s="1">
+        <v>352</v>
+      </c>
+      <c r="G171" s="1">
+        <v>840</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V171" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W171" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X171" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y171" s="1">
         <v>540</v>
       </c>
-      <c r="Z170" s="1">
+      <c r="Z171" s="1">
         <v>330</v>
       </c>
-      <c r="AA170" s="1">
+      <c r="AA171" s="1">
         <v>585</v>
       </c>
-      <c r="AB170" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC170" s="1" t="s">
+      <c r="AB171" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC171" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AD170" s="1" t="s">
+      <c r="AD171" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE171" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF171" s="1"/>
+    </row>
+    <row r="172" s="3" customFormat="1" spans="1:31">
+      <c r="A172" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172" s="3">
+        <v>1</v>
+      </c>
+      <c r="E172" s="3">
+        <v>443</v>
+      </c>
+      <c r="F172" s="3">
+        <v>623</v>
+      </c>
+      <c r="G172" s="3">
+        <v>732</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T172" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U172" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V172" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W172" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X172" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y172" s="1">
+        <v>540</v>
+      </c>
+      <c r="Z172" s="1">
+        <v>330</v>
+      </c>
+      <c r="AA172" s="1">
+        <v>585</v>
+      </c>
+      <c r="AB172" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC172" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD172" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AE170" s="1" t="s">
+      <c r="AE172" s="1" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 H1 I1 J1 K1 M1 N1 O1 P1 Q1 R1 S1 T1 U1 V1 W1 X1 AB1 AC1 AD1:AF1 L11 B14 L14 L19 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L133 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 B1:B13 B15:B1048576 L1:L10 L12:L13 L15:L18 L20:L22 L131:L132 L134:L135 L166:L169"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD10 AE10 AF10 AD11 AE11 AF11 AD14 AE14 AF14 AD35 AE35 AD51 AE51 AD71 AE71 AD87 AE87 AF87 AD91 AE91 AD95 AE95 AD96 AE96 AF96 AD102 AE102 AD128 AE128 AD132 AE132 AD133 AE133 AF133 AD157 AE157 AD164 AE164 AD165 AE165 AF165 AD169 AE169 AD170 AE170 AD2:AD9 AD12:AD13 AD15:AD34 AD36:AD50 AD52:AD70 AD72:AD86 AD88:AD90 AD92:AD94 AD97:AD101 AD103:AD127 AD129:AD131 AD134:AD156 AD158:AD163 AD166:AD168 AE2:AE9 AE12:AE13 AE15:AE34 AE36:AE50 AE52:AE70 AE72:AE86 AE88:AE90 AE92:AE94 AE97:AE101 AE103:AE127 AE129:AE131 AE134:AE156 AE158:AE163 AE166:AE168 AF2:AF9 AF12:AF13 AF15:AF86 AF88:AF95 AF97:AF132 AF134:AF164 AF166:AF169">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11 P11 Q11 R11 S11 T11 U11 V11 W11 X11 O14 P14 Q14 R14 S14 T14 U14 V14 W14 X14 O15 P15 Q15 R15 S15 T15 U15 V15 W15 X15 O16 P16 Q16 R16 S16 T16 U16 V16 W16 X16 O17 P17 Q17 R17 S17 T17 U17 V17 W17 X17 O18 P18 Q18 R18 S18 T18 U18 V18 W18 X18 O19 P19 Q19 R19 S19 T19 U19 V19 W19 X19 O22 P22 Q22 R22 S22 T22 U22 V22 W22 X22 O23 P23 Q23 R23 S23 T23 U23 V23 W23 X23 O24 P24 Q24 R24 S24 T24 U24 V24 W24 X24 O25 P25 Q25 R25 S25 T25 U25 V25 W25 X25 O26 P26 Q26 R26 S26 T26 U26 V26 W26 X26 O27 P27 Q27 R27 S27 T27 U27 V27 W27 X27 O28 P28 Q28 R28 S28 T28 U28 V28 W28 X28 O29 P29 Q29 R29 S29 T29 U29 V29 W29 X29 O30 P30 Q30 R30 S30 T30 U30 V30 W30 X30 O31 P31 Q31 R31 S31 T31 U31 V31 W31 X31 O32 P32 Q32 R32 S32 T32 U32 V32 W32 X32 O33 P33 Q33 R33 S33 T33 U33 V33 W33 X33 O34 P34 Q34 R34 S34 T34 U34 V34 W34 X34 O35 P35 Q35 R35 S35 T35 U35 V35 W35 X35 O36 P36 Q36 R36 S36 T36 U36 V36 W36 X36 O37 P37 Q37 R37 S37 T37 U37 V37 W37 X37 O38 P38 Q38 R38 S38 T38 U38 V38 W38 X38 O39 P39 Q39 R39 S39 T39 U39 V39 W39 X39 O40 P40 Q40 R40 S40 T40 U40 V40 W40 X40 O41 P41 Q41 R41 S41 T41 U41 V41 W41 X41 O42 P42 Q42 R42 S42 T42 U42 V42 W42 X42 O43 P43 Q43 R43 S43 T43 U43 V43 W43 X43 O44 P44 Q44 R44 S44 T44 U44 V44 W44 X44 O45 P45 Q45 R45 S45 T45 U45 V45 W45 X45 O46 P46 Q46 R46 S46 T46 U46 V46 W46 X46 O47 P47 Q47 R47 S47 T47 U47 V47 W47 X47 O48 P48 Q48 R48 S48 T48 U48 V48 W48 X48 O49 P49 Q49 R49 S49 T49 U49 V49 W49 X49 O50 P50 Q50 R50 S50 T50 U50 V50 W50 X50 O51 P51 Q51 R51 S51 T51 U51 V51 W51 X51 O52 P52 Q52 R52 S52 T52 U52 V52 W52 X52 O53 P53 Q53 R53 S53 T53 U53 V53 W53 X53 O54 P54 Q54 R54 S54 T54 U54 V54 W54 X54 O55 P55 Q55 R55 S55 T55 U55 V55 W55 X55 O56 P56 Q56 R56 S56 T56 U56 V56 W56 X56 O57 P57 Q57 R57 S57 T57 U57 V57 W57 X57 O58 P58 Q58 R58 S58 T58 U58 V58 W58 X58 O59 P59 Q59 R59 S59 T59 U59 V59 W59 X59 O60 P60 Q60 R60 S60 T60 U60 V60 W60 X60 O61 P61 Q61 R61 S61 T61 U61 V61 W61 X61 O62 P62 Q62 R62 S62 T62 U62 V62 W62 X62 O63 P63 Q63 R63 S63 T63 U63 V63 W63 X63 O64 P64 Q64 R64 S64 T64 U64 V64 W64 X64 O65 P65 Q65 R65 S65 T65 U65 V65 W65 X65 O66 P66 Q66 R66 S66 T66 U66 V66 W66 X66 O67 P67 Q67 R67 S67 T67 U67 V67 W67 X67 O68 P68 Q68 R68 S68 T68 U68 V68 W68 X68 O69 P69 Q69 R69 S69 T69 U69 V69 W69 X69 O70 P70 Q70 R70 S70 T70 U70 V70 W70 X70 O71 P71 Q71 R71 S71 T71 U71 V71 W71 X71 O72 P72 Q72 R72 S72 T72 U72 V72 W72 X72 O73 P73 Q73 R73 S73 T73 U73 V73 W73 X73 O74 P74 Q74 R74 S74 T74 U74 V74 W74 X74 O75 P75 Q75 R75 S75 T75 U75 V75 W75 X75 O76 P76 Q76 R76 S76 T76 U76 V76 W76 X76 O77 P77 Q77 R77 S77 T77 U77 V77 W77 X77 O78 P78 Q78 R78 S78 T78 U78 V78 W78 X78 O79 P79 Q79 R79 S79 T79 U79 V79 W79 X79 O80 P80 Q80 R80 S80 T80 U80 V80 W80 X80 O81 P81 Q81 R81 S81 T81 U81 V81 W81 X81 O82 P82 Q82 R82 S82 T82 U82 V82 W82 X82 O83 P83 Q83 R83 S83 T83 U83 V83 W83 X83 O84 P84 Q84 R84 S84 T84 U84 V84 W84 X84 O85 P85 Q85 R85 S85 T85 U85 V85 W85 X85 O86 P86 Q86 R86 S86 T86 U86 V86 W86 X86 O87 P87 Q87 R87 S87 T87 U87 V87 W87 X87 O88 P88 Q88 R88 S88 T88 U88 V88 W88 X88 O89 P89 Q89 R89 S89 T89 U89 V89 W89 X89 O90 P90 Q90 R90 S90 T90 U90 V90 W90 X90 O91 P91 Q91 R91 S91 T91 U91 V91 W91 X91 O92 P92 Q92 R92 S92 T92 U92 V92 W92 X92 O93 P93 Q93 R93 S93 T93 U93 V93 W93 X93 O94 P94 Q94 R94 S94 T94 U94 V94 W94 X94 O95 P95 Q95 R95 S95 T95 U95 V95 W95 X95 O96 P96 Q96 R96 S96 T96 U96 V96 W96 X96 O97 P97 Q97 R97 S97 T97 U97 V97 W97 X97 O98 P98 Q98 R98 S98 T98 U98 V98 W98 X98 O99 P99 Q99 R99 S99 T99 U99 V99 W99 X99 O100 P100 Q100 R100 S100 T100 U100 V100 W100 X100 O101 P101 Q101 R101 S101 T101 U101 V101 W101 X101 O102 P102 Q102 R102 S102 T102 U102 V102 W102 X102 O103 P103 Q103 R103 S103 T103 U103 V103 W103 X103 O104 P104 Q104 R104 S104 T104 U104 V104 W104 X104 O105 P105 Q105 R105 S105 T105 U105 V105 W105 X105 O106 P106 Q106 R106 S106 T106 U106 V106 W106 X106 O107 P107 Q107 R107 S107 T107 U107 V107 W107 X107 O108 P108 Q108 R108 S108 T108 U108 V108 W108 X108 O109 P109 Q109 R109 S109 T109 U109 V109 W109 X109 O110 P110 Q110 R110 S110 T110 U110 V110 W110 X110 O111 P111 Q111 R111 S111 T111 U111 V111 W111 X111 O112 P112 Q112 R112 S112 T112 U112 V112 W112 X112 O113 P113 Q113 R113 S113 T113 U113 V113 W113 X113 O114 P114 Q114 R114 S114 T114 U114 V114 W114 X114 O115 P115 Q115 R115 S115 T115 U115 V115 W115 X115 O116 P116 Q116 R116 S116 T116 U116 V116 W116 X116 O117 P117 Q117 R117 S117 T117 U117 V117 W117 X117 O118 P118 Q118 R118 S118 T118 U118 V118 W118 X118 O119 P119 Q119 R119 S119 T119 U119 V119 W119 X119 O120 P120 Q120 R120 S120 T120 U120 V120 W120 X120 O121 P121 Q121 R121 S121 T121 U121 V121 W121 X121 O122 P122 Q122 R122 S122 T122 U122 V122 W122 X122 O123 P123 Q123 R123 S123 T123 U123 V123 W123 X123 O124 P124 Q124 R124 S124 T124 U124 V124 W124 X124 O125 P125 Q125 R125 S125 T125 U125 V125 W125 X125 O126 P126 Q126 R126 S126 T126 U126 V126 W126 X126 O127 P127 Q127 R127 S127 T127 U127 V127 W127 X127 O128 P128 Q128 R128 S128 T128 U128 V128 W128 X128 O129 P129 Q129 R129 S129 T129 U129 V129 W129 X129 O130 P130 Q130 R130 S130 T130 U130 V130 W130 X130 O131 P131 Q131 R131 S131 T131 U131 V131 W131 X131 O132 P132 Q132 R132 S132 T132 U132 V132 W132 X132 O133 P133 Q133 R133 S133 T133 U133 V133 W133 X133 O134 P134 Q134 R134 S134 T134 U134 V134 W134 X134 O135 P135 Q135 R135 S135 T135 U135 V135 W135 X135 O136 P136 Q136 R136 S136 T136 U136 V136 W136 X136 O137 P137 Q137 R137 S137 T137 U137 V137 W137 X137 O138 P138 Q138 R138 S138 T138 U138 V138 W138 X138 O139 P139 Q139 R139 S139 T139 U139 V139 W139 X139 O140 P140 Q140 R140 S140 T140 U140 V140 W140 X140 O141 P141 Q141 R141 S141 T141 U141 V141 W141 X141 O142 P142 Q142 R142 S142 T142 U142 V142 W142 X142 O143 P143 Q143 R143 S143 T143 U143 V143 W143 X143 O146 P146 Q146 R146 S146 T146 U146 V146 W146 X146 O147 P147 Q147 R147 S147 T147 U147 V147 W147 X147 O148 P148 Q148 R148 S148 T148 U148 V148 W148 X148 O149 P149 Q149 R149 S149 T149 U149 V149 W149 X149 O150 P150 Q150 R150 S150 T150 U150 V150 W150 X150 O151 P151 Q151 R151 S151 T151 U151 V151 W151 X151 O152 P152 Q152 R152 S152 T152 U152 V152 W152 X152 O153 P153 Q153 R153 S153 T153 U153 V153 W153 X153 O154 P154 Q154 R154 S154 T154 U154 V154 W154 X154 O155 P155 Q155 R155 S155 T155 U155 V155 W155 X155 O156 P156 Q156 R156 S156 T156 U156 V156 W156 X156 O157 P157 Q157 R157 S157 T157 U157 V157 W157 X157 O158 P158 Q158 R158 S158 T158 U158 V158 W158 X158 O159 P159 Q159 R159 S159 T159 U159 V159 W159 X159 O160 P160 Q160 R160 S160 T160 U160 V160 W160 X160 O161 P161 Q161 R161 S161 T161 U161 V161 W161 X161 O162 P162 Q162 R162 S162 T162 U162 V162 W162 X162 O163 P163 Q163 R163 S163 T163 U163 V163 W163 X163 O164 P164 Q164 R164 S164 T164 U164 V164 W164 X164 O165 P165 Q165 R165 S165 T165 U165 V165 W165 X165 O166 P166 Q166 R166 S166 T166 U166 V166 W166 X166 O167 P167 Q167 R167 S167 T167 U167 V167 W167 X167 O168 P168 Q168 R168 S168 T168 U168 V168 W168 X168 O169 P169 Q169 R169 S169 T169 U169 V169 W169 X169 O170 P170 Q170 R170 S170 T170 U170 V170 W170 X170 O171 P171 Q171 R171 S171 T171 U171 V171 W171 X171 O172 P172 Q172 R172 S172 T172 U172 V172 W172 X172 O2:O10 O12:O13 O20:O21 O144:O145 P2:P10 P12:P13 P20:P21 P144:P145 Q2:Q10 Q12:Q13 Q20:Q21 Q144:Q145 R2:R10 R12:R13 R20:R21 R144:R145 S2:S10 S12:S13 S20:S21 S144:S145 T2:T10 T12:T13 T20:T21 T144:T145 U2:U10 U12:U13 U20:U21 U144:U145 V2:V10 V12:V13 V20:V21 V144:V145 W2:W10 W12:W13 W20:W21 W144:W145 X2:X10 X12:X13 X20:X21 X144:X145">
+      <formula1>"武锋,三疑,兵道,军略,金鼓,文伐"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11 J14 J19 J23 J24 J25 J26 J27 J28 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69 J70 J71 J72 J73 J74 J75 J76 J77 J78 J79 J80 J81 J82 J83 J84 J85 J86 J87 J88 J89 J90 J91 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J126 J127 J128 J129 J130 J131 J132 J135 J141 J142 J143 J144 J145 J146 J147 J148 J149 J150 J151 J152 J153 J156 J157 J158 J159 J160 J161 J162 J163 J164 J165 J166 J167 J2:J10 J12:J13 J15:J18 J20:J22 J29:J30 J44:J45 J123:J125 J133:J134 J136:J137 J138:J140 J154:J155 J168:J171">
+      <formula1>"枪,弓,骑"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD10 AE10 AF10 AD11 AE11 AF11 AD14 AE14 AF14 AD35 AE35 AD51 AE51 AD52 AE52 AF52 AD72 AE72 AD88 AE88 AF88 AD92 AE92 AD96 AE96 AD97 AE97 AF97 AD103 AE103 AD129 AE129 AD130 AE130 AF130 AD134 AE134 AD135 AE135 AF135 AD159 AE159 AD166 AE166 AD167 AE167 AF167 AD171 AE171 AD172 AE172 AD2:AD9 AD12:AD13 AD15:AD34 AD36:AD50 AD53:AD71 AD73:AD87 AD89:AD91 AD93:AD95 AD98:AD102 AD104:AD128 AD131:AD133 AD136:AD158 AD160:AD165 AD168:AD170 AE2:AE9 AE12:AE13 AE15:AE34 AE36:AE50 AE53:AE71 AE73:AE87 AE89:AE91 AE93:AE95 AE98:AE102 AE104:AE128 AE131:AE133 AE136:AE158 AE160:AE165 AE168:AE170 AF2:AF9 AF12:AF13 AF15:AF51 AF53:AF87 AF89:AF96 AF98:AF129 AF131:AF134 AF136:AF166 AF168:AF171">
       <formula1>"天机之钥,天相之圭,太阴之精,太阳之焰,贪狼之爪,廉贞之锋,七杀之气,破军之血"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11 I14 I19 I23 I24 I25 I26 I27 I28 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I125 I126 I127 I128 I129 I130 I133 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I170 I2:I10 I12:I13 I15:I18 I20:I22 I29:I30 I44:I45 I122:I124 I131:I132 I134:I135 I136:I138 I152:I153 I166:I169">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 H1 I1 J1 K1 M1 N1 O1 P1 Q1 R1 S1 T1 U1 V1 W1 X1 AB1 AC1 AD1:AF1 L11 B14 L14 L19 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 B52 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 B130 L130 L131 L132 L135 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 B1:B13 B15:B51 B53:B129 B131:B1048576 L1:L10 L12:L13 L15:L18 L20:L22 L133:L134 L136:L137 L168:L171"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H14 H19 H23 H24 H25 H26 H27 H28 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101 H102 H103 H104 H105 H106 H107 H108 H109 H110 H111 H112 H113 H114 H115 H116 H117 H118 H119 H120 H121 H122 H126 H127 H128 H129 H130 H131 H132 H135 H141 H142 H143 H146 H147 H148 H149 H150 H151 H152 H153 H156 H157 H158 H159 H160 H161 H162 H163 H167 H2:H10 H12:H13 H15:H18 H20:H22 H29:H30 H44:H45 H123:H125 H133:H134 H136:H137 H138:H140 H144:H145 H154:H155 H164:H166 H168:H171">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C14 C19 C24 C25 C26 C27 C28 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C112 C113 C114 C115 C116 C117 C118 C119 C122 C123 C130 C135 C163 C167 C2:C10 C12:C13 C15:C18 C20:C23 C29:C30 C108:C111 C120:C121 C124:C129 C131:C134 C136:C137 C138:C140 C141:C144 C145:C148 C149:C151 C152:C162 C164:C166 C168:C171">
+      <formula1>"魏,蜀,吴,群"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 N11 M14 N14 M19 N19 M22 N22 M23 N23 M24 N24 M25 N25 M26 N26 M27 N27 M28 N28 M31 N31 M32 N32 M33 N33 M34 N34 M35 N35 M36 N36 M37 N37 M38 N38 M39 N39 M40 N40 M41 N41 M42 N42 M43 N43 M44 N44 M45 N45 M46 N46 M47 N47 M48 N48 M49 N49 M50 N50 M51 N51 M52 N52 M53 N53 M54 N54 M55 N55 M56 N56 M57 N57 M58 N58 M59 N59 M60 N60 M61 N61 M62 N62 M63 N63 M64 N64 M65 N65 M66 N66 M67 N67 M68 N68 M69 N69 M70 N70 M71 N71 M72 N72 M73 N73 M74 N74 M75 N75 M76 N76 M77 N77 M78 N78 M79 N79 M80 N80 M81 N81 M82 N82 M83 N83 M84 N84 M85 N85 M86 N86 M87 N87 M88 N88 M89 N89 M90 N90 M91 N91 M92 N92 M93 N93 M94 N94 M95 N95 M96 N96 M97 N97 M98 N98 M99 N99 M100 N100 M101 N101 M102 N102 M103 N103 M104 N104 M105 N105 M106 N106 M107 N107 M108 N108 M109 N109 M110 N110 M111 N111 M112 N112 M113 N113 M114 N114 M115 N115 M116 N116 M117 N117 M118 N118 M119 N119 M120 N120 M121 N121 M122 N122 M123 N123 M124 N124 M125 N125 M126 N126 M129 N129 M130 N130 M131 N131 M132 N132 M135 N135 M138 N138 M139 N139 M140 N140 M141 N141 M142 N142 M143 N143 M144 N144 M145 N145 M146 N146 M147 N147 M148 N148 M149 N149 M150 N150 M151 N151 M152 N152 M153 N153 M154 N154 M155 N155 M156 N156 M157 N157 M158 N158 M159 N159 M160 N160 M161 N161 M162 N162 M163 N163 M164 N164 M165 N165 M166 N166 M167 N167 M168 N168 M169 N169 M170 N170 M171 N171 M172 N172 M2:M10 M12:M13 M15:M18 M20:M21 M29:M30 M127:M128 M133:M134 M136:M137 N2:N10 N12:N13 N15:N18 N20:N21 N29:N30 N127:N128 N133:N134 N136:N137">
+      <formula1>"盾枪兵,长戟兵,重骑兵,骠骑兵,火矢兵,连弩兵"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11 I14 I19 I23 I24 I25 I26 I27 I28 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I126 I127 I128 I129 I130 I131 I132 I135 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I172 I2:I10 I12:I13 I15:I18 I20:I22 I29:I30 I44:I45 I123:I125 I133:I134 I136:I137 I138:I140 I154:I155 I168:I171">
       <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C14 C19 C24 C25 C26 C27 C28 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C111 C112 C113 C114 C115 C116 C117 C118 C121 C122 C133 C161 C165 C2:C10 C12:C13 C15:C18 C20:C23 C29:C30 C107:C110 C119:C120 C123:C132 C134:C135 C136:C138 C139:C142 C143:C146 C147:C149 C150:C160 C162:C164 C166:C169">
-      <formula1>"魏,蜀,吴,群"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H14 H19 H23 H24 H25 H26 H27 H28 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101 H102 H103 H104 H105 H106 H107 H108 H109 H110 H111 H112 H113 H114 H115 H116 H117 H118 H119 H120 H121 H125 H126 H127 H128 H129 H130 H133 H139 H140 H141 H144 H145 H146 H147 H148 H149 H150 H151 H154 H155 H156 H157 H158 H159 H160 H161 H165 H2:H10 H12:H13 H15:H18 H20:H22 H29:H30 H44:H45 H122:H124 H131:H132 H134:H135 H136:H138 H142:H143 H152:H153 H162:H164 H166:H169">
-      <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11 J14 J19 J23 J24 J25 J26 J27 J28 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69 J70 J71 J72 J73 J74 J75 J76 J77 J78 J79 J80 J81 J82 J83 J84 J85 J86 J87 J88 J89 J90 J91 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J125 J126 J127 J128 J129 J130 J133 J139 J140 J141 J142 J143 J144 J145 J146 J147 J148 J149 J150 J151 J154 J155 J156 J157 J158 J159 J160 J161 J162 J163 J164 J165 J2:J10 J12:J13 J15:J18 J20:J22 J29:J30 J44:J45 J122:J124 J131:J132 J134:J135 J136:J138 J152:J153 J166:J169">
-      <formula1>"枪,弓,骑"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11 K14 K19 K23 K24 K25 K26 K27 K28 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K59 K60 K61 K62 K63 K64 K65 K66 K67 K68 K69 K70 K71 K72 K73 K74 K75 K76 K77 K78 K79 K80 K81 K82 K83 K84 K85 K86 K87 K88 K89 K90 K91 K92 K93 K94 K95 K96 K97 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K125 K126 K127 K128 K129 K130 K133 K144 K154 K155 K156 K157 K158 K159 K160 K161 K162 K163 K164 K165 K2:K10 K12:K13 K15:K18 K20:K22 K29:K30 K44:K45 K122:K124 K131:K132 K134:K135 K136:K139 K140:K143 K145:K147 K148:K150 K151:K153 K166:K169">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11 K14 K19 K23 K24 K25 K26 K27 K28 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K59 K60 K61 K62 K63 K64 K65 K66 K67 K68 K69 K70 K71 K72 K73 K74 K75 K76 K77 K78 K79 K80 K81 K82 K83 K84 K85 K86 K87 K88 K89 K90 K91 K92 K93 K94 K95 K96 K97 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K122 K126 K127 K128 K129 K130 K131 K132 K135 K146 K156 K157 K158 K159 K160 K161 K162 K163 K164 K165 K166 K167 K2:K10 K12:K13 K15:K18 K20:K22 K29:K30 K44:K45 K123:K125 K133:K134 K136:K137 K138:K141 K142:K145 K147:K149 K150:K152 K153:K155 K168:K171">
       <formula1>"刀,剑,枪,弓,扇"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 N11 M14 N14 M19 N19 M22 N22 M23 N23 M24 N24 M25 N25 M26 N26 M27 N27 M28 N28 M31 N31 M32 N32 M33 N33 M34 N34 M35 N35 M36 N36 M37 N37 M38 N38 M39 N39 M40 N40 M41 N41 M42 N42 M43 N43 M44 N44 M45 N45 M46 N46 M47 N47 M48 N48 M49 N49 M50 N50 M51 N51 M52 N52 M53 N53 M54 N54 M55 N55 M56 N56 M57 N57 M58 N58 M59 N59 M60 N60 M61 N61 M62 N62 M63 N63 M64 N64 M65 N65 M66 N66 M67 N67 M68 N68 M69 N69 M70 N70 M71 N71 M72 N72 M73 N73 M74 N74 M75 N75 M76 N76 M77 N77 M78 N78 M79 N79 M80 N80 M81 N81 M82 N82 M83 N83 M84 N84 M85 N85 M86 N86 M87 N87 M88 N88 M89 N89 M90 N90 M91 N91 M92 N92 M93 N93 M94 N94 M95 N95 M96 N96 M97 N97 M98 N98 M99 N99 M100 N100 M101 N101 M102 N102 M103 N103 M104 N104 M105 N105 M106 N106 M107 N107 M108 N108 M109 N109 M110 N110 M111 N111 M112 N112 M113 N113 M114 N114 M115 N115 M116 N116 M117 N117 M118 N118 M119 N119 M120 N120 M121 N121 M122 N122 M123 N123 M124 N124 M125 N125 M128 N128 M129 N129 M130 N130 M133 N133 M136 N136 M137 N137 M138 N138 M139 N139 M140 N140 M141 N141 M142 N142 M143 N143 M144 N144 M145 N145 M146 N146 M147 N147 M148 N148 M149 N149 M150 N150 M151 N151 M152 N152 M153 N153 M154 N154 M155 N155 M156 N156 M157 N157 M158 N158 M159 N159 M160 N160 M161 N161 M162 N162 M163 N163 M164 N164 M165 N165 M166 N166 M167 N167 M168 N168 M169 N169 M170 N170 M2:M10 M12:M13 M15:M18 M20:M21 M29:M30 M126:M127 M131:M132 M134:M135 N2:N10 N12:N13 N15:N18 N20:N21 N29:N30 N126:N127 N131:N132 N134:N135">
-      <formula1>"盾枪兵,长戟兵,重骑兵,骠骑兵,火矢兵,连弩兵"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11 P11 Q11 R11 S11 T11 U11 V11 W11 X11 O14 P14 Q14 R14 S14 T14 U14 V14 W14 X14 O15 P15 Q15 R15 S15 T15 U15 V15 W15 X15 O16 P16 Q16 R16 S16 T16 U16 V16 W16 X16 O17 P17 Q17 R17 S17 T17 U17 V17 W17 X17 O18 P18 Q18 R18 S18 T18 U18 V18 W18 X18 O19 P19 Q19 R19 S19 T19 U19 V19 W19 X19 O22 P22 Q22 R22 S22 T22 U22 V22 W22 X22 O23 P23 Q23 R23 S23 T23 U23 V23 W23 X23 O24 P24 Q24 R24 S24 T24 U24 V24 W24 X24 O25 P25 Q25 R25 S25 T25 U25 V25 W25 X25 O26 P26 Q26 R26 S26 T26 U26 V26 W26 X26 O27 P27 Q27 R27 S27 T27 U27 V27 W27 X27 O28 P28 Q28 R28 S28 T28 U28 V28 W28 X28 O29 P29 Q29 R29 S29 T29 U29 V29 W29 X29 O30 P30 Q30 R30 S30 T30 U30 V30 W30 X30 O31 P31 Q31 R31 S31 T31 U31 V31 W31 X31 O32 P32 Q32 R32 S32 T32 U32 V32 W32 X32 O33 P33 Q33 R33 S33 T33 U33 V33 W33 X33 O34 P34 Q34 R34 S34 T34 U34 V34 W34 X34 O35 P35 Q35 R35 S35 T35 U35 V35 W35 X35 O36 P36 Q36 R36 S36 T36 U36 V36 W36 X36 O37 P37 Q37 R37 S37 T37 U37 V37 W37 X37 O38 P38 Q38 R38 S38 T38 U38 V38 W38 X38 O39 P39 Q39 R39 S39 T39 U39 V39 W39 X39 O40 P40 Q40 R40 S40 T40 U40 V40 W40 X40 O41 P41 Q41 R41 S41 T41 U41 V41 W41 X41 O42 P42 Q42 R42 S42 T42 U42 V42 W42 X42 O43 P43 Q43 R43 S43 T43 U43 V43 W43 X43 O44 P44 Q44 R44 S44 T44 U44 V44 W44 X44 O45 P45 Q45 R45 S45 T45 U45 V45 W45 X45 O46 P46 Q46 R46 S46 T46 U46 V46 W46 X46 O47 P47 Q47 R47 S47 T47 U47 V47 W47 X47 O48 P48 Q48 R48 S48 T48 U48 V48 W48 X48 O49 P49 Q49 R49 S49 T49 U49 V49 W49 X49 O50 P50 Q50 R50 S50 T50 U50 V50 W50 X50 O51 P51 Q51 R51 S51 T51 U51 V51 W51 X51 O52 P52 Q52 R52 S52 T52 U52 V52 W52 X52 O53 P53 Q53 R53 S53 T53 U53 V53 W53 X53 O54 P54 Q54 R54 S54 T54 U54 V54 W54 X54 O55 P55 Q55 R55 S55 T55 U55 V55 W55 X55 O56 P56 Q56 R56 S56 T56 U56 V56 W56 X56 O57 P57 Q57 R57 S57 T57 U57 V57 W57 X57 O58 P58 Q58 R58 S58 T58 U58 V58 W58 X58 O59 P59 Q59 R59 S59 T59 U59 V59 W59 X59 O60 P60 Q60 R60 S60 T60 U60 V60 W60 X60 O61 P61 Q61 R61 S61 T61 U61 V61 W61 X61 O62 P62 Q62 R62 S62 T62 U62 V62 W62 X62 O63 P63 Q63 R63 S63 T63 U63 V63 W63 X63 O64 P64 Q64 R64 S64 T64 U64 V64 W64 X64 O65 P65 Q65 R65 S65 T65 U65 V65 W65 X65 O66 P66 Q66 R66 S66 T66 U66 V66 W66 X66 O67 P67 Q67 R67 S67 T67 U67 V67 W67 X67 O68 P68 Q68 R68 S68 T68 U68 V68 W68 X68 O69 P69 Q69 R69 S69 T69 U69 V69 W69 X69 O70 P70 Q70 R70 S70 T70 U70 V70 W70 X70 O71 P71 Q71 R71 S71 T71 U71 V71 W71 X71 O72 P72 Q72 R72 S72 T72 U72 V72 W72 X72 O73 P73 Q73 R73 S73 T73 U73 V73 W73 X73 O74 P74 Q74 R74 S74 T74 U74 V74 W74 X74 O75 P75 Q75 R75 S75 T75 U75 V75 W75 X75 O76 P76 Q76 R76 S76 T76 U76 V76 W76 X76 O77 P77 Q77 R77 S77 T77 U77 V77 W77 X77 O78 P78 Q78 R78 S78 T78 U78 V78 W78 X78 O79 P79 Q79 R79 S79 T79 U79 V79 W79 X79 O80 P80 Q80 R80 S80 T80 U80 V80 W80 X80 O81 P81 Q81 R81 S81 T81 U81 V81 W81 X81 O82 P82 Q82 R82 S82 T82 U82 V82 W82 X82 O83 P83 Q83 R83 S83 T83 U83 V83 W83 X83 O84 P84 Q84 R84 S84 T84 U84 V84 W84 X84 O85 P85 Q85 R85 S85 T85 U85 V85 W85 X85 O86 P86 Q86 R86 S86 T86 U86 V86 W86 X86 O87 P87 Q87 R87 S87 T87 U87 V87 W87 X87 O88 P88 Q88 R88 S88 T88 U88 V88 W88 X88 O89 P89 Q89 R89 S89 T89 U89 V89 W89 X89 O90 P90 Q90 R90 S90 T90 U90 V90 W90 X90 O91 P91 Q91 R91 S91 T91 U91 V91 W91 X91 O92 P92 Q92 R92 S92 T92 U92 V92 W92 X92 O93 P93 Q93 R93 S93 T93 U93 V93 W93 X93 O94 P94 Q94 R94 S94 T94 U94 V94 W94 X94 O95 P95 Q95 R95 S95 T95 U95 V95 W95 X95 O96 P96 Q96 R96 S96 T96 U96 V96 W96 X96 O97 P97 Q97 R97 S97 T97 U97 V97 W97 X97 O98 P98 Q98 R98 S98 T98 U98 V98 W98 X98 O99 P99 Q99 R99 S99 T99 U99 V99 W99 X99 O100 P100 Q100 R100 S100 T100 U100 V100 W100 X100 O101 P101 Q101 R101 S101 T101 U101 V101 W101 X101 O102 P102 Q102 R102 S102 T102 U102 V102 W102 X102 O103 P103 Q103 R103 S103 T103 U103 V103 W103 X103 O104 P104 Q104 R104 S104 T104 U104 V104 W104 X104 O105 P105 Q105 R105 S105 T105 U105 V105 W105 X105 O106 P106 Q106 R106 S106 T106 U106 V106 W106 X106 O107 P107 Q107 R107 S107 T107 U107 V107 W107 X107 O108 P108 Q108 R108 S108 T108 U108 V108 W108 X108 O109 P109 Q109 R109 S109 T109 U109 V109 W109 X109 O110 P110 Q110 R110 S110 T110 U110 V110 W110 X110 O111 P111 Q111 R111 S111 T111 U111 V111 W111 X111 O112 P112 Q112 R112 S112 T112 U112 V112 W112 X112 O113 P113 Q113 R113 S113 T113 U113 V113 W113 X113 O114 P114 Q114 R114 S114 T114 U114 V114 W114 X114 O115 P115 Q115 R115 S115 T115 U115 V115 W115 X115 O116 P116 Q116 R116 S116 T116 U116 V116 W116 X116 O117 P117 Q117 R117 S117 T117 U117 V117 W117 X117 O118 P118 Q118 R118 S118 T118 U118 V118 W118 X118 O119 P119 Q119 R119 S119 T119 U119 V119 W119 X119 O120 P120 Q120 R120 S120 T120 U120 V120 W120 X120 O121 P121 Q121 R121 S121 T121 U121 V121 W121 X121 O122 P122 Q122 R122 S122 T122 U122 V122 W122 X122 O123 P123 Q123 R123 S123 T123 U123 V123 W123 X123 O124 P124 Q124 R124 S124 T124 U124 V124 W124 X124 O125 P125 Q125 R125 S125 T125 U125 V125 W125 X125 O126 P126 Q126 R126 S126 T126 U126 V126 W126 X126 O127 P127 Q127 R127 S127 T127 U127 V127 W127 X127 O128 P128 Q128 R128 S128 T128 U128 V128 W128 X128 O129 P129 Q129 R129 S129 T129 U129 V129 W129 X129 O130 P130 Q130 R130 S130 T130 U130 V130 W130 X130 O131 P131 Q131 R131 S131 T131 U131 V131 W131 X131 O132 P132 Q132 R132 S132 T132 U132 V132 W132 X132 O133 P133 Q133 R133 S133 T133 U133 V133 W133 X133 O134 P134 Q134 R134 S134 T134 U134 V134 W134 X134 O135 P135 Q135 R135 S135 T135 U135 V135 W135 X135 O136 P136 Q136 R136 S136 T136 U136 V136 W136 X136 O137 P137 Q137 R137 S137 T137 U137 V137 W137 X137 O138 P138 Q138 R138 S138 T138 U138 V138 W138 X138 O139 P139 Q139 R139 S139 T139 U139 V139 W139 X139 O140 P140 Q140 R140 S140 T140 U140 V140 W140 X140 O141 P141 Q141 R141 S141 T141 U141 V141 W141 X141 O144 P144 Q144 R144 S144 T144 U144 V144 W144 X144 O145 P145 Q145 R145 S145 T145 U145 V145 W145 X145 O146 P146 Q146 R146 S146 T146 U146 V146 W146 X146 O147 P147 Q147 R147 S147 T147 U147 V147 W147 X147 O148 P148 Q148 R148 S148 T148 U148 V148 W148 X148 O149 P149 Q149 R149 S149 T149 U149 V149 W149 X149 O150 P150 Q150 R150 S150 T150 U150 V150 W150 X150 O151 P151 Q151 R151 S151 T151 U151 V151 W151 X151 O152 P152 Q152 R152 S152 T152 U152 V152 W152 X152 O153 P153 Q153 R153 S153 T153 U153 V153 W153 X153 O154 P154 Q154 R154 S154 T154 U154 V154 W154 X154 O155 P155 Q155 R155 S155 T155 U155 V155 W155 X155 O156 P156 Q156 R156 S156 T156 U156 V156 W156 X156 O157 P157 Q157 R157 S157 T157 U157 V157 W157 X157 O158 P158 Q158 R158 S158 T158 U158 V158 W158 X158 O159 P159 Q159 R159 S159 T159 U159 V159 W159 X159 O160 P160 Q160 R160 S160 T160 U160 V160 W160 X160 O161 P161 Q161 R161 S161 T161 U161 V161 W161 X161 O162 P162 Q162 R162 S162 T162 U162 V162 W162 X162 O163 P163 Q163 R163 S163 T163 U163 V163 W163 X163 O164 P164 Q164 R164 S164 T164 U164 V164 W164 X164 O165 P165 Q165 R165 S165 T165 U165 V165 W165 X165 O166 P166 Q166 R166 S166 T166 U166 V166 W166 X166 O167 P167 Q167 R167 S167 T167 U167 V167 W167 X167 O168 P168 Q168 R168 S168 T168 U168 V168 W168 X168 O169 P169 Q169 R169 S169 T169 U169 V169 W169 X169 O170 P170 Q170 R170 S170 T170 U170 V170 W170 X170 O2:O10 O12:O13 O20:O21 O142:O143 P2:P10 P12:P13 P20:P21 P142:P143 Q2:Q10 Q12:Q13 Q20:Q21 Q142:Q143 R2:R10 R12:R13 R20:R21 R142:R143 S2:S10 S12:S13 S20:S21 S142:S143 T2:T10 T12:T13 T20:T21 T142:T143 U2:U10 U12:U13 U20:U21 U142:U143 V2:V10 V12:V13 V20:V21 V142:V143 W2:W10 W12:W13 W20:W21 W142:W143 X2:X10 X12:X13 X20:X21 X142:X143">
-      <formula1>"武锋,三疑,兵道,军略,金鼓,文伐"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB11 AB14 AB15 AB16 AB17 AB18 AB19 AB22 AB23 AB24 AB25 AB26 AB27 AB28 AB29 AB30 AB31 AB32 AB33 AB34 AB35 AB36 AB37 AB38 AB39 AB40 AB41 AB42 AB43 AB44 AB45 AB46 AB47 AB48 AB49 AB50 AB51 AB52 AB53 AB54 AB55 AB56 AB57 AB58 AB59 AB60 AB61 AB62 AB63 AB64 AB65 AB66 AB67 AB68 AB69 AB70 AB71 AB72 AB73 AB74 AB75 AB76 AB77 AB78 AB79 AB80 AB81 AB82 AB83 AB84 AB85 AB86 AB87 AB88 AB89 AB90 AB91 AB92 AB93 AB94 AB95 AB96 AB97 AB98 AB99 AB100 AB101 AB102 AB103 AB104 AB105 AB106 AB107 AB108 AB109 AB110 AB111 AB112 AB113 AB114 AB115 AB116 AB117 AB118 AB119 AB120 AB121 AB122 AB123 AB124 AB125 AB126 AB127 AB128 AB129 AB130 AB131 AB132 AB133 AB134 AB135 AB136 AB137 AB138 AB139 AB140 AB141 AB144 AB145 AB146 AB147 AB148 AB149 AB150 AB151 AB152 AB153 AB154 AB155 AB156 AB157 AB158 AB159 AB160 AB161 AB162 AB163 AB164 AB165 AB166 AB167 AB168 AB169 AB170 AB2:AB10 AB12:AB13 AB20:AB21 AB142:AB143">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB11 AB14 AB15 AB16 AB17 AB18 AB19 AB22 AB23 AB24 AB25 AB26 AB27 AB28 AB29 AB30 AB31 AB32 AB33 AB34 AB35 AB36 AB37 AB38 AB39 AB40 AB41 AB42 AB43 AB44 AB45 AB46 AB47 AB48 AB49 AB50 AB51 AB52 AB53 AB54 AB55 AB56 AB57 AB58 AB59 AB60 AB61 AB62 AB63 AB64 AB65 AB66 AB67 AB68 AB69 AB70 AB71 AB72 AB73 AB74 AB75 AB76 AB77 AB78 AB79 AB80 AB81 AB82 AB83 AB84 AB85 AB86 AB87 AB88 AB89 AB90 AB91 AB92 AB93 AB94 AB95 AB96 AB97 AB98 AB99 AB100 AB101 AB102 AB103 AB104 AB105 AB106 AB107 AB108 AB109 AB110 AB111 AB112 AB113 AB114 AB115 AB116 AB117 AB118 AB119 AB120 AB121 AB122 AB123 AB124 AB125 AB126 AB127 AB128 AB129 AB130 AB131 AB132 AB133 AB134 AB135 AB136 AB137 AB138 AB139 AB140 AB141 AB142 AB143 AB146 AB147 AB148 AB149 AB150 AB151 AB152 AB153 AB154 AB155 AB156 AB157 AB158 AB159 AB160 AB161 AB162 AB163 AB164 AB165 AB166 AB167 AB168 AB169 AB170 AB171 AB172 AB2:AB10 AB12:AB13 AB20:AB21 AB144:AB145">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC11 AC14 AC15 AC16 AC17 AC18 AC19 AC22 AC23 AC24 AC25 AC26 AC27 AC28 AC29 AC30 AC31 AC32 AC33 AC34 AC35 AC36 AC37 AC38 AC39 AC40 AC41 AC42 AC43 AC44 AC45 AC46 AC47 AC48 AC49 AC50 AC51 AC52 AC53 AC54 AC55 AC56 AC57 AC58 AC59 AC60 AC61 AC62 AC63 AC64 AC65 AC66 AC67 AC68 AC69 AC70 AC71 AC72 AC73 AC74 AC75 AC76 AC77 AC78 AC79 AC80 AC81 AC82 AC83 AC84 AC85 AC86 AC87 AC88 AC89 AC90 AC91 AC92 AC93 AC94 AC95 AC96 AC97 AC98 AC99 AC100 AC101 AC102 AC103 AC104 AC105 AC106 AC107 AC108 AC109 AC110 AC111 AC112 AC113 AC114 AC115 AC116 AC117 AC118 AC119 AC120 AC121 AC122 AC123 AC124 AC125 AC126 AC127 AC128 AC129 AC130 AC131 AC132 AC133 AC134 AC135 AC136 AC137 AC138 AC139 AC140 AC141 AC144 AC145 AC146 AC147 AC148 AC149 AC150 AC151 AC152 AC153 AC154 AC155 AC156 AC157 AC158 AC159 AC160 AC161 AC162 AC163 AC164 AC165 AC166 AC167 AC168 AC169 AC170 AC2:AC10 AC12:AC13 AC20:AC21 AC142:AC143">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC11 AC14 AC15 AC16 AC17 AC18 AC19 AC22 AC23 AC24 AC25 AC26 AC27 AC28 AC29 AC30 AC31 AC32 AC33 AC34 AC35 AC36 AC37 AC38 AC39 AC40 AC41 AC42 AC43 AC44 AC45 AC46 AC47 AC48 AC49 AC50 AC51 AC52 AC53 AC54 AC55 AC56 AC57 AC58 AC59 AC60 AC61 AC62 AC63 AC64 AC65 AC66 AC67 AC68 AC69 AC70 AC71 AC72 AC73 AC74 AC75 AC76 AC77 AC78 AC79 AC80 AC81 AC82 AC83 AC84 AC85 AC86 AC87 AC88 AC89 AC90 AC91 AC92 AC93 AC94 AC95 AC96 AC97 AC98 AC99 AC100 AC101 AC102 AC103 AC104 AC105 AC106 AC107 AC108 AC109 AC110 AC111 AC112 AC113 AC114 AC115 AC116 AC117 AC118 AC119 AC120 AC121 AC122 AC123 AC124 AC125 AC126 AC127 AC128 AC129 AC130 AC131 AC132 AC133 AC134 AC135 AC136 AC137 AC138 AC139 AC140 AC141 AC142 AC143 AC146 AC147 AC148 AC149 AC150 AC151 AC152 AC153 AC154 AC155 AC156 AC157 AC158 AC159 AC160 AC161 AC162 AC163 AC164 AC165 AC166 AC167 AC168 AC169 AC170 AC171 AC172 AC2:AC10 AC12:AC13 AC20:AC21 AC144:AC145">
       <formula1>"未开命格,逆命,突破"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/excel/data_temp.xlsx
+++ b/src/main/resources/excel/data_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27840" windowHeight="12060"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1271,9 +1271,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1315,14 +1315,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1353,60 +1390,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1429,7 +1429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1451,10 +1451,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1473,6 +1473,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1485,19 +1539,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,31 +1575,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,49 +1617,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1599,37 +1641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,19 +1653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,21 +1664,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1699,17 +1684,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1720,8 +1694,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1729,8 +1733,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1750,17 +1754,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1772,10 +1772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1784,16 +1784,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1802,115 +1802,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2295,8 +2295,8 @@
   <sheetPr/>
   <dimension ref="A1:AG173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AD18" sqref="AD18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3798,13 +3798,13 @@
         <v>44</v>
       </c>
       <c r="Z15" s="6">
-        <v>490</v>
+        <v>992</v>
       </c>
       <c r="AA15" s="6">
-        <v>360</v>
+        <v>658</v>
       </c>
       <c r="AB15" s="6">
-        <v>735</v>
+        <v>1895</v>
       </c>
       <c r="AC15" s="6" t="b">
         <v>1</v>

--- a/src/main/resources/excel/data_temp.xlsx
+++ b/src/main/resources/excel/data_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="20490" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3713" uniqueCount="419">
   <si>
     <t>武将名称</t>
   </si>
@@ -559,6 +559,15 @@
   </si>
   <si>
     <t>伶歌卞夫人_限</t>
+  </si>
+  <si>
+    <t>绝情张春华</t>
+  </si>
+  <si>
+    <t>张春华</t>
+  </si>
+  <si>
+    <t>曹操,曹丕,司马懿,黄月英</t>
   </si>
   <si>
     <t>洛神甄姬</t>
@@ -1271,10 +1280,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1315,21 +1324,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1337,7 +1339,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1353,13 +1355,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1390,7 +1385,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1406,7 +1409,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1429,6 +1432,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1437,22 +1447,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1473,13 +1482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,25 +1506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,19 +1530,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,61 +1560,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,31 +1602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,6 +1624,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1664,6 +1673,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1685,82 +1768,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1772,10 +1781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1784,133 +1793,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2293,10 +2302,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG173"/>
+  <dimension ref="A1:AG174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7031,7 +7040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:30">
+    <row r="54" s="1" customFormat="1" spans="1:32">
       <c r="A54" s="1" t="s">
         <v>181</v>
       </c>
@@ -7045,19 +7054,19 @@
         <v>1</v>
       </c>
       <c r="E54" s="1">
-        <v>377</v>
+        <v>442</v>
       </c>
       <c r="F54" s="1">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="G54" s="1">
-        <v>697</v>
+        <v>642</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>67</v>
@@ -7074,53 +7083,59 @@
       <c r="N54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V54" s="1" t="s">
+      <c r="O54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V54" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="W54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X54" s="1" t="s">
+      <c r="W54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X54" s="6" t="s">
         <v>43</v>
       </c>
       <c r="Y54" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Z54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="1">
-        <v>0</v>
+      <c r="Z54" s="6">
+        <v>540</v>
+      </c>
+      <c r="AA54" s="6">
+        <v>330</v>
+      </c>
+      <c r="AB54" s="6">
+        <v>585</v>
       </c>
       <c r="AC54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF54" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:30">
@@ -7128,28 +7143,28 @@
         <v>184</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="F55" s="1">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="G55" s="1">
-        <v>605</v>
+        <v>697</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>67</v>
@@ -7158,7 +7173,7 @@
         <v>68</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>70</v>
@@ -7217,10 +7232,10 @@
     </row>
     <row r="56" s="1" customFormat="1" spans="1:30">
       <c r="A56" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>30</v>
@@ -7229,13 +7244,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>594</v>
+        <v>540</v>
       </c>
       <c r="F56" s="1">
-        <v>690</v>
+        <v>627</v>
       </c>
       <c r="G56" s="1">
-        <v>665</v>
+        <v>605</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>51</v>
@@ -7250,7 +7265,7 @@
         <v>68</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>70</v>
@@ -7309,46 +7324,46 @@
     </row>
     <row r="57" s="1" customFormat="1" spans="1:30">
       <c r="A57" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="F57" s="1">
-        <v>477</v>
+        <v>690</v>
       </c>
       <c r="G57" s="1">
-        <v>844</v>
+        <v>665</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>188</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>38</v>
@@ -7357,13 +7372,13 @@
         <v>39</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>41</v>
@@ -7401,7 +7416,7 @@
     </row>
     <row r="58" s="1" customFormat="1" spans="1:30">
       <c r="A58" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>106</v>
@@ -7413,13 +7428,13 @@
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <v>645</v>
+        <v>587</v>
       </c>
       <c r="F58" s="1">
-        <v>524</v>
+        <v>477</v>
       </c>
       <c r="G58" s="1">
-        <v>928</v>
+        <v>844</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>31</v>
@@ -7434,7 +7449,7 @@
         <v>34</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>36</v>
@@ -7493,34 +7508,34 @@
     </row>
     <row r="59" s="1" customFormat="1" spans="1:30">
       <c r="A59" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
       <c r="E59" s="1">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F59" s="1">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="G59" s="1">
-        <v>805</v>
+        <v>928</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>34</v>
@@ -7529,10 +7544,10 @@
         <v>191</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>38</v>
@@ -7547,10 +7562,10 @@
         <v>39</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>41</v>
@@ -7585,25 +7600,25 @@
     </row>
     <row r="60" s="1" customFormat="1" spans="1:30">
       <c r="A60" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <v>821</v>
+        <v>643</v>
       </c>
       <c r="F60" s="1">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="G60" s="1">
-        <v>636</v>
+        <v>805</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>31</v>
@@ -7615,7 +7630,7 @@
         <v>53</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>194</v>
@@ -7639,10 +7654,10 @@
         <v>39</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U60" s="1" t="s">
         <v>41</v>
@@ -7680,43 +7695,43 @@
         <v>195</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
       <c r="E61" s="1">
-        <v>735</v>
+        <v>821</v>
       </c>
       <c r="F61" s="1">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="G61" s="1">
-        <v>708</v>
+        <v>636</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>38</v>
@@ -7725,16 +7740,16 @@
         <v>39</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>41</v>
@@ -7769,10 +7784,10 @@
     </row>
     <row r="62" s="1" customFormat="1" spans="1:30">
       <c r="A62" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>87</v>
@@ -7781,13 +7796,13 @@
         <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>808</v>
+        <v>735</v>
       </c>
       <c r="F62" s="1">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="G62" s="1">
-        <v>778</v>
+        <v>708</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>31</v>
@@ -7802,7 +7817,7 @@
         <v>62</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>36</v>
@@ -7859,12 +7874,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:25">
+    <row r="63" s="1" customFormat="1" spans="1:30">
       <c r="A63" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>87</v>
@@ -7873,43 +7888,90 @@
         <v>1</v>
       </c>
       <c r="E63" s="1">
-        <v>454</v>
+        <v>808</v>
       </c>
       <c r="F63" s="1">
-        <v>724</v>
+        <v>501</v>
       </c>
       <c r="G63" s="1">
-        <v>718</v>
+        <v>778</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y63" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y63" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:30">
+    <row r="64" s="1" customFormat="1" spans="1:25">
       <c r="A64" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>87</v>
@@ -7918,13 +7980,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="F64" s="1">
-        <v>800</v>
+        <v>724</v>
       </c>
       <c r="G64" s="1">
-        <v>656</v>
+        <v>718</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>31</v>
@@ -7939,7 +8001,7 @@
         <v>68</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>70</v>
@@ -7947,61 +8009,14 @@
       <c r="N64" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y64" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="Y64" s="9"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:30">
       <c r="A65" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>87</v>
@@ -8010,13 +8025,13 @@
         <v>1</v>
       </c>
       <c r="E65" s="1">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="F65" s="1">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="G65" s="1">
-        <v>722</v>
+        <v>656</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>31</v>
@@ -8031,7 +8046,7 @@
         <v>68</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>70</v>
@@ -8090,10 +8105,10 @@
     </row>
     <row r="66" s="1" customFormat="1" spans="1:30">
       <c r="A66" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>87</v>
@@ -8102,13 +8117,13 @@
         <v>1</v>
       </c>
       <c r="E66" s="1">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="F66" s="1">
-        <v>711</v>
+        <v>880</v>
       </c>
       <c r="G66" s="1">
-        <v>606</v>
+        <v>722</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>31</v>
@@ -8120,7 +8135,7 @@
         <v>67</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>205</v>
@@ -8147,7 +8162,7 @@
         <v>40</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U66" s="1" t="s">
         <v>41</v>
@@ -8182,7 +8197,7 @@
     </row>
     <row r="67" s="1" customFormat="1" spans="1:30">
       <c r="A67" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>93</v>
@@ -8194,34 +8209,34 @@
         <v>1</v>
       </c>
       <c r="E67" s="1">
-        <v>557</v>
+        <v>471</v>
       </c>
       <c r="F67" s="1">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="G67" s="1">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>38</v>
@@ -8230,16 +8245,16 @@
         <v>39</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U67" s="1" t="s">
         <v>41</v>
@@ -8274,7 +8289,7 @@
     </row>
     <row r="68" s="1" customFormat="1" spans="1:30">
       <c r="A68" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>93</v>
@@ -8286,13 +8301,13 @@
         <v>1</v>
       </c>
       <c r="E68" s="1">
-        <v>612</v>
+        <v>557</v>
       </c>
       <c r="F68" s="1">
-        <v>700</v>
+        <v>637</v>
       </c>
       <c r="G68" s="1">
-        <v>651</v>
+        <v>592</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>31</v>
@@ -8307,7 +8322,7 @@
         <v>67</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>55</v>
@@ -8366,10 +8381,10 @@
     </row>
     <row r="69" s="1" customFormat="1" spans="1:30">
       <c r="A69" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>87</v>
@@ -8378,28 +8393,28 @@
         <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>715</v>
+        <v>612</v>
       </c>
       <c r="F69" s="1">
-        <v>443</v>
+        <v>700</v>
       </c>
       <c r="G69" s="1">
-        <v>688</v>
+        <v>651</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>55</v>
@@ -8461,7 +8476,7 @@
         <v>212</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>87</v>
@@ -8470,13 +8485,13 @@
         <v>1</v>
       </c>
       <c r="E70" s="1">
-        <v>806</v>
+        <v>715</v>
       </c>
       <c r="F70" s="1">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="G70" s="1">
-        <v>742</v>
+        <v>688</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>31</v>
@@ -8491,7 +8506,7 @@
         <v>33</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>55</v>
@@ -8550,25 +8565,25 @@
     </row>
     <row r="71" s="1" customFormat="1" spans="1:30">
       <c r="A71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F71" s="1">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="G71" s="1">
-        <v>605</v>
+        <v>742</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>31</v>
@@ -8642,10 +8657,10 @@
     </row>
     <row r="72" s="1" customFormat="1" spans="1:30">
       <c r="A72" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>30</v>
@@ -8654,13 +8669,13 @@
         <v>1</v>
       </c>
       <c r="E72" s="1">
-        <v>894</v>
+        <v>813</v>
       </c>
       <c r="F72" s="1">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="G72" s="1">
-        <v>665</v>
+        <v>605</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>31</v>
@@ -8675,7 +8690,7 @@
         <v>33</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>55</v>
@@ -8732,33 +8747,33 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" spans="1:32">
+    <row r="73" s="1" customFormat="1" spans="1:30">
       <c r="A73" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
       </c>
       <c r="E73" s="1">
-        <v>624</v>
+        <v>894</v>
       </c>
       <c r="F73" s="1">
-        <v>611</v>
+        <v>470</v>
       </c>
       <c r="G73" s="1">
-        <v>611</v>
+        <v>665</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>53</v>
@@ -8767,7 +8782,7 @@
         <v>33</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>55</v>
@@ -8809,33 +8824,27 @@
         <v>44</v>
       </c>
       <c r="Z73" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AA73" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AB73" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AC73" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE73" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF73" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" spans="1:25">
+    <row r="74" s="1" customFormat="1" spans="1:32">
       <c r="A74" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>87</v>
@@ -8844,43 +8853,96 @@
         <v>1</v>
       </c>
       <c r="E74" s="1">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="F74" s="1">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="G74" s="1">
-        <v>697</v>
+        <v>611</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y74" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y74" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>540</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>330</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>585</v>
+      </c>
+      <c r="AC74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF74" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:25">
       <c r="A75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>87</v>
@@ -8889,13 +8951,13 @@
         <v>1</v>
       </c>
       <c r="E75" s="1">
-        <v>623</v>
+        <v>566</v>
       </c>
       <c r="F75" s="1">
-        <v>641</v>
+        <v>583</v>
       </c>
       <c r="G75" s="1">
-        <v>767</v>
+        <v>697</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>31</v>
@@ -8910,7 +8972,7 @@
         <v>33</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>36</v>
@@ -8920,12 +8982,12 @@
       </c>
       <c r="Y75" s="9"/>
     </row>
-    <row r="76" s="1" customFormat="1" spans="1:30">
+    <row r="76" s="1" customFormat="1" spans="1:25">
       <c r="A76" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>87</v>
@@ -8934,28 +8996,28 @@
         <v>1</v>
       </c>
       <c r="E76" s="1">
-        <v>579</v>
+        <v>623</v>
       </c>
       <c r="F76" s="1">
-        <v>447</v>
+        <v>641</v>
       </c>
       <c r="G76" s="1">
-        <v>808</v>
+        <v>767</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>36</v>
@@ -8963,58 +9025,11 @@
       <c r="N76" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O76" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S76" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V76" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X76" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y76" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC76" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD76" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="Y76" s="9"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:30">
       <c r="A77" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>90</v>
@@ -9026,13 +9041,13 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>637</v>
+        <v>579</v>
       </c>
       <c r="F77" s="1">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="G77" s="1">
-        <v>889</v>
+        <v>808</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>31</v>
@@ -9047,7 +9062,7 @@
         <v>34</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>36</v>
@@ -9106,7 +9121,7 @@
     </row>
     <row r="78" s="1" customFormat="1" spans="1:30">
       <c r="A78" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>90</v>
@@ -9118,13 +9133,13 @@
         <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="F78" s="1">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="G78" s="1">
-        <v>760</v>
+        <v>889</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>31</v>
@@ -9198,7 +9213,7 @@
     </row>
     <row r="79" s="1" customFormat="1" spans="1:30">
       <c r="A79" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>90</v>
@@ -9210,13 +9225,13 @@
         <v>1</v>
       </c>
       <c r="E79" s="1">
-        <v>671</v>
+        <v>610</v>
       </c>
       <c r="F79" s="1">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="G79" s="1">
-        <v>836</v>
+        <v>760</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>31</v>
@@ -9231,7 +9246,7 @@
         <v>34</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>36</v>
@@ -9288,12 +9303,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" spans="1:25">
+    <row r="80" s="1" customFormat="1" spans="1:30">
       <c r="A80" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>87</v>
@@ -9302,25 +9317,25 @@
         <v>1</v>
       </c>
       <c r="E80" s="1">
-        <v>758</v>
+        <v>671</v>
       </c>
       <c r="F80" s="1">
-        <v>384</v>
+        <v>511</v>
       </c>
       <c r="G80" s="1">
-        <v>761</v>
+        <v>836</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>228</v>
@@ -9331,11 +9346,58 @@
       <c r="N80" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y80" s="9"/>
+      <c r="O80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y80" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:25">
       <c r="A81" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>86</v>
@@ -9347,13 +9409,13 @@
         <v>1</v>
       </c>
       <c r="E81" s="1">
-        <v>811</v>
+        <v>758</v>
       </c>
       <c r="F81" s="1">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="G81" s="1">
-        <v>640</v>
+        <v>761</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>31</v>
@@ -9368,7 +9430,7 @@
         <v>62</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>36</v>
@@ -9380,10 +9442,10 @@
     </row>
     <row r="82" s="1" customFormat="1" spans="1:25">
       <c r="A82" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>87</v>
@@ -9392,13 +9454,13 @@
         <v>1</v>
       </c>
       <c r="E82" s="1">
-        <v>694</v>
+        <v>811</v>
       </c>
       <c r="F82" s="1">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="G82" s="1">
-        <v>701</v>
+        <v>640</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>31</v>
@@ -9407,28 +9469,28 @@
         <v>52</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>233</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="Y82" s="9"/>
     </row>
-    <row r="83" s="1" customFormat="1" spans="1:30">
+    <row r="83" s="1" customFormat="1" spans="1:25">
       <c r="A83" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>87</v>
@@ -9437,13 +9499,13 @@
         <v>1</v>
       </c>
       <c r="E83" s="1">
-        <v>790</v>
+        <v>694</v>
       </c>
       <c r="F83" s="1">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G83" s="1">
-        <v>610</v>
+        <v>701</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>31</v>
@@ -9452,75 +9514,28 @@
         <v>52</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q83" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R83" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S83" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T83" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U83" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W83" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X83" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y83" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC83" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD83" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="Y83" s="9"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:30">
       <c r="A84" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>87</v>
@@ -9529,13 +9544,13 @@
         <v>1</v>
       </c>
       <c r="E84" s="1">
-        <v>852</v>
+        <v>790</v>
       </c>
       <c r="F84" s="1">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="G84" s="1">
-        <v>684</v>
+        <v>610</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>31</v>
@@ -9550,7 +9565,7 @@
         <v>67</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>70</v>
@@ -9607,12 +9622,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" spans="1:25">
+    <row r="85" s="1" customFormat="1" spans="1:30">
       <c r="A85" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>87</v>
@@ -9621,13 +9636,13 @@
         <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>703</v>
+        <v>852</v>
       </c>
       <c r="F85" s="1">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="G85" s="1">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>31</v>
@@ -9636,28 +9651,75 @@
         <v>52</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y85" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y85" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="86" s="1" customFormat="1" spans="1:30">
+    <row r="86" s="1" customFormat="1" spans="1:25">
       <c r="A86" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>87</v>
@@ -9666,13 +9728,13 @@
         <v>1</v>
       </c>
       <c r="E86" s="1">
-        <v>668</v>
+        <v>703</v>
       </c>
       <c r="F86" s="1">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="G86" s="1">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>31</v>
@@ -9681,75 +9743,28 @@
         <v>52</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T86" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U86" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W86" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X86" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y86" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z86" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC86" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD86" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="Y86" s="9"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:30">
       <c r="A87" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>87</v>
@@ -9758,13 +9773,13 @@
         <v>1</v>
       </c>
       <c r="E87" s="1">
-        <v>734</v>
+        <v>668</v>
       </c>
       <c r="F87" s="1">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="G87" s="1">
-        <v>764</v>
+        <v>695</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>31</v>
@@ -9779,7 +9794,7 @@
         <v>62</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>55</v>
@@ -9836,12 +9851,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" spans="1:32">
+    <row r="88" s="1" customFormat="1" spans="1:30">
       <c r="A88" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>87</v>
@@ -9850,34 +9865,34 @@
         <v>1</v>
       </c>
       <c r="E88" s="1">
-        <v>575</v>
+        <v>734</v>
       </c>
       <c r="F88" s="1">
-        <v>599</v>
+        <v>441</v>
       </c>
       <c r="G88" s="1">
-        <v>622</v>
+        <v>764</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="O88" s="1" t="s">
         <v>38</v>
@@ -9886,22 +9901,22 @@
         <v>39</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S88" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W88" s="1" t="s">
         <v>40</v>
@@ -9913,25 +9928,19 @@
         <v>44</v>
       </c>
       <c r="Z88" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AA88" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AB88" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AC88" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE88" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF88" s="1" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:32">
@@ -9939,7 +9948,7 @@
         <v>246</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>87</v>
@@ -9948,13 +9957,13 @@
         <v>1</v>
       </c>
       <c r="E89" s="1">
-        <v>633</v>
+        <v>575</v>
       </c>
       <c r="F89" s="1">
-        <v>660</v>
+        <v>599</v>
       </c>
       <c r="G89" s="1">
-        <v>684</v>
+        <v>622</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>51</v>
@@ -9969,7 +9978,7 @@
         <v>67</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>70</v>
@@ -10032,12 +10041,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" spans="1:30">
+    <row r="90" s="1" customFormat="1" spans="1:32">
       <c r="A90" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>87</v>
@@ -10046,19 +10055,19 @@
         <v>1</v>
       </c>
       <c r="E90" s="1">
-        <v>753</v>
+        <v>633</v>
       </c>
       <c r="F90" s="1">
-        <v>416</v>
+        <v>660</v>
       </c>
       <c r="G90" s="1">
-        <v>624</v>
+        <v>684</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>67</v>
@@ -10094,10 +10103,10 @@
         <v>41</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W90" s="1" t="s">
         <v>40</v>
@@ -10109,27 +10118,33 @@
         <v>44</v>
       </c>
       <c r="Z90" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AA90" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AB90" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AC90" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
+      </c>
+      <c r="AE90" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF90" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:30">
       <c r="A91" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>87</v>
@@ -10138,13 +10153,13 @@
         <v>1</v>
       </c>
       <c r="E91" s="1">
-        <v>702</v>
+        <v>753</v>
       </c>
       <c r="F91" s="1">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="G91" s="1">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>51</v>
@@ -10221,7 +10236,7 @@
         <v>252</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>87</v>
@@ -10230,13 +10245,13 @@
         <v>1</v>
       </c>
       <c r="E92" s="1">
-        <v>772</v>
+        <v>702</v>
       </c>
       <c r="F92" s="1">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="G92" s="1">
-        <v>713</v>
+        <v>648</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>51</v>
@@ -10251,7 +10266,7 @@
         <v>67</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>70</v>
@@ -10308,27 +10323,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" spans="1:32">
+    <row r="93" s="1" customFormat="1" spans="1:30">
       <c r="A93" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="C93" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
       </c>
       <c r="E93" s="1">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="F93" s="1">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="G93" s="1">
-        <v>611</v>
+        <v>713</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>51</v>
@@ -10382,57 +10397,51 @@
         <v>43</v>
       </c>
       <c r="Y93" s="9" t="s">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="Z93" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AA93" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AB93" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AC93" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE93" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF93" s="1" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" spans="1:30">
+    <row r="94" s="1" customFormat="1" spans="1:32">
       <c r="A94" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
       </c>
       <c r="E94" s="1">
-        <v>401</v>
+        <v>757</v>
       </c>
       <c r="F94" s="1">
-        <v>717</v>
+        <v>433</v>
       </c>
       <c r="G94" s="1">
-        <v>682</v>
+        <v>611</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>67</v>
@@ -10441,7 +10450,7 @@
         <v>67</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>70</v>
@@ -10480,30 +10489,36 @@
         <v>43</v>
       </c>
       <c r="Y94" s="9" t="s">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="Z94" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AA94" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AB94" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AC94" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD94" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
+      </c>
+      <c r="AE94" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF94" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:33">
+    <row r="95" s="1" customFormat="1" spans="1:30">
       <c r="A95" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>87</v>
@@ -10512,34 +10527,34 @@
         <v>1</v>
       </c>
       <c r="E95" s="1">
-        <v>559</v>
+        <v>401</v>
       </c>
       <c r="F95" s="1">
-        <v>401</v>
+        <v>717</v>
       </c>
       <c r="G95" s="1">
-        <v>840</v>
+        <v>682</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>38</v>
@@ -10548,13 +10563,13 @@
         <v>39</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T95" s="1" t="s">
         <v>41</v>
@@ -10589,16 +10604,13 @@
       <c r="AD95" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AE95" s="1"/>
-      <c r="AF95" s="1"/>
-      <c r="AG95" s="1"/>
     </row>
     <row r="96" spans="1:33">
       <c r="A96" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>87</v>
@@ -10607,13 +10619,13 @@
         <v>1</v>
       </c>
       <c r="E96" s="1">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="F96" s="1">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="G96" s="1">
-        <v>913</v>
+        <v>840</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>51</v>
@@ -10628,7 +10640,7 @@
         <v>67</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>36</v>
@@ -10690,10 +10702,10 @@
     </row>
     <row r="97" spans="1:33">
       <c r="A97" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>87</v>
@@ -10702,34 +10714,34 @@
         <v>1</v>
       </c>
       <c r="E97" s="1">
-        <v>661</v>
+        <v>580</v>
       </c>
       <c r="F97" s="1">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="G97" s="1">
-        <v>688</v>
+        <v>913</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O97" s="1" t="s">
         <v>38</v>
@@ -10738,16 +10750,16 @@
         <v>39</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U97" s="1" t="s">
         <v>41</v>
@@ -10762,37 +10774,33 @@
         <v>43</v>
       </c>
       <c r="Y97" s="9" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="Z97" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AA97" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AB97" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AC97" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD97" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE97" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF97" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
       <c r="AG97" s="1"/>
     </row>
     <row r="98" spans="1:33">
       <c r="A98" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>87</v>
@@ -10801,67 +10809,67 @@
         <v>1</v>
       </c>
       <c r="E98" s="1">
-        <v>384</v>
+        <v>661</v>
       </c>
       <c r="F98" s="1">
-        <v>698</v>
+        <v>393</v>
       </c>
       <c r="G98" s="1">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="L98" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V98" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y98" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S98" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U98" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V98" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W98" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X98" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y98" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="Z98" s="1">
         <v>540</v>
@@ -10894,19 +10902,19 @@
         <v>270</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
       </c>
       <c r="E99" s="1">
-        <v>455</v>
+        <v>384</v>
       </c>
       <c r="F99" s="1">
-        <v>786</v>
+        <v>698</v>
       </c>
       <c r="G99" s="1">
-        <v>649</v>
+        <v>713</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>31</v>
@@ -10918,7 +10926,7 @@
         <v>67</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>271</v>
@@ -10945,13 +10953,13 @@
         <v>40</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W99" s="1" t="s">
         <v>40</v>
@@ -10963,22 +10971,26 @@
         <v>44</v>
       </c>
       <c r="Z99" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AA99" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AB99" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AC99" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD99" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE99" s="1"/>
-      <c r="AF99" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="AE99" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF99" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="AG99" s="1"/>
     </row>
     <row r="100" spans="1:33">
@@ -10986,7 +10998,7 @@
         <v>272</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>97</v>
@@ -10995,13 +11007,13 @@
         <v>1</v>
       </c>
       <c r="E100" s="1">
-        <v>501</v>
+        <v>455</v>
       </c>
       <c r="F100" s="1">
-        <v>865</v>
+        <v>786</v>
       </c>
       <c r="G100" s="1">
-        <v>712</v>
+        <v>649</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>31</v>
@@ -11016,7 +11028,7 @@
         <v>67</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>70</v>
@@ -11078,10 +11090,10 @@
     </row>
     <row r="101" spans="1:33">
       <c r="A101" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>97</v>
@@ -11090,13 +11102,13 @@
         <v>1</v>
       </c>
       <c r="E101" s="1">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="F101" s="1">
-        <v>707</v>
+        <v>865</v>
       </c>
       <c r="G101" s="1">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>31</v>
@@ -11119,32 +11131,64 @@
       <c r="N101" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-      <c r="X101" s="1"/>
-      <c r="Y101" s="9"/>
-      <c r="Z101" s="1"/>
-      <c r="AA101" s="1"/>
-      <c r="AB101" s="1"/>
-      <c r="AC101" s="1"/>
-      <c r="AD101" s="1"/>
+      <c r="O101" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W101" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y101" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z101" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AE101" s="1"/>
       <c r="AF101" s="1"/>
       <c r="AG101" s="1"/>
     </row>
     <row r="102" spans="1:33">
       <c r="A102" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>97</v>
@@ -11153,19 +11197,19 @@
         <v>1</v>
       </c>
       <c r="E102" s="1">
-        <v>774</v>
+        <v>475</v>
       </c>
       <c r="F102" s="1">
-        <v>643</v>
+        <v>707</v>
       </c>
       <c r="G102" s="1">
-        <v>481</v>
+        <v>708</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>67</v>
@@ -11174,7 +11218,7 @@
         <v>67</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>70</v>
@@ -11182,61 +11226,29 @@
       <c r="N102" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O102" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R102" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S102" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T102" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U102" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W102" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X102" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y102" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z102" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB102" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC102" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD102" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
       <c r="AF102" s="1"/>
       <c r="AG102" s="1"/>
     </row>
     <row r="103" spans="1:33">
       <c r="A103" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>96</v>
@@ -11248,13 +11260,13 @@
         <v>1</v>
       </c>
       <c r="E103" s="1">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="F103" s="1">
-        <v>460</v>
+        <v>643</v>
       </c>
       <c r="G103" s="1">
-        <v>646</v>
+        <v>481</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>31</v>
@@ -11269,7 +11281,7 @@
         <v>67</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>70</v>
@@ -11331,10 +11343,10 @@
     </row>
     <row r="104" spans="1:33">
       <c r="A104" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>280</v>
+        <v>96</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>97</v>
@@ -11343,34 +11355,34 @@
         <v>1</v>
       </c>
       <c r="E104" s="1">
-        <v>456</v>
+        <v>792</v>
       </c>
       <c r="F104" s="1">
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="G104" s="1">
-        <v>780</v>
+        <v>646</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>281</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>38</v>
@@ -11379,13 +11391,13 @@
         <v>39</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T104" s="1" t="s">
         <v>41</v>
@@ -11406,26 +11418,22 @@
         <v>44</v>
       </c>
       <c r="Z104" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AA104" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AB104" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AC104" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD104" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE104" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF104" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
       <c r="AG104" s="1"/>
     </row>
     <row r="105" spans="1:33">
@@ -11433,7 +11441,7 @@
         <v>282</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>97</v>
@@ -11442,34 +11450,34 @@
         <v>1</v>
       </c>
       <c r="E105" s="1">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="F105" s="1">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="G105" s="1">
-        <v>660</v>
+        <v>780</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="O105" s="1" t="s">
         <v>38</v>
@@ -11478,13 +11486,13 @@
         <v>39</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T105" s="1" t="s">
         <v>41</v>
@@ -11505,30 +11513,34 @@
         <v>44</v>
       </c>
       <c r="Z105" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AA105" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AB105" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AC105" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD105" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE105" s="1"/>
-      <c r="AF105" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="AE105" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF105" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AG105" s="1"/>
     </row>
     <row r="106" spans="1:33">
       <c r="A106" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>97</v>
@@ -11537,13 +11549,13 @@
         <v>1</v>
       </c>
       <c r="E106" s="1">
-        <v>534</v>
+        <v>486</v>
       </c>
       <c r="F106" s="1">
-        <v>704</v>
+        <v>640</v>
       </c>
       <c r="G106" s="1">
-        <v>726</v>
+        <v>660</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>31</v>
@@ -11558,7 +11570,7 @@
         <v>68</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>70</v>
@@ -11620,10 +11632,10 @@
     </row>
     <row r="107" spans="1:33">
       <c r="A107" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>97</v>
@@ -11632,28 +11644,28 @@
         <v>1</v>
       </c>
       <c r="E107" s="1">
-        <v>414</v>
+        <v>534</v>
       </c>
       <c r="F107" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G107" s="1">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>70</v>
@@ -11718,7 +11730,7 @@
         <v>288</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>97</v>
@@ -11727,19 +11739,19 @@
         <v>1</v>
       </c>
       <c r="E108" s="1">
-        <v>576</v>
+        <v>414</v>
       </c>
       <c r="F108" s="1">
-        <v>640</v>
+        <v>703</v>
       </c>
       <c r="G108" s="1">
-        <v>640</v>
+        <v>739</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>67</v>
@@ -11748,7 +11760,7 @@
         <v>67</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>70</v>
@@ -11810,10 +11822,10 @@
     </row>
     <row r="109" spans="1:33">
       <c r="A109" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>97</v>
@@ -11822,13 +11834,13 @@
         <v>1</v>
       </c>
       <c r="E109" s="1">
-        <v>634</v>
+        <v>576</v>
       </c>
       <c r="F109" s="1">
-        <v>704</v>
+        <v>640</v>
       </c>
       <c r="G109" s="1">
-        <v>704</v>
+        <v>640</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>31</v>
@@ -11843,7 +11855,7 @@
         <v>67</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>70</v>
@@ -11905,10 +11917,10 @@
     </row>
     <row r="110" spans="1:33">
       <c r="A110" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>100</v>
+        <v>289</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>97</v>
@@ -11917,25 +11929,25 @@
         <v>1</v>
       </c>
       <c r="E110" s="1">
-        <v>549</v>
+        <v>634</v>
       </c>
       <c r="F110" s="1">
-        <v>600</v>
+        <v>704</v>
       </c>
       <c r="G110" s="1">
-        <v>733</v>
+        <v>704</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>292</v>
@@ -12000,7 +12012,7 @@
     </row>
     <row r="111" spans="1:33">
       <c r="A111" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>100</v>
@@ -12012,19 +12024,19 @@
         <v>1</v>
       </c>
       <c r="E111" s="1">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="F111" s="1">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="G111" s="1">
-        <v>652</v>
+        <v>733</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>67</v>
@@ -12033,7 +12045,7 @@
         <v>33</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>70</v>
@@ -12095,7 +12107,7 @@
     </row>
     <row r="112" spans="1:33">
       <c r="A112" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>100</v>
@@ -12107,13 +12119,13 @@
         <v>1</v>
       </c>
       <c r="E112" s="1">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="F112" s="1">
-        <v>720</v>
+        <v>642</v>
       </c>
       <c r="G112" s="1">
-        <v>702</v>
+        <v>652</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>31</v>
@@ -12128,7 +12140,7 @@
         <v>33</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>70</v>
@@ -12190,10 +12202,10 @@
     </row>
     <row r="113" spans="1:33">
       <c r="A113" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>97</v>
@@ -12202,28 +12214,28 @@
         <v>1</v>
       </c>
       <c r="E113" s="1">
-        <v>814</v>
+        <v>650</v>
       </c>
       <c r="F113" s="1">
-        <v>415</v>
+        <v>720</v>
       </c>
       <c r="G113" s="1">
-        <v>639</v>
+        <v>702</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>70</v>
@@ -12288,7 +12300,7 @@
         <v>299</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>97</v>
@@ -12297,34 +12309,34 @@
         <v>1</v>
       </c>
       <c r="E114" s="1">
-        <v>600</v>
+        <v>814</v>
       </c>
       <c r="F114" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G114" s="1">
-        <v>854</v>
+        <v>639</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="O114" s="1" t="s">
         <v>38</v>
@@ -12333,13 +12345,13 @@
         <v>39</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R114" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T114" s="1" t="s">
         <v>41</v>
@@ -12380,10 +12392,10 @@
     </row>
     <row r="115" spans="1:33">
       <c r="A115" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>97</v>
@@ -12392,13 +12404,13 @@
         <v>1</v>
       </c>
       <c r="E115" s="1">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="F115" s="1">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="G115" s="1">
-        <v>940</v>
+        <v>854</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>31</v>
@@ -12413,7 +12425,7 @@
         <v>62</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>36</v>
@@ -12475,10 +12487,10 @@
     </row>
     <row r="116" spans="1:33">
       <c r="A116" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>97</v>
@@ -12487,34 +12499,34 @@
         <v>1</v>
       </c>
       <c r="E116" s="1">
-        <v>818</v>
+        <v>660</v>
       </c>
       <c r="F116" s="1">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="G116" s="1">
-        <v>629</v>
+        <v>940</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="O116" s="1" t="s">
         <v>38</v>
@@ -12523,13 +12535,13 @@
         <v>39</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R116" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T116" s="1" t="s">
         <v>41</v>
@@ -12573,7 +12585,7 @@
         <v>305</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>97</v>
@@ -12582,13 +12594,13 @@
         <v>1</v>
       </c>
       <c r="E117" s="1">
-        <v>900</v>
+        <v>818</v>
       </c>
       <c r="F117" s="1">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="G117" s="1">
-        <v>692</v>
+        <v>629</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>31</v>
@@ -12603,7 +12615,7 @@
         <v>33</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>70</v>
@@ -12665,10 +12677,10 @@
     </row>
     <row r="118" spans="1:33">
       <c r="A118" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>97</v>
@@ -12677,13 +12689,13 @@
         <v>1</v>
       </c>
       <c r="E118" s="1">
-        <v>715</v>
+        <v>900</v>
       </c>
       <c r="F118" s="1">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="G118" s="1">
-        <v>723</v>
+        <v>692</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>31</v>
@@ -12692,7 +12704,7 @@
         <v>52</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>33</v>
@@ -12701,10 +12713,10 @@
         <v>307</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="O118" s="1" t="s">
         <v>38</v>
@@ -12713,13 +12725,13 @@
         <v>39</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R118" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S118" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T118" s="1" t="s">
         <v>41</v>
@@ -12760,10 +12772,10 @@
     </row>
     <row r="119" spans="1:33">
       <c r="A119" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>97</v>
@@ -12772,13 +12784,13 @@
         <v>1</v>
       </c>
       <c r="E119" s="1">
-        <v>786</v>
+        <v>715</v>
       </c>
       <c r="F119" s="1">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="G119" s="1">
-        <v>795</v>
+        <v>723</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>31</v>
@@ -12793,7 +12805,7 @@
         <v>33</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>36</v>
@@ -12855,10 +12867,10 @@
     </row>
     <row r="120" spans="1:33">
       <c r="A120" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>97</v>
@@ -12867,13 +12879,13 @@
         <v>1</v>
       </c>
       <c r="E120" s="1">
-        <v>815</v>
+        <v>786</v>
       </c>
       <c r="F120" s="1">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="G120" s="1">
-        <v>616</v>
+        <v>795</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>31</v>
@@ -12882,19 +12894,19 @@
         <v>52</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="O120" s="1" t="s">
         <v>38</v>
@@ -12903,13 +12915,13 @@
         <v>39</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R120" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S120" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T120" s="1" t="s">
         <v>41</v>
@@ -12953,7 +12965,7 @@
         <v>312</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>97</v>
@@ -12962,13 +12974,13 @@
         <v>1</v>
       </c>
       <c r="E121" s="1">
-        <v>701</v>
+        <v>815</v>
       </c>
       <c r="F121" s="1">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="G121" s="1">
-        <v>728</v>
+        <v>616</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>31</v>
@@ -12977,19 +12989,19 @@
         <v>52</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O121" s="1" t="s">
         <v>38</v>
@@ -12998,16 +13010,16 @@
         <v>39</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R121" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S121" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U121" s="1" t="s">
         <v>41</v>
@@ -13045,10 +13057,10 @@
     </row>
     <row r="122" spans="1:33">
       <c r="A122" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>97</v>
@@ -13057,13 +13069,13 @@
         <v>1</v>
       </c>
       <c r="E122" s="1">
-        <v>771</v>
+        <v>701</v>
       </c>
       <c r="F122" s="1">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="G122" s="1">
-        <v>800</v>
+        <v>728</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>31</v>
@@ -13078,7 +13090,7 @@
         <v>62</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>55</v>
@@ -13140,10 +13152,10 @@
     </row>
     <row r="123" spans="1:33">
       <c r="A123" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>97</v>
@@ -13152,13 +13164,13 @@
         <v>1</v>
       </c>
       <c r="E123" s="1">
-        <v>707</v>
+        <v>771</v>
       </c>
       <c r="F123" s="1">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="G123" s="1">
-        <v>723</v>
+        <v>800</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>31</v>
@@ -13167,19 +13179,19 @@
         <v>52</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O123" s="1" t="s">
         <v>38</v>
@@ -13188,16 +13200,16 @@
         <v>39</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R123" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S123" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T123" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U123" s="1" t="s">
         <v>41</v>
@@ -13238,7 +13250,7 @@
         <v>318</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>97</v>
@@ -13247,13 +13259,13 @@
         <v>1</v>
       </c>
       <c r="E124" s="1">
-        <v>812</v>
+        <v>707</v>
       </c>
       <c r="F124" s="1">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="G124" s="1">
-        <v>630</v>
+        <v>723</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>31</v>
@@ -13262,19 +13274,19 @@
         <v>52</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="O124" s="1" t="s">
         <v>38</v>
@@ -13283,13 +13295,13 @@
         <v>39</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R124" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S124" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T124" s="1" t="s">
         <v>41</v>
@@ -13330,10 +13342,10 @@
     </row>
     <row r="125" spans="1:33">
       <c r="A125" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>97</v>
@@ -13342,13 +13354,13 @@
         <v>1</v>
       </c>
       <c r="E125" s="1">
-        <v>893</v>
+        <v>812</v>
       </c>
       <c r="F125" s="1">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="G125" s="1">
-        <v>693</v>
+        <v>630</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>31</v>
@@ -13363,7 +13375,7 @@
         <v>67</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>70</v>
@@ -13425,10 +13437,10 @@
     </row>
     <row r="126" spans="1:33">
       <c r="A126" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>97</v>
@@ -13437,13 +13449,13 @@
         <v>1</v>
       </c>
       <c r="E126" s="1">
-        <v>679</v>
+        <v>893</v>
       </c>
       <c r="F126" s="1">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="G126" s="1">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>31</v>
@@ -13452,19 +13464,19 @@
         <v>52</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>322</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="O126" s="1" t="s">
         <v>38</v>
@@ -13473,13 +13485,13 @@
         <v>39</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R126" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S126" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T126" s="1" t="s">
         <v>41</v>
@@ -13520,7 +13532,7 @@
     </row>
     <row r="127" spans="1:33">
       <c r="A127" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>103</v>
@@ -13532,13 +13544,13 @@
         <v>1</v>
       </c>
       <c r="E127" s="1">
-        <v>747</v>
+        <v>679</v>
       </c>
       <c r="F127" s="1">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="G127" s="1">
-        <v>787</v>
+        <v>716</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>31</v>
@@ -13553,7 +13565,7 @@
         <v>34</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>36</v>
@@ -13615,7 +13627,7 @@
     </row>
     <row r="128" spans="1:33">
       <c r="A128" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>103</v>
@@ -13627,22 +13639,22 @@
         <v>1</v>
       </c>
       <c r="E128" s="1">
-        <v>574</v>
+        <v>747</v>
       </c>
       <c r="F128" s="1">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="G128" s="1">
-        <v>814</v>
+        <v>787</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>34</v>
@@ -13651,10 +13663,10 @@
         <v>325</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O128" s="1" t="s">
         <v>38</v>
@@ -13669,10 +13681,10 @@
         <v>39</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U128" s="1" t="s">
         <v>41</v>
@@ -13710,7 +13722,7 @@
     </row>
     <row r="129" spans="1:33">
       <c r="A129" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>103</v>
@@ -13722,13 +13734,13 @@
         <v>1</v>
       </c>
       <c r="E129" s="1">
-        <v>631</v>
+        <v>574</v>
       </c>
       <c r="F129" s="1">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="G129" s="1">
-        <v>895</v>
+        <v>814</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>31</v>
@@ -13743,7 +13755,7 @@
         <v>34</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>55</v>
@@ -13805,10 +13817,10 @@
     </row>
     <row r="130" spans="1:33">
       <c r="A130" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>328</v>
+        <v>103</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>97</v>
@@ -13817,28 +13829,28 @@
         <v>1</v>
       </c>
       <c r="E130" s="1">
-        <v>410</v>
+        <v>631</v>
       </c>
       <c r="F130" s="1">
-        <v>645</v>
+        <v>455</v>
       </c>
       <c r="G130" s="1">
-        <v>700</v>
+        <v>895</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>55</v>
@@ -13880,34 +13892,30 @@
         <v>44</v>
       </c>
       <c r="Z130" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AA130" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AB130" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AC130" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD130" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE130" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF130" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AE130" s="1"/>
+      <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
     </row>
-    <row r="131" s="2" customFormat="1" spans="1:33">
+    <row r="131" spans="1:33">
       <c r="A131" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>97</v>
@@ -13916,13 +13924,13 @@
         <v>1</v>
       </c>
       <c r="E131" s="1">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="F131" s="1">
-        <v>710</v>
+        <v>645</v>
       </c>
       <c r="G131" s="1">
-        <v>770</v>
+        <v>700</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>51</v>
@@ -13937,7 +13945,7 @@
         <v>33</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>55</v>
@@ -14001,12 +14009,12 @@
       </c>
       <c r="AG131" s="1"/>
     </row>
-    <row r="132" spans="1:33">
+    <row r="132" s="2" customFormat="1" spans="1:33">
       <c r="A132" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>97</v>
@@ -14015,13 +14023,13 @@
         <v>1</v>
       </c>
       <c r="E132" s="1">
-        <v>489</v>
+        <v>451</v>
       </c>
       <c r="F132" s="1">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="G132" s="1">
-        <v>631</v>
+        <v>770</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>51</v>
@@ -14030,19 +14038,19 @@
         <v>66</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>332</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="O132" s="1" t="s">
         <v>38</v>
@@ -14051,16 +14059,16 @@
         <v>39</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S132" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U132" s="1" t="s">
         <v>41</v>
@@ -14078,30 +14086,34 @@
         <v>44</v>
       </c>
       <c r="Z132" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AA132" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AB132" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AC132" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD132" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE132" s="1"/>
-      <c r="AF132" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="AE132" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF132" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AG132" s="1"/>
     </row>
     <row r="133" spans="1:33">
       <c r="A133" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>97</v>
@@ -14110,13 +14122,13 @@
         <v>1</v>
       </c>
       <c r="E133" s="1">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="F133" s="1">
-        <v>699</v>
+        <v>635</v>
       </c>
       <c r="G133" s="1">
-        <v>695</v>
+        <v>631</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>51</v>
@@ -14131,7 +14143,7 @@
         <v>68</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>70</v>
@@ -14193,10 +14205,10 @@
     </row>
     <row r="134" spans="1:33">
       <c r="A134" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>97</v>
@@ -14205,13 +14217,13 @@
         <v>1</v>
       </c>
       <c r="E134" s="1">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="F134" s="1">
-        <v>640</v>
+        <v>699</v>
       </c>
       <c r="G134" s="1">
-        <v>643</v>
+        <v>695</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>51</v>
@@ -14226,7 +14238,7 @@
         <v>68</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>70</v>
@@ -14291,7 +14303,7 @@
         <v>337</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>97</v>
@@ -14300,13 +14312,13 @@
         <v>1</v>
       </c>
       <c r="E135" s="1">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="F135" s="1">
-        <v>605</v>
+        <v>640</v>
       </c>
       <c r="G135" s="1">
-        <v>700</v>
+        <v>643</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>51</v>
@@ -14315,19 +14327,19 @@
         <v>66</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O135" s="1" t="s">
         <v>38</v>
@@ -14336,16 +14348,16 @@
         <v>39</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R135" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S135" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U135" s="1" t="s">
         <v>41</v>
@@ -14363,34 +14375,30 @@
         <v>44</v>
       </c>
       <c r="Z135" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AA135" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AB135" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AC135" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD135" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE135" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF135" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AE135" s="1"/>
+      <c r="AF135" s="1"/>
       <c r="AG135" s="1"/>
     </row>
     <row r="136" spans="1:33">
       <c r="A136" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>97</v>
@@ -14399,13 +14407,13 @@
         <v>1</v>
       </c>
       <c r="E136" s="1">
-        <v>559</v>
+        <v>450</v>
       </c>
       <c r="F136" s="1">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="G136" s="1">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>51</v>
@@ -14414,19 +14422,19 @@
         <v>66</v>
       </c>
       <c r="J136" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K136" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="K136" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>341</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="O136" s="1" t="s">
         <v>38</v>
@@ -14498,34 +14506,34 @@
         <v>1</v>
       </c>
       <c r="E137" s="1">
-        <v>614</v>
+        <v>559</v>
       </c>
       <c r="F137" s="1">
-        <v>405</v>
+        <v>559</v>
       </c>
       <c r="G137" s="1">
-        <v>840</v>
+        <v>688</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>344</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O137" s="1" t="s">
         <v>38</v>
@@ -14534,16 +14542,16 @@
         <v>39</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R137" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S137" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U137" s="1" t="s">
         <v>41</v>
@@ -14561,22 +14569,26 @@
         <v>44</v>
       </c>
       <c r="Z137" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AA137" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AB137" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AC137" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD137" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE137" s="1"/>
-      <c r="AF137" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="AE137" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF137" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AG137" s="1"/>
     </row>
     <row r="138" spans="1:33">
@@ -14593,13 +14605,13 @@
         <v>1</v>
       </c>
       <c r="E138" s="1">
-        <v>553</v>
+        <v>614</v>
       </c>
       <c r="F138" s="1">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="G138" s="1">
-        <v>865</v>
+        <v>840</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>31</v>
@@ -14608,19 +14620,19 @@
         <v>32</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>347</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O138" s="1" t="s">
         <v>38</v>
@@ -14629,13 +14641,13 @@
         <v>39</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T138" s="1" t="s">
         <v>41</v>
@@ -14682,40 +14694,40 @@
         <v>349</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="D139" s="1">
         <v>1</v>
       </c>
       <c r="E139" s="1">
-        <v>694</v>
+        <v>553</v>
       </c>
       <c r="F139" s="1">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="G139" s="1">
-        <v>739</v>
+        <v>865</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>350</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O139" s="1" t="s">
         <v>38</v>
@@ -14724,16 +14736,16 @@
         <v>39</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U139" s="1" t="s">
         <v>41</v>
@@ -14774,7 +14786,7 @@
         <v>351</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>30</v>
@@ -14783,13 +14795,13 @@
         <v>1</v>
       </c>
       <c r="E140" s="1">
-        <v>763</v>
+        <v>694</v>
       </c>
       <c r="F140" s="1">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="G140" s="1">
-        <v>813</v>
+        <v>739</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>51</v>
@@ -14804,7 +14816,7 @@
         <v>67</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>55</v>
@@ -14866,10 +14878,10 @@
     </row>
     <row r="141" spans="1:33">
       <c r="A141" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>30</v>
@@ -14878,13 +14890,13 @@
         <v>1</v>
       </c>
       <c r="E141" s="1">
-        <v>797</v>
+        <v>763</v>
       </c>
       <c r="F141" s="1">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="G141" s="1">
-        <v>637</v>
+        <v>813</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>51</v>
@@ -14893,7 +14905,7 @@
         <v>52</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>67</v>
@@ -14902,10 +14914,10 @@
         <v>353</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>38</v>
@@ -14914,16 +14926,16 @@
         <v>39</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S141" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U141" s="1" t="s">
         <v>41</v>
@@ -14961,10 +14973,10 @@
     </row>
     <row r="142" spans="1:33">
       <c r="A142" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>30</v>
@@ -14973,13 +14985,13 @@
         <v>1</v>
       </c>
       <c r="E142" s="1">
-        <v>868</v>
+        <v>797</v>
       </c>
       <c r="F142" s="1">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="G142" s="1">
-        <v>701</v>
+        <v>637</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>51</v>
@@ -14994,7 +15006,7 @@
         <v>67</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>70</v>
@@ -15056,10 +15068,10 @@
     </row>
     <row r="143" spans="1:33">
       <c r="A143" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>50</v>
+        <v>352</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>30</v>
@@ -15068,13 +15080,13 @@
         <v>1</v>
       </c>
       <c r="E143" s="1">
-        <v>677</v>
+        <v>868</v>
       </c>
       <c r="F143" s="1">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="G143" s="1">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>51</v>
@@ -15083,19 +15095,19 @@
         <v>52</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>356</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O143" s="1" t="s">
         <v>38</v>
@@ -15104,16 +15116,16 @@
         <v>39</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S143" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U143" s="1" t="s">
         <v>41</v>
@@ -15151,7 +15163,7 @@
     </row>
     <row r="144" spans="1:33">
       <c r="A144" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>50</v>
@@ -15163,13 +15175,13 @@
         <v>1</v>
       </c>
       <c r="E144" s="1">
-        <v>745</v>
+        <v>677</v>
       </c>
       <c r="F144" s="1">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="G144" s="1">
-        <v>790</v>
+        <v>718</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>51</v>
@@ -15184,7 +15196,7 @@
         <v>33</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>55</v>
@@ -15246,7 +15258,7 @@
     </row>
     <row r="145" spans="1:33">
       <c r="A145" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>50</v>
@@ -15258,13 +15270,13 @@
         <v>1</v>
       </c>
       <c r="E145" s="1">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="F145" s="1">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="G145" s="1">
-        <v>622</v>
+        <v>790</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>51</v>
@@ -15279,7 +15291,7 @@
         <v>33</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>55</v>
@@ -15287,29 +15299,61 @@
       <c r="N145" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
-      <c r="S145" s="1"/>
-      <c r="T145" s="1"/>
-      <c r="U145" s="1"/>
-      <c r="V145" s="1"/>
-      <c r="W145" s="1"/>
-      <c r="X145" s="1"/>
-      <c r="Y145" s="9"/>
-      <c r="Z145" s="1"/>
-      <c r="AA145" s="1"/>
-      <c r="AB145" s="1"/>
-      <c r="AC145" s="1"/>
-      <c r="AD145" s="1"/>
+      <c r="O145" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T145" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U145" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W145" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X145" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y145" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD145" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AE145" s="1"/>
       <c r="AF145" s="1"/>
       <c r="AG145" s="1"/>
     </row>
     <row r="146" spans="1:33">
       <c r="A146" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>50</v>
@@ -15321,13 +15365,13 @@
         <v>1</v>
       </c>
       <c r="E146" s="1">
-        <v>854</v>
+        <v>781</v>
       </c>
       <c r="F146" s="1">
-        <v>448</v>
+        <v>405</v>
       </c>
       <c r="G146" s="1">
-        <v>697</v>
+        <v>622</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>51</v>
@@ -15342,7 +15386,7 @@
         <v>33</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>55</v>
@@ -15372,10 +15416,10 @@
     </row>
     <row r="147" spans="1:33">
       <c r="A147" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>30</v>
@@ -15384,90 +15428,58 @@
         <v>1</v>
       </c>
       <c r="E147" s="1">
-        <v>405</v>
+        <v>854</v>
       </c>
       <c r="F147" s="1">
-        <v>673</v>
+        <v>448</v>
       </c>
       <c r="G147" s="1">
-        <v>656</v>
+        <v>697</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O147" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P147" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q147" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R147" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S147" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T147" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U147" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V147" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W147" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X147" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y147" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z147" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA147" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB147" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC147" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD147" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+      <c r="Y147" s="9"/>
+      <c r="Z147" s="1"/>
+      <c r="AA147" s="1"/>
+      <c r="AB147" s="1"/>
+      <c r="AC147" s="1"/>
+      <c r="AD147" s="1"/>
       <c r="AE147" s="1"/>
       <c r="AF147" s="1"/>
       <c r="AG147" s="1"/>
     </row>
     <row r="148" spans="1:33">
       <c r="A148" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>65</v>
@@ -15479,13 +15491,13 @@
         <v>1</v>
       </c>
       <c r="E148" s="1">
-        <v>468</v>
+        <v>405</v>
       </c>
       <c r="F148" s="1">
-        <v>726</v>
+        <v>673</v>
       </c>
       <c r="G148" s="1">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>51</v>
@@ -15500,7 +15512,7 @@
         <v>68</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>70</v>
@@ -15562,7 +15574,7 @@
     </row>
     <row r="149" spans="1:33">
       <c r="A149" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>65</v>
@@ -15574,19 +15586,19 @@
         <v>1</v>
       </c>
       <c r="E149" s="1">
-        <v>393</v>
+        <v>468</v>
       </c>
       <c r="F149" s="1">
-        <v>770</v>
+        <v>726</v>
       </c>
       <c r="G149" s="1">
-        <v>570</v>
+        <v>744</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>67</v>
@@ -15595,7 +15607,7 @@
         <v>68</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>70</v>
@@ -15619,7 +15631,7 @@
         <v>40</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U149" s="1" t="s">
         <v>41</v>
@@ -15657,7 +15669,7 @@
     </row>
     <row r="150" spans="1:33">
       <c r="A150" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>65</v>
@@ -15669,13 +15681,13 @@
         <v>1</v>
       </c>
       <c r="E150" s="1">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="F150" s="1">
-        <v>847</v>
+        <v>770</v>
       </c>
       <c r="G150" s="1">
-        <v>627</v>
+        <v>570</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>51</v>
@@ -15690,7 +15702,7 @@
         <v>68</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M150" s="1" t="s">
         <v>70</v>
@@ -15752,10 +15764,10 @@
     </row>
     <row r="151" spans="1:33">
       <c r="A151" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>30</v>
@@ -15764,34 +15776,34 @@
         <v>1</v>
       </c>
       <c r="E151" s="1">
-        <v>590</v>
+        <v>433</v>
       </c>
       <c r="F151" s="1">
-        <v>374</v>
+        <v>847</v>
       </c>
       <c r="G151" s="1">
-        <v>860</v>
+        <v>627</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="O151" s="1" t="s">
         <v>38</v>
@@ -15800,16 +15812,16 @@
         <v>39</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R151" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U151" s="1" t="s">
         <v>41</v>
@@ -15847,7 +15859,7 @@
     </row>
     <row r="152" spans="1:33">
       <c r="A152" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>61</v>
@@ -15859,13 +15871,13 @@
         <v>1</v>
       </c>
       <c r="E152" s="1">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="F152" s="1">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="G152" s="1">
-        <v>796</v>
+        <v>860</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>31</v>
@@ -15874,19 +15886,19 @@
         <v>32</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K152" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O152" s="1" t="s">
         <v>38</v>
@@ -15895,16 +15907,16 @@
         <v>39</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R152" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U152" s="1" t="s">
         <v>41</v>
@@ -15942,7 +15954,7 @@
     </row>
     <row r="153" spans="1:33">
       <c r="A153" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>61</v>
@@ -15954,13 +15966,13 @@
         <v>1</v>
       </c>
       <c r="E153" s="1">
-        <v>681</v>
+        <v>619</v>
       </c>
       <c r="F153" s="1">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="G153" s="1">
-        <v>876</v>
+        <v>796</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>31</v>
@@ -15975,7 +15987,7 @@
         <v>62</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>55</v>
@@ -16037,10 +16049,10 @@
     </row>
     <row r="154" spans="1:33">
       <c r="A154" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>30</v>
@@ -16049,13 +16061,13 @@
         <v>1</v>
       </c>
       <c r="E154" s="1">
-        <v>631</v>
+        <v>681</v>
       </c>
       <c r="F154" s="1">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="G154" s="1">
-        <v>795</v>
+        <v>876</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>31</v>
@@ -16067,7 +16079,7 @@
         <v>53</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>371</v>
@@ -16132,7 +16144,7 @@
     </row>
     <row r="155" spans="1:33">
       <c r="A155" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>29</v>
@@ -16144,13 +16156,13 @@
         <v>1</v>
       </c>
       <c r="E155" s="1">
-        <v>543</v>
+        <v>631</v>
       </c>
       <c r="F155" s="1">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="G155" s="1">
-        <v>860</v>
+        <v>795</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>31</v>
@@ -16159,19 +16171,19 @@
         <v>32</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>34</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O155" s="1" t="s">
         <v>38</v>
@@ -16180,16 +16192,16 @@
         <v>39</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R155" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S155" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T155" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U155" s="1" t="s">
         <v>41</v>
@@ -16227,7 +16239,7 @@
     </row>
     <row r="156" spans="1:33">
       <c r="A156" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>29</v>
@@ -16239,13 +16251,13 @@
         <v>1</v>
       </c>
       <c r="E156" s="1">
-        <v>597</v>
+        <v>543</v>
       </c>
       <c r="F156" s="1">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="G156" s="1">
-        <v>946</v>
+        <v>860</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>31</v>
@@ -16260,7 +16272,7 @@
         <v>34</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>36</v>
@@ -16322,10 +16334,10 @@
     </row>
     <row r="157" spans="1:33">
       <c r="A157" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>376</v>
+        <v>29</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>30</v>
@@ -16334,34 +16346,34 @@
         <v>1</v>
       </c>
       <c r="E157" s="1">
-        <v>810</v>
+        <v>597</v>
       </c>
       <c r="F157" s="1">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="G157" s="1">
-        <v>638</v>
+        <v>946</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O157" s="1" t="s">
         <v>38</v>
@@ -16370,16 +16382,16 @@
         <v>39</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R157" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S157" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U157" s="1" t="s">
         <v>41</v>
@@ -16420,7 +16432,7 @@
         <v>378</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>30</v>
@@ -16429,13 +16441,13 @@
         <v>1</v>
       </c>
       <c r="E158" s="1">
-        <v>728</v>
+        <v>810</v>
       </c>
       <c r="F158" s="1">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="G158" s="1">
-        <v>699</v>
+        <v>638</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>31</v>
@@ -16444,19 +16456,19 @@
         <v>52</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O158" s="1" t="s">
         <v>38</v>
@@ -16465,16 +16477,16 @@
         <v>39</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R158" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S158" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T158" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U158" s="1" t="s">
         <v>41</v>
@@ -16512,10 +16524,10 @@
     </row>
     <row r="159" spans="1:33">
       <c r="A159" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>30</v>
@@ -16524,13 +16536,13 @@
         <v>1</v>
       </c>
       <c r="E159" s="1">
-        <v>799</v>
+        <v>728</v>
       </c>
       <c r="F159" s="1">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G159" s="1">
-        <v>632</v>
+        <v>699</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>31</v>
@@ -16539,7 +16551,7 @@
         <v>52</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>33</v>
@@ -16548,10 +16560,10 @@
         <v>382</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O159" s="1" t="s">
         <v>38</v>
@@ -16560,16 +16572,16 @@
         <v>39</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R159" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S159" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T159" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U159" s="1" t="s">
         <v>41</v>
@@ -16610,7 +16622,7 @@
         <v>383</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>30</v>
@@ -16619,13 +16631,13 @@
         <v>1</v>
       </c>
       <c r="E160" s="1">
-        <v>724</v>
+        <v>799</v>
       </c>
       <c r="F160" s="1">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G160" s="1">
-        <v>712</v>
+        <v>632</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>31</v>
@@ -16634,19 +16646,19 @@
         <v>52</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O160" s="1" t="s">
         <v>38</v>
@@ -16655,16 +16667,16 @@
         <v>39</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R160" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S160" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U160" s="1" t="s">
         <v>41</v>
@@ -16682,34 +16694,30 @@
         <v>44</v>
       </c>
       <c r="Z160" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AA160" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AB160" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AC160" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD160" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE160" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF160" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AE160" s="1"/>
+      <c r="AF160" s="1"/>
       <c r="AG160" s="1"/>
     </row>
     <row r="161" spans="1:33">
       <c r="A161" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>30</v>
@@ -16721,7 +16729,7 @@
         <v>724</v>
       </c>
       <c r="F161" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G161" s="1">
         <v>712</v>
@@ -16733,7 +16741,7 @@
         <v>52</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>33</v>
@@ -16742,29 +16750,65 @@
         <v>387</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-      <c r="S161" s="1"/>
-      <c r="T161" s="1"/>
-      <c r="U161" s="1"/>
-      <c r="V161" s="1"/>
-      <c r="W161" s="1"/>
-      <c r="X161" s="1"/>
-      <c r="Y161" s="9"/>
-      <c r="Z161" s="1"/>
-      <c r="AA161" s="1"/>
-      <c r="AB161" s="1"/>
-      <c r="AC161" s="1"/>
-      <c r="AD161" s="1"/>
-      <c r="AE161" s="1"/>
-      <c r="AF161" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U161" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V161" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W161" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X161" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y161" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z161" s="1">
+        <v>540</v>
+      </c>
+      <c r="AA161" s="1">
+        <v>330</v>
+      </c>
+      <c r="AB161" s="1">
+        <v>585</v>
+      </c>
+      <c r="AC161" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD161" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE161" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF161" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AG161" s="1"/>
     </row>
     <row r="162" spans="1:33">
@@ -16772,7 +16816,7 @@
         <v>388</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>30</v>
@@ -16781,13 +16825,13 @@
         <v>1</v>
       </c>
       <c r="E162" s="1">
-        <v>830</v>
+        <v>724</v>
       </c>
       <c r="F162" s="1">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="G162" s="1">
-        <v>619</v>
+        <v>712</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>31</v>
@@ -16802,7 +16846,7 @@
         <v>33</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>55</v>
@@ -16810,64 +16854,32 @@
       <c r="N162" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O162" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P162" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q162" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R162" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S162" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T162" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U162" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V162" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W162" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X162" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y162" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z162" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA162" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB162" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC162" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD162" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
+      <c r="V162" s="1"/>
+      <c r="W162" s="1"/>
+      <c r="X162" s="1"/>
+      <c r="Y162" s="9"/>
+      <c r="Z162" s="1"/>
+      <c r="AA162" s="1"/>
+      <c r="AB162" s="1"/>
+      <c r="AC162" s="1"/>
+      <c r="AD162" s="1"/>
       <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
       <c r="AG162" s="1"/>
     </row>
     <row r="163" spans="1:33">
       <c r="A163" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>30</v>
@@ -16876,13 +16888,13 @@
         <v>1</v>
       </c>
       <c r="E163" s="1">
-        <v>913</v>
+        <v>830</v>
       </c>
       <c r="F163" s="1">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="G163" s="1">
-        <v>680</v>
+        <v>619</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>31</v>
@@ -16897,7 +16909,7 @@
         <v>33</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>55</v>
@@ -16959,10 +16971,10 @@
     </row>
     <row r="164" spans="1:33">
       <c r="A164" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>30</v>
@@ -16971,34 +16983,34 @@
         <v>1</v>
       </c>
       <c r="E164" s="1">
-        <v>388</v>
+        <v>913</v>
       </c>
       <c r="F164" s="1">
-        <v>767</v>
+        <v>397</v>
       </c>
       <c r="G164" s="1">
-        <v>616</v>
+        <v>680</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="O164" s="1" t="s">
         <v>38</v>
@@ -17007,16 +17019,16 @@
         <v>39</v>
       </c>
       <c r="Q164" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R164" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S164" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T164" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U164" s="1" t="s">
         <v>41</v>
@@ -17057,7 +17069,7 @@
         <v>394</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>30</v>
@@ -17066,13 +17078,13 @@
         <v>1</v>
       </c>
       <c r="E165" s="1">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F165" s="1">
-        <v>665</v>
+        <v>767</v>
       </c>
       <c r="G165" s="1">
-        <v>713</v>
+        <v>616</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>31</v>
@@ -17087,7 +17099,7 @@
         <v>67</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>70</v>
@@ -17149,10 +17161,10 @@
     </row>
     <row r="166" spans="1:33">
       <c r="A166" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>30</v>
@@ -17161,13 +17173,13 @@
         <v>1</v>
       </c>
       <c r="E166" s="1">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="F166" s="1">
-        <v>731</v>
+        <v>665</v>
       </c>
       <c r="G166" s="1">
-        <v>784</v>
+        <v>713</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>31</v>
@@ -17182,7 +17194,7 @@
         <v>67</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>70</v>
@@ -17244,10 +17256,10 @@
     </row>
     <row r="167" spans="1:33">
       <c r="A167" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>30</v>
@@ -17256,34 +17268,34 @@
         <v>1</v>
       </c>
       <c r="E167" s="1">
-        <v>815</v>
+        <v>432</v>
       </c>
       <c r="F167" s="1">
-        <v>462</v>
+        <v>731</v>
       </c>
       <c r="G167" s="1">
-        <v>528</v>
+        <v>784</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O167" s="1" t="s">
         <v>38</v>
@@ -17292,16 +17304,16 @@
         <v>39</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R167" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T167" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U167" s="1" t="s">
         <v>41</v>
@@ -17316,37 +17328,33 @@
         <v>43</v>
       </c>
       <c r="Y167" s="9" t="s">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="Z167" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AA167" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AB167" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AC167" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD167" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE167" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF167" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AE167" s="1"/>
+      <c r="AF167" s="1"/>
       <c r="AG167" s="1"/>
     </row>
     <row r="168" spans="1:33">
       <c r="A168" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>30</v>
@@ -17355,13 +17363,13 @@
         <v>1</v>
       </c>
       <c r="E168" s="1">
-        <v>897</v>
+        <v>815</v>
       </c>
       <c r="F168" s="1">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="G168" s="1">
-        <v>581</v>
+        <v>528</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>31</v>
@@ -17376,7 +17384,7 @@
         <v>33</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>55</v>
@@ -17415,7 +17423,7 @@
         <v>43</v>
       </c>
       <c r="Y168" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Z168" s="1">
         <v>540</v>
@@ -17442,10 +17450,10 @@
     </row>
     <row r="169" spans="1:33">
       <c r="A169" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>30</v>
@@ -17454,34 +17462,34 @@
         <v>1</v>
       </c>
       <c r="E169" s="1">
-        <v>518</v>
+        <v>897</v>
       </c>
       <c r="F169" s="1">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="G169" s="1">
-        <v>840</v>
+        <v>581</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O169" s="1" t="s">
         <v>38</v>
@@ -17490,16 +17498,16 @@
         <v>39</v>
       </c>
       <c r="Q169" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R169" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S169" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U169" s="1" t="s">
         <v>41</v>
@@ -17514,30 +17522,34 @@
         <v>43</v>
       </c>
       <c r="Y169" s="9" t="s">
-        <v>44</v>
+        <v>403</v>
       </c>
       <c r="Z169" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AA169" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AB169" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AC169" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD169" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE169" s="1"/>
-      <c r="AF169" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="AE169" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF169" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AG169" s="1"/>
     </row>
     <row r="170" spans="1:33">
       <c r="A170" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>405</v>
@@ -17549,19 +17561,19 @@
         <v>1</v>
       </c>
       <c r="E170" s="1">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="F170" s="1">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="G170" s="1">
-        <v>723</v>
+        <v>840</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>33</v>
@@ -17644,34 +17656,34 @@
         <v>1</v>
       </c>
       <c r="E171" s="1">
-        <v>388</v>
+        <v>491</v>
       </c>
       <c r="F171" s="1">
-        <v>703</v>
+        <v>591</v>
       </c>
       <c r="G171" s="1">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="L171" s="1" t="s">
         <v>409</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O171" s="1" t="s">
         <v>38</v>
@@ -17680,13 +17692,13 @@
         <v>39</v>
       </c>
       <c r="Q171" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R171" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S171" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T171" s="1" t="s">
         <v>41</v>
@@ -17739,34 +17751,34 @@
         <v>1</v>
       </c>
       <c r="E172" s="1">
-        <v>587</v>
+        <v>388</v>
       </c>
       <c r="F172" s="1">
-        <v>352</v>
+        <v>703</v>
       </c>
       <c r="G172" s="1">
-        <v>840</v>
+        <v>707</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="L172" s="1" t="s">
         <v>412</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>38</v>
@@ -17775,16 +17787,16 @@
         <v>39</v>
       </c>
       <c r="Q172" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R172" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S172" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T172" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U172" s="1" t="s">
         <v>41</v>
@@ -17796,76 +17808,72 @@
         <v>40</v>
       </c>
       <c r="X172" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Y172" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Z172" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AA172" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AB172" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AC172" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD172" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE172" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF172" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AE172" s="1"/>
+      <c r="AF172" s="1"/>
       <c r="AG172" s="1"/>
     </row>
-    <row r="173" s="2" customFormat="1" spans="1:32">
-      <c r="A173" s="2" t="s">
+    <row r="173" spans="1:33">
+      <c r="A173" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D173" s="2">
-        <v>1</v>
-      </c>
-      <c r="E173" s="2">
-        <v>443</v>
-      </c>
-      <c r="F173" s="2">
-        <v>623</v>
-      </c>
-      <c r="G173" s="2">
-        <v>732</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>51</v>
+      <c r="D173" s="1">
+        <v>1</v>
+      </c>
+      <c r="E173" s="1">
+        <v>587</v>
+      </c>
+      <c r="F173" s="1">
+        <v>352</v>
+      </c>
+      <c r="G173" s="1">
+        <v>840</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K173" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L173" s="2" t="s">
+      <c r="J173" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>415</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>38</v>
@@ -17880,10 +17888,10 @@
         <v>39</v>
       </c>
       <c r="S173" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T173" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U173" s="1" t="s">
         <v>41</v>
@@ -17892,10 +17900,10 @@
         <v>42</v>
       </c>
       <c r="W173" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X173" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y173" s="9" t="s">
         <v>44</v>
@@ -17916,43 +17924,142 @@
         <v>141</v>
       </c>
       <c r="AE173" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG173" s="1"/>
+    </row>
+    <row r="174" s="2" customFormat="1" spans="1:32">
+      <c r="A174" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D174" s="2">
+        <v>1</v>
+      </c>
+      <c r="E174" s="2">
+        <v>443</v>
+      </c>
+      <c r="F174" s="2">
+        <v>623</v>
+      </c>
+      <c r="G174" s="2">
+        <v>732</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T174" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U174" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V174" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X174" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y174" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z174" s="1">
+        <v>540</v>
+      </c>
+      <c r="AA174" s="1">
+        <v>330</v>
+      </c>
+      <c r="AB174" s="1">
+        <v>585</v>
+      </c>
+      <c r="AC174" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD174" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AF173" s="1" t="s">
+      <c r="AF174" s="1" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 H1 I1 J1 K1 M1 N1 O1 P1 Q1 R1 S1 T1 U1 V1 W1 X1 Y1 AC1 AE1:AG1 L11 B14 L14 B15 L15 L20 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 Y43 L44 L45 L46 L47 L48 L49 L50 L51 L52 B53 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 B131 L131 L132 L133 L136 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 Y168 B1:B13 B16:B52 B54:B130 B132:B1048576 L1:L10 L12:L13 L16:L19 L21:L23 L134:L135 L137:L138 L169:L172 Y2:Y42 Y44:Y167 Y169:Y173 Y174:Y1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE10 AF10 AG10 AE11 AF11 AG11 AE14 AF14 AG14 AE15 AF15 AG15 AE36 AF36 AE52 AF52 AE53 AF53 AG53 AE73 AF73 AE89 AF89 AG89 AE93 AF93 AE97 AF97 AE98 AF98 AG98 AE104 AF104 AE130 AF130 AE131 AF131 AG131 AE135 AF135 AE136 AF136 AG136 AE160 AF160 AE167 AF167 AE168 AF168 AG168 AE172 AF172 AE173 AF173 AE2:AE9 AE12:AE13 AE16:AE35 AE37:AE51 AE54:AE72 AE74:AE88 AE90:AE92 AE94:AE96 AE99:AE103 AE105:AE129 AE132:AE134 AE137:AE159 AE161:AE166 AE169:AE171 AF2:AF9 AF12:AF13 AF16:AF35 AF37:AF51 AF54:AF72 AF74:AF88 AF90:AF92 AF94:AF96 AF99:AF103 AF105:AF129 AF132:AF134 AF137:AF159 AF161:AF166 AF169:AF171 AG2:AG9 AG12:AG13 AG16:AG52 AG54:AG88 AG90:AG97 AG99:AG130 AG132:AG135 AG137:AG167 AG169:AG172">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 H1 I1 J1 K1 M1 N1 O1 P1 Q1 R1 S1 T1 U1 V1 W1 X1 Y1 AC1 AE1:AG1 L11 B14 L14 B15 L15 L20 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 Y43 L44 L45 L46 L47 L48 L49 L50 L51 L52 B53 L53 B54 L54 Y54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 B132 L132 L133 L134 L137 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 Y169 B1:B13 B16:B52 B55:B131 B133:B1048576 L1:L10 L12:L13 L16:L19 L21:L23 L135:L136 L138:L139 L170:L173 Y2:Y42 Y44:Y53 Y55:Y168 Y170:Y174 Y175:Y1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE10 AF10 AG10 AE11 AF11 AG11 AE14 AF14 AG14 AE15 AF15 AG15 AE36 AF36 AE52 AF52 AE53 AF53 AG53 AE54 AF54 AG54 AE74 AF74 AE90 AF90 AG90 AE94 AF94 AE98 AF98 AE99 AF99 AG99 AE105 AF105 AE131 AF131 AE132 AF132 AG132 AE136 AF136 AE137 AF137 AG137 AE161 AF161 AE168 AF168 AE169 AF169 AG169 AE173 AF173 AE174 AF174 AE2:AE9 AE12:AE13 AE16:AE35 AE37:AE51 AE55:AE73 AE75:AE89 AE91:AE93 AE95:AE97 AE100:AE104 AE106:AE130 AE133:AE135 AE138:AE160 AE162:AE167 AE170:AE172 AF2:AF9 AF12:AF13 AF16:AF35 AF37:AF51 AF55:AF73 AF75:AF89 AF91:AF93 AF95:AF97 AF100:AF104 AF106:AF130 AF133:AF135 AF138:AF160 AF162:AF167 AF170:AF172 AG2:AG9 AG12:AG13 AG16:AG52 AG55:AG89 AG91:AG98 AG100:AG131 AG133:AG136 AG138:AG168 AG170:AG173">
       <formula1>"天机之钥,天相之圭,太阴之精,太阳之焰,贪狼之爪,廉贞之锋,七杀之气,破军之血"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C14 C15 C20 C25 C26 C27 C28 C29 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C113 C114 C115 C116 C117 C118 C119 C120 C123 C124 C131 C136 C164 C168 C2:C10 C12:C13 C16:C19 C21:C24 C30:C31 C109:C112 C121:C122 C125:C130 C132:C135 C137:C138 C139:C141 C142:C145 C146:C149 C150:C152 C153:C163 C165:C167 C169:C172">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11 J14 J15 J20 J24 J25 J26 J27 J28 J29 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69 J70 J71 J72 J73 J74 J75 J76 J77 J78 J79 J80 J81 J82 J83 J84 J85 J86 J87 J88 J89 J90 J91 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J128 J129 J130 J131 J132 J133 J134 J137 J143 J144 J145 J146 J147 J148 J149 J150 J151 J152 J153 J154 J155 J158 J159 J160 J161 J162 J163 J164 J165 J166 J167 J168 J169 J2:J10 J12:J13 J16:J19 J21:J23 J30:J31 J45:J46 J125:J127 J135:J136 J138:J139 J140:J142 J156:J157 J170:J173">
+      <formula1>"枪,弓,骑"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11 I14 I15 I20 I24 I25 I26 I27 I28 I29 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I128 I129 I130 I131 I132 I133 I134 I137 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I174 I2:I10 I12:I13 I16:I19 I21:I23 I30:I31 I45:I46 I125:I127 I135:I136 I138:I139 I140:I142 I156:I157 I170:I173">
+      <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11 K14 K15 K20 K24 K25 K26 K27 K28 K29 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K59 K60 K61 K62 K63 K64 K65 K66 K67 K68 K69 K70 K71 K72 K73 K74 K75 K76 K77 K78 K79 K80 K81 K82 K83 K84 K85 K86 K87 K88 K89 K90 K91 K92 K93 K94 K95 K96 K97 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K122 K123 K124 K128 K129 K130 K131 K132 K133 K134 K137 K148 K158 K159 K160 K161 K162 K163 K164 K165 K166 K167 K168 K169 K2:K10 K12:K13 K16:K19 K21:K23 K30:K31 K45:K46 K125:K127 K135:K136 K138:K139 K140:K143 K144:K147 K149:K151 K152:K154 K155:K157 K170:K173">
+      <formula1>"刀,剑,枪,弓,扇"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H14 H15 H20 H24 H25 H26 H27 H28 H29 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101 H102 H103 H104 H105 H106 H107 H108 H109 H110 H111 H112 H113 H114 H115 H116 H117 H118 H119 H120 H121 H122 H123 H124 H128 H129 H130 H131 H132 H133 H134 H137 H143 H144 H145 H148 H149 H150 H151 H152 H153 H154 H155 H158 H159 H160 H161 H162 H163 H164 H165 H169 H2:H10 H12:H13 H16:H19 H21:H23 H30:H31 H45:H46 H125:H127 H135:H136 H138:H139 H140:H142 H146:H147 H156:H157 H166:H168 H170:H173">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C14 C15 C20 C25 C26 C27 C28 C29 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C114 C115 C116 C117 C118 C119 C120 C121 C124 C125 C132 C137 C165 C169 C2:C10 C12:C13 C16:C19 C21:C24 C30:C31 C110:C113 C122:C123 C126:C131 C133:C136 C138:C139 C140:C142 C143:C146 C147:C150 C151:C153 C154:C164 C166:C168 C170:C173">
       <formula1>"魏,蜀,吴,群"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H14 H15 H20 H24 H25 H26 H27 H28 H29 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101 H102 H103 H104 H105 H106 H107 H108 H109 H110 H111 H112 H113 H114 H115 H116 H117 H118 H119 H120 H121 H122 H123 H127 H128 H129 H130 H131 H132 H133 H136 H142 H143 H144 H147 H148 H149 H150 H151 H152 H153 H154 H157 H158 H159 H160 H161 H162 H163 H164 H168 H2:H10 H12:H13 H16:H19 H21:H23 H30:H31 H45:H46 H124:H126 H134:H135 H137:H138 H139:H141 H145:H146 H155:H156 H165:H167 H169:H172">
-      <formula1>"男,女"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11 P11 Q11 R11 S11 T11 U11 V11 W11 X11 O14 P14 Q14 R14 S14 T14 U14 V14 W14 X14 O15 P15 Q15 R15 S15 T15 U15 V15 W15 X15 O16 P16 Q16 R16 S16 T16 U16 V16 W16 X16 O17 P17 Q17 R17 S17 T17 U17 V17 W17 X17 O18 P18 Q18 R18 S18 T18 U18 V18 W18 X18 O19 P19 Q19 R19 S19 T19 U19 V19 W19 X19 O20 P20 Q20 R20 S20 T20 U20 V20 W20 X20 O23 P23 Q23 R23 S23 T23 U23 V23 W23 X23 O24 P24 Q24 R24 S24 T24 U24 V24 W24 X24 O25 P25 Q25 R25 S25 T25 U25 V25 W25 X25 O26 P26 Q26 R26 S26 T26 U26 V26 W26 X26 O27 P27 Q27 R27 S27 T27 U27 V27 W27 X27 O28 P28 Q28 R28 S28 T28 U28 V28 W28 X28 O29 P29 Q29 R29 S29 T29 U29 V29 W29 X29 O30 P30 Q30 R30 S30 T30 U30 V30 W30 X30 O31 P31 Q31 R31 S31 T31 U31 V31 W31 X31 O32 P32 Q32 R32 S32 T32 U32 V32 W32 X32 O33 P33 Q33 R33 S33 T33 U33 V33 W33 X33 O34 P34 Q34 R34 S34 T34 U34 V34 W34 X34 O35 P35 Q35 R35 S35 T35 U35 V35 W35 X35 O36 P36 Q36 R36 S36 T36 U36 V36 W36 X36 O37 P37 Q37 R37 S37 T37 U37 V37 W37 X37 O38 P38 Q38 R38 S38 T38 U38 V38 W38 X38 O39 P39 Q39 R39 S39 T39 U39 V39 W39 X39 O40 P40 Q40 R40 S40 T40 U40 V40 W40 X40 O41 P41 Q41 R41 S41 T41 U41 V41 W41 X41 O42 P42 Q42 R42 S42 T42 U42 V42 W42 X42 O43 P43 Q43 R43 S43 T43 U43 V43 W43 X43 O44 P44 Q44 R44 S44 T44 U44 V44 W44 X44 O45 P45 Q45 R45 S45 T45 U45 V45 W45 X45 O46 P46 Q46 R46 S46 T46 U46 V46 W46 X46 O47 P47 Q47 R47 S47 T47 U47 V47 W47 X47 O48 P48 Q48 R48 S48 T48 U48 V48 W48 X48 O49 P49 Q49 R49 S49 T49 U49 V49 W49 X49 O50 P50 Q50 R50 S50 T50 U50 V50 W50 X50 O51 P51 Q51 R51 S51 T51 U51 V51 W51 X51 O52 P52 Q52 R52 S52 T52 U52 V52 W52 X52 O53 P53 Q53 R53 S53 T53 U53 V53 W53 X53 O54 P54 Q54 R54 S54 T54 U54 V54 W54 X54 O55 P55 Q55 R55 S55 T55 U55 V55 W55 X55 O56 P56 Q56 R56 S56 T56 U56 V56 W56 X56 O57 P57 Q57 R57 S57 T57 U57 V57 W57 X57 O58 P58 Q58 R58 S58 T58 U58 V58 W58 X58 O59 P59 Q59 R59 S59 T59 U59 V59 W59 X59 O60 P60 Q60 R60 S60 T60 U60 V60 W60 X60 O61 P61 Q61 R61 S61 T61 U61 V61 W61 X61 O62 P62 Q62 R62 S62 T62 U62 V62 W62 X62 O63 P63 Q63 R63 S63 T63 U63 V63 W63 X63 O64 P64 Q64 R64 S64 T64 U64 V64 W64 X64 O65 P65 Q65 R65 S65 T65 U65 V65 W65 X65 O66 P66 Q66 R66 S66 T66 U66 V66 W66 X66 O67 P67 Q67 R67 S67 T67 U67 V67 W67 X67 O68 P68 Q68 R68 S68 T68 U68 V68 W68 X68 O69 P69 Q69 R69 S69 T69 U69 V69 W69 X69 O70 P70 Q70 R70 S70 T70 U70 V70 W70 X70 O71 P71 Q71 R71 S71 T71 U71 V71 W71 X71 O72 P72 Q72 R72 S72 T72 U72 V72 W72 X72 O73 P73 Q73 R73 S73 T73 U73 V73 W73 X73 O74 P74 Q74 R74 S74 T74 U74 V74 W74 X74 O75 P75 Q75 R75 S75 T75 U75 V75 W75 X75 O76 P76 Q76 R76 S76 T76 U76 V76 W76 X76 O77 P77 Q77 R77 S77 T77 U77 V77 W77 X77 O78 P78 Q78 R78 S78 T78 U78 V78 W78 X78 O79 P79 Q79 R79 S79 T79 U79 V79 W79 X79 O80 P80 Q80 R80 S80 T80 U80 V80 W80 X80 O81 P81 Q81 R81 S81 T81 U81 V81 W81 X81 O82 P82 Q82 R82 S82 T82 U82 V82 W82 X82 O83 P83 Q83 R83 S83 T83 U83 V83 W83 X83 O84 P84 Q84 R84 S84 T84 U84 V84 W84 X84 O85 P85 Q85 R85 S85 T85 U85 V85 W85 X85 O86 P86 Q86 R86 S86 T86 U86 V86 W86 X86 O87 P87 Q87 R87 S87 T87 U87 V87 W87 X87 O88 P88 Q88 R88 S88 T88 U88 V88 W88 X88 O89 P89 Q89 R89 S89 T89 U89 V89 W89 X89 O90 P90 Q90 R90 S90 T90 U90 V90 W90 X90 O91 P91 Q91 R91 S91 T91 U91 V91 W91 X91 O92 P92 Q92 R92 S92 T92 U92 V92 W92 X92 O93 P93 Q93 R93 S93 T93 U93 V93 W93 X93 O94 P94 Q94 R94 S94 T94 U94 V94 W94 X94 O95 P95 Q95 R95 S95 T95 U95 V95 W95 X95 O96 P96 Q96 R96 S96 T96 U96 V96 W96 X96 O97 P97 Q97 R97 S97 T97 U97 V97 W97 X97 O98 P98 Q98 R98 S98 T98 U98 V98 W98 X98 O99 P99 Q99 R99 S99 T99 U99 V99 W99 X99 O100 P100 Q100 R100 S100 T100 U100 V100 W100 X100 O101 P101 Q101 R101 S101 T101 U101 V101 W101 X101 O102 P102 Q102 R102 S102 T102 U102 V102 W102 X102 O103 P103 Q103 R103 S103 T103 U103 V103 W103 X103 O104 P104 Q104 R104 S104 T104 U104 V104 W104 X104 O105 P105 Q105 R105 S105 T105 U105 V105 W105 X105 O106 P106 Q106 R106 S106 T106 U106 V106 W106 X106 O107 P107 Q107 R107 S107 T107 U107 V107 W107 X107 O108 P108 Q108 R108 S108 T108 U108 V108 W108 X108 O109 P109 Q109 R109 S109 T109 U109 V109 W109 X109 O110 P110 Q110 R110 S110 T110 U110 V110 W110 X110 O111 P111 Q111 R111 S111 T111 U111 V111 W111 X111 O112 P112 Q112 R112 S112 T112 U112 V112 W112 X112 O113 P113 Q113 R113 S113 T113 U113 V113 W113 X113 O114 P114 Q114 R114 S114 T114 U114 V114 W114 X114 O115 P115 Q115 R115 S115 T115 U115 V115 W115 X115 O116 P116 Q116 R116 S116 T116 U116 V116 W116 X116 O117 P117 Q117 R117 S117 T117 U117 V117 W117 X117 O118 P118 Q118 R118 S118 T118 U118 V118 W118 X118 O119 P119 Q119 R119 S119 T119 U119 V119 W119 X119 O120 P120 Q120 R120 S120 T120 U120 V120 W120 X120 O121 P121 Q121 R121 S121 T121 U121 V121 W121 X121 O122 P122 Q122 R122 S122 T122 U122 V122 W122 X122 O123 P123 Q123 R123 S123 T123 U123 V123 W123 X123 O124 P124 Q124 R124 S124 T124 U124 V124 W124 X124 O125 P125 Q125 R125 S125 T125 U125 V125 W125 X125 O126 P126 Q126 R126 S126 T126 U126 V126 W126 X126 O127 P127 Q127 R127 S127 T127 U127 V127 W127 X127 O128 P128 Q128 R128 S128 T128 U128 V128 W128 X128 O129 P129 Q129 R129 S129 T129 U129 V129 W129 X129 O130 P130 Q130 R130 S130 T130 U130 V130 W130 X130 O131 P131 Q131 R131 S131 T131 U131 V131 W131 X131 O132 P132 Q132 R132 S132 T132 U132 V132 W132 X132 O133 P133 Q133 R133 S133 T133 U133 V133 W133 X133 O134 P134 Q134 R134 S134 T134 U134 V134 W134 X134 O135 P135 Q135 R135 S135 T135 U135 V135 W135 X135 O136 P136 Q136 R136 S136 T136 U136 V136 W136 X136 O137 P137 Q137 R137 S137 T137 U137 V137 W137 X137 O138 P138 Q138 R138 S138 T138 U138 V138 W138 X138 O139 P139 Q139 R139 S139 T139 U139 V139 W139 X139 O140 P140 Q140 R140 S140 T140 U140 V140 W140 X140 O141 P141 Q141 R141 S141 T141 U141 V141 W141 X141 O142 P142 Q142 R142 S142 T142 U142 V142 W142 X142 O143 P143 Q143 R143 S143 T143 U143 V143 W143 X143 O144 P144 Q144 R144 S144 T144 U144 V144 W144 X144 O145 P145 Q145 R145 S145 T145 U145 V145 W145 X145 O148 P148 Q148 R148 S148 T148 U148 V148 W148 X148 O149 P149 Q149 R149 S149 T149 U149 V149 W149 X149 O150 P150 Q150 R150 S150 T150 U150 V150 W150 X150 O151 P151 Q151 R151 S151 T151 U151 V151 W151 X151 O152 P152 Q152 R152 S152 T152 U152 V152 W152 X152 O153 P153 Q153 R153 S153 T153 U153 V153 W153 X153 O154 P154 Q154 R154 S154 T154 U154 V154 W154 X154 O155 P155 Q155 R155 S155 T155 U155 V155 W155 X155 O156 P156 Q156 R156 S156 T156 U156 V156 W156 X156 O157 P157 Q157 R157 S157 T157 U157 V157 W157 X157 O158 P158 Q158 R158 S158 T158 U158 V158 W158 X158 O159 P159 Q159 R159 S159 T159 U159 V159 W159 X159 O160 P160 Q160 R160 S160 T160 U160 V160 W160 X160 O161 P161 Q161 R161 S161 T161 U161 V161 W161 X161 O162 P162 Q162 R162 S162 T162 U162 V162 W162 X162 O163 P163 Q163 R163 S163 T163 U163 V163 W163 X163 O164 P164 Q164 R164 S164 T164 U164 V164 W164 X164 O165 P165 Q165 R165 S165 T165 U165 V165 W165 X165 O166 P166 Q166 R166 S166 T166 U166 V166 W166 X166 O167 P167 Q167 R167 S167 T167 U167 V167 W167 X167 O168 P168 Q168 R168 S168 T168 U168 V168 W168 X168 O169 P169 Q169 R169 S169 T169 U169 V169 W169 X169 O170 P170 Q170 R170 S170 T170 U170 V170 W170 X170 O171 P171 Q171 R171 S171 T171 U171 V171 W171 X171 O172 P172 Q172 R172 S172 T172 U172 V172 W172 X172 O173 P173 Q173 R173 S173 T173 U173 V173 W173 X173 O174 P174 Q174 R174 S174 T174 U174 V174 W174 X174 O2:O10 O12:O13 O21:O22 O146:O147 P2:P10 P12:P13 P21:P22 P146:P147 Q2:Q10 Q12:Q13 Q21:Q22 Q146:Q147 R2:R10 R12:R13 R21:R22 R146:R147 S2:S10 S12:S13 S21:S22 S146:S147 T2:T10 T12:T13 T21:T22 T146:T147 U2:U10 U12:U13 U21:U22 U146:U147 V2:V10 V12:V13 V21:V22 V146:V147 W2:W10 W12:W13 W21:W22 W146:W147 X2:X10 X12:X13 X21:X22 X146:X147">
+      <formula1>"武锋,三疑,兵道,军略,金鼓,文伐"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11 I14 I15 I20 I24 I25 I26 I27 I28 I29 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I127 I128 I129 I130 I131 I132 I133 I136 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I157 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I173 I2:I10 I12:I13 I16:I19 I21:I23 I30:I31 I45:I46 I124:I126 I134:I135 I137:I138 I139:I141 I155:I156 I169:I172">
-      <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11 J14 J15 J20 J24 J25 J26 J27 J28 J29 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69 J70 J71 J72 J73 J74 J75 J76 J77 J78 J79 J80 J81 J82 J83 J84 J85 J86 J87 J88 J89 J90 J91 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J127 J128 J129 J130 J131 J132 J133 J136 J142 J143 J144 J145 J146 J147 J148 J149 J150 J151 J152 J153 J154 J157 J158 J159 J160 J161 J162 J163 J164 J165 J166 J167 J168 J2:J10 J12:J13 J16:J19 J21:J23 J30:J31 J45:J46 J124:J126 J134:J135 J137:J138 J139:J141 J155:J156 J169:J172">
-      <formula1>"枪,弓,骑"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11 K14 K15 K20 K24 K25 K26 K27 K28 K29 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K59 K60 K61 K62 K63 K64 K65 K66 K67 K68 K69 K70 K71 K72 K73 K74 K75 K76 K77 K78 K79 K80 K81 K82 K83 K84 K85 K86 K87 K88 K89 K90 K91 K92 K93 K94 K95 K96 K97 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K122 K123 K127 K128 K129 K130 K131 K132 K133 K136 K147 K157 K158 K159 K160 K161 K162 K163 K164 K165 K166 K167 K168 K2:K10 K12:K13 K16:K19 K21:K23 K30:K31 K45:K46 K124:K126 K134:K135 K137:K138 K139:K142 K143:K146 K148:K150 K151:K153 K154:K156 K169:K172">
-      <formula1>"刀,剑,枪,弓,扇"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 N11 M14 N14 M15 N15 M20 N20 M23 N23 M24 N24 M25 N25 M26 N26 M27 N27 M28 N28 M29 N29 M32 N32 M33 N33 M34 N34 M35 N35 M36 N36 M37 N37 M38 N38 M39 N39 M40 N40 M41 N41 M42 N42 M43 N43 M44 N44 M45 N45 M46 N46 M47 N47 M48 N48 M49 N49 M50 N50 M51 N51 M52 N52 M53 N53 M54 N54 M55 N55 M56 N56 M57 N57 M58 N58 M59 N59 M60 N60 M61 N61 M62 N62 M63 N63 M64 N64 M65 N65 M66 N66 M67 N67 M68 N68 M69 N69 M70 N70 M71 N71 M72 N72 M73 N73 M74 N74 M75 N75 M76 N76 M77 N77 M78 N78 M79 N79 M80 N80 M81 N81 M82 N82 M83 N83 M84 N84 M85 N85 M86 N86 M87 N87 M88 N88 M89 N89 M90 N90 M91 N91 M92 N92 M93 N93 M94 N94 M95 N95 M96 N96 M97 N97 M98 N98 M99 N99 M100 N100 M101 N101 M102 N102 M103 N103 M104 N104 M105 N105 M106 N106 M107 N107 M108 N108 M109 N109 M110 N110 M111 N111 M112 N112 M113 N113 M114 N114 M115 N115 M116 N116 M117 N117 M118 N118 M119 N119 M120 N120 M121 N121 M122 N122 M123 N123 M124 N124 M125 N125 M126 N126 M127 N127 M130 N130 M131 N131 M132 N132 M133 N133 M136 N136 M139 N139 M140 N140 M141 N141 M142 N142 M143 N143 M144 N144 M145 N145 M146 N146 M147 N147 M148 N148 M149 N149 M150 N150 M151 N151 M152 N152 M153 N153 M154 N154 M155 N155 M156 N156 M157 N157 M158 N158 M159 N159 M160 N160 M161 N161 M162 N162 M163 N163 M164 N164 M165 N165 M166 N166 M167 N167 M168 N168 M169 N169 M170 N170 M171 N171 M172 N172 M173 N173 M2:M10 M12:M13 M16:M19 M21:M22 M30:M31 M128:M129 M134:M135 M137:M138 N2:N10 N12:N13 N16:N19 N21:N22 N30:N31 N128:N129 N134:N135 N137:N138">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 N11 M14 N14 M15 N15 M20 N20 M23 N23 M24 N24 M25 N25 M26 N26 M27 N27 M28 N28 M29 N29 M32 N32 M33 N33 M34 N34 M35 N35 M36 N36 M37 N37 M38 N38 M39 N39 M40 N40 M41 N41 M42 N42 M43 N43 M44 N44 M45 N45 M46 N46 M47 N47 M48 N48 M49 N49 M50 N50 M51 N51 M52 N52 M53 N53 M54 N54 M55 N55 M56 N56 M57 N57 M58 N58 M59 N59 M60 N60 M61 N61 M62 N62 M63 N63 M64 N64 M65 N65 M66 N66 M67 N67 M68 N68 M69 N69 M70 N70 M71 N71 M72 N72 M73 N73 M74 N74 M75 N75 M76 N76 M77 N77 M78 N78 M79 N79 M80 N80 M81 N81 M82 N82 M83 N83 M84 N84 M85 N85 M86 N86 M87 N87 M88 N88 M89 N89 M90 N90 M91 N91 M92 N92 M93 N93 M94 N94 M95 N95 M96 N96 M97 N97 M98 N98 M99 N99 M100 N100 M101 N101 M102 N102 M103 N103 M104 N104 M105 N105 M106 N106 M107 N107 M108 N108 M109 N109 M110 N110 M111 N111 M112 N112 M113 N113 M114 N114 M115 N115 M116 N116 M117 N117 M118 N118 M119 N119 M120 N120 M121 N121 M122 N122 M123 N123 M124 N124 M125 N125 M126 N126 M127 N127 M128 N128 M131 N131 M132 N132 M133 N133 M134 N134 M137 N137 M140 N140 M141 N141 M142 N142 M143 N143 M144 N144 M145 N145 M146 N146 M147 N147 M148 N148 M149 N149 M150 N150 M151 N151 M152 N152 M153 N153 M154 N154 M155 N155 M156 N156 M157 N157 M158 N158 M159 N159 M160 N160 M161 N161 M162 N162 M163 N163 M164 N164 M165 N165 M166 N166 M167 N167 M168 N168 M169 N169 M170 N170 M171 N171 M172 N172 M173 N173 M174 N174 M2:M10 M12:M13 M16:M19 M21:M22 M30:M31 M129:M130 M135:M136 M138:M139 N2:N10 N12:N13 N16:N19 N21:N22 N30:N31 N129:N130 N135:N136 N138:N139">
       <formula1>"盾枪兵,长戟兵,重骑兵,骠骑兵,火矢兵,连弩兵"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11 P11 Q11 R11 S11 T11 U11 V11 W11 X11 O14 P14 Q14 R14 S14 T14 U14 V14 W14 X14 O15 P15 Q15 R15 S15 T15 U15 V15 W15 X15 O16 P16 Q16 R16 S16 T16 U16 V16 W16 X16 O17 P17 Q17 R17 S17 T17 U17 V17 W17 X17 O18 P18 Q18 R18 S18 T18 U18 V18 W18 X18 O19 P19 Q19 R19 S19 T19 U19 V19 W19 X19 O20 P20 Q20 R20 S20 T20 U20 V20 W20 X20 O23 P23 Q23 R23 S23 T23 U23 V23 W23 X23 O24 P24 Q24 R24 S24 T24 U24 V24 W24 X24 O25 P25 Q25 R25 S25 T25 U25 V25 W25 X25 O26 P26 Q26 R26 S26 T26 U26 V26 W26 X26 O27 P27 Q27 R27 S27 T27 U27 V27 W27 X27 O28 P28 Q28 R28 S28 T28 U28 V28 W28 X28 O29 P29 Q29 R29 S29 T29 U29 V29 W29 X29 O30 P30 Q30 R30 S30 T30 U30 V30 W30 X30 O31 P31 Q31 R31 S31 T31 U31 V31 W31 X31 O32 P32 Q32 R32 S32 T32 U32 V32 W32 X32 O33 P33 Q33 R33 S33 T33 U33 V33 W33 X33 O34 P34 Q34 R34 S34 T34 U34 V34 W34 X34 O35 P35 Q35 R35 S35 T35 U35 V35 W35 X35 O36 P36 Q36 R36 S36 T36 U36 V36 W36 X36 O37 P37 Q37 R37 S37 T37 U37 V37 W37 X37 O38 P38 Q38 R38 S38 T38 U38 V38 W38 X38 O39 P39 Q39 R39 S39 T39 U39 V39 W39 X39 O40 P40 Q40 R40 S40 T40 U40 V40 W40 X40 O41 P41 Q41 R41 S41 T41 U41 V41 W41 X41 O42 P42 Q42 R42 S42 T42 U42 V42 W42 X42 O43 P43 Q43 R43 S43 T43 U43 V43 W43 X43 O44 P44 Q44 R44 S44 T44 U44 V44 W44 X44 O45 P45 Q45 R45 S45 T45 U45 V45 W45 X45 O46 P46 Q46 R46 S46 T46 U46 V46 W46 X46 O47 P47 Q47 R47 S47 T47 U47 V47 W47 X47 O48 P48 Q48 R48 S48 T48 U48 V48 W48 X48 O49 P49 Q49 R49 S49 T49 U49 V49 W49 X49 O50 P50 Q50 R50 S50 T50 U50 V50 W50 X50 O51 P51 Q51 R51 S51 T51 U51 V51 W51 X51 O52 P52 Q52 R52 S52 T52 U52 V52 W52 X52 O53 P53 Q53 R53 S53 T53 U53 V53 W53 X53 O54 P54 Q54 R54 S54 T54 U54 V54 W54 X54 O55 P55 Q55 R55 S55 T55 U55 V55 W55 X55 O56 P56 Q56 R56 S56 T56 U56 V56 W56 X56 O57 P57 Q57 R57 S57 T57 U57 V57 W57 X57 O58 P58 Q58 R58 S58 T58 U58 V58 W58 X58 O59 P59 Q59 R59 S59 T59 U59 V59 W59 X59 O60 P60 Q60 R60 S60 T60 U60 V60 W60 X60 O61 P61 Q61 R61 S61 T61 U61 V61 W61 X61 O62 P62 Q62 R62 S62 T62 U62 V62 W62 X62 O63 P63 Q63 R63 S63 T63 U63 V63 W63 X63 O64 P64 Q64 R64 S64 T64 U64 V64 W64 X64 O65 P65 Q65 R65 S65 T65 U65 V65 W65 X65 O66 P66 Q66 R66 S66 T66 U66 V66 W66 X66 O67 P67 Q67 R67 S67 T67 U67 V67 W67 X67 O68 P68 Q68 R68 S68 T68 U68 V68 W68 X68 O69 P69 Q69 R69 S69 T69 U69 V69 W69 X69 O70 P70 Q70 R70 S70 T70 U70 V70 W70 X70 O71 P71 Q71 R71 S71 T71 U71 V71 W71 X71 O72 P72 Q72 R72 S72 T72 U72 V72 W72 X72 O73 P73 Q73 R73 S73 T73 U73 V73 W73 X73 O74 P74 Q74 R74 S74 T74 U74 V74 W74 X74 O75 P75 Q75 R75 S75 T75 U75 V75 W75 X75 O76 P76 Q76 R76 S76 T76 U76 V76 W76 X76 O77 P77 Q77 R77 S77 T77 U77 V77 W77 X77 O78 P78 Q78 R78 S78 T78 U78 V78 W78 X78 O79 P79 Q79 R79 S79 T79 U79 V79 W79 X79 O80 P80 Q80 R80 S80 T80 U80 V80 W80 X80 O81 P81 Q81 R81 S81 T81 U81 V81 W81 X81 O82 P82 Q82 R82 S82 T82 U82 V82 W82 X82 O83 P83 Q83 R83 S83 T83 U83 V83 W83 X83 O84 P84 Q84 R84 S84 T84 U84 V84 W84 X84 O85 P85 Q85 R85 S85 T85 U85 V85 W85 X85 O86 P86 Q86 R86 S86 T86 U86 V86 W86 X86 O87 P87 Q87 R87 S87 T87 U87 V87 W87 X87 O88 P88 Q88 R88 S88 T88 U88 V88 W88 X88 O89 P89 Q89 R89 S89 T89 U89 V89 W89 X89 O90 P90 Q90 R90 S90 T90 U90 V90 W90 X90 O91 P91 Q91 R91 S91 T91 U91 V91 W91 X91 O92 P92 Q92 R92 S92 T92 U92 V92 W92 X92 O93 P93 Q93 R93 S93 T93 U93 V93 W93 X93 O94 P94 Q94 R94 S94 T94 U94 V94 W94 X94 O95 P95 Q95 R95 S95 T95 U95 V95 W95 X95 O96 P96 Q96 R96 S96 T96 U96 V96 W96 X96 O97 P97 Q97 R97 S97 T97 U97 V97 W97 X97 O98 P98 Q98 R98 S98 T98 U98 V98 W98 X98 O99 P99 Q99 R99 S99 T99 U99 V99 W99 X99 O100 P100 Q100 R100 S100 T100 U100 V100 W100 X100 O101 P101 Q101 R101 S101 T101 U101 V101 W101 X101 O102 P102 Q102 R102 S102 T102 U102 V102 W102 X102 O103 P103 Q103 R103 S103 T103 U103 V103 W103 X103 O104 P104 Q104 R104 S104 T104 U104 V104 W104 X104 O105 P105 Q105 R105 S105 T105 U105 V105 W105 X105 O106 P106 Q106 R106 S106 T106 U106 V106 W106 X106 O107 P107 Q107 R107 S107 T107 U107 V107 W107 X107 O108 P108 Q108 R108 S108 T108 U108 V108 W108 X108 O109 P109 Q109 R109 S109 T109 U109 V109 W109 X109 O110 P110 Q110 R110 S110 T110 U110 V110 W110 X110 O111 P111 Q111 R111 S111 T111 U111 V111 W111 X111 O112 P112 Q112 R112 S112 T112 U112 V112 W112 X112 O113 P113 Q113 R113 S113 T113 U113 V113 W113 X113 O114 P114 Q114 R114 S114 T114 U114 V114 W114 X114 O115 P115 Q115 R115 S115 T115 U115 V115 W115 X115 O116 P116 Q116 R116 S116 T116 U116 V116 W116 X116 O117 P117 Q117 R117 S117 T117 U117 V117 W117 X117 O118 P118 Q118 R118 S118 T118 U118 V118 W118 X118 O119 P119 Q119 R119 S119 T119 U119 V119 W119 X119 O120 P120 Q120 R120 S120 T120 U120 V120 W120 X120 O121 P121 Q121 R121 S121 T121 U121 V121 W121 X121 O122 P122 Q122 R122 S122 T122 U122 V122 W122 X122 O123 P123 Q123 R123 S123 T123 U123 V123 W123 X123 O124 P124 Q124 R124 S124 T124 U124 V124 W124 X124 O125 P125 Q125 R125 S125 T125 U125 V125 W125 X125 O126 P126 Q126 R126 S126 T126 U126 V126 W126 X126 O127 P127 Q127 R127 S127 T127 U127 V127 W127 X127 O128 P128 Q128 R128 S128 T128 U128 V128 W128 X128 O129 P129 Q129 R129 S129 T129 U129 V129 W129 X129 O130 P130 Q130 R130 S130 T130 U130 V130 W130 X130 O131 P131 Q131 R131 S131 T131 U131 V131 W131 X131 O132 P132 Q132 R132 S132 T132 U132 V132 W132 X132 O133 P133 Q133 R133 S133 T133 U133 V133 W133 X133 O134 P134 Q134 R134 S134 T134 U134 V134 W134 X134 O135 P135 Q135 R135 S135 T135 U135 V135 W135 X135 O136 P136 Q136 R136 S136 T136 U136 V136 W136 X136 O137 P137 Q137 R137 S137 T137 U137 V137 W137 X137 O138 P138 Q138 R138 S138 T138 U138 V138 W138 X138 O139 P139 Q139 R139 S139 T139 U139 V139 W139 X139 O140 P140 Q140 R140 S140 T140 U140 V140 W140 X140 O141 P141 Q141 R141 S141 T141 U141 V141 W141 X141 O142 P142 Q142 R142 S142 T142 U142 V142 W142 X142 O143 P143 Q143 R143 S143 T143 U143 V143 W143 X143 O144 P144 Q144 R144 S144 T144 U144 V144 W144 X144 O147 P147 Q147 R147 S147 T147 U147 V147 W147 X147 O148 P148 Q148 R148 S148 T148 U148 V148 W148 X148 O149 P149 Q149 R149 S149 T149 U149 V149 W149 X149 O150 P150 Q150 R150 S150 T150 U150 V150 W150 X150 O151 P151 Q151 R151 S151 T151 U151 V151 W151 X151 O152 P152 Q152 R152 S152 T152 U152 V152 W152 X152 O153 P153 Q153 R153 S153 T153 U153 V153 W153 X153 O154 P154 Q154 R154 S154 T154 U154 V154 W154 X154 O155 P155 Q155 R155 S155 T155 U155 V155 W155 X155 O156 P156 Q156 R156 S156 T156 U156 V156 W156 X156 O157 P157 Q157 R157 S157 T157 U157 V157 W157 X157 O158 P158 Q158 R158 S158 T158 U158 V158 W158 X158 O159 P159 Q159 R159 S159 T159 U159 V159 W159 X159 O160 P160 Q160 R160 S160 T160 U160 V160 W160 X160 O161 P161 Q161 R161 S161 T161 U161 V161 W161 X161 O162 P162 Q162 R162 S162 T162 U162 V162 W162 X162 O163 P163 Q163 R163 S163 T163 U163 V163 W163 X163 O164 P164 Q164 R164 S164 T164 U164 V164 W164 X164 O165 P165 Q165 R165 S165 T165 U165 V165 W165 X165 O166 P166 Q166 R166 S166 T166 U166 V166 W166 X166 O167 P167 Q167 R167 S167 T167 U167 V167 W167 X167 O168 P168 Q168 R168 S168 T168 U168 V168 W168 X168 O169 P169 Q169 R169 S169 T169 U169 V169 W169 X169 O170 P170 Q170 R170 S170 T170 U170 V170 W170 X170 O171 P171 Q171 R171 S171 T171 U171 V171 W171 X171 O172 P172 Q172 R172 S172 T172 U172 V172 W172 X172 O173 P173 Q173 R173 S173 T173 U173 V173 W173 X173 O2:O10 O12:O13 O21:O22 O145:O146 P2:P10 P12:P13 P21:P22 P145:P146 Q2:Q10 Q12:Q13 Q21:Q22 Q145:Q146 R2:R10 R12:R13 R21:R22 R145:R146 S2:S10 S12:S13 S21:S22 S145:S146 T2:T10 T12:T13 T21:T22 T145:T146 U2:U10 U12:U13 U21:U22 U145:U146 V2:V10 V12:V13 V21:V22 V145:V146 W2:W10 W12:W13 W21:W22 W145:W146 X2:X10 X12:X13 X21:X22 X145:X146">
-      <formula1>"武锋,三疑,兵道,军略,金鼓,文伐"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC11 AC14 AC15 AC16 AC17 AC18 AC19 AC20 AC23 AC24 AC25 AC26 AC27 AC28 AC29 AC30 AC31 AC32 AC33 AC34 AC35 AC36 AC37 AC38 AC39 AC40 AC41 AC42 AC43 AC44 AC45 AC46 AC47 AC48 AC49 AC50 AC51 AC52 AC53 AC54 AC55 AC56 AC57 AC58 AC59 AC60 AC61 AC62 AC63 AC64 AC65 AC66 AC67 AC68 AC69 AC70 AC71 AC72 AC73 AC74 AC75 AC76 AC77 AC78 AC79 AC80 AC81 AC82 AC83 AC84 AC85 AC86 AC87 AC88 AC89 AC90 AC91 AC92 AC93 AC94 AC95 AC96 AC97 AC98 AC99 AC100 AC101 AC102 AC103 AC104 AC105 AC106 AC107 AC108 AC109 AC110 AC111 AC112 AC113 AC114 AC115 AC116 AC117 AC118 AC119 AC120 AC121 AC122 AC123 AC124 AC125 AC126 AC127 AC128 AC129 AC130 AC131 AC132 AC133 AC134 AC135 AC136 AC137 AC138 AC139 AC140 AC141 AC142 AC143 AC144 AC147 AC148 AC149 AC150 AC151 AC152 AC153 AC154 AC155 AC156 AC157 AC158 AC159 AC160 AC161 AC162 AC163 AC164 AC165 AC166 AC167 AC168 AC169 AC170 AC171 AC172 AC173 AC2:AC10 AC12:AC13 AC21:AC22 AC145:AC146">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC11 AC14 AC15 AC16 AC17 AC18 AC19 AC20 AC23 AC24 AC25 AC26 AC27 AC28 AC29 AC30 AC31 AC32 AC33 AC34 AC35 AC36 AC37 AC38 AC39 AC40 AC41 AC42 AC43 AC44 AC45 AC46 AC47 AC48 AC49 AC50 AC51 AC52 AC53 AC54 AC55 AC56 AC57 AC58 AC59 AC60 AC61 AC62 AC63 AC64 AC65 AC66 AC67 AC68 AC69 AC70 AC71 AC72 AC73 AC74 AC75 AC76 AC77 AC78 AC79 AC80 AC81 AC82 AC83 AC84 AC85 AC86 AC87 AC88 AC89 AC90 AC91 AC92 AC93 AC94 AC95 AC96 AC97 AC98 AC99 AC100 AC101 AC102 AC103 AC104 AC105 AC106 AC107 AC108 AC109 AC110 AC111 AC112 AC113 AC114 AC115 AC116 AC117 AC118 AC119 AC120 AC121 AC122 AC123 AC124 AC125 AC126 AC127 AC128 AC129 AC130 AC131 AC132 AC133 AC134 AC135 AC136 AC137 AC138 AC139 AC140 AC141 AC142 AC143 AC144 AC145 AC148 AC149 AC150 AC151 AC152 AC153 AC154 AC155 AC156 AC157 AC158 AC159 AC160 AC161 AC162 AC163 AC164 AC165 AC166 AC167 AC168 AC169 AC170 AC171 AC172 AC173 AC174 AC2:AC10 AC12:AC13 AC21:AC22 AC146:AC147">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD$1:AD$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD54 AD1:AD53 AD55:AD1048576">
       <formula1>"逆命,逆命5,突破,未开命格"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/excel/data_temp.xlsx
+++ b/src/main/resources/excel/data_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010"/>
+    <workbookView windowWidth="25035" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="424">
   <si>
     <t>武将名称</t>
   </si>
@@ -297,6 +297,9 @@
     <t>吕布,太史慈,曹操,张飞,孙尚香</t>
   </si>
   <si>
+    <t>锦绣丹心</t>
+  </si>
+  <si>
     <t>陨星庞统</t>
   </si>
   <si>
@@ -325,6 +328,9 @@
   </si>
   <si>
     <t>孙坚,孙策,吕蒙,周瑜,步练师</t>
+  </si>
+  <si>
+    <t>醉梦千秋</t>
   </si>
   <si>
     <t>烈胆凌统</t>
@@ -1289,10 +1295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1333,7 +1339,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1342,6 +1348,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1362,9 +1376,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1375,52 +1396,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1441,7 +1416,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1454,8 +1444,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1470,7 +1476,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1491,25 +1497,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,7 +1521,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,67 +1569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,13 +1587,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1635,13 +1617,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1653,25 +1671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,41 +1706,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1760,16 +1751,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1782,6 +1773,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1790,10 +1796,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1802,133 +1808,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1957,10 +1963,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1975,7 +1981,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2328,8 +2334,8 @@
   <sheetPr/>
   <dimension ref="A1:AG175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3323,7 +3329,7 @@
         <v>43</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="Z10" s="1">
         <v>490</v>
@@ -3352,10 +3358,10 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:33">
       <c r="A11" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>88</v>
@@ -3385,7 +3391,7 @@
         <v>67</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>55</v>
@@ -3453,13 +3459,13 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -3486,7 +3492,7 @@
         <v>67</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>70</v>
@@ -3554,13 +3560,13 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -3587,7 +3593,7 @@
         <v>33</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>70</v>
@@ -3626,7 +3632,7 @@
         <v>43</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="Z13" s="1">
         <v>580</v>
@@ -3655,13 +3661,13 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3688,7 +3694,7 @@
         <v>34</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>55</v>
@@ -3756,10 +3762,10 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:33">
       <c r="A15" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>88</v>
@@ -3789,7 +3795,7 @@
         <v>34</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>36</v>
@@ -3843,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>46</v>
@@ -3857,7 +3863,7 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:30">
       <c r="A16" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>79</v>
@@ -3890,7 +3896,7 @@
         <v>34</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>55</v>
@@ -3944,12 +3950,12 @@
         <v>0</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:30">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>79</v>
@@ -3982,7 +3988,7 @@
         <v>34</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>55</v>
@@ -4036,12 +4042,12 @@
         <v>0</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:30">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>79</v>
@@ -4074,7 +4080,7 @@
         <v>34</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>36</v>
@@ -4128,12 +4134,12 @@
         <v>0</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:30">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>79</v>
@@ -4166,7 +4172,7 @@
         <v>34</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>36</v>
@@ -4220,15 +4226,15 @@
         <v>0</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:30">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>75</v>
@@ -4258,7 +4264,7 @@
         <v>68</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>70</v>
@@ -4312,15 +4318,15 @@
         <v>0</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:25">
       <c r="A21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>75</v>
@@ -4350,7 +4356,7 @@
         <v>68</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>55</v>
@@ -4362,10 +4368,10 @@
     </row>
     <row r="22" s="1" customFormat="1" spans="1:25">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>75</v>
@@ -4395,7 +4401,7 @@
         <v>68</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>55</v>
@@ -4407,10 +4413,10 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="1:30">
       <c r="A23" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>75</v>
@@ -4440,7 +4446,7 @@
         <v>33</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>55</v>
@@ -4494,15 +4500,15 @@
         <v>0</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:30">
       <c r="A24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>75</v>
@@ -4532,7 +4538,7 @@
         <v>33</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>55</v>
@@ -4586,15 +4592,15 @@
         <v>0</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:30">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>30</v>
@@ -4624,7 +4630,7 @@
         <v>33</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>55</v>
@@ -4678,15 +4684,15 @@
         <v>0</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:30">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>30</v>
@@ -4716,7 +4722,7 @@
         <v>33</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>55</v>
@@ -4770,15 +4776,15 @@
         <v>0</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:25">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>75</v>
@@ -4808,7 +4814,7 @@
         <v>62</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>55</v>
@@ -4820,10 +4826,10 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="1:25">
       <c r="A28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>75</v>
@@ -4853,7 +4859,7 @@
         <v>62</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>55</v>
@@ -4865,10 +4871,10 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="1:30">
       <c r="A29" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>75</v>
@@ -4898,7 +4904,7 @@
         <v>62</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>55</v>
@@ -4952,15 +4958,15 @@
         <v>0</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:30">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>75</v>
@@ -4990,7 +4996,7 @@
         <v>62</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>55</v>
@@ -5044,15 +5050,15 @@
         <v>0</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:30">
       <c r="A31" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>75</v>
@@ -5082,7 +5088,7 @@
         <v>62</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>36</v>
@@ -5136,12 +5142,12 @@
         <v>0</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:32">
       <c r="A32" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>74</v>
@@ -5174,7 +5180,7 @@
         <v>33</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>55</v>
@@ -5228,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE32" s="1" t="s">
         <v>57</v>
@@ -5239,7 +5245,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="1:25">
       <c r="A33" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>74</v>
@@ -5272,7 +5278,7 @@
         <v>33</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>36</v>
@@ -5284,7 +5290,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:25">
       <c r="A34" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>74</v>
@@ -5317,7 +5323,7 @@
         <v>33</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>36</v>
@@ -5329,10 +5335,10 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="1:32">
       <c r="A35" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>75</v>
@@ -5362,7 +5368,7 @@
         <v>34</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>55</v>
@@ -5416,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE35" s="1" t="s">
         <v>47</v>
@@ -5427,10 +5433,10 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:32">
       <c r="A36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>75</v>
@@ -5460,7 +5466,7 @@
         <v>34</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>55</v>
@@ -5514,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE36" s="1" t="s">
         <v>47</v>
@@ -5525,10 +5531,10 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:30">
       <c r="A37" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>75</v>
@@ -5558,7 +5564,7 @@
         <v>34</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>70</v>
@@ -5612,15 +5618,15 @@
         <v>0</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:30">
       <c r="A38" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>75</v>
@@ -5650,7 +5656,7 @@
         <v>34</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>70</v>
@@ -5704,15 +5710,15 @@
         <v>0</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:25">
       <c r="A39" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>75</v>
@@ -5742,7 +5748,7 @@
         <v>33</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>36</v>
@@ -5754,10 +5760,10 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:30">
       <c r="A40" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>75</v>
@@ -5787,7 +5793,7 @@
         <v>33</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>55</v>
@@ -5841,15 +5847,15 @@
         <v>0</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:30">
       <c r="A41" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>75</v>
@@ -5879,7 +5885,7 @@
         <v>33</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>55</v>
@@ -5933,15 +5939,15 @@
         <v>0</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:30">
       <c r="A42" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>75</v>
@@ -5971,7 +5977,7 @@
         <v>68</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>55</v>
@@ -6010,7 +6016,7 @@
         <v>43</v>
       </c>
       <c r="Y42" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Z42" s="1">
         <v>0</v>
@@ -6025,15 +6031,15 @@
         <v>0</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:30">
       <c r="A43" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>75</v>
@@ -6063,7 +6069,7 @@
         <v>68</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>55</v>
@@ -6102,7 +6108,7 @@
         <v>43</v>
       </c>
       <c r="Y43" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Z43" s="1">
         <v>0</v>
@@ -6117,15 +6123,15 @@
         <v>0</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:30">
       <c r="A44" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>75</v>
@@ -6155,7 +6161,7 @@
         <v>68</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>70</v>
@@ -6209,15 +6215,15 @@
         <v>0</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:30">
       <c r="A45" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>75</v>
@@ -6247,7 +6253,7 @@
         <v>68</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>70</v>
@@ -6301,15 +6307,15 @@
         <v>0</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:30">
       <c r="A46" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>75</v>
@@ -6339,7 +6345,7 @@
         <v>34</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>55</v>
@@ -6393,15 +6399,15 @@
         <v>0</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:30">
       <c r="A47" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>75</v>
@@ -6431,7 +6437,7 @@
         <v>34</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>36</v>
@@ -6485,15 +6491,15 @@
         <v>0</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:32">
       <c r="A48" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>75</v>
@@ -6523,7 +6529,7 @@
         <v>67</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>70</v>
@@ -6577,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE48" s="1" t="s">
         <v>46</v>
@@ -6588,10 +6594,10 @@
     </row>
     <row r="49" s="1" customFormat="1" spans="1:30">
       <c r="A49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>75</v>
@@ -6621,7 +6627,7 @@
         <v>67</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>55</v>
@@ -6675,12 +6681,12 @@
         <v>0</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:30">
       <c r="A50" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>84</v>
@@ -6713,7 +6719,7 @@
         <v>34</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>70</v>
@@ -6767,12 +6773,12 @@
         <v>0</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:32">
       <c r="A51" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>84</v>
@@ -6805,7 +6811,7 @@
         <v>34</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>70</v>
@@ -6859,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE51" s="1" t="s">
         <v>58</v>
@@ -6870,10 +6876,10 @@
     </row>
     <row r="52" s="1" customFormat="1" spans="1:32">
       <c r="A52" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>75</v>
@@ -6903,7 +6909,7 @@
         <v>34</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>55</v>
@@ -6957,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="AD52" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE52" s="1" t="s">
         <v>58</v>
@@ -6968,10 +6974,10 @@
     </row>
     <row r="53" s="1" customFormat="1" spans="1:32">
       <c r="A53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>75</v>
@@ -7001,7 +7007,7 @@
         <v>34</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>55</v>
@@ -7055,7 +7061,7 @@
         <v>1</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>58</v>
@@ -7066,10 +7072,10 @@
     </row>
     <row r="54" s="1" customFormat="1" spans="1:32">
       <c r="A54" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>75</v>
@@ -7099,7 +7105,7 @@
         <v>68</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>70</v>
@@ -7153,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE54" s="1" t="s">
         <v>47</v>
@@ -7164,10 +7170,10 @@
     </row>
     <row r="55" s="1" customFormat="1" spans="1:32">
       <c r="A55" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>75</v>
@@ -7197,7 +7203,7 @@
         <v>62</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>55</v>
@@ -7247,25 +7253,25 @@
       <c r="AB55" s="9">
         <v>585</v>
       </c>
-      <c r="AC55" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD55" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE55" s="8" t="s">
+      <c r="AC55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AF55" s="8" t="s">
+      <c r="AF55" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:30">
       <c r="A56" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>75</v>
@@ -7295,7 +7301,7 @@
         <v>68</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>70</v>
@@ -7349,15 +7355,15 @@
         <v>0</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:30">
       <c r="A57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>30</v>
@@ -7387,7 +7393,7 @@
         <v>68</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>70</v>
@@ -7441,15 +7447,15 @@
         <v>0</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:30">
       <c r="A58" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>30</v>
@@ -7479,7 +7485,7 @@
         <v>68</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>70</v>
@@ -7533,15 +7539,15 @@
         <v>0</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:30">
       <c r="A59" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>88</v>
@@ -7571,7 +7577,7 @@
         <v>34</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>36</v>
@@ -7625,15 +7631,15 @@
         <v>0</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:30">
       <c r="A60" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>88</v>
@@ -7663,7 +7669,7 @@
         <v>34</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>36</v>
@@ -7717,15 +7723,15 @@
         <v>0</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:30">
       <c r="A61" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>30</v>
@@ -7755,7 +7761,7 @@
         <v>34</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>55</v>
@@ -7809,15 +7815,15 @@
         <v>0</v>
       </c>
       <c r="AD61" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:30">
       <c r="A62" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>75</v>
@@ -7847,7 +7853,7 @@
         <v>62</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>55</v>
@@ -7901,15 +7907,15 @@
         <v>0</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:30">
       <c r="A63" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>88</v>
@@ -7939,7 +7945,7 @@
         <v>62</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>36</v>
@@ -7993,15 +7999,15 @@
         <v>0</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:30">
       <c r="A64" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>88</v>
@@ -8031,7 +8037,7 @@
         <v>62</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>36</v>
@@ -8085,15 +8091,15 @@
         <v>0</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:25">
       <c r="A65" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>88</v>
@@ -8123,7 +8129,7 @@
         <v>68</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>70</v>
@@ -8135,10 +8141,10 @@
     </row>
     <row r="66" s="1" customFormat="1" spans="1:30">
       <c r="A66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>88</v>
@@ -8168,7 +8174,7 @@
         <v>68</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>70</v>
@@ -8222,15 +8228,15 @@
         <v>0</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:30">
       <c r="A67" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>88</v>
@@ -8260,7 +8266,7 @@
         <v>68</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>70</v>
@@ -8314,15 +8320,15 @@
         <v>0</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:30">
       <c r="A68" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>88</v>
@@ -8352,7 +8358,7 @@
         <v>67</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>70</v>
@@ -8406,15 +8412,15 @@
         <v>0</v>
       </c>
       <c r="AD68" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:30">
       <c r="A69" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>88</v>
@@ -8444,7 +8450,7 @@
         <v>67</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>55</v>
@@ -8498,15 +8504,15 @@
         <v>0</v>
       </c>
       <c r="AD69" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:30">
       <c r="A70" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>88</v>
@@ -8536,7 +8542,7 @@
         <v>67</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>55</v>
@@ -8590,15 +8596,15 @@
         <v>0</v>
       </c>
       <c r="AD70" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:30">
       <c r="A71" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>88</v>
@@ -8628,7 +8634,7 @@
         <v>33</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>55</v>
@@ -8682,15 +8688,15 @@
         <v>0</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:30">
       <c r="A72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>88</v>
@@ -8720,7 +8726,7 @@
         <v>33</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>55</v>
@@ -8774,15 +8780,15 @@
         <v>0</v>
       </c>
       <c r="AD72" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:30">
       <c r="A73" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>30</v>
@@ -8812,7 +8818,7 @@
         <v>33</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>55</v>
@@ -8866,15 +8872,15 @@
         <v>0</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:30">
       <c r="A74" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>30</v>
@@ -8904,7 +8910,7 @@
         <v>33</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>55</v>
@@ -8958,15 +8964,15 @@
         <v>0</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:32">
       <c r="A75" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>88</v>
@@ -8996,7 +9002,7 @@
         <v>33</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>55</v>
@@ -9050,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="AD75" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE75" s="1" t="s">
         <v>57</v>
@@ -9061,10 +9067,10 @@
     </row>
     <row r="76" s="1" customFormat="1" spans="1:25">
       <c r="A76" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>88</v>
@@ -9094,7 +9100,7 @@
         <v>33</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>36</v>
@@ -9106,10 +9112,10 @@
     </row>
     <row r="77" s="1" customFormat="1" spans="1:25">
       <c r="A77" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>88</v>
@@ -9139,7 +9145,7 @@
         <v>33</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>36</v>
@@ -9151,7 +9157,7 @@
     </row>
     <row r="78" s="1" customFormat="1" spans="1:30">
       <c r="A78" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>91</v>
@@ -9184,7 +9190,7 @@
         <v>34</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>36</v>
@@ -9238,12 +9244,12 @@
         <v>0</v>
       </c>
       <c r="AD78" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:30">
       <c r="A79" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>91</v>
@@ -9276,7 +9282,7 @@
         <v>34</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>36</v>
@@ -9330,12 +9336,12 @@
         <v>0</v>
       </c>
       <c r="AD79" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:30">
       <c r="A80" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>91</v>
@@ -9368,7 +9374,7 @@
         <v>34</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>36</v>
@@ -9422,12 +9428,12 @@
         <v>0</v>
       </c>
       <c r="AD80" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:30">
       <c r="A81" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>91</v>
@@ -9460,7 +9466,7 @@
         <v>34</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>36</v>
@@ -9514,12 +9520,12 @@
         <v>0</v>
       </c>
       <c r="AD81" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" spans="1:25">
       <c r="A82" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>87</v>
@@ -9552,7 +9558,7 @@
         <v>62</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>36</v>
@@ -9564,7 +9570,7 @@
     </row>
     <row r="83" s="1" customFormat="1" spans="1:25">
       <c r="A83" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>87</v>
@@ -9597,7 +9603,7 @@
         <v>62</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>36</v>
@@ -9609,10 +9615,10 @@
     </row>
     <row r="84" s="1" customFormat="1" spans="1:25">
       <c r="A84" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>88</v>
@@ -9642,7 +9648,7 @@
         <v>67</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>55</v>
@@ -9654,10 +9660,10 @@
     </row>
     <row r="85" s="1" customFormat="1" spans="1:30">
       <c r="A85" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>88</v>
@@ -9687,7 +9693,7 @@
         <v>67</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>70</v>
@@ -9741,15 +9747,15 @@
         <v>0</v>
       </c>
       <c r="AD85" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:30">
       <c r="A86" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>88</v>
@@ -9779,7 +9785,7 @@
         <v>67</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>70</v>
@@ -9833,15 +9839,15 @@
         <v>0</v>
       </c>
       <c r="AD86" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:25">
       <c r="A87" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>88</v>
@@ -9871,7 +9877,7 @@
         <v>62</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>36</v>
@@ -9883,10 +9889,10 @@
     </row>
     <row r="88" s="1" customFormat="1" spans="1:30">
       <c r="A88" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>88</v>
@@ -9916,7 +9922,7 @@
         <v>62</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>55</v>
@@ -9970,15 +9976,15 @@
         <v>0</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:30">
       <c r="A89" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>88</v>
@@ -10008,7 +10014,7 @@
         <v>62</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>55</v>
@@ -10062,15 +10068,15 @@
         <v>0</v>
       </c>
       <c r="AD89" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" spans="1:32">
       <c r="A90" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>88</v>
@@ -10100,7 +10106,7 @@
         <v>67</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>70</v>
@@ -10154,7 +10160,7 @@
         <v>1</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE90" s="1" t="s">
         <v>47</v>
@@ -10165,10 +10171,10 @@
     </row>
     <row r="91" s="1" customFormat="1" spans="1:32">
       <c r="A91" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>88</v>
@@ -10198,7 +10204,7 @@
         <v>67</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>70</v>
@@ -10252,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE91" s="1" t="s">
         <v>47</v>
@@ -10263,10 +10269,10 @@
     </row>
     <row r="92" s="1" customFormat="1" spans="1:30">
       <c r="A92" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>88</v>
@@ -10296,7 +10302,7 @@
         <v>67</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>70</v>
@@ -10350,15 +10356,15 @@
         <v>0</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" spans="1:30">
       <c r="A93" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>88</v>
@@ -10388,7 +10394,7 @@
         <v>67</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>70</v>
@@ -10442,15 +10448,15 @@
         <v>0</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" spans="1:30">
       <c r="A94" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>88</v>
@@ -10480,7 +10486,7 @@
         <v>67</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>70</v>
@@ -10534,18 +10540,18 @@
         <v>0</v>
       </c>
       <c r="AD94" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" spans="1:32">
       <c r="A95" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
@@ -10572,7 +10578,7 @@
         <v>67</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>70</v>
@@ -10611,7 +10617,7 @@
         <v>43</v>
       </c>
       <c r="Y95" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Z95" s="1">
         <v>540</v>
@@ -10626,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="AD95" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE95" s="1" t="s">
         <v>47</v>
@@ -10637,10 +10643,10 @@
     </row>
     <row r="96" s="1" customFormat="1" spans="1:30">
       <c r="A96" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>88</v>
@@ -10670,7 +10676,7 @@
         <v>67</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>70</v>
@@ -10724,15 +10730,15 @@
         <v>0</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:33">
       <c r="A97" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>88</v>
@@ -10762,7 +10768,7 @@
         <v>67</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>36</v>
@@ -10816,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="AD97" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE97" s="1"/>
       <c r="AF97" s="1"/>
@@ -10824,10 +10830,10 @@
     </row>
     <row r="98" spans="1:33">
       <c r="A98" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>88</v>
@@ -10857,7 +10863,7 @@
         <v>67</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>36</v>
@@ -10911,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="AD98" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE98" s="1"/>
       <c r="AF98" s="1"/>
@@ -10919,10 +10925,10 @@
     </row>
     <row r="99" spans="1:33">
       <c r="A99" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>88</v>
@@ -10952,7 +10958,7 @@
         <v>33</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>55</v>
@@ -10991,7 +10997,7 @@
         <v>43</v>
       </c>
       <c r="Y99" s="12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z99" s="1">
         <v>540</v>
@@ -11006,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="AD99" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE99" s="1" t="s">
         <v>58</v>
@@ -11018,10 +11024,10 @@
     </row>
     <row r="100" spans="1:33">
       <c r="A100" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>88</v>
@@ -11051,7 +11057,7 @@
         <v>68</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>70</v>
@@ -11105,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="AD100" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE100" s="1" t="s">
         <v>58</v>
@@ -11117,13 +11123,13 @@
     </row>
     <row r="101" spans="1:33">
       <c r="A101" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
@@ -11150,7 +11156,7 @@
         <v>67</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>70</v>
@@ -11204,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="AD101" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE101" s="1"/>
       <c r="AF101" s="1"/>
@@ -11212,13 +11218,13 @@
     </row>
     <row r="102" spans="1:33">
       <c r="A102" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="C102" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
@@ -11245,7 +11251,7 @@
         <v>67</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>70</v>
@@ -11299,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="AD102" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE102" s="1"/>
       <c r="AF102" s="1"/>
@@ -11307,13 +11313,13 @@
     </row>
     <row r="103" spans="1:33">
       <c r="A103" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
@@ -11340,7 +11346,7 @@
         <v>67</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>70</v>
@@ -11370,13 +11376,13 @@
     </row>
     <row r="104" spans="1:33">
       <c r="A104" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D104" s="1">
         <v>1</v>
@@ -11403,7 +11409,7 @@
         <v>67</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>70</v>
@@ -11457,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="AD104" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE104" s="1"/>
       <c r="AF104" s="1"/>
@@ -11465,13 +11471,13 @@
     </row>
     <row r="105" spans="1:33">
       <c r="A105" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
@@ -11498,7 +11504,7 @@
         <v>67</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>70</v>
@@ -11552,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AD105" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE105" s="1"/>
       <c r="AF105" s="1"/>
@@ -11560,13 +11566,13 @@
     </row>
     <row r="106" spans="1:33">
       <c r="A106" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D106" s="1">
         <v>1</v>
@@ -11593,7 +11599,7 @@
         <v>68</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>36</v>
@@ -11647,7 +11653,7 @@
         <v>1</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE106" s="1" t="s">
         <v>46</v>
@@ -11659,13 +11665,13 @@
     </row>
     <row r="107" spans="1:33">
       <c r="A107" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C107" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D107" s="1">
         <v>1</v>
@@ -11692,7 +11698,7 @@
         <v>68</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>70</v>
@@ -11746,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="AD107" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
@@ -11754,13 +11760,13 @@
     </row>
     <row r="108" spans="1:33">
       <c r="A108" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D108" s="1">
         <v>1</v>
@@ -11787,7 +11793,7 @@
         <v>68</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>70</v>
@@ -11841,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="AD108" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE108" s="1"/>
       <c r="AF108" s="1"/>
@@ -11849,13 +11855,13 @@
     </row>
     <row r="109" spans="1:33">
       <c r="A109" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D109" s="1">
         <v>1</v>
@@ -11882,7 +11888,7 @@
         <v>67</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>70</v>
@@ -11936,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="AD109" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE109" s="1"/>
       <c r="AF109" s="1"/>
@@ -11944,13 +11950,13 @@
     </row>
     <row r="110" spans="1:33">
       <c r="A110" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="C110" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
@@ -11977,7 +11983,7 @@
         <v>67</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>70</v>
@@ -12031,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="AD110" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE110" s="1"/>
       <c r="AF110" s="1"/>
@@ -12039,13 +12045,13 @@
     </row>
     <row r="111" spans="1:33">
       <c r="A111" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
@@ -12072,7 +12078,7 @@
         <v>67</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>70</v>
@@ -12126,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="AD111" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE111" s="1"/>
       <c r="AF111" s="1"/>
@@ -12134,13 +12140,13 @@
     </row>
     <row r="112" spans="1:33">
       <c r="A112" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
@@ -12167,7 +12173,7 @@
         <v>33</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>70</v>
@@ -12221,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="AD112" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE112" s="1"/>
       <c r="AF112" s="1"/>
@@ -12229,13 +12235,13 @@
     </row>
     <row r="113" spans="1:33">
       <c r="A113" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D113" s="1">
         <v>1</v>
@@ -12262,7 +12268,7 @@
         <v>33</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>70</v>
@@ -12316,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="AD113" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE113" s="1"/>
       <c r="AF113" s="1"/>
@@ -12324,13 +12330,13 @@
     </row>
     <row r="114" spans="1:33">
       <c r="A114" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D114" s="1">
         <v>1</v>
@@ -12357,7 +12363,7 @@
         <v>33</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>70</v>
@@ -12411,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AD114" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE114" s="1"/>
       <c r="AF114" s="1"/>
@@ -12419,13 +12425,13 @@
     </row>
     <row r="115" spans="1:33">
       <c r="A115" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
@@ -12452,7 +12458,7 @@
         <v>62</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>70</v>
@@ -12506,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="AD115" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE115" s="1"/>
       <c r="AF115" s="1"/>
@@ -12514,13 +12520,13 @@
     </row>
     <row r="116" spans="1:33">
       <c r="A116" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="C116" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D116" s="1">
         <v>1</v>
@@ -12547,7 +12553,7 @@
         <v>62</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>36</v>
@@ -12601,7 +12607,7 @@
         <v>0</v>
       </c>
       <c r="AD116" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1"/>
@@ -12609,13 +12615,13 @@
     </row>
     <row r="117" spans="1:33">
       <c r="A117" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
@@ -12642,7 +12648,7 @@
         <v>62</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>36</v>
@@ -12696,7 +12702,7 @@
         <v>0</v>
       </c>
       <c r="AD117" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE117" s="1"/>
       <c r="AF117" s="1"/>
@@ -12704,13 +12710,13 @@
     </row>
     <row r="118" spans="1:33">
       <c r="A118" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D118" s="1">
         <v>1</v>
@@ -12737,7 +12743,7 @@
         <v>33</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>70</v>
@@ -12791,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="AD118" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE118" s="1"/>
       <c r="AF118" s="1"/>
@@ -12799,13 +12805,13 @@
     </row>
     <row r="119" spans="1:33">
       <c r="A119" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="C119" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D119" s="1">
         <v>1</v>
@@ -12832,7 +12838,7 @@
         <v>33</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>70</v>
@@ -12886,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="AD119" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE119" s="1"/>
       <c r="AF119" s="1"/>
@@ -12894,13 +12900,13 @@
     </row>
     <row r="120" spans="1:33">
       <c r="A120" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D120" s="1">
         <v>1</v>
@@ -12927,7 +12933,7 @@
         <v>33</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>36</v>
@@ -12981,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="AD120" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE120" s="1"/>
       <c r="AF120" s="1"/>
@@ -12989,13 +12995,13 @@
     </row>
     <row r="121" spans="1:33">
       <c r="A121" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
@@ -13022,7 +13028,7 @@
         <v>33</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>36</v>
@@ -13076,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="AD121" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE121" s="1"/>
       <c r="AF121" s="1"/>
@@ -13084,13 +13090,13 @@
     </row>
     <row r="122" spans="1:33">
       <c r="A122" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
@@ -13117,7 +13123,7 @@
         <v>62</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>70</v>
@@ -13171,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="AD122" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE122" s="1"/>
       <c r="AF122" s="1"/>
@@ -13179,13 +13185,13 @@
     </row>
     <row r="123" spans="1:33">
       <c r="A123" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="C123" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
@@ -13212,7 +13218,7 @@
         <v>62</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>55</v>
@@ -13266,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="AD123" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE123" s="1"/>
       <c r="AF123" s="1"/>
@@ -13274,13 +13280,13 @@
     </row>
     <row r="124" spans="1:33">
       <c r="A124" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D124" s="1">
         <v>1</v>
@@ -13307,7 +13313,7 @@
         <v>62</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>55</v>
@@ -13361,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="AD124" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE124" s="1"/>
       <c r="AF124" s="1"/>
@@ -13369,13 +13375,13 @@
     </row>
     <row r="125" spans="1:33">
       <c r="A125" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
@@ -13402,7 +13408,7 @@
         <v>67</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>36</v>
@@ -13456,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="AD125" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE125" s="1"/>
       <c r="AF125" s="1"/>
@@ -13464,13 +13470,13 @@
     </row>
     <row r="126" spans="1:33">
       <c r="A126" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="C126" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D126" s="1">
         <v>1</v>
@@ -13497,7 +13503,7 @@
         <v>67</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M126" s="1" t="s">
         <v>70</v>
@@ -13551,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="AD126" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE126" s="1"/>
       <c r="AF126" s="1"/>
@@ -13559,13 +13565,13 @@
     </row>
     <row r="127" spans="1:33">
       <c r="A127" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
@@ -13592,7 +13598,7 @@
         <v>67</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>70</v>
@@ -13646,7 +13652,7 @@
         <v>0</v>
       </c>
       <c r="AD127" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE127" s="1"/>
       <c r="AF127" s="1"/>
@@ -13654,13 +13660,13 @@
     </row>
     <row r="128" spans="1:33">
       <c r="A128" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
@@ -13687,7 +13693,7 @@
         <v>34</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>36</v>
@@ -13741,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="AD128" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE128" s="1"/>
       <c r="AF128" s="1"/>
@@ -13749,13 +13755,13 @@
     </row>
     <row r="129" spans="1:33">
       <c r="A129" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
@@ -13782,7 +13788,7 @@
         <v>34</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>36</v>
@@ -13836,7 +13842,7 @@
         <v>0</v>
       </c>
       <c r="AD129" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE129" s="1"/>
       <c r="AF129" s="1"/>
@@ -13844,13 +13850,13 @@
     </row>
     <row r="130" spans="1:33">
       <c r="A130" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
@@ -13877,7 +13883,7 @@
         <v>34</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>55</v>
@@ -13931,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="AD130" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE130" s="1"/>
       <c r="AF130" s="1"/>
@@ -13939,13 +13945,13 @@
     </row>
     <row r="131" spans="1:33">
       <c r="A131" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
@@ -13972,7 +13978,7 @@
         <v>34</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>55</v>
@@ -14026,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="AD131" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE131" s="1"/>
       <c r="AF131" s="1"/>
@@ -14034,13 +14040,13 @@
     </row>
     <row r="132" spans="1:33">
       <c r="A132" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -14067,7 +14073,7 @@
         <v>33</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>55</v>
@@ -14121,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="AD132" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE132" s="1" t="s">
         <v>46</v>
@@ -14133,13 +14139,13 @@
     </row>
     <row r="133" s="2" customFormat="1" spans="1:33">
       <c r="A133" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="C133" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D133" s="1">
         <v>1</v>
@@ -14166,7 +14172,7 @@
         <v>33</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>55</v>
@@ -14220,7 +14226,7 @@
         <v>1</v>
       </c>
       <c r="AD133" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE133" s="1" t="s">
         <v>46</v>
@@ -14232,13 +14238,13 @@
     </row>
     <row r="134" spans="1:33">
       <c r="A134" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D134" s="1">
         <v>1</v>
@@ -14265,7 +14271,7 @@
         <v>68</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>70</v>
@@ -14319,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="AD134" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE134" s="1"/>
       <c r="AF134" s="1"/>
@@ -14327,13 +14333,13 @@
     </row>
     <row r="135" spans="1:33">
       <c r="A135" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
@@ -14360,7 +14366,7 @@
         <v>68</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M135" s="1" t="s">
         <v>70</v>
@@ -14414,7 +14420,7 @@
         <v>0</v>
       </c>
       <c r="AD135" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE135" s="1"/>
       <c r="AF135" s="1"/>
@@ -14422,13 +14428,13 @@
     </row>
     <row r="136" spans="1:33">
       <c r="A136" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D136" s="1">
         <v>1</v>
@@ -14455,7 +14461,7 @@
         <v>68</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M136" s="1" t="s">
         <v>70</v>
@@ -14509,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="AD136" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE136" s="1"/>
       <c r="AF136" s="1"/>
@@ -14517,13 +14523,13 @@
     </row>
     <row r="137" spans="1:33">
       <c r="A137" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
@@ -14550,7 +14556,7 @@
         <v>67</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M137" s="1" t="s">
         <v>55</v>
@@ -14604,7 +14610,7 @@
         <v>1</v>
       </c>
       <c r="AD137" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE137" s="1" t="s">
         <v>57</v>
@@ -14616,13 +14622,13 @@
     </row>
     <row r="138" spans="1:33">
       <c r="A138" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D138" s="1">
         <v>1</v>
@@ -14649,7 +14655,7 @@
         <v>33</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M138" s="1" t="s">
         <v>70</v>
@@ -14703,7 +14709,7 @@
         <v>1</v>
       </c>
       <c r="AD138" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE138" s="1" t="s">
         <v>57</v>
@@ -14715,13 +14721,13 @@
     </row>
     <row r="139" spans="1:33">
       <c r="A139" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D139" s="1">
         <v>1</v>
@@ -14748,7 +14754,7 @@
         <v>62</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M139" s="1" t="s">
         <v>55</v>
@@ -14802,7 +14808,7 @@
         <v>0</v>
       </c>
       <c r="AD139" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE139" s="1"/>
       <c r="AF139" s="1"/>
@@ -14810,13 +14816,13 @@
     </row>
     <row r="140" spans="1:33">
       <c r="A140" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D140" s="1">
         <v>1</v>
@@ -14843,7 +14849,7 @@
         <v>34</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>36</v>
@@ -14897,7 +14903,7 @@
         <v>0</v>
       </c>
       <c r="AD140" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE140" s="1"/>
       <c r="AF140" s="1"/>
@@ -14905,10 +14911,10 @@
     </row>
     <row r="141" spans="1:33">
       <c r="A141" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>30</v>
@@ -14938,7 +14944,7 @@
         <v>67</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M141" s="1" t="s">
         <v>55</v>
@@ -14992,7 +14998,7 @@
         <v>0</v>
       </c>
       <c r="AD141" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE141" s="1"/>
       <c r="AF141" s="1"/>
@@ -15000,10 +15006,10 @@
     </row>
     <row r="142" spans="1:33">
       <c r="A142" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>30</v>
@@ -15033,7 +15039,7 @@
         <v>67</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>55</v>
@@ -15087,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="AD142" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE142" s="1"/>
       <c r="AF142" s="1"/>
@@ -15095,10 +15101,10 @@
     </row>
     <row r="143" spans="1:33">
       <c r="A143" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>30</v>
@@ -15128,7 +15134,7 @@
         <v>67</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>70</v>
@@ -15182,7 +15188,7 @@
         <v>0</v>
       </c>
       <c r="AD143" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE143" s="1"/>
       <c r="AF143" s="1"/>
@@ -15190,10 +15196,10 @@
     </row>
     <row r="144" spans="1:33">
       <c r="A144" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>30</v>
@@ -15223,7 +15229,7 @@
         <v>67</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>70</v>
@@ -15277,7 +15283,7 @@
         <v>0</v>
       </c>
       <c r="AD144" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE144" s="1"/>
       <c r="AF144" s="1"/>
@@ -15285,7 +15291,7 @@
     </row>
     <row r="145" spans="1:33">
       <c r="A145" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>50</v>
@@ -15318,7 +15324,7 @@
         <v>33</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>55</v>
@@ -15372,7 +15378,7 @@
         <v>0</v>
       </c>
       <c r="AD145" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE145" s="1"/>
       <c r="AF145" s="1"/>
@@ -15380,7 +15386,7 @@
     </row>
     <row r="146" spans="1:33">
       <c r="A146" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>50</v>
@@ -15413,7 +15419,7 @@
         <v>33</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>55</v>
@@ -15467,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="AD146" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE146" s="1"/>
       <c r="AF146" s="1"/>
@@ -15475,7 +15481,7 @@
     </row>
     <row r="147" spans="1:33">
       <c r="A147" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>50</v>
@@ -15508,7 +15514,7 @@
         <v>33</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M147" s="1" t="s">
         <v>55</v>
@@ -15538,7 +15544,7 @@
     </row>
     <row r="148" spans="1:33">
       <c r="A148" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>50</v>
@@ -15571,7 +15577,7 @@
         <v>33</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>55</v>
@@ -15601,7 +15607,7 @@
     </row>
     <row r="149" spans="1:33">
       <c r="A149" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>65</v>
@@ -15634,7 +15640,7 @@
         <v>68</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>70</v>
@@ -15688,7 +15694,7 @@
         <v>0</v>
       </c>
       <c r="AD149" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE149" s="1"/>
       <c r="AF149" s="1"/>
@@ -15696,7 +15702,7 @@
     </row>
     <row r="150" spans="1:33">
       <c r="A150" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>65</v>
@@ -15729,7 +15735,7 @@
         <v>68</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M150" s="1" t="s">
         <v>70</v>
@@ -15783,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="AD150" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE150" s="1"/>
       <c r="AF150" s="1"/>
@@ -15791,7 +15797,7 @@
     </row>
     <row r="151" spans="1:33">
       <c r="A151" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>65</v>
@@ -15824,7 +15830,7 @@
         <v>68</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>70</v>
@@ -15878,7 +15884,7 @@
         <v>0</v>
       </c>
       <c r="AD151" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE151" s="1"/>
       <c r="AF151" s="1"/>
@@ -15886,7 +15892,7 @@
     </row>
     <row r="152" spans="1:33">
       <c r="A152" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>65</v>
@@ -15919,7 +15925,7 @@
         <v>68</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>70</v>
@@ -15973,7 +15979,7 @@
         <v>0</v>
       </c>
       <c r="AD152" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE152" s="1"/>
       <c r="AF152" s="1"/>
@@ -15981,7 +15987,7 @@
     </row>
     <row r="153" spans="1:33">
       <c r="A153" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>61</v>
@@ -16014,7 +16020,7 @@
         <v>62</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>36</v>
@@ -16068,7 +16074,7 @@
         <v>0</v>
       </c>
       <c r="AD153" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE153" s="1"/>
       <c r="AF153" s="1"/>
@@ -16076,7 +16082,7 @@
     </row>
     <row r="154" spans="1:33">
       <c r="A154" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>61</v>
@@ -16109,7 +16115,7 @@
         <v>62</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>55</v>
@@ -16163,7 +16169,7 @@
         <v>0</v>
       </c>
       <c r="AD154" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE154" s="1"/>
       <c r="AF154" s="1"/>
@@ -16171,7 +16177,7 @@
     </row>
     <row r="155" spans="1:33">
       <c r="A155" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>61</v>
@@ -16204,7 +16210,7 @@
         <v>62</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>55</v>
@@ -16258,7 +16264,7 @@
         <v>0</v>
       </c>
       <c r="AD155" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE155" s="1"/>
       <c r="AF155" s="1"/>
@@ -16266,7 +16272,7 @@
     </row>
     <row r="156" spans="1:33">
       <c r="A156" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>29</v>
@@ -16299,7 +16305,7 @@
         <v>34</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>55</v>
@@ -16353,7 +16359,7 @@
         <v>0</v>
       </c>
       <c r="AD156" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE156" s="1"/>
       <c r="AF156" s="1"/>
@@ -16361,7 +16367,7 @@
     </row>
     <row r="157" spans="1:33">
       <c r="A157" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>29</v>
@@ -16394,7 +16400,7 @@
         <v>34</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>36</v>
@@ -16448,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="AD157" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE157" s="1"/>
       <c r="AF157" s="1"/>
@@ -16456,7 +16462,7 @@
     </row>
     <row r="158" spans="1:33">
       <c r="A158" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>29</v>
@@ -16489,7 +16495,7 @@
         <v>34</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>36</v>
@@ -16543,7 +16549,7 @@
         <v>0</v>
       </c>
       <c r="AD158" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE158" s="1"/>
       <c r="AF158" s="1"/>
@@ -16551,10 +16557,10 @@
     </row>
     <row r="159" spans="1:33">
       <c r="A159" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>30</v>
@@ -16584,7 +16590,7 @@
         <v>33</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>55</v>
@@ -16638,7 +16644,7 @@
         <v>0</v>
       </c>
       <c r="AD159" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE159" s="1"/>
       <c r="AF159" s="1"/>
@@ -16646,10 +16652,10 @@
     </row>
     <row r="160" spans="1:33">
       <c r="A160" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>30</v>
@@ -16679,7 +16685,7 @@
         <v>33</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>36</v>
@@ -16733,7 +16739,7 @@
         <v>0</v>
       </c>
       <c r="AD160" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
@@ -16741,10 +16747,10 @@
     </row>
     <row r="161" spans="1:33">
       <c r="A161" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>30</v>
@@ -16774,7 +16780,7 @@
         <v>33</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>55</v>
@@ -16828,7 +16834,7 @@
         <v>0</v>
       </c>
       <c r="AD161" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
@@ -16836,10 +16842,10 @@
     </row>
     <row r="162" spans="1:33">
       <c r="A162" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>30</v>
@@ -16869,7 +16875,7 @@
         <v>33</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>36</v>
@@ -16923,7 +16929,7 @@
         <v>1</v>
       </c>
       <c r="AD162" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE162" s="1" t="s">
         <v>46</v>
@@ -16935,10 +16941,10 @@
     </row>
     <row r="163" spans="1:33">
       <c r="A163" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>30</v>
@@ -16968,7 +16974,7 @@
         <v>33</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>55</v>
@@ -16998,10 +17004,10 @@
     </row>
     <row r="164" spans="1:33">
       <c r="A164" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>30</v>
@@ -17031,7 +17037,7 @@
         <v>33</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>55</v>
@@ -17085,7 +17091,7 @@
         <v>0</v>
       </c>
       <c r="AD164" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
@@ -17093,10 +17099,10 @@
     </row>
     <row r="165" spans="1:33">
       <c r="A165" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>30</v>
@@ -17126,7 +17132,7 @@
         <v>33</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>55</v>
@@ -17180,7 +17186,7 @@
         <v>0</v>
       </c>
       <c r="AD165" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE165" s="1"/>
       <c r="AF165" s="1"/>
@@ -17188,10 +17194,10 @@
     </row>
     <row r="166" spans="1:33">
       <c r="A166" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>30</v>
@@ -17221,7 +17227,7 @@
         <v>67</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>70</v>
@@ -17275,7 +17281,7 @@
         <v>0</v>
       </c>
       <c r="AD166" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE166" s="1"/>
       <c r="AF166" s="1"/>
@@ -17283,10 +17289,10 @@
     </row>
     <row r="167" spans="1:33">
       <c r="A167" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>30</v>
@@ -17316,7 +17322,7 @@
         <v>67</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>70</v>
@@ -17370,7 +17376,7 @@
         <v>0</v>
       </c>
       <c r="AD167" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE167" s="1"/>
       <c r="AF167" s="1"/>
@@ -17378,10 +17384,10 @@
     </row>
     <row r="168" spans="1:33">
       <c r="A168" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>30</v>
@@ -17411,7 +17417,7 @@
         <v>67</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>70</v>
@@ -17465,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="AD168" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE168" s="1"/>
       <c r="AF168" s="1"/>
@@ -17473,10 +17479,10 @@
     </row>
     <row r="169" spans="1:33">
       <c r="A169" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>30</v>
@@ -17506,7 +17512,7 @@
         <v>33</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>55</v>
@@ -17545,7 +17551,7 @@
         <v>43</v>
       </c>
       <c r="Y169" s="12" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Z169" s="1">
         <v>540</v>
@@ -17560,7 +17566,7 @@
         <v>1</v>
       </c>
       <c r="AD169" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE169" s="1" t="s">
         <v>57</v>
@@ -17572,10 +17578,10 @@
     </row>
     <row r="170" spans="1:33">
       <c r="A170" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>30</v>
@@ -17605,7 +17611,7 @@
         <v>33</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>55</v>
@@ -17644,7 +17650,7 @@
         <v>43</v>
       </c>
       <c r="Y170" s="12" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Z170" s="1">
         <v>540</v>
@@ -17659,7 +17665,7 @@
         <v>1</v>
       </c>
       <c r="AD170" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE170" s="1" t="s">
         <v>57</v>
@@ -17671,10 +17677,10 @@
     </row>
     <row r="171" spans="1:33">
       <c r="A171" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>30</v>
@@ -17704,7 +17710,7 @@
         <v>33</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M171" s="1" t="s">
         <v>36</v>
@@ -17758,7 +17764,7 @@
         <v>0</v>
       </c>
       <c r="AD171" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
@@ -17766,10 +17772,10 @@
     </row>
     <row r="172" spans="1:33">
       <c r="A172" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>30</v>
@@ -17799,7 +17805,7 @@
         <v>33</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>36</v>
@@ -17853,7 +17859,7 @@
         <v>0</v>
       </c>
       <c r="AD172" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE172" s="1"/>
       <c r="AF172" s="1"/>
@@ -17861,10 +17867,10 @@
     </row>
     <row r="173" spans="1:33">
       <c r="A173" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>30</v>
@@ -17894,7 +17900,7 @@
         <v>68</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M173" s="1" t="s">
         <v>55</v>
@@ -17948,7 +17954,7 @@
         <v>0</v>
       </c>
       <c r="AD173" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE173" s="1"/>
       <c r="AF173" s="1"/>
@@ -17956,10 +17962,10 @@
     </row>
     <row r="174" spans="1:33">
       <c r="A174" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>30</v>
@@ -17989,7 +17995,7 @@
         <v>33</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>36</v>
@@ -18043,7 +18049,7 @@
         <v>1</v>
       </c>
       <c r="AD174" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE174" s="1" t="s">
         <v>47</v>
@@ -18055,10 +18061,10 @@
     </row>
     <row r="175" s="2" customFormat="1" spans="1:32">
       <c r="A175" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>30</v>
@@ -18088,7 +18094,7 @@
         <v>62</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>55</v>
@@ -18142,7 +18148,7 @@
         <v>1</v>
       </c>
       <c r="AD175" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE175" s="1" t="s">
         <v>57</v>
@@ -18154,17 +18160,11 @@
   </sheetData>
   <dataValidations count="11">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 H1 I1 J1 K1 M1 N1 O1 P1 Q1 R1 S1 T1 U1 V1 W1 X1 Y1 AC1 AE1:AG1 L11 B14 L14 B15 L15 L20 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 Y43 L44 L45 L46 L47 L48 L49 L50 L51 L52 B53 L53 B54 L54 Y54 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 B133 L133 L134 L135 L138 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 L170 Y170 B1:B13 B16:B52 B56:B132 B134:B1048576 L1:L10 L12:L13 L16:L19 L21:L23 L136:L137 L139:L140 L171:L174 Y2:Y6 Y8:Y42 Y44:Y53 Y56:Y169 Y171:Y175 Y176:Y1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11 P11 Q11 R11 S11 T11 U11 V11 W11 X11 O14 P14 Q14 R14 S14 T14 U14 V14 W14 X14 O15 P15 Q15 R15 S15 T15 U15 V15 W15 X15 O16 P16 Q16 R16 S16 T16 U16 V16 W16 X16 O17 P17 Q17 R17 S17 T17 U17 V17 W17 X17 O18 P18 Q18 R18 S18 T18 U18 V18 W18 X18 O19 P19 Q19 R19 S19 T19 U19 V19 W19 X19 O20 P20 Q20 R20 S20 T20 U20 V20 W20 X20 O23 P23 Q23 R23 S23 T23 U23 V23 W23 X23 O24 P24 Q24 R24 S24 T24 U24 V24 W24 X24 O25 P25 Q25 R25 S25 T25 U25 V25 W25 X25 O26 P26 Q26 R26 S26 T26 U26 V26 W26 X26 O27 P27 Q27 R27 S27 T27 U27 V27 W27 X27 O28 P28 Q28 R28 S28 T28 U28 V28 W28 X28 O29 P29 Q29 R29 S29 T29 U29 V29 W29 X29 O30 P30 Q30 R30 S30 T30 U30 V30 W30 X30 O31 P31 Q31 R31 S31 T31 U31 V31 W31 X31 O32 P32 Q32 R32 S32 T32 U32 V32 W32 X32 O33 P33 Q33 R33 S33 T33 U33 V33 W33 X33 O34 P34 Q34 R34 S34 T34 U34 V34 W34 X34 O35 P35 Q35 R35 S35 T35 U35 V35 W35 X35 O36 P36 Q36 R36 S36 T36 U36 V36 W36 X36 O37 P37 Q37 R37 S37 T37 U37 V37 W37 X37 O38 P38 Q38 R38 S38 T38 U38 V38 W38 X38 O39 P39 Q39 R39 S39 T39 U39 V39 W39 X39 O40 P40 Q40 R40 S40 T40 U40 V40 W40 X40 O41 P41 Q41 R41 S41 T41 U41 V41 W41 X41 O42 P42 Q42 R42 S42 T42 U42 V42 W42 X42 O43 P43 Q43 R43 S43 T43 U43 V43 W43 X43 O44 P44 Q44 R44 S44 T44 U44 V44 W44 X44 O45 P45 Q45 R45 S45 T45 U45 V45 W45 X45 O46 P46 Q46 R46 S46 T46 U46 V46 W46 X46 O47 P47 Q47 R47 S47 T47 U47 V47 W47 X47 O48 P48 Q48 R48 S48 T48 U48 V48 W48 X48 O49 P49 Q49 R49 S49 T49 U49 V49 W49 X49 O50 P50 Q50 R50 S50 T50 U50 V50 W50 X50 O51 P51 Q51 R51 S51 T51 U51 V51 W51 X51 O52 P52 Q52 R52 S52 T52 U52 V52 W52 X52 O53 P53 Q53 R53 S53 T53 U53 V53 W53 X53 O56 P56 Q56 R56 S56 T56 U56 V56 W56 X56 O57 P57 Q57 R57 S57 T57 U57 V57 W57 X57 O58 P58 Q58 R58 S58 T58 U58 V58 W58 X58 O59 P59 Q59 R59 S59 T59 U59 V59 W59 X59 O60 P60 Q60 R60 S60 T60 U60 V60 W60 X60 O61 P61 Q61 R61 S61 T61 U61 V61 W61 X61 O62 P62 Q62 R62 S62 T62 U62 V62 W62 X62 O63 P63 Q63 R63 S63 T63 U63 V63 W63 X63 O64 P64 Q64 R64 S64 T64 U64 V64 W64 X64 O65 P65 Q65 R65 S65 T65 U65 V65 W65 X65 O66 P66 Q66 R66 S66 T66 U66 V66 W66 X66 O67 P67 Q67 R67 S67 T67 U67 V67 W67 X67 O68 P68 Q68 R68 S68 T68 U68 V68 W68 X68 O69 P69 Q69 R69 S69 T69 U69 V69 W69 X69 O70 P70 Q70 R70 S70 T70 U70 V70 W70 X70 O71 P71 Q71 R71 S71 T71 U71 V71 W71 X71 O72 P72 Q72 R72 S72 T72 U72 V72 W72 X72 O73 P73 Q73 R73 S73 T73 U73 V73 W73 X73 O74 P74 Q74 R74 S74 T74 U74 V74 W74 X74 O75 P75 Q75 R75 S75 T75 U75 V75 W75 X75 O76 P76 Q76 R76 S76 T76 U76 V76 W76 X76 O77 P77 Q77 R77 S77 T77 U77 V77 W77 X77 O78 P78 Q78 R78 S78 T78 U78 V78 W78 X78 O79 P79 Q79 R79 S79 T79 U79 V79 W79 X79 O80 P80 Q80 R80 S80 T80 U80 V80 W80 X80 O81 P81 Q81 R81 S81 T81 U81 V81 W81 X81 O82 P82 Q82 R82 S82 T82 U82 V82 W82 X82 O83 P83 Q83 R83 S83 T83 U83 V83 W83 X83 O84 P84 Q84 R84 S84 T84 U84 V84 W84 X84 O85 P85 Q85 R85 S85 T85 U85 V85 W85 X85 O86 P86 Q86 R86 S86 T86 U86 V86 W86 X86 O87 P87 Q87 R87 S87 T87 U87 V87 W87 X87 O88 P88 Q88 R88 S88 T88 U88 V88 W88 X88 O89 P89 Q89 R89 S89 T89 U89 V89 W89 X89 O90 P90 Q90 R90 S90 T90 U90 V90 W90 X90 O91 P91 Q91 R91 S91 T91 U91 V91 W91 X91 O92 P92 Q92 R92 S92 T92 U92 V92 W92 X92 O93 P93 Q93 R93 S93 T93 U93 V93 W93 X93 O94 P94 Q94 R94 S94 T94 U94 V94 W94 X94 O95 P95 Q95 R95 S95 T95 U95 V95 W95 X95 O96 P96 Q96 R96 S96 T96 U96 V96 W96 X96 O97 P97 Q97 R97 S97 T97 U97 V97 W97 X97 O98 P98 Q98 R98 S98 T98 U98 V98 W98 X98 O99 P99 Q99 R99 S99 T99 U99 V99 W99 X99 O100 P100 Q100 R100 S100 T100 U100 V100 W100 X100 O101 P101 Q101 R101 S101 T101 U101 V101 W101 X101 O102 P102 Q102 R102 S102 T102 U102 V102 W102 X102 O103 P103 Q103 R103 S103 T103 U103 V103 W103 X103 O104 P104 Q104 R104 S104 T104 U104 V104 W104 X104 O105 P105 Q105 R105 S105 T105 U105 V105 W105 X105 O106 P106 Q106 R106 S106 T106 U106 V106 W106 X106 O107 P107 Q107 R107 S107 T107 U107 V107 W107 X107 O108 P108 Q108 R108 S108 T108 U108 V108 W108 X108 O109 P109 Q109 R109 S109 T109 U109 V109 W109 X109 O110 P110 Q110 R110 S110 T110 U110 V110 W110 X110 O111 P111 Q111 R111 S111 T111 U111 V111 W111 X111 O112 P112 Q112 R112 S112 T112 U112 V112 W112 X112 O113 P113 Q113 R113 S113 T113 U113 V113 W113 X113 O114 P114 Q114 R114 S114 T114 U114 V114 W114 X114 O115 P115 Q115 R115 S115 T115 U115 V115 W115 X115 O116 P116 Q116 R116 S116 T116 U116 V116 W116 X116 O117 P117 Q117 R117 S117 T117 U117 V117 W117 X117 O118 P118 Q118 R118 S118 T118 U118 V118 W118 X118 O119 P119 Q119 R119 S119 T119 U119 V119 W119 X119 O120 P120 Q120 R120 S120 T120 U120 V120 W120 X120 O121 P121 Q121 R121 S121 T121 U121 V121 W121 X121 O122 P122 Q122 R122 S122 T122 U122 V122 W122 X122 O123 P123 Q123 R123 S123 T123 U123 V123 W123 X123 O124 P124 Q124 R124 S124 T124 U124 V124 W124 X124 O125 P125 Q125 R125 S125 T125 U125 V125 W125 X125 O126 P126 Q126 R126 S126 T126 U126 V126 W126 X126 O127 P127 Q127 R127 S127 T127 U127 V127 W127 X127 O128 P128 Q128 R128 S128 T128 U128 V128 W128 X128 O129 P129 Q129 R129 S129 T129 U129 V129 W129 X129 O130 P130 Q130 R130 S130 T130 U130 V130 W130 X130 O131 P131 Q131 R131 S131 T131 U131 V131 W131 X131 O132 P132 Q132 R132 S132 T132 U132 V132 W132 X132 O133 P133 Q133 R133 S133 T133 U133 V133 W133 X133 O134 P134 Q134 R134 S134 T134 U134 V134 W134 X134 O135 P135 Q135 R135 S135 T135 U135 V135 W135 X135 O136 P136 Q136 R136 S136 T136 U136 V136 W136 X136 O137 P137 Q137 R137 S137 T137 U137 V137 W137 X137 O138 P138 Q138 R138 S138 T138 U138 V138 W138 X138 O139 P139 Q139 R139 S139 T139 U139 V139 W139 X139 O140 P140 Q140 R140 S140 T140 U140 V140 W140 X140 O141 P141 Q141 R141 S141 T141 U141 V141 W141 X141 O142 P142 Q142 R142 S142 T142 U142 V142 W142 X142 O143 P143 Q143 R143 S143 T143 U143 V143 W143 X143 O144 P144 Q144 R144 S144 T144 U144 V144 W144 X144 O145 P145 Q145 R145 S145 T145 U145 V145 W145 X145 O146 P146 Q146 R146 S146 T146 U146 V146 W146 X146 O149 P149 Q149 R149 S149 T149 U149 V149 W149 X149 O150 P150 Q150 R150 S150 T150 U150 V150 W150 X150 O151 P151 Q151 R151 S151 T151 U151 V151 W151 X151 O152 P152 Q152 R152 S152 T152 U152 V152 W152 X152 O153 P153 Q153 R153 S153 T153 U153 V153 W153 X153 O154 P154 Q154 R154 S154 T154 U154 V154 W154 X154 O155 P155 Q155 R155 S155 T155 U155 V155 W155 X155 O156 P156 Q156 R156 S156 T156 U156 V156 W156 X156 O157 P157 Q157 R157 S157 T157 U157 V157 W157 X157 O158 P158 Q158 R158 S158 T158 U158 V158 W158 X158 O159 P159 Q159 R159 S159 T159 U159 V159 W159 X159 O160 P160 Q160 R160 S160 T160 U160 V160 W160 X160 O161 P161 Q161 R161 S161 T161 U161 V161 W161 X161 O162 P162 Q162 R162 S162 T162 U162 V162 W162 X162 O163 P163 Q163 R163 S163 T163 U163 V163 W163 X163 O164 P164 Q164 R164 S164 T164 U164 V164 W164 X164 O165 P165 Q165 R165 S165 T165 U165 V165 W165 X165 O166 P166 Q166 R166 S166 T166 U166 V166 W166 X166 O167 P167 Q167 R167 S167 T167 U167 V167 W167 X167 O168 P168 Q168 R168 S168 T168 U168 V168 W168 X168 O169 P169 Q169 R169 S169 T169 U169 V169 W169 X169 O170 P170 Q170 R170 S170 T170 U170 V170 W170 X170 O171 P171 Q171 R171 S171 T171 U171 V171 W171 X171 O172 P172 Q172 R172 S172 T172 U172 V172 W172 X172 O173 P173 Q173 R173 S173 T173 U173 V173 W173 X173 O174 P174 Q174 R174 S174 T174 U174 V174 W174 X174 O175 P175 Q175 R175 S175 T175 U175 V175 W175 X175 O2:O10 O12:O13 O21:O22 O147:O148 P2:P10 P12:P13 P21:P22 P147:P148 Q2:Q10 Q12:Q13 Q21:Q22 Q147:Q148 R2:R10 R12:R13 R21:R22 R147:R148 S2:S10 S12:S13 S21:S22 S147:S148 T2:T10 T12:T13 T21:T22 T147:T148 U2:U10 U12:U13 U21:U22 U147:U148 V2:V10 V12:V13 V21:V22 V147:V148 W2:W10 W12:W13 W21:W22 W147:W148 X2:X10 X12:X13 X21:X22 X147:X148">
-      <formula1>"武锋,三疑,兵道,军略,金鼓,文伐"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE10 AF10 AG10 AE11 AF11 AG11 AE14 AF14 AG14 AE15 AF15 AG15 AE36 AF36 AE52 AF52 AE53 AF53 AG53 AE54 AF54 AG54 AG55 AE75 AF75 AE91 AF91 AG91 AE95 AF95 AE99 AF99 AE100 AF100 AG100 AE106 AF106 AE132 AF132 AE133 AF133 AG133 AE137 AF137 AE138 AF138 AG138 AE162 AF162 AE169 AF169 AE170 AF170 AG170 AE174 AF174 AE175 AF175 AE2:AE9 AE12:AE13 AE16:AE35 AE37:AE51 AE56:AE74 AE76:AE90 AE92:AE94 AE96:AE98 AE101:AE105 AE107:AE131 AE134:AE136 AE139:AE161 AE163:AE168 AE171:AE173 AF2:AF9 AF12:AF13 AF16:AF35 AF37:AF51 AF56:AF74 AF76:AF90 AF92:AF94 AF96:AF98 AF101:AF105 AF107:AF131 AF134:AF136 AF139:AF161 AF163:AF168 AF171:AF173 AG2:AG9 AG12:AG13 AG16:AG52 AG56:AG90 AG92:AG99 AG101:AG132 AG134:AG137 AG139:AG169 AG171:AG174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE10 AF10 AG10 AE11 AF11 AG11 AE14 AF14 AG14 AE15 AF15 AG15 AE36 AF36 AE52 AF52 AE53 AF53 AG53 AE54 AF54 AG54 AE55 AF55 AG55 AE75 AF75 AE91 AF91 AG91 AE95 AF95 AE99 AF99 AE100 AF100 AG100 AE106 AF106 AE132 AF132 AE133 AF133 AG133 AE137 AF137 AE138 AF138 AG138 AE162 AF162 AE169 AF169 AE170 AF170 AG170 AE174 AF174 AE175 AF175 AE2:AE9 AE12:AE13 AE16:AE35 AE37:AE51 AE56:AE74 AE76:AE90 AE92:AE94 AE96:AE98 AE101:AE105 AE107:AE131 AE134:AE136 AE139:AE161 AE163:AE168 AE171:AE173 AF2:AF9 AF12:AF13 AF16:AF35 AF37:AF51 AF56:AF74 AF76:AF90 AF92:AF94 AF96:AF98 AF101:AF105 AF107:AF131 AF134:AF136 AF139:AF161 AF163:AF168 AF171:AF173 AG2:AG9 AG12:AG13 AG16:AG52 AG56:AG90 AG92:AG99 AG101:AG132 AG134:AG137 AG139:AG169 AG171:AG174">
       <formula1>"天机之钥,天相之圭,太阴之精,太阳之焰,贪狼之爪,廉贞之锋,七杀之气,破军之血"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C14 C15 C20 C25 C26 C27 C28 C29 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C115 C116 C117 C118 C119 C120 C121 C122 C125 C126 C133 C138 C166 C170 C2:C10 C12:C13 C16:C19 C21:C24 C30:C31 C111:C114 C123:C124 C127:C132 C134:C137 C139:C140 C141:C143 C144:C147 C148:C151 C152:C154 C155:C165 C167:C169 C171:C174">
       <formula1>"魏,蜀,吴,群"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11 J14 J15 J20 J24 J25 J26 J27 J28 J29 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J47 J48 J49 J50 J51 J52 J53 J54 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69 J70 J71 J72 J73 J74 J75 J76 J77 J78 J79 J80 J81 J82 J83 J84 J85 J86 J87 J88 J89 J90 J91 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J129 J130 J131 J132 J133 J134 J135 J138 J144 J145 J146 J147 J148 J149 J150 J151 J152 J153 J154 J155 J156 J159 J160 J161 J162 J163 J164 J165 J166 J167 J168 J169 J170 J2:J10 J12:J13 J16:J19 J21:J23 J30:J31 J45:J46 J126:J128 J136:J137 J139:J140 J141:J143 J157:J158 J171:J174">
-      <formula1>"枪,弓,骑"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H14 H15 H20 H24 H25 H26 H27 H28 H29 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H47 H48 H49 H50 H51 H52 H53 H54 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101 H102 H103 H104 H105 H106 H107 H108 H109 H110 H111 H112 H113 H114 H115 H116 H117 H118 H119 H120 H121 H122 H123 H124 H125 H129 H130 H131 H132 H133 H134 H135 H138 H144 H145 H146 H149 H150 H151 H152 H153 H154 H155 H156 H159 H160 H161 H162 H163 H164 H165 H166 H170 H2:H10 H12:H13 H16:H19 H21:H23 H30:H31 H45:H46 H126:H128 H136:H137 H139:H140 H141:H143 H147:H148 H157:H158 H167:H169 H171:H174">
       <formula1>"男,女"</formula1>
@@ -18172,16 +18172,22 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11 I14 I15 I20 I24 I25 I26 I27 I28 I29 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I47 I48 I49 I50 I51 I52 I53 I54 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I129 I130 I131 I132 I133 I134 I135 I138 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I156 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I170 I175 I2:I10 I12:I13 I16:I19 I21:I23 I30:I31 I45:I46 I126:I128 I136:I137 I139:I140 I141:I143 I157:I158 I171:I174">
       <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 N11 M14 N14 M15 N15 M20 N20 M23 N23 M24 N24 M25 N25 M26 N26 M27 N27 M28 N28 M29 N29 M32 N32 M33 N33 M34 N34 M35 N35 M36 N36 M37 N37 M38 N38 M39 N39 M40 N40 M41 N41 M42 N42 M43 N43 M44 N44 M45 N45 M46 N46 M47 N47 M48 N48 M49 N49 M50 N50 M51 N51 M52 N52 M53 N53 M54 N54 M56 N56 M57 N57 M58 N58 M59 N59 M60 N60 M61 N61 M62 N62 M63 N63 M64 N64 M65 N65 M66 N66 M67 N67 M68 N68 M69 N69 M70 N70 M71 N71 M72 N72 M73 N73 M74 N74 M75 N75 M76 N76 M77 N77 M78 N78 M79 N79 M80 N80 M81 N81 M82 N82 M83 N83 M84 N84 M85 N85 M86 N86 M87 N87 M88 N88 M89 N89 M90 N90 M91 N91 M92 N92 M93 N93 M94 N94 M95 N95 M96 N96 M97 N97 M98 N98 M99 N99 M100 N100 M101 N101 M102 N102 M103 N103 M104 N104 M105 N105 M106 N106 M107 N107 M108 N108 M109 N109 M110 N110 M111 N111 M112 N112 M113 N113 M114 N114 M115 N115 M116 N116 M117 N117 M118 N118 M119 N119 M120 N120 M121 N121 M122 N122 M123 N123 M124 N124 M125 N125 M126 N126 M127 N127 M128 N128 M129 N129 M132 N132 M133 N133 M134 N134 M135 N135 M138 N138 M141 N141 M142 N142 M143 N143 M144 N144 M145 N145 M146 N146 M147 N147 M148 N148 M149 N149 M150 N150 M151 N151 M152 N152 M153 N153 M154 N154 M155 N155 M156 N156 M157 N157 M158 N158 M159 N159 M160 N160 M161 N161 M162 N162 M163 N163 M164 N164 M165 N165 M166 N166 M167 N167 M168 N168 M169 N169 M170 N170 M171 N171 M172 N172 M173 N173 M174 N174 M175 N175 M2:M10 M12:M13 M16:M19 M21:M22 M30:M31 M130:M131 M136:M137 M139:M140 N2:N10 N12:N13 N16:N19 N21:N22 N30:N31 N130:N131 N136:N137 N139:N140">
-      <formula1>"盾枪兵,长戟兵,重骑兵,骠骑兵,火矢兵,连弩兵"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11 J14 J15 J20 J24 J25 J26 J27 J28 J29 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J47 J48 J49 J50 J51 J52 J53 J54 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69 J70 J71 J72 J73 J74 J75 J76 J77 J78 J79 J80 J81 J82 J83 J84 J85 J86 J87 J88 J89 J90 J91 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J129 J130 J131 J132 J133 J134 J135 J138 J144 J145 J146 J147 J148 J149 J150 J151 J152 J153 J154 J155 J156 J159 J160 J161 J162 J163 J164 J165 J166 J167 J168 J169 J170 J2:J10 J12:J13 J16:J19 J21:J23 J30:J31 J45:J46 J126:J128 J136:J137 J139:J140 J141:J143 J157:J158 J171:J174">
+      <formula1>"枪,弓,骑"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11 K14 K15 K20 K24 K25 K26 K27 K28 K29 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K47 K48 K49 K50 K51 K52 K53 K54 K56 K57 K58 K59 K60 K61 K62 K63 K64 K65 K66 K67 K68 K69 K70 K71 K72 K73 K74 K75 K76 K77 K78 K79 K80 K81 K82 K83 K84 K85 K86 K87 K88 K89 K90 K91 K92 K93 K94 K95 K96 K97 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K122 K123 K124 K125 K129 K130 K131 K132 K133 K134 K135 K138 K149 K159 K160 K161 K162 K163 K164 K165 K166 K167 K168 K169 K170 K2:K10 K12:K13 K16:K19 K21:K23 K30:K31 K45:K46 K126:K128 K136:K137 K139:K140 K141:K144 K145:K148 K150:K152 K153:K155 K156:K158 K171:K174">
       <formula1>"刀,剑,枪,弓,扇"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC11 AC14 AC15 AC16 AC17 AC18 AC19 AC20 AC23 AC24 AC25 AC26 AC27 AC28 AC29 AC30 AC31 AC32 AC33 AC34 AC35 AC36 AC37 AC38 AC39 AC40 AC41 AC42 AC43 AC44 AC45 AC46 AC47 AC48 AC49 AC50 AC51 AC52 AC53 AC54 AC56 AC57 AC58 AC59 AC60 AC61 AC62 AC63 AC64 AC65 AC66 AC67 AC68 AC69 AC70 AC71 AC72 AC73 AC74 AC75 AC76 AC77 AC78 AC79 AC80 AC81 AC82 AC83 AC84 AC85 AC86 AC87 AC88 AC89 AC90 AC91 AC92 AC93 AC94 AC95 AC96 AC97 AC98 AC99 AC100 AC101 AC102 AC103 AC104 AC105 AC106 AC107 AC108 AC109 AC110 AC111 AC112 AC113 AC114 AC115 AC116 AC117 AC118 AC119 AC120 AC121 AC122 AC123 AC124 AC125 AC126 AC127 AC128 AC129 AC130 AC131 AC132 AC133 AC134 AC135 AC136 AC137 AC138 AC139 AC140 AC141 AC142 AC143 AC144 AC145 AC146 AC149 AC150 AC151 AC152 AC153 AC154 AC155 AC156 AC157 AC158 AC159 AC160 AC161 AC162 AC163 AC164 AC165 AC166 AC167 AC168 AC169 AC170 AC171 AC172 AC173 AC174 AC175 AC2:AC10 AC12:AC13 AC21:AC22 AC147:AC148">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 N11 M14 N14 M15 N15 M20 N20 M23 N23 M24 N24 M25 N25 M26 N26 M27 N27 M28 N28 M29 N29 M32 N32 M33 N33 M34 N34 M35 N35 M36 N36 M37 N37 M38 N38 M39 N39 M40 N40 M41 N41 M42 N42 M43 N43 M44 N44 M45 N45 M46 N46 M47 N47 M48 N48 M49 N49 M50 N50 M51 N51 M52 N52 M53 N53 M54 N54 M56 N56 M57 N57 M58 N58 M59 N59 M60 N60 M61 N61 M62 N62 M63 N63 M64 N64 M65 N65 M66 N66 M67 N67 M68 N68 M69 N69 M70 N70 M71 N71 M72 N72 M73 N73 M74 N74 M75 N75 M76 N76 M77 N77 M78 N78 M79 N79 M80 N80 M81 N81 M82 N82 M83 N83 M84 N84 M85 N85 M86 N86 M87 N87 M88 N88 M89 N89 M90 N90 M91 N91 M92 N92 M93 N93 M94 N94 M95 N95 M96 N96 M97 N97 M98 N98 M99 N99 M100 N100 M101 N101 M102 N102 M103 N103 M104 N104 M105 N105 M106 N106 M107 N107 M108 N108 M109 N109 M110 N110 M111 N111 M112 N112 M113 N113 M114 N114 M115 N115 M116 N116 M117 N117 M118 N118 M119 N119 M120 N120 M121 N121 M122 N122 M123 N123 M124 N124 M125 N125 M126 N126 M127 N127 M128 N128 M129 N129 M132 N132 M133 N133 M134 N134 M135 N135 M138 N138 M141 N141 M142 N142 M143 N143 M144 N144 M145 N145 M146 N146 M147 N147 M148 N148 M149 N149 M150 N150 M151 N151 M152 N152 M153 N153 M154 N154 M155 N155 M156 N156 M157 N157 M158 N158 M159 N159 M160 N160 M161 N161 M162 N162 M163 N163 M164 N164 M165 N165 M166 N166 M167 N167 M168 N168 M169 N169 M170 N170 M171 N171 M172 N172 M173 N173 M174 N174 M175 N175 M2:M10 M12:M13 M16:M19 M21:M22 M30:M31 M130:M131 M136:M137 M139:M140 N2:N10 N12:N13 N16:N19 N21:N22 N30:N31 N130:N131 N136:N137 N139:N140">
+      <formula1>"盾枪兵,长戟兵,重骑兵,骠骑兵,火矢兵,连弩兵"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11 P11 Q11 R11 S11 T11 U11 V11 W11 X11 O14 P14 Q14 R14 S14 T14 U14 V14 W14 X14 O15 P15 Q15 R15 S15 T15 U15 V15 W15 X15 O16 P16 Q16 R16 S16 T16 U16 V16 W16 X16 O17 P17 Q17 R17 S17 T17 U17 V17 W17 X17 O18 P18 Q18 R18 S18 T18 U18 V18 W18 X18 O19 P19 Q19 R19 S19 T19 U19 V19 W19 X19 O20 P20 Q20 R20 S20 T20 U20 V20 W20 X20 O23 P23 Q23 R23 S23 T23 U23 V23 W23 X23 O24 P24 Q24 R24 S24 T24 U24 V24 W24 X24 O25 P25 Q25 R25 S25 T25 U25 V25 W25 X25 O26 P26 Q26 R26 S26 T26 U26 V26 W26 X26 O27 P27 Q27 R27 S27 T27 U27 V27 W27 X27 O28 P28 Q28 R28 S28 T28 U28 V28 W28 X28 O29 P29 Q29 R29 S29 T29 U29 V29 W29 X29 O30 P30 Q30 R30 S30 T30 U30 V30 W30 X30 O31 P31 Q31 R31 S31 T31 U31 V31 W31 X31 O32 P32 Q32 R32 S32 T32 U32 V32 W32 X32 O33 P33 Q33 R33 S33 T33 U33 V33 W33 X33 O34 P34 Q34 R34 S34 T34 U34 V34 W34 X34 O35 P35 Q35 R35 S35 T35 U35 V35 W35 X35 O36 P36 Q36 R36 S36 T36 U36 V36 W36 X36 O37 P37 Q37 R37 S37 T37 U37 V37 W37 X37 O38 P38 Q38 R38 S38 T38 U38 V38 W38 X38 O39 P39 Q39 R39 S39 T39 U39 V39 W39 X39 O40 P40 Q40 R40 S40 T40 U40 V40 W40 X40 O41 P41 Q41 R41 S41 T41 U41 V41 W41 X41 O42 P42 Q42 R42 S42 T42 U42 V42 W42 X42 O43 P43 Q43 R43 S43 T43 U43 V43 W43 X43 O44 P44 Q44 R44 S44 T44 U44 V44 W44 X44 O45 P45 Q45 R45 S45 T45 U45 V45 W45 X45 O46 P46 Q46 R46 S46 T46 U46 V46 W46 X46 O47 P47 Q47 R47 S47 T47 U47 V47 W47 X47 O48 P48 Q48 R48 S48 T48 U48 V48 W48 X48 O49 P49 Q49 R49 S49 T49 U49 V49 W49 X49 O50 P50 Q50 R50 S50 T50 U50 V50 W50 X50 O51 P51 Q51 R51 S51 T51 U51 V51 W51 X51 O52 P52 Q52 R52 S52 T52 U52 V52 W52 X52 O53 P53 Q53 R53 S53 T53 U53 V53 W53 X53 O56 P56 Q56 R56 S56 T56 U56 V56 W56 X56 O57 P57 Q57 R57 S57 T57 U57 V57 W57 X57 O58 P58 Q58 R58 S58 T58 U58 V58 W58 X58 O59 P59 Q59 R59 S59 T59 U59 V59 W59 X59 O60 P60 Q60 R60 S60 T60 U60 V60 W60 X60 O61 P61 Q61 R61 S61 T61 U61 V61 W61 X61 O62 P62 Q62 R62 S62 T62 U62 V62 W62 X62 O63 P63 Q63 R63 S63 T63 U63 V63 W63 X63 O64 P64 Q64 R64 S64 T64 U64 V64 W64 X64 O65 P65 Q65 R65 S65 T65 U65 V65 W65 X65 O66 P66 Q66 R66 S66 T66 U66 V66 W66 X66 O67 P67 Q67 R67 S67 T67 U67 V67 W67 X67 O68 P68 Q68 R68 S68 T68 U68 V68 W68 X68 O69 P69 Q69 R69 S69 T69 U69 V69 W69 X69 O70 P70 Q70 R70 S70 T70 U70 V70 W70 X70 O71 P71 Q71 R71 S71 T71 U71 V71 W71 X71 O72 P72 Q72 R72 S72 T72 U72 V72 W72 X72 O73 P73 Q73 R73 S73 T73 U73 V73 W73 X73 O74 P74 Q74 R74 S74 T74 U74 V74 W74 X74 O75 P75 Q75 R75 S75 T75 U75 V75 W75 X75 O76 P76 Q76 R76 S76 T76 U76 V76 W76 X76 O77 P77 Q77 R77 S77 T77 U77 V77 W77 X77 O78 P78 Q78 R78 S78 T78 U78 V78 W78 X78 O79 P79 Q79 R79 S79 T79 U79 V79 W79 X79 O80 P80 Q80 R80 S80 T80 U80 V80 W80 X80 O81 P81 Q81 R81 S81 T81 U81 V81 W81 X81 O82 P82 Q82 R82 S82 T82 U82 V82 W82 X82 O83 P83 Q83 R83 S83 T83 U83 V83 W83 X83 O84 P84 Q84 R84 S84 T84 U84 V84 W84 X84 O85 P85 Q85 R85 S85 T85 U85 V85 W85 X85 O86 P86 Q86 R86 S86 T86 U86 V86 W86 X86 O87 P87 Q87 R87 S87 T87 U87 V87 W87 X87 O88 P88 Q88 R88 S88 T88 U88 V88 W88 X88 O89 P89 Q89 R89 S89 T89 U89 V89 W89 X89 O90 P90 Q90 R90 S90 T90 U90 V90 W90 X90 O91 P91 Q91 R91 S91 T91 U91 V91 W91 X91 O92 P92 Q92 R92 S92 T92 U92 V92 W92 X92 O93 P93 Q93 R93 S93 T93 U93 V93 W93 X93 O94 P94 Q94 R94 S94 T94 U94 V94 W94 X94 O95 P95 Q95 R95 S95 T95 U95 V95 W95 X95 O96 P96 Q96 R96 S96 T96 U96 V96 W96 X96 O97 P97 Q97 R97 S97 T97 U97 V97 W97 X97 O98 P98 Q98 R98 S98 T98 U98 V98 W98 X98 O99 P99 Q99 R99 S99 T99 U99 V99 W99 X99 O100 P100 Q100 R100 S100 T100 U100 V100 W100 X100 O101 P101 Q101 R101 S101 T101 U101 V101 W101 X101 O102 P102 Q102 R102 S102 T102 U102 V102 W102 X102 O103 P103 Q103 R103 S103 T103 U103 V103 W103 X103 O104 P104 Q104 R104 S104 T104 U104 V104 W104 X104 O105 P105 Q105 R105 S105 T105 U105 V105 W105 X105 O106 P106 Q106 R106 S106 T106 U106 V106 W106 X106 O107 P107 Q107 R107 S107 T107 U107 V107 W107 X107 O108 P108 Q108 R108 S108 T108 U108 V108 W108 X108 O109 P109 Q109 R109 S109 T109 U109 V109 W109 X109 O110 P110 Q110 R110 S110 T110 U110 V110 W110 X110 O111 P111 Q111 R111 S111 T111 U111 V111 W111 X111 O112 P112 Q112 R112 S112 T112 U112 V112 W112 X112 O113 P113 Q113 R113 S113 T113 U113 V113 W113 X113 O114 P114 Q114 R114 S114 T114 U114 V114 W114 X114 O115 P115 Q115 R115 S115 T115 U115 V115 W115 X115 O116 P116 Q116 R116 S116 T116 U116 V116 W116 X116 O117 P117 Q117 R117 S117 T117 U117 V117 W117 X117 O118 P118 Q118 R118 S118 T118 U118 V118 W118 X118 O119 P119 Q119 R119 S119 T119 U119 V119 W119 X119 O120 P120 Q120 R120 S120 T120 U120 V120 W120 X120 O121 P121 Q121 R121 S121 T121 U121 V121 W121 X121 O122 P122 Q122 R122 S122 T122 U122 V122 W122 X122 O123 P123 Q123 R123 S123 T123 U123 V123 W123 X123 O124 P124 Q124 R124 S124 T124 U124 V124 W124 X124 O125 P125 Q125 R125 S125 T125 U125 V125 W125 X125 O126 P126 Q126 R126 S126 T126 U126 V126 W126 X126 O127 P127 Q127 R127 S127 T127 U127 V127 W127 X127 O128 P128 Q128 R128 S128 T128 U128 V128 W128 X128 O129 P129 Q129 R129 S129 T129 U129 V129 W129 X129 O130 P130 Q130 R130 S130 T130 U130 V130 W130 X130 O131 P131 Q131 R131 S131 T131 U131 V131 W131 X131 O132 P132 Q132 R132 S132 T132 U132 V132 W132 X132 O133 P133 Q133 R133 S133 T133 U133 V133 W133 X133 O134 P134 Q134 R134 S134 T134 U134 V134 W134 X134 O135 P135 Q135 R135 S135 T135 U135 V135 W135 X135 O136 P136 Q136 R136 S136 T136 U136 V136 W136 X136 O137 P137 Q137 R137 S137 T137 U137 V137 W137 X137 O138 P138 Q138 R138 S138 T138 U138 V138 W138 X138 O139 P139 Q139 R139 S139 T139 U139 V139 W139 X139 O140 P140 Q140 R140 S140 T140 U140 V140 W140 X140 O141 P141 Q141 R141 S141 T141 U141 V141 W141 X141 O142 P142 Q142 R142 S142 T142 U142 V142 W142 X142 O143 P143 Q143 R143 S143 T143 U143 V143 W143 X143 O144 P144 Q144 R144 S144 T144 U144 V144 W144 X144 O145 P145 Q145 R145 S145 T145 U145 V145 W145 X145 O146 P146 Q146 R146 S146 T146 U146 V146 W146 X146 O149 P149 Q149 R149 S149 T149 U149 V149 W149 X149 O150 P150 Q150 R150 S150 T150 U150 V150 W150 X150 O151 P151 Q151 R151 S151 T151 U151 V151 W151 X151 O152 P152 Q152 R152 S152 T152 U152 V152 W152 X152 O153 P153 Q153 R153 S153 T153 U153 V153 W153 X153 O154 P154 Q154 R154 S154 T154 U154 V154 W154 X154 O155 P155 Q155 R155 S155 T155 U155 V155 W155 X155 O156 P156 Q156 R156 S156 T156 U156 V156 W156 X156 O157 P157 Q157 R157 S157 T157 U157 V157 W157 X157 O158 P158 Q158 R158 S158 T158 U158 V158 W158 X158 O159 P159 Q159 R159 S159 T159 U159 V159 W159 X159 O160 P160 Q160 R160 S160 T160 U160 V160 W160 X160 O161 P161 Q161 R161 S161 T161 U161 V161 W161 X161 O162 P162 Q162 R162 S162 T162 U162 V162 W162 X162 O163 P163 Q163 R163 S163 T163 U163 V163 W163 X163 O164 P164 Q164 R164 S164 T164 U164 V164 W164 X164 O165 P165 Q165 R165 S165 T165 U165 V165 W165 X165 O166 P166 Q166 R166 S166 T166 U166 V166 W166 X166 O167 P167 Q167 R167 S167 T167 U167 V167 W167 X167 O168 P168 Q168 R168 S168 T168 U168 V168 W168 X168 O169 P169 Q169 R169 S169 T169 U169 V169 W169 X169 O170 P170 Q170 R170 S170 T170 U170 V170 W170 X170 O171 P171 Q171 R171 S171 T171 U171 V171 W171 X171 O172 P172 Q172 R172 S172 T172 U172 V172 W172 X172 O173 P173 Q173 R173 S173 T173 U173 V173 W173 X173 O174 P174 Q174 R174 S174 T174 U174 V174 W174 X174 O175 P175 Q175 R175 S175 T175 U175 V175 W175 X175 O2:O10 O12:O13 O21:O22 O147:O148 P2:P10 P12:P13 P21:P22 P147:P148 Q2:Q10 Q12:Q13 Q21:Q22 Q147:Q148 R2:R10 R12:R13 R21:R22 R147:R148 S2:S10 S12:S13 S21:S22 S147:S148 T2:T10 T12:T13 T21:T22 T147:T148 U2:U10 U12:U13 U21:U22 U147:U148 V2:V10 V12:V13 V21:V22 V147:V148 W2:W10 W12:W13 W21:W22 W147:W148 X2:X10 X12:X13 X21:X22 X147:X148">
+      <formula1>"武锋,三疑,兵道,军略,金鼓,文伐"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC11 AC14 AC15 AC16 AC17 AC18 AC19 AC20 AC23 AC24 AC25 AC26 AC27 AC28 AC29 AC30 AC31 AC32 AC33 AC34 AC35 AC36 AC37 AC38 AC39 AC40 AC41 AC42 AC43 AC44 AC45 AC46 AC47 AC48 AC49 AC50 AC51 AC52 AC53 AC54 AC55 AC56 AC57 AC58 AC59 AC60 AC61 AC62 AC63 AC64 AC65 AC66 AC67 AC68 AC69 AC70 AC71 AC72 AC73 AC74 AC75 AC76 AC77 AC78 AC79 AC80 AC81 AC82 AC83 AC84 AC85 AC86 AC87 AC88 AC89 AC90 AC91 AC92 AC93 AC94 AC95 AC96 AC97 AC98 AC99 AC100 AC101 AC102 AC103 AC104 AC105 AC106 AC107 AC108 AC109 AC110 AC111 AC112 AC113 AC114 AC115 AC116 AC117 AC118 AC119 AC120 AC121 AC122 AC123 AC124 AC125 AC126 AC127 AC128 AC129 AC130 AC131 AC132 AC133 AC134 AC135 AC136 AC137 AC138 AC139 AC140 AC141 AC142 AC143 AC144 AC145 AC146 AC149 AC150 AC151 AC152 AC153 AC154 AC155 AC156 AC157 AC158 AC159 AC160 AC161 AC162 AC163 AC164 AC165 AC166 AC167 AC168 AC169 AC170 AC171 AC172 AC173 AC174 AC175 AC2:AC10 AC12:AC13 AC21:AC22 AC147:AC148">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD54 AD1:AD53 AD56:AD1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD54 AD55 AD1:AD53 AD56:AD1048576">
       <formula1>"逆命,逆命5,突破,未开命格"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/excel/data_temp.xlsx
+++ b/src/main/resources/excel/data_temp.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25035" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25035" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="427">
   <si>
     <t>武将名称</t>
   </si>
@@ -1288,19 +1288,25 @@
   </si>
   <si>
     <t>孟获,赵云,魏延,诸葛亮,吕姬</t>
+  </si>
+  <si>
+    <t>赤羽朱然</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱然</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙权,吕蒙,周泰,陆逊,步练师</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,150 +1345,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1495,194 +1371,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1690,255 +1380,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1984,58 +1432,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2326,16 +1733,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AG175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="AE144" sqref="AE144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2346,7 +1753,7 @@
     <col min="25" max="25" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:33">
+    <row r="1" spans="1:33" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2447,7 +1854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:33">
+    <row r="2" spans="1:33" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -2548,7 +1955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:33">
+    <row r="3" spans="1:33" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -2649,7 +2056,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
@@ -2750,7 +2157,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -2851,7 +2258,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:33">
+    <row r="6" spans="1:33" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -2952,7 +2359,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:33">
+    <row r="7" spans="1:33" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
@@ -3053,7 +2460,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:33">
+    <row r="8" spans="1:33" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -3154,7 +2561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:33">
+    <row r="9" spans="1:33" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
@@ -3255,7 +2662,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:33">
+    <row r="10" spans="1:33" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
@@ -3356,7 +2763,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:33">
+    <row r="11" spans="1:33" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>94</v>
       </c>
@@ -3457,7 +2864,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:33">
+    <row r="12" spans="1:33" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
@@ -3558,7 +2965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:33">
+    <row r="13" spans="1:33" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
@@ -3659,7 +3066,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:33">
+    <row r="14" spans="1:33" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
@@ -3760,7 +3167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:33">
+    <row r="15" spans="1:33" s="1" customFormat="1">
       <c r="A15" s="6" t="s">
         <v>108</v>
       </c>
@@ -3861,7 +3268,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:30">
+    <row r="16" spans="1:33" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
         <v>112</v>
       </c>
@@ -3953,7 +3360,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:30">
+    <row r="17" spans="1:32" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
@@ -4045,7 +3452,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:30">
+    <row r="18" spans="1:32" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
@@ -4137,7 +3544,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:30">
+    <row r="19" spans="1:32" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
         <v>118</v>
       </c>
@@ -4229,7 +3636,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:30">
+    <row r="20" spans="1:32" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
         <v>119</v>
       </c>
@@ -4321,7 +3728,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:25">
+    <row r="21" spans="1:32" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>122</v>
       </c>
@@ -4366,7 +3773,7 @@
       </c>
       <c r="Y21" s="12"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:25">
+    <row r="22" spans="1:32" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>124</v>
       </c>
@@ -4411,7 +3818,7 @@
       </c>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:30">
+    <row r="23" spans="1:32" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
         <v>125</v>
       </c>
@@ -4503,7 +3910,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:30">
+    <row r="24" spans="1:32" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
         <v>128</v>
       </c>
@@ -4595,7 +4002,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:30">
+    <row r="25" spans="1:32" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
         <v>129</v>
       </c>
@@ -4687,7 +4094,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:30">
+    <row r="26" spans="1:32" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
         <v>131</v>
       </c>
@@ -4779,7 +4186,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:25">
+    <row r="27" spans="1:32" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
         <v>132</v>
       </c>
@@ -4824,7 +4231,7 @@
       </c>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:25">
+    <row r="28" spans="1:32" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
         <v>135</v>
       </c>
@@ -4869,7 +4276,7 @@
       </c>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:30">
+    <row r="29" spans="1:32" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
         <v>136</v>
       </c>
@@ -4961,7 +4368,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:30">
+    <row r="30" spans="1:32" s="1" customFormat="1">
       <c r="A30" s="1" t="s">
         <v>138</v>
       </c>
@@ -5053,7 +4460,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:30">
+    <row r="31" spans="1:32" s="1" customFormat="1">
       <c r="A31" s="1" t="s">
         <v>139</v>
       </c>
@@ -5145,7 +4552,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:32">
+    <row r="32" spans="1:32" s="1" customFormat="1">
       <c r="A32" s="1" t="s">
         <v>142</v>
       </c>
@@ -5243,7 +4650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:25">
+    <row r="33" spans="1:32" s="1" customFormat="1">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -5288,7 +4695,7 @@
       </c>
       <c r="Y33" s="12"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:25">
+    <row r="34" spans="1:32" s="1" customFormat="1">
       <c r="A34" s="1" t="s">
         <v>147</v>
       </c>
@@ -5333,7 +4740,7 @@
       </c>
       <c r="Y34" s="12"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:32">
+    <row r="35" spans="1:32" s="1" customFormat="1">
       <c r="A35" s="1" t="s">
         <v>148</v>
       </c>
@@ -5431,7 +4838,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:32">
+    <row r="36" spans="1:32" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
         <v>151</v>
       </c>
@@ -5529,7 +4936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:30">
+    <row r="37" spans="1:32" s="1" customFormat="1">
       <c r="A37" s="1" t="s">
         <v>152</v>
       </c>
@@ -5621,7 +5028,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:30">
+    <row r="38" spans="1:32" s="1" customFormat="1">
       <c r="A38" s="1" t="s">
         <v>154</v>
       </c>
@@ -5713,7 +5120,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:25">
+    <row r="39" spans="1:32" s="1" customFormat="1">
       <c r="A39" s="1" t="s">
         <v>155</v>
       </c>
@@ -5758,7 +5165,7 @@
       </c>
       <c r="Y39" s="12"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:30">
+    <row r="40" spans="1:32" s="1" customFormat="1">
       <c r="A40" s="7" t="s">
         <v>158</v>
       </c>
@@ -5850,7 +5257,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:30">
+    <row r="41" spans="1:32" s="1" customFormat="1">
       <c r="A41" s="1" t="s">
         <v>160</v>
       </c>
@@ -5942,7 +5349,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:30">
+    <row r="42" spans="1:32" s="1" customFormat="1">
       <c r="A42" s="1" t="s">
         <v>161</v>
       </c>
@@ -6018,23 +5425,29 @@
       <c r="Y42" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="Z42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0</v>
+      <c r="Z42" s="15">
+        <v>540</v>
+      </c>
+      <c r="AA42" s="15">
+        <v>330</v>
+      </c>
+      <c r="AB42" s="15">
+        <v>585</v>
       </c>
       <c r="AC42" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>114</v>
+        <v>144</v>
+      </c>
+      <c r="AE42" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF42" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:30">
+    <row r="43" spans="1:32" s="1" customFormat="1">
       <c r="A43" s="1" t="s">
         <v>165</v>
       </c>
@@ -6110,23 +5523,29 @@
       <c r="Y43" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="Z43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
+      <c r="Z43" s="15">
+        <v>540</v>
+      </c>
+      <c r="AA43" s="15">
+        <v>330</v>
+      </c>
+      <c r="AB43" s="15">
+        <v>585</v>
       </c>
       <c r="AC43" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>114</v>
+        <v>144</v>
+      </c>
+      <c r="AE43" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF43" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:30">
+    <row r="44" spans="1:32" s="1" customFormat="1">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
@@ -6218,7 +5637,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:30">
+    <row r="45" spans="1:32" s="1" customFormat="1">
       <c r="A45" s="1" t="s">
         <v>167</v>
       </c>
@@ -6310,7 +5729,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:30">
+    <row r="46" spans="1:32" s="1" customFormat="1">
       <c r="A46" s="1" t="s">
         <v>168</v>
       </c>
@@ -6402,7 +5821,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:30">
+    <row r="47" spans="1:32" s="1" customFormat="1">
       <c r="A47" s="1" t="s">
         <v>171</v>
       </c>
@@ -6494,7 +5913,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:32">
+    <row r="48" spans="1:32" s="1" customFormat="1">
       <c r="A48" s="1" t="s">
         <v>172</v>
       </c>
@@ -6592,7 +6011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:30">
+    <row r="49" spans="1:32" s="1" customFormat="1">
       <c r="A49" s="1" t="s">
         <v>175</v>
       </c>
@@ -6684,7 +6103,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:30">
+    <row r="50" spans="1:32" s="1" customFormat="1">
       <c r="A50" s="1" t="s">
         <v>177</v>
       </c>
@@ -6776,7 +6195,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:32">
+    <row r="51" spans="1:32" s="1" customFormat="1">
       <c r="A51" s="1" t="s">
         <v>179</v>
       </c>
@@ -6874,7 +6293,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:32">
+    <row r="52" spans="1:32" s="1" customFormat="1">
       <c r="A52" s="1" t="s">
         <v>180</v>
       </c>
@@ -6972,7 +6391,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:32">
+    <row r="53" spans="1:32" s="1" customFormat="1">
       <c r="A53" s="1" t="s">
         <v>183</v>
       </c>
@@ -7070,7 +6489,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:32">
+    <row r="54" spans="1:32" s="1" customFormat="1">
       <c r="A54" s="1" t="s">
         <v>184</v>
       </c>
@@ -7168,7 +6587,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:32">
+    <row r="55" spans="1:32" s="1" customFormat="1">
       <c r="A55" s="8" t="s">
         <v>187</v>
       </c>
@@ -7266,7 +6685,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" spans="1:30">
+    <row r="56" spans="1:32" s="1" customFormat="1">
       <c r="A56" s="1" t="s">
         <v>190</v>
       </c>
@@ -7358,7 +6777,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:30">
+    <row r="57" spans="1:32" s="1" customFormat="1">
       <c r="A57" s="1" t="s">
         <v>193</v>
       </c>
@@ -7450,7 +6869,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" spans="1:30">
+    <row r="58" spans="1:32" s="1" customFormat="1">
       <c r="A58" s="1" t="s">
         <v>195</v>
       </c>
@@ -7542,7 +6961,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" spans="1:30">
+    <row r="59" spans="1:32" s="1" customFormat="1">
       <c r="A59" s="1" t="s">
         <v>196</v>
       </c>
@@ -7634,7 +7053,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" spans="1:30">
+    <row r="60" spans="1:32" s="1" customFormat="1">
       <c r="A60" s="1" t="s">
         <v>198</v>
       </c>
@@ -7726,7 +7145,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:30">
+    <row r="61" spans="1:32" s="1" customFormat="1">
       <c r="A61" s="1" t="s">
         <v>199</v>
       </c>
@@ -7818,7 +7237,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" spans="1:30">
+    <row r="62" spans="1:32" s="1" customFormat="1">
       <c r="A62" s="1" t="s">
         <v>201</v>
       </c>
@@ -7910,7 +7329,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:30">
+    <row r="63" spans="1:32" s="1" customFormat="1">
       <c r="A63" s="1" t="s">
         <v>203</v>
       </c>
@@ -8002,7 +7421,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:30">
+    <row r="64" spans="1:32" s="1" customFormat="1">
       <c r="A64" s="1" t="s">
         <v>205</v>
       </c>
@@ -8094,7 +7513,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" spans="1:25">
+    <row r="65" spans="1:32" s="1" customFormat="1">
       <c r="A65" s="1" t="s">
         <v>206</v>
       </c>
@@ -8139,7 +7558,7 @@
       </c>
       <c r="Y65" s="12"/>
     </row>
-    <row r="66" s="1" customFormat="1" spans="1:30">
+    <row r="66" spans="1:32" s="1" customFormat="1">
       <c r="A66" s="1" t="s">
         <v>209</v>
       </c>
@@ -8231,7 +7650,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" spans="1:30">
+    <row r="67" spans="1:32" s="1" customFormat="1">
       <c r="A67" s="1" t="s">
         <v>211</v>
       </c>
@@ -8323,7 +7742,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" spans="1:30">
+    <row r="68" spans="1:32" s="1" customFormat="1">
       <c r="A68" s="1" t="s">
         <v>212</v>
       </c>
@@ -8415,7 +7834,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" spans="1:30">
+    <row r="69" spans="1:32" s="1" customFormat="1">
       <c r="A69" s="1" t="s">
         <v>214</v>
       </c>
@@ -8507,7 +7926,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" spans="1:30">
+    <row r="70" spans="1:32" s="1" customFormat="1">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -8599,7 +8018,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" spans="1:30">
+    <row r="71" spans="1:32" s="1" customFormat="1">
       <c r="A71" s="1" t="s">
         <v>217</v>
       </c>
@@ -8691,7 +8110,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" spans="1:30">
+    <row r="72" spans="1:32" s="1" customFormat="1">
       <c r="A72" s="1" t="s">
         <v>220</v>
       </c>
@@ -8783,7 +8202,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" spans="1:30">
+    <row r="73" spans="1:32" s="1" customFormat="1">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -8875,7 +8294,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" spans="1:30">
+    <row r="74" spans="1:32" s="1" customFormat="1">
       <c r="A74" s="1" t="s">
         <v>223</v>
       </c>
@@ -8967,7 +8386,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" spans="1:32">
+    <row r="75" spans="1:32" s="1" customFormat="1">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -9065,7 +8484,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" spans="1:25">
+    <row r="76" spans="1:32" s="1" customFormat="1">
       <c r="A76" s="1" t="s">
         <v>227</v>
       </c>
@@ -9110,7 +8529,7 @@
       </c>
       <c r="Y76" s="12"/>
     </row>
-    <row r="77" s="1" customFormat="1" spans="1:25">
+    <row r="77" spans="1:32" s="1" customFormat="1">
       <c r="A77" s="1" t="s">
         <v>228</v>
       </c>
@@ -9155,7 +8574,7 @@
       </c>
       <c r="Y77" s="12"/>
     </row>
-    <row r="78" s="1" customFormat="1" spans="1:30">
+    <row r="78" spans="1:32" s="1" customFormat="1">
       <c r="A78" s="1" t="s">
         <v>229</v>
       </c>
@@ -9247,7 +8666,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" spans="1:30">
+    <row r="79" spans="1:32" s="1" customFormat="1">
       <c r="A79" s="1" t="s">
         <v>231</v>
       </c>
@@ -9339,7 +8758,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" spans="1:30">
+    <row r="80" spans="1:32" s="1" customFormat="1">
       <c r="A80" s="1" t="s">
         <v>232</v>
       </c>
@@ -9431,7 +8850,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" spans="1:30">
+    <row r="81" spans="1:32" s="1" customFormat="1">
       <c r="A81" s="1" t="s">
         <v>234</v>
       </c>
@@ -9523,7 +8942,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" spans="1:25">
+    <row r="82" spans="1:32" s="1" customFormat="1">
       <c r="A82" s="1" t="s">
         <v>235</v>
       </c>
@@ -9568,7 +8987,7 @@
       </c>
       <c r="Y82" s="12"/>
     </row>
-    <row r="83" s="1" customFormat="1" spans="1:25">
+    <row r="83" spans="1:32" s="1" customFormat="1">
       <c r="A83" s="1" t="s">
         <v>237</v>
       </c>
@@ -9613,7 +9032,7 @@
       </c>
       <c r="Y83" s="12"/>
     </row>
-    <row r="84" s="1" customFormat="1" spans="1:25">
+    <row r="84" spans="1:32" s="1" customFormat="1">
       <c r="A84" s="1" t="s">
         <v>239</v>
       </c>
@@ -9658,7 +9077,7 @@
       </c>
       <c r="Y84" s="12"/>
     </row>
-    <row r="85" s="1" customFormat="1" spans="1:30">
+    <row r="85" spans="1:32" s="1" customFormat="1">
       <c r="A85" s="1" t="s">
         <v>242</v>
       </c>
@@ -9750,7 +9169,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" spans="1:30">
+    <row r="86" spans="1:32" s="1" customFormat="1">
       <c r="A86" s="1" t="s">
         <v>244</v>
       </c>
@@ -9842,7 +9261,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" spans="1:25">
+    <row r="87" spans="1:32" s="1" customFormat="1">
       <c r="A87" s="1" t="s">
         <v>245</v>
       </c>
@@ -9887,7 +9306,7 @@
       </c>
       <c r="Y87" s="12"/>
     </row>
-    <row r="88" s="1" customFormat="1" spans="1:30">
+    <row r="88" spans="1:32" s="1" customFormat="1">
       <c r="A88" s="1" t="s">
         <v>248</v>
       </c>
@@ -9979,7 +9398,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" spans="1:30">
+    <row r="89" spans="1:32" s="1" customFormat="1">
       <c r="A89" s="1" t="s">
         <v>250</v>
       </c>
@@ -10071,7 +9490,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" spans="1:32">
+    <row r="90" spans="1:32" s="1" customFormat="1">
       <c r="A90" s="1" t="s">
         <v>251</v>
       </c>
@@ -10169,7 +9588,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" spans="1:32">
+    <row r="91" spans="1:32" s="1" customFormat="1">
       <c r="A91" s="1" t="s">
         <v>254</v>
       </c>
@@ -10267,7 +9686,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" spans="1:30">
+    <row r="92" spans="1:32" s="1" customFormat="1">
       <c r="A92" s="1" t="s">
         <v>255</v>
       </c>
@@ -10359,7 +9778,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" spans="1:30">
+    <row r="93" spans="1:32" s="1" customFormat="1">
       <c r="A93" s="1" t="s">
         <v>257</v>
       </c>
@@ -10451,7 +9870,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" spans="1:30">
+    <row r="94" spans="1:32" s="1" customFormat="1">
       <c r="A94" s="1" t="s">
         <v>260</v>
       </c>
@@ -10543,7 +9962,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" spans="1:32">
+    <row r="95" spans="1:32" s="1" customFormat="1">
       <c r="A95" s="1" t="s">
         <v>261</v>
       </c>
@@ -10641,7 +10060,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" spans="1:30">
+    <row r="96" spans="1:32" s="1" customFormat="1">
       <c r="A96" s="1" t="s">
         <v>264</v>
       </c>
@@ -14137,7 +13556,7 @@
       </c>
       <c r="AG132" s="1"/>
     </row>
-    <row r="133" s="2" customFormat="1" spans="1:33">
+    <row r="133" spans="1:33" s="2" customFormat="1">
       <c r="A133" s="1" t="s">
         <v>338</v>
       </c>
@@ -14910,103 +14329,107 @@
       <c r="AG140" s="1"/>
     </row>
     <row r="141" spans="1:33">
-      <c r="A141" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D141" s="1">
-        <v>1</v>
-      </c>
-      <c r="E141" s="1">
-        <v>694</v>
-      </c>
-      <c r="F141" s="1">
-        <v>393</v>
-      </c>
-      <c r="G141" s="1">
-        <v>739</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I141" s="1" t="s">
+      <c r="A141" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D141" s="15">
+        <v>1</v>
+      </c>
+      <c r="E141" s="15">
+        <v>698</v>
+      </c>
+      <c r="F141" s="15">
+        <v>623</v>
+      </c>
+      <c r="G141" s="15">
+        <v>513</v>
+      </c>
+      <c r="H141" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I141" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J141" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K141" s="1" t="s">
+      <c r="J141" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="L141" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="M141" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N141" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O141" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P141" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q141" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R141" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S141" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T141" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U141" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V141" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W141" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X141" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y141" s="12" t="s">
+      <c r="K141" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L141" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="M141" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N141" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O141" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P141" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q141" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="R141" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="S141" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T141" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U141" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="V141" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W141" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="X141" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y141" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Z141" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA141" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB141" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC141" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD141" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE141" s="1"/>
-      <c r="AF141" s="1"/>
+      <c r="Z141" s="15">
+        <v>540</v>
+      </c>
+      <c r="AA141" s="15">
+        <v>330</v>
+      </c>
+      <c r="AB141" s="15">
+        <v>585</v>
+      </c>
+      <c r="AC141" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD141" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE141" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF141" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="AG141" s="1"/>
     </row>
     <row r="142" spans="1:33">
       <c r="A142" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>357</v>
@@ -15018,13 +14441,13 @@
         <v>1</v>
       </c>
       <c r="E142" s="1">
-        <v>763</v>
+        <v>694</v>
       </c>
       <c r="F142" s="1">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="G142" s="1">
-        <v>813</v>
+        <v>739</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>51</v>
@@ -15101,7 +14524,7 @@
     </row>
     <row r="143" spans="1:33">
       <c r="A143" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>357</v>
@@ -15113,13 +14536,13 @@
         <v>1</v>
       </c>
       <c r="E143" s="1">
-        <v>797</v>
+        <v>763</v>
       </c>
       <c r="F143" s="1">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="G143" s="1">
-        <v>637</v>
+        <v>813</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>51</v>
@@ -15128,19 +14551,19 @@
         <v>52</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="O143" s="1" t="s">
         <v>38</v>
@@ -15149,16 +14572,16 @@
         <v>39</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S143" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U143" s="1" t="s">
         <v>41</v>
@@ -15196,7 +14619,7 @@
     </row>
     <row r="144" spans="1:33">
       <c r="A144" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>357</v>
@@ -15208,13 +14631,13 @@
         <v>1</v>
       </c>
       <c r="E144" s="1">
-        <v>868</v>
+        <v>797</v>
       </c>
       <c r="F144" s="1">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="G144" s="1">
-        <v>701</v>
+        <v>637</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>51</v>
@@ -15291,10 +14714,10 @@
     </row>
     <row r="145" spans="1:33">
       <c r="A145" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>50</v>
+        <v>357</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>30</v>
@@ -15303,13 +14726,13 @@
         <v>1</v>
       </c>
       <c r="E145" s="1">
-        <v>677</v>
+        <v>868</v>
       </c>
       <c r="F145" s="1">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="G145" s="1">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>51</v>
@@ -15318,19 +14741,19 @@
         <v>52</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O145" s="1" t="s">
         <v>38</v>
@@ -15339,16 +14762,16 @@
         <v>39</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S145" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U145" s="1" t="s">
         <v>41</v>
@@ -15386,7 +14809,7 @@
     </row>
     <row r="146" spans="1:33">
       <c r="A146" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>50</v>
@@ -15398,13 +14821,13 @@
         <v>1</v>
       </c>
       <c r="E146" s="1">
-        <v>745</v>
+        <v>677</v>
       </c>
       <c r="F146" s="1">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="G146" s="1">
-        <v>790</v>
+        <v>718</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>51</v>
@@ -15481,7 +14904,7 @@
     </row>
     <row r="147" spans="1:33">
       <c r="A147" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>50</v>
@@ -15493,13 +14916,13 @@
         <v>1</v>
       </c>
       <c r="E147" s="1">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="F147" s="1">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="G147" s="1">
-        <v>622</v>
+        <v>790</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>51</v>
@@ -15522,29 +14945,61 @@
       <c r="N147" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-      <c r="S147" s="1"/>
-      <c r="T147" s="1"/>
-      <c r="U147" s="1"/>
-      <c r="V147" s="1"/>
-      <c r="W147" s="1"/>
-      <c r="X147" s="1"/>
-      <c r="Y147" s="12"/>
-      <c r="Z147" s="1"/>
-      <c r="AA147" s="1"/>
-      <c r="AB147" s="1"/>
-      <c r="AC147" s="1"/>
-      <c r="AD147" s="1"/>
+      <c r="O147" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R147" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S147" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T147" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U147" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W147" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y147" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD147" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="AE147" s="1"/>
       <c r="AF147" s="1"/>
       <c r="AG147" s="1"/>
     </row>
     <row r="148" spans="1:33">
       <c r="A148" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>50</v>
@@ -15556,13 +15011,13 @@
         <v>1</v>
       </c>
       <c r="E148" s="1">
-        <v>854</v>
+        <v>781</v>
       </c>
       <c r="F148" s="1">
-        <v>448</v>
+        <v>405</v>
       </c>
       <c r="G148" s="1">
-        <v>697</v>
+        <v>622</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>51</v>
@@ -15607,10 +15062,10 @@
     </row>
     <row r="149" spans="1:33">
       <c r="A149" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>30</v>
@@ -15619,90 +15074,58 @@
         <v>1</v>
       </c>
       <c r="E149" s="1">
-        <v>405</v>
+        <v>854</v>
       </c>
       <c r="F149" s="1">
-        <v>673</v>
+        <v>448</v>
       </c>
       <c r="G149" s="1">
-        <v>656</v>
+        <v>697</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O149" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P149" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q149" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R149" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S149" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T149" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U149" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W149" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X149" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y149" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z149" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA149" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB149" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC149" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD149" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
+      <c r="X149" s="1"/>
+      <c r="Y149" s="12"/>
+      <c r="Z149" s="1"/>
+      <c r="AA149" s="1"/>
+      <c r="AB149" s="1"/>
+      <c r="AC149" s="1"/>
+      <c r="AD149" s="1"/>
       <c r="AE149" s="1"/>
       <c r="AF149" s="1"/>
       <c r="AG149" s="1"/>
     </row>
     <row r="150" spans="1:33">
       <c r="A150" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>65</v>
@@ -15714,13 +15137,13 @@
         <v>1</v>
       </c>
       <c r="E150" s="1">
-        <v>468</v>
+        <v>405</v>
       </c>
       <c r="F150" s="1">
-        <v>726</v>
+        <v>673</v>
       </c>
       <c r="G150" s="1">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>51</v>
@@ -15797,7 +15220,7 @@
     </row>
     <row r="151" spans="1:33">
       <c r="A151" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>65</v>
@@ -15809,19 +15232,19 @@
         <v>1</v>
       </c>
       <c r="E151" s="1">
-        <v>393</v>
+        <v>468</v>
       </c>
       <c r="F151" s="1">
-        <v>770</v>
+        <v>726</v>
       </c>
       <c r="G151" s="1">
-        <v>570</v>
+        <v>744</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>67</v>
@@ -15854,7 +15277,7 @@
         <v>40</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U151" s="1" t="s">
         <v>41</v>
@@ -15892,7 +15315,7 @@
     </row>
     <row r="152" spans="1:33">
       <c r="A152" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>65</v>
@@ -15904,13 +15327,13 @@
         <v>1</v>
       </c>
       <c r="E152" s="1">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="F152" s="1">
-        <v>847</v>
+        <v>770</v>
       </c>
       <c r="G152" s="1">
-        <v>627</v>
+        <v>570</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>51</v>
@@ -15987,10 +15410,10 @@
     </row>
     <row r="153" spans="1:33">
       <c r="A153" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>30</v>
@@ -15999,34 +15422,34 @@
         <v>1</v>
       </c>
       <c r="E153" s="1">
-        <v>590</v>
+        <v>433</v>
       </c>
       <c r="F153" s="1">
-        <v>374</v>
+        <v>847</v>
       </c>
       <c r="G153" s="1">
-        <v>860</v>
+        <v>627</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="O153" s="1" t="s">
         <v>38</v>
@@ -16035,16 +15458,16 @@
         <v>39</v>
       </c>
       <c r="Q153" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R153" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S153" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U153" s="1" t="s">
         <v>41</v>
@@ -16082,7 +15505,7 @@
     </row>
     <row r="154" spans="1:33">
       <c r="A154" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>61</v>
@@ -16094,13 +15517,13 @@
         <v>1</v>
       </c>
       <c r="E154" s="1">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="F154" s="1">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="G154" s="1">
-        <v>796</v>
+        <v>860</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>31</v>
@@ -16109,19 +15532,19 @@
         <v>32</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O154" s="1" t="s">
         <v>38</v>
@@ -16130,16 +15553,16 @@
         <v>39</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R154" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S154" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U154" s="1" t="s">
         <v>41</v>
@@ -16177,7 +15600,7 @@
     </row>
     <row r="155" spans="1:33">
       <c r="A155" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>61</v>
@@ -16189,13 +15612,13 @@
         <v>1</v>
       </c>
       <c r="E155" s="1">
-        <v>681</v>
+        <v>619</v>
       </c>
       <c r="F155" s="1">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="G155" s="1">
-        <v>876</v>
+        <v>796</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>31</v>
@@ -16272,10 +15695,10 @@
     </row>
     <row r="156" spans="1:33">
       <c r="A156" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>30</v>
@@ -16284,13 +15707,13 @@
         <v>1</v>
       </c>
       <c r="E156" s="1">
-        <v>631</v>
+        <v>681</v>
       </c>
       <c r="F156" s="1">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="G156" s="1">
-        <v>795</v>
+        <v>876</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>31</v>
@@ -16302,10 +15725,10 @@
         <v>53</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>55</v>
@@ -16367,7 +15790,7 @@
     </row>
     <row r="157" spans="1:33">
       <c r="A157" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>29</v>
@@ -16379,13 +15802,13 @@
         <v>1</v>
       </c>
       <c r="E157" s="1">
-        <v>543</v>
+        <v>631</v>
       </c>
       <c r="F157" s="1">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="G157" s="1">
-        <v>860</v>
+        <v>795</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>31</v>
@@ -16394,19 +15817,19 @@
         <v>32</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>34</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O157" s="1" t="s">
         <v>38</v>
@@ -16415,16 +15838,16 @@
         <v>39</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R157" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S157" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U157" s="1" t="s">
         <v>41</v>
@@ -16462,7 +15885,7 @@
     </row>
     <row r="158" spans="1:33">
       <c r="A158" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>29</v>
@@ -16474,13 +15897,13 @@
         <v>1</v>
       </c>
       <c r="E158" s="1">
-        <v>597</v>
+        <v>543</v>
       </c>
       <c r="F158" s="1">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="G158" s="1">
-        <v>946</v>
+        <v>860</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>31</v>
@@ -16557,10 +15980,10 @@
     </row>
     <row r="159" spans="1:33">
       <c r="A159" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>384</v>
+        <v>29</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>30</v>
@@ -16569,34 +15992,34 @@
         <v>1</v>
       </c>
       <c r="E159" s="1">
-        <v>810</v>
+        <v>597</v>
       </c>
       <c r="F159" s="1">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="G159" s="1">
-        <v>638</v>
+        <v>946</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O159" s="1" t="s">
         <v>38</v>
@@ -16605,16 +16028,16 @@
         <v>39</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R159" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S159" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T159" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U159" s="1" t="s">
         <v>41</v>
@@ -16652,7 +16075,7 @@
     </row>
     <row r="160" spans="1:33">
       <c r="A160" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>384</v>
@@ -16664,13 +16087,13 @@
         <v>1</v>
       </c>
       <c r="E160" s="1">
-        <v>728</v>
+        <v>810</v>
       </c>
       <c r="F160" s="1">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="G160" s="1">
-        <v>699</v>
+        <v>638</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>31</v>
@@ -16679,19 +16102,19 @@
         <v>52</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O160" s="1" t="s">
         <v>38</v>
@@ -16700,16 +16123,16 @@
         <v>39</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R160" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S160" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U160" s="1" t="s">
         <v>41</v>
@@ -16747,10 +16170,10 @@
     </row>
     <row r="161" spans="1:33">
       <c r="A161" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>30</v>
@@ -16759,13 +16182,13 @@
         <v>1</v>
       </c>
       <c r="E161" s="1">
-        <v>799</v>
+        <v>728</v>
       </c>
       <c r="F161" s="1">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G161" s="1">
-        <v>632</v>
+        <v>699</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>31</v>
@@ -16774,19 +16197,19 @@
         <v>52</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O161" s="1" t="s">
         <v>38</v>
@@ -16795,16 +16218,16 @@
         <v>39</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R161" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S161" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T161" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U161" s="1" t="s">
         <v>41</v>
@@ -16842,7 +16265,7 @@
     </row>
     <row r="162" spans="1:33">
       <c r="A162" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>389</v>
@@ -16854,13 +16277,13 @@
         <v>1</v>
       </c>
       <c r="E162" s="1">
-        <v>724</v>
+        <v>799</v>
       </c>
       <c r="F162" s="1">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G162" s="1">
-        <v>712</v>
+        <v>632</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>31</v>
@@ -16869,19 +16292,19 @@
         <v>52</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K162" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O162" s="1" t="s">
         <v>38</v>
@@ -16890,16 +16313,16 @@
         <v>39</v>
       </c>
       <c r="Q162" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R162" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S162" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T162" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U162" s="1" t="s">
         <v>41</v>
@@ -16917,34 +16340,30 @@
         <v>44</v>
       </c>
       <c r="Z162" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AA162" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AB162" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AC162" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD162" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE162" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF162" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AE162" s="1"/>
+      <c r="AF162" s="1"/>
       <c r="AG162" s="1"/>
     </row>
     <row r="163" spans="1:33">
       <c r="A163" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>30</v>
@@ -16956,7 +16375,7 @@
         <v>724</v>
       </c>
       <c r="F163" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G163" s="1">
         <v>712</v>
@@ -16968,43 +16387,79 @@
         <v>52</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-      <c r="S163" s="1"/>
-      <c r="T163" s="1"/>
-      <c r="U163" s="1"/>
-      <c r="V163" s="1"/>
-      <c r="W163" s="1"/>
-      <c r="X163" s="1"/>
-      <c r="Y163" s="12"/>
-      <c r="Z163" s="1"/>
-      <c r="AA163" s="1"/>
-      <c r="AB163" s="1"/>
-      <c r="AC163" s="1"/>
-      <c r="AD163" s="1"/>
-      <c r="AE163" s="1"/>
-      <c r="AF163" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T163" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U163" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V163" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W163" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X163" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y163" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z163" s="1">
+        <v>540</v>
+      </c>
+      <c r="AA163" s="1">
+        <v>330</v>
+      </c>
+      <c r="AB163" s="1">
+        <v>585</v>
+      </c>
+      <c r="AC163" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD163" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE163" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF163" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AG163" s="1"/>
     </row>
     <row r="164" spans="1:33">
       <c r="A164" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>394</v>
@@ -17016,13 +16471,13 @@
         <v>1</v>
       </c>
       <c r="E164" s="1">
-        <v>830</v>
+        <v>724</v>
       </c>
       <c r="F164" s="1">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="G164" s="1">
-        <v>619</v>
+        <v>712</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>31</v>
@@ -17037,7 +16492,7 @@
         <v>33</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>55</v>
@@ -17045,61 +16500,29 @@
       <c r="N164" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O164" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P164" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q164" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R164" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S164" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T164" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U164" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V164" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W164" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X164" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y164" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC164" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD164" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
+      <c r="V164" s="1"/>
+      <c r="W164" s="1"/>
+      <c r="X164" s="1"/>
+      <c r="Y164" s="12"/>
+      <c r="Z164" s="1"/>
+      <c r="AA164" s="1"/>
+      <c r="AB164" s="1"/>
+      <c r="AC164" s="1"/>
+      <c r="AD164" s="1"/>
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
       <c r="AG164" s="1"/>
     </row>
     <row r="165" spans="1:33">
       <c r="A165" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>394</v>
@@ -17111,13 +16534,13 @@
         <v>1</v>
       </c>
       <c r="E165" s="1">
-        <v>913</v>
+        <v>830</v>
       </c>
       <c r="F165" s="1">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="G165" s="1">
-        <v>680</v>
+        <v>619</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>31</v>
@@ -17194,10 +16617,10 @@
     </row>
     <row r="166" spans="1:33">
       <c r="A166" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>30</v>
@@ -17206,34 +16629,34 @@
         <v>1</v>
       </c>
       <c r="E166" s="1">
-        <v>388</v>
+        <v>913</v>
       </c>
       <c r="F166" s="1">
-        <v>767</v>
+        <v>397</v>
       </c>
       <c r="G166" s="1">
-        <v>616</v>
+        <v>680</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="O166" s="1" t="s">
         <v>38</v>
@@ -17242,16 +16665,16 @@
         <v>39</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R166" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S166" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T166" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U166" s="1" t="s">
         <v>41</v>
@@ -17289,7 +16712,7 @@
     </row>
     <row r="167" spans="1:33">
       <c r="A167" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>400</v>
@@ -17301,13 +16724,13 @@
         <v>1</v>
       </c>
       <c r="E167" s="1">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F167" s="1">
-        <v>665</v>
+        <v>767</v>
       </c>
       <c r="G167" s="1">
-        <v>713</v>
+        <v>616</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>31</v>
@@ -17322,7 +16745,7 @@
         <v>67</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>70</v>
@@ -17384,7 +16807,7 @@
     </row>
     <row r="168" spans="1:33">
       <c r="A168" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>400</v>
@@ -17396,13 +16819,13 @@
         <v>1</v>
       </c>
       <c r="E168" s="1">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="F168" s="1">
-        <v>731</v>
+        <v>665</v>
       </c>
       <c r="G168" s="1">
-        <v>784</v>
+        <v>713</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>31</v>
@@ -17479,10 +16902,10 @@
     </row>
     <row r="169" spans="1:33">
       <c r="A169" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>30</v>
@@ -17491,34 +16914,34 @@
         <v>1</v>
       </c>
       <c r="E169" s="1">
-        <v>815</v>
+        <v>432</v>
       </c>
       <c r="F169" s="1">
-        <v>462</v>
+        <v>731</v>
       </c>
       <c r="G169" s="1">
-        <v>528</v>
+        <v>784</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O169" s="1" t="s">
         <v>38</v>
@@ -17527,16 +16950,16 @@
         <v>39</v>
       </c>
       <c r="Q169" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R169" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S169" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U169" s="1" t="s">
         <v>41</v>
@@ -17551,34 +16974,30 @@
         <v>43</v>
       </c>
       <c r="Y169" s="12" t="s">
-        <v>408</v>
+        <v>44</v>
       </c>
       <c r="Z169" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AA169" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AB169" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AC169" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD169" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE169" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF169" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AE169" s="1"/>
+      <c r="AF169" s="1"/>
       <c r="AG169" s="1"/>
     </row>
     <row r="170" spans="1:33">
       <c r="A170" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>406</v>
@@ -17590,13 +17009,13 @@
         <v>1</v>
       </c>
       <c r="E170" s="1">
-        <v>897</v>
+        <v>815</v>
       </c>
       <c r="F170" s="1">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="G170" s="1">
-        <v>581</v>
+        <v>528</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>31</v>
@@ -17677,10 +17096,10 @@
     </row>
     <row r="171" spans="1:33">
       <c r="A171" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>30</v>
@@ -17689,34 +17108,34 @@
         <v>1</v>
       </c>
       <c r="E171" s="1">
-        <v>518</v>
+        <v>897</v>
       </c>
       <c r="F171" s="1">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="G171" s="1">
-        <v>840</v>
+        <v>581</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O171" s="1" t="s">
         <v>38</v>
@@ -17725,16 +17144,16 @@
         <v>39</v>
       </c>
       <c r="Q171" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R171" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S171" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T171" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U171" s="1" t="s">
         <v>41</v>
@@ -17749,33 +17168,37 @@
         <v>43</v>
       </c>
       <c r="Y171" s="12" t="s">
-        <v>44</v>
+        <v>408</v>
       </c>
       <c r="Z171" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AA171" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AB171" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AC171" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD171" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE171" s="1"/>
-      <c r="AF171" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="AE171" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF171" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AG171" s="1"/>
     </row>
     <row r="172" spans="1:33">
       <c r="A172" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>30</v>
@@ -17784,19 +17207,19 @@
         <v>1</v>
       </c>
       <c r="E172" s="1">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="F172" s="1">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="G172" s="1">
-        <v>723</v>
+        <v>840</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>33</v>
@@ -17805,7 +17228,7 @@
         <v>33</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>36</v>
@@ -17846,31 +17269,35 @@
       <c r="Y172" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Z172" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA172" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB172" s="1">
-        <v>0</v>
+      <c r="Z172" s="15">
+        <v>540</v>
+      </c>
+      <c r="AA172" s="15">
+        <v>330</v>
+      </c>
+      <c r="AB172" s="15">
+        <v>585</v>
       </c>
       <c r="AC172" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD172" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE172" s="1"/>
-      <c r="AF172" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="AE172" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF172" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AG172" s="1"/>
     </row>
     <row r="173" spans="1:33">
       <c r="A173" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>30</v>
@@ -17879,34 +17306,34 @@
         <v>1</v>
       </c>
       <c r="E173" s="1">
-        <v>388</v>
+        <v>491</v>
       </c>
       <c r="F173" s="1">
-        <v>703</v>
+        <v>591</v>
       </c>
       <c r="G173" s="1">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>38</v>
@@ -17915,13 +17342,13 @@
         <v>39</v>
       </c>
       <c r="Q173" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R173" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S173" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T173" s="1" t="s">
         <v>41</v>
@@ -17962,10 +17389,10 @@
     </row>
     <row r="174" spans="1:33">
       <c r="A174" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>30</v>
@@ -17974,34 +17401,34 @@
         <v>1</v>
       </c>
       <c r="E174" s="1">
-        <v>587</v>
+        <v>388</v>
       </c>
       <c r="F174" s="1">
-        <v>352</v>
+        <v>703</v>
       </c>
       <c r="G174" s="1">
-        <v>840</v>
+        <v>707</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>38</v>
@@ -18010,16 +17437,16 @@
         <v>39</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R174" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S174" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T174" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U174" s="1" t="s">
         <v>41</v>
@@ -18031,76 +17458,72 @@
         <v>40</v>
       </c>
       <c r="X174" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Y174" s="12" t="s">
         <v>44</v>
       </c>
       <c r="Z174" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AA174" s="1">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AB174" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AC174" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD174" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE174" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF174" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AE174" s="1"/>
+      <c r="AF174" s="1"/>
       <c r="AG174" s="1"/>
     </row>
-    <row r="175" s="2" customFormat="1" spans="1:32">
-      <c r="A175" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C175" s="2" t="s">
+    <row r="175" spans="1:33">
+      <c r="A175" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D175" s="2">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2">
-        <v>443</v>
-      </c>
-      <c r="F175" s="2">
-        <v>623</v>
-      </c>
-      <c r="G175" s="2">
-        <v>732</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>51</v>
+      <c r="D175" s="1">
+        <v>1</v>
+      </c>
+      <c r="E175" s="1">
+        <v>587</v>
+      </c>
+      <c r="F175" s="1">
+        <v>352</v>
+      </c>
+      <c r="G175" s="1">
+        <v>840</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K175" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L175" s="2" t="s">
-        <v>423</v>
+      <c r="J175" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>38</v>
@@ -18115,10 +17538,10 @@
         <v>39</v>
       </c>
       <c r="S175" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T175" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U175" s="1" t="s">
         <v>41</v>
@@ -18127,10 +17550,10 @@
         <v>42</v>
       </c>
       <c r="W175" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X175" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y175" s="12" t="s">
         <v>44</v>
@@ -18151,82 +17574,175 @@
         <v>144</v>
       </c>
       <c r="AE175" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF175" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG175" s="1"/>
+    </row>
+    <row r="176" spans="1:33" s="2" customFormat="1">
+      <c r="A176" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D176" s="2">
+        <v>1</v>
+      </c>
+      <c r="E176" s="2">
+        <v>443</v>
+      </c>
+      <c r="F176" s="2">
+        <v>623</v>
+      </c>
+      <c r="G176" s="2">
+        <v>732</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T176" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U176" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W176" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X176" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y176" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z176" s="1">
+        <v>540</v>
+      </c>
+      <c r="AA176" s="1">
+        <v>330</v>
+      </c>
+      <c r="AB176" s="1">
+        <v>585</v>
+      </c>
+      <c r="AC176" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD176" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE176" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AF175" s="1" t="s">
+      <c r="AF176" s="1" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="11">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 H1 I1 J1 K1 M1 N1 O1 P1 Q1 R1 S1 T1 U1 V1 W1 X1 Y1 AC1 AE1:AG1 L11 B14 L14 B15 L15 L20 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 Y43 L44 L45 L46 L47 L48 L49 L50 L51 L52 B53 L53 B54 L54 Y54 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 B133 L133 L134 L135 L138 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 L170 Y170 B1:B13 B16:B52 B56:B132 B134:B1048576 L1:L10 L12:L13 L16:L19 L21:L23 L136:L137 L139:L140 L171:L174 Y2:Y6 Y8:Y42 Y44:Y53 Y56:Y169 Y171:Y175 Y176:Y1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE10 AF10 AG10 AE11 AF11 AG11 AE14 AF14 AG14 AE15 AF15 AG15 AE36 AF36 AE52 AF52 AE53 AF53 AG53 AE54 AF54 AG54 AE55 AF55 AG55 AE75 AF75 AE91 AF91 AG91 AE95 AF95 AE99 AF99 AE100 AF100 AG100 AE106 AF106 AE132 AF132 AE133 AF133 AG133 AE137 AF137 AE138 AF138 AG138 AE162 AF162 AE169 AF169 AE170 AF170 AG170 AE174 AF174 AE175 AF175 AE2:AE9 AE12:AE13 AE16:AE35 AE37:AE51 AE56:AE74 AE76:AE90 AE92:AE94 AE96:AE98 AE101:AE105 AE107:AE131 AE134:AE136 AE139:AE161 AE163:AE168 AE171:AE173 AF2:AF9 AF12:AF13 AF16:AF35 AF37:AF51 AF56:AF74 AF76:AF90 AF92:AF94 AF96:AF98 AF101:AF105 AF107:AF131 AF134:AF136 AF139:AF161 AF163:AF168 AF171:AF173 AG2:AG9 AG12:AG13 AG16:AG52 AG56:AG90 AG92:AG99 AG101:AG132 AG134:AG137 AG139:AG169 AG171:AG174">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 H1:K1 M1:X1 AC1 AE1:AG1 B1:B54 L1:L54 Y1:Y6 Y8:Y54 Y56:Y1048576 L56:L175 B56:B1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG175 AE2:AF176">
       <formula1>"天机之钥,天相之圭,太阴之精,太阳之焰,贪狼之爪,廉贞之锋,七杀之气,破军之血"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C14 C15 C20 C25 C26 C27 C28 C29 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C115 C116 C117 C118 C119 C120 C121 C122 C125 C126 C133 C138 C166 C170 C2:C10 C12:C13 C16:C19 C21:C24 C30:C31 C111:C114 C123:C124 C127:C132 C134:C137 C139:C140 C141:C143 C144:C147 C148:C151 C152:C154 C155:C165 C167:C169 C171:C174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C54 C56:C175">
       <formula1>"魏,蜀,吴,群"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H14 H15 H20 H24 H25 H26 H27 H28 H29 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H47 H48 H49 H50 H51 H52 H53 H54 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101 H102 H103 H104 H105 H106 H107 H108 H109 H110 H111 H112 H113 H114 H115 H116 H117 H118 H119 H120 H121 H122 H123 H124 H125 H129 H130 H131 H132 H133 H134 H135 H138 H144 H145 H146 H149 H150 H151 H152 H153 H154 H155 H156 H159 H160 H161 H162 H163 H164 H165 H166 H170 H2:H10 H12:H13 H16:H19 H21:H23 H30:H31 H45:H46 H126:H128 H136:H137 H139:H140 H141:H143 H147:H148 H157:H158 H167:H169 H171:H174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H54 H56:H175">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11 I14 I15 I20 I24 I25 I26 I27 I28 I29 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I47 I48 I49 I50 I51 I52 I53 I54 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I129 I130 I131 I132 I133 I134 I135 I138 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I156 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I170 I175 I2:I10 I12:I13 I16:I19 I21:I23 I30:I31 I45:I46 I126:I128 I136:I137 I139:I140 I141:I143 I157:I158 I171:I174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I54 I56:I176">
       <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11 J14 J15 J20 J24 J25 J26 J27 J28 J29 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J47 J48 J49 J50 J51 J52 J53 J54 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69 J70 J71 J72 J73 J74 J75 J76 J77 J78 J79 J80 J81 J82 J83 J84 J85 J86 J87 J88 J89 J90 J91 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J129 J130 J131 J132 J133 J134 J135 J138 J144 J145 J146 J147 J148 J149 J150 J151 J152 J153 J154 J155 J156 J159 J160 J161 J162 J163 J164 J165 J166 J167 J168 J169 J170 J2:J10 J12:J13 J16:J19 J21:J23 J30:J31 J45:J46 J126:J128 J136:J137 J139:J140 J141:J143 J157:J158 J171:J174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J54 J56:J175">
       <formula1>"枪,弓,骑"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11 K14 K15 K20 K24 K25 K26 K27 K28 K29 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K47 K48 K49 K50 K51 K52 K53 K54 K56 K57 K58 K59 K60 K61 K62 K63 K64 K65 K66 K67 K68 K69 K70 K71 K72 K73 K74 K75 K76 K77 K78 K79 K80 K81 K82 K83 K84 K85 K86 K87 K88 K89 K90 K91 K92 K93 K94 K95 K96 K97 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K122 K123 K124 K125 K129 K130 K131 K132 K133 K134 K135 K138 K149 K159 K160 K161 K162 K163 K164 K165 K166 K167 K168 K169 K170 K2:K10 K12:K13 K16:K19 K21:K23 K30:K31 K45:K46 K126:K128 K136:K137 K139:K140 K141:K144 K145:K148 K150:K152 K153:K155 K156:K158 K171:K174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K54 K56:K175">
       <formula1>"刀,剑,枪,弓,扇"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 N11 M14 N14 M15 N15 M20 N20 M23 N23 M24 N24 M25 N25 M26 N26 M27 N27 M28 N28 M29 N29 M32 N32 M33 N33 M34 N34 M35 N35 M36 N36 M37 N37 M38 N38 M39 N39 M40 N40 M41 N41 M42 N42 M43 N43 M44 N44 M45 N45 M46 N46 M47 N47 M48 N48 M49 N49 M50 N50 M51 N51 M52 N52 M53 N53 M54 N54 M56 N56 M57 N57 M58 N58 M59 N59 M60 N60 M61 N61 M62 N62 M63 N63 M64 N64 M65 N65 M66 N66 M67 N67 M68 N68 M69 N69 M70 N70 M71 N71 M72 N72 M73 N73 M74 N74 M75 N75 M76 N76 M77 N77 M78 N78 M79 N79 M80 N80 M81 N81 M82 N82 M83 N83 M84 N84 M85 N85 M86 N86 M87 N87 M88 N88 M89 N89 M90 N90 M91 N91 M92 N92 M93 N93 M94 N94 M95 N95 M96 N96 M97 N97 M98 N98 M99 N99 M100 N100 M101 N101 M102 N102 M103 N103 M104 N104 M105 N105 M106 N106 M107 N107 M108 N108 M109 N109 M110 N110 M111 N111 M112 N112 M113 N113 M114 N114 M115 N115 M116 N116 M117 N117 M118 N118 M119 N119 M120 N120 M121 N121 M122 N122 M123 N123 M124 N124 M125 N125 M126 N126 M127 N127 M128 N128 M129 N129 M132 N132 M133 N133 M134 N134 M135 N135 M138 N138 M141 N141 M142 N142 M143 N143 M144 N144 M145 N145 M146 N146 M147 N147 M148 N148 M149 N149 M150 N150 M151 N151 M152 N152 M153 N153 M154 N154 M155 N155 M156 N156 M157 N157 M158 N158 M159 N159 M160 N160 M161 N161 M162 N162 M163 N163 M164 N164 M165 N165 M166 N166 M167 N167 M168 N168 M169 N169 M170 N170 M171 N171 M172 N172 M173 N173 M174 N174 M175 N175 M2:M10 M12:M13 M16:M19 M21:M22 M30:M31 M130:M131 M136:M137 M139:M140 N2:N10 N12:N13 N16:N19 N21:N22 N30:N31 N130:N131 N136:N137 N139:N140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N54 M56:N176">
       <formula1>"盾枪兵,长戟兵,重骑兵,骠骑兵,火矢兵,连弩兵"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11 P11 Q11 R11 S11 T11 U11 V11 W11 X11 O14 P14 Q14 R14 S14 T14 U14 V14 W14 X14 O15 P15 Q15 R15 S15 T15 U15 V15 W15 X15 O16 P16 Q16 R16 S16 T16 U16 V16 W16 X16 O17 P17 Q17 R17 S17 T17 U17 V17 W17 X17 O18 P18 Q18 R18 S18 T18 U18 V18 W18 X18 O19 P19 Q19 R19 S19 T19 U19 V19 W19 X19 O20 P20 Q20 R20 S20 T20 U20 V20 W20 X20 O23 P23 Q23 R23 S23 T23 U23 V23 W23 X23 O24 P24 Q24 R24 S24 T24 U24 V24 W24 X24 O25 P25 Q25 R25 S25 T25 U25 V25 W25 X25 O26 P26 Q26 R26 S26 T26 U26 V26 W26 X26 O27 P27 Q27 R27 S27 T27 U27 V27 W27 X27 O28 P28 Q28 R28 S28 T28 U28 V28 W28 X28 O29 P29 Q29 R29 S29 T29 U29 V29 W29 X29 O30 P30 Q30 R30 S30 T30 U30 V30 W30 X30 O31 P31 Q31 R31 S31 T31 U31 V31 W31 X31 O32 P32 Q32 R32 S32 T32 U32 V32 W32 X32 O33 P33 Q33 R33 S33 T33 U33 V33 W33 X33 O34 P34 Q34 R34 S34 T34 U34 V34 W34 X34 O35 P35 Q35 R35 S35 T35 U35 V35 W35 X35 O36 P36 Q36 R36 S36 T36 U36 V36 W36 X36 O37 P37 Q37 R37 S37 T37 U37 V37 W37 X37 O38 P38 Q38 R38 S38 T38 U38 V38 W38 X38 O39 P39 Q39 R39 S39 T39 U39 V39 W39 X39 O40 P40 Q40 R40 S40 T40 U40 V40 W40 X40 O41 P41 Q41 R41 S41 T41 U41 V41 W41 X41 O42 P42 Q42 R42 S42 T42 U42 V42 W42 X42 O43 P43 Q43 R43 S43 T43 U43 V43 W43 X43 O44 P44 Q44 R44 S44 T44 U44 V44 W44 X44 O45 P45 Q45 R45 S45 T45 U45 V45 W45 X45 O46 P46 Q46 R46 S46 T46 U46 V46 W46 X46 O47 P47 Q47 R47 S47 T47 U47 V47 W47 X47 O48 P48 Q48 R48 S48 T48 U48 V48 W48 X48 O49 P49 Q49 R49 S49 T49 U49 V49 W49 X49 O50 P50 Q50 R50 S50 T50 U50 V50 W50 X50 O51 P51 Q51 R51 S51 T51 U51 V51 W51 X51 O52 P52 Q52 R52 S52 T52 U52 V52 W52 X52 O53 P53 Q53 R53 S53 T53 U53 V53 W53 X53 O56 P56 Q56 R56 S56 T56 U56 V56 W56 X56 O57 P57 Q57 R57 S57 T57 U57 V57 W57 X57 O58 P58 Q58 R58 S58 T58 U58 V58 W58 X58 O59 P59 Q59 R59 S59 T59 U59 V59 W59 X59 O60 P60 Q60 R60 S60 T60 U60 V60 W60 X60 O61 P61 Q61 R61 S61 T61 U61 V61 W61 X61 O62 P62 Q62 R62 S62 T62 U62 V62 W62 X62 O63 P63 Q63 R63 S63 T63 U63 V63 W63 X63 O64 P64 Q64 R64 S64 T64 U64 V64 W64 X64 O65 P65 Q65 R65 S65 T65 U65 V65 W65 X65 O66 P66 Q66 R66 S66 T66 U66 V66 W66 X66 O67 P67 Q67 R67 S67 T67 U67 V67 W67 X67 O68 P68 Q68 R68 S68 T68 U68 V68 W68 X68 O69 P69 Q69 R69 S69 T69 U69 V69 W69 X69 O70 P70 Q70 R70 S70 T70 U70 V70 W70 X70 O71 P71 Q71 R71 S71 T71 U71 V71 W71 X71 O72 P72 Q72 R72 S72 T72 U72 V72 W72 X72 O73 P73 Q73 R73 S73 T73 U73 V73 W73 X73 O74 P74 Q74 R74 S74 T74 U74 V74 W74 X74 O75 P75 Q75 R75 S75 T75 U75 V75 W75 X75 O76 P76 Q76 R76 S76 T76 U76 V76 W76 X76 O77 P77 Q77 R77 S77 T77 U77 V77 W77 X77 O78 P78 Q78 R78 S78 T78 U78 V78 W78 X78 O79 P79 Q79 R79 S79 T79 U79 V79 W79 X79 O80 P80 Q80 R80 S80 T80 U80 V80 W80 X80 O81 P81 Q81 R81 S81 T81 U81 V81 W81 X81 O82 P82 Q82 R82 S82 T82 U82 V82 W82 X82 O83 P83 Q83 R83 S83 T83 U83 V83 W83 X83 O84 P84 Q84 R84 S84 T84 U84 V84 W84 X84 O85 P85 Q85 R85 S85 T85 U85 V85 W85 X85 O86 P86 Q86 R86 S86 T86 U86 V86 W86 X86 O87 P87 Q87 R87 S87 T87 U87 V87 W87 X87 O88 P88 Q88 R88 S88 T88 U88 V88 W88 X88 O89 P89 Q89 R89 S89 T89 U89 V89 W89 X89 O90 P90 Q90 R90 S90 T90 U90 V90 W90 X90 O91 P91 Q91 R91 S91 T91 U91 V91 W91 X91 O92 P92 Q92 R92 S92 T92 U92 V92 W92 X92 O93 P93 Q93 R93 S93 T93 U93 V93 W93 X93 O94 P94 Q94 R94 S94 T94 U94 V94 W94 X94 O95 P95 Q95 R95 S95 T95 U95 V95 W95 X95 O96 P96 Q96 R96 S96 T96 U96 V96 W96 X96 O97 P97 Q97 R97 S97 T97 U97 V97 W97 X97 O98 P98 Q98 R98 S98 T98 U98 V98 W98 X98 O99 P99 Q99 R99 S99 T99 U99 V99 W99 X99 O100 P100 Q100 R100 S100 T100 U100 V100 W100 X100 O101 P101 Q101 R101 S101 T101 U101 V101 W101 X101 O102 P102 Q102 R102 S102 T102 U102 V102 W102 X102 O103 P103 Q103 R103 S103 T103 U103 V103 W103 X103 O104 P104 Q104 R104 S104 T104 U104 V104 W104 X104 O105 P105 Q105 R105 S105 T105 U105 V105 W105 X105 O106 P106 Q106 R106 S106 T106 U106 V106 W106 X106 O107 P107 Q107 R107 S107 T107 U107 V107 W107 X107 O108 P108 Q108 R108 S108 T108 U108 V108 W108 X108 O109 P109 Q109 R109 S109 T109 U109 V109 W109 X109 O110 P110 Q110 R110 S110 T110 U110 V110 W110 X110 O111 P111 Q111 R111 S111 T111 U111 V111 W111 X111 O112 P112 Q112 R112 S112 T112 U112 V112 W112 X112 O113 P113 Q113 R113 S113 T113 U113 V113 W113 X113 O114 P114 Q114 R114 S114 T114 U114 V114 W114 X114 O115 P115 Q115 R115 S115 T115 U115 V115 W115 X115 O116 P116 Q116 R116 S116 T116 U116 V116 W116 X116 O117 P117 Q117 R117 S117 T117 U117 V117 W117 X117 O118 P118 Q118 R118 S118 T118 U118 V118 W118 X118 O119 P119 Q119 R119 S119 T119 U119 V119 W119 X119 O120 P120 Q120 R120 S120 T120 U120 V120 W120 X120 O121 P121 Q121 R121 S121 T121 U121 V121 W121 X121 O122 P122 Q122 R122 S122 T122 U122 V122 W122 X122 O123 P123 Q123 R123 S123 T123 U123 V123 W123 X123 O124 P124 Q124 R124 S124 T124 U124 V124 W124 X124 O125 P125 Q125 R125 S125 T125 U125 V125 W125 X125 O126 P126 Q126 R126 S126 T126 U126 V126 W126 X126 O127 P127 Q127 R127 S127 T127 U127 V127 W127 X127 O128 P128 Q128 R128 S128 T128 U128 V128 W128 X128 O129 P129 Q129 R129 S129 T129 U129 V129 W129 X129 O130 P130 Q130 R130 S130 T130 U130 V130 W130 X130 O131 P131 Q131 R131 S131 T131 U131 V131 W131 X131 O132 P132 Q132 R132 S132 T132 U132 V132 W132 X132 O133 P133 Q133 R133 S133 T133 U133 V133 W133 X133 O134 P134 Q134 R134 S134 T134 U134 V134 W134 X134 O135 P135 Q135 R135 S135 T135 U135 V135 W135 X135 O136 P136 Q136 R136 S136 T136 U136 V136 W136 X136 O137 P137 Q137 R137 S137 T137 U137 V137 W137 X137 O138 P138 Q138 R138 S138 T138 U138 V138 W138 X138 O139 P139 Q139 R139 S139 T139 U139 V139 W139 X139 O140 P140 Q140 R140 S140 T140 U140 V140 W140 X140 O141 P141 Q141 R141 S141 T141 U141 V141 W141 X141 O142 P142 Q142 R142 S142 T142 U142 V142 W142 X142 O143 P143 Q143 R143 S143 T143 U143 V143 W143 X143 O144 P144 Q144 R144 S144 T144 U144 V144 W144 X144 O145 P145 Q145 R145 S145 T145 U145 V145 W145 X145 O146 P146 Q146 R146 S146 T146 U146 V146 W146 X146 O149 P149 Q149 R149 S149 T149 U149 V149 W149 X149 O150 P150 Q150 R150 S150 T150 U150 V150 W150 X150 O151 P151 Q151 R151 S151 T151 U151 V151 W151 X151 O152 P152 Q152 R152 S152 T152 U152 V152 W152 X152 O153 P153 Q153 R153 S153 T153 U153 V153 W153 X153 O154 P154 Q154 R154 S154 T154 U154 V154 W154 X154 O155 P155 Q155 R155 S155 T155 U155 V155 W155 X155 O156 P156 Q156 R156 S156 T156 U156 V156 W156 X156 O157 P157 Q157 R157 S157 T157 U157 V157 W157 X157 O158 P158 Q158 R158 S158 T158 U158 V158 W158 X158 O159 P159 Q159 R159 S159 T159 U159 V159 W159 X159 O160 P160 Q160 R160 S160 T160 U160 V160 W160 X160 O161 P161 Q161 R161 S161 T161 U161 V161 W161 X161 O162 P162 Q162 R162 S162 T162 U162 V162 W162 X162 O163 P163 Q163 R163 S163 T163 U163 V163 W163 X163 O164 P164 Q164 R164 S164 T164 U164 V164 W164 X164 O165 P165 Q165 R165 S165 T165 U165 V165 W165 X165 O166 P166 Q166 R166 S166 T166 U166 V166 W166 X166 O167 P167 Q167 R167 S167 T167 U167 V167 W167 X167 O168 P168 Q168 R168 S168 T168 U168 V168 W168 X168 O169 P169 Q169 R169 S169 T169 U169 V169 W169 X169 O170 P170 Q170 R170 S170 T170 U170 V170 W170 X170 O171 P171 Q171 R171 S171 T171 U171 V171 W171 X171 O172 P172 Q172 R172 S172 T172 U172 V172 W172 X172 O173 P173 Q173 R173 S173 T173 U173 V173 W173 X173 O174 P174 Q174 R174 S174 T174 U174 V174 W174 X174 O175 P175 Q175 R175 S175 T175 U175 V175 W175 X175 O2:O10 O12:O13 O21:O22 O147:O148 P2:P10 P12:P13 P21:P22 P147:P148 Q2:Q10 Q12:Q13 Q21:Q22 Q147:Q148 R2:R10 R12:R13 R21:R22 R147:R148 S2:S10 S12:S13 S21:S22 S147:S148 T2:T10 T12:T13 T21:T22 T147:T148 U2:U10 U12:U13 U21:U22 U147:U148 V2:V10 V12:V13 V21:V22 V147:V148 W2:W10 W12:W13 W21:W22 W147:W148 X2:X10 X12:X13 X21:X22 X147:X148">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:X53 O56:X176">
       <formula1>"武锋,三疑,兵道,军略,金鼓,文伐"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC11 AC14 AC15 AC16 AC17 AC18 AC19 AC20 AC23 AC24 AC25 AC26 AC27 AC28 AC29 AC30 AC31 AC32 AC33 AC34 AC35 AC36 AC37 AC38 AC39 AC40 AC41 AC42 AC43 AC44 AC45 AC46 AC47 AC48 AC49 AC50 AC51 AC52 AC53 AC54 AC55 AC56 AC57 AC58 AC59 AC60 AC61 AC62 AC63 AC64 AC65 AC66 AC67 AC68 AC69 AC70 AC71 AC72 AC73 AC74 AC75 AC76 AC77 AC78 AC79 AC80 AC81 AC82 AC83 AC84 AC85 AC86 AC87 AC88 AC89 AC90 AC91 AC92 AC93 AC94 AC95 AC96 AC97 AC98 AC99 AC100 AC101 AC102 AC103 AC104 AC105 AC106 AC107 AC108 AC109 AC110 AC111 AC112 AC113 AC114 AC115 AC116 AC117 AC118 AC119 AC120 AC121 AC122 AC123 AC124 AC125 AC126 AC127 AC128 AC129 AC130 AC131 AC132 AC133 AC134 AC135 AC136 AC137 AC138 AC139 AC140 AC141 AC142 AC143 AC144 AC145 AC146 AC149 AC150 AC151 AC152 AC153 AC154 AC155 AC156 AC157 AC158 AC159 AC160 AC161 AC162 AC163 AC164 AC165 AC166 AC167 AC168 AC169 AC170 AC171 AC172 AC173 AC174 AC175 AC2:AC10 AC12:AC13 AC21:AC22 AC147:AC148">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC176">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD54 AD55 AD1:AD53 AD56:AD1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD1048576">
       <formula1>"逆命,逆命5,突破,未开命格"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/excel/data_temp.xlsx
+++ b/src/main/resources/excel/data_temp.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3961" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3961" uniqueCount="437">
   <si>
     <t>武将名称</t>
   </si>
@@ -1324,19 +1324,17 @@
   </si>
   <si>
     <t>赵云,刘备,袁绍,蔡文姬</t>
+  </si>
+  <si>
+    <t>巧局奇谋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1374,151 +1372,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1531,194 +1391,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1726,251 +1400,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2024,57 +1456,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2365,20 +1750,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2389,7 +1773,7 @@
     <col min="25" max="25" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:33">
+    <row r="1" spans="1:33" s="2" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2490,7 +1874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:33">
+    <row r="2" spans="1:33" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -2591,7 +1975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:33">
+    <row r="3" spans="1:33" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -2692,7 +2076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
@@ -2793,7 +2177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>65</v>
       </c>
@@ -2894,7 +2278,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:33">
+    <row r="6" spans="1:33" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>74</v>
       </c>
@@ -2995,7 +2379,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:33">
+    <row r="7" spans="1:33" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
@@ -3096,7 +2480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:33">
+    <row r="8" spans="1:33" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
@@ -3197,7 +2581,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:33">
+    <row r="9" spans="1:33" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>87</v>
       </c>
@@ -3298,7 +2682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:33">
+    <row r="10" spans="1:33" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -3399,7 +2783,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:33">
+    <row r="11" spans="1:33" s="2" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>95</v>
       </c>
@@ -3500,7 +2884,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:33">
+    <row r="12" spans="1:33" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>98</v>
       </c>
@@ -3601,7 +2985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:33">
+    <row r="13" spans="1:33" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
         <v>102</v>
       </c>
@@ -3702,7 +3086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:33">
+    <row r="14" spans="1:33" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
@@ -3803,7 +3187,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:33">
+    <row r="15" spans="1:33" s="2" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>109</v>
       </c>
@@ -3904,7 +3288,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:33">
+    <row r="16" spans="1:33" s="2" customFormat="1">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -4005,7 +3389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:33">
+    <row r="17" spans="1:33" s="2" customFormat="1">
       <c r="A17" s="1" t="s">
         <v>116</v>
       </c>
@@ -4106,7 +3490,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:30">
+    <row r="18" spans="1:33" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
         <v>119</v>
       </c>
@@ -4198,7 +3582,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:30">
+    <row r="19" spans="1:33" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
         <v>122</v>
       </c>
@@ -4290,7 +3674,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:30">
+    <row r="20" spans="1:33" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>123</v>
       </c>
@@ -4382,7 +3766,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:30">
+    <row r="21" spans="1:33" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
         <v>125</v>
       </c>
@@ -4474,7 +3858,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:30">
+    <row r="22" spans="1:33" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
         <v>126</v>
       </c>
@@ -4566,7 +3950,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:30">
+    <row r="23" spans="1:33" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>129</v>
       </c>
@@ -4658,7 +4042,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:30">
+    <row r="24" spans="1:33" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
         <v>131</v>
       </c>
@@ -4750,7 +4134,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:30">
+    <row r="25" spans="1:33" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
         <v>132</v>
       </c>
@@ -4842,7 +4226,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:30">
+    <row r="26" spans="1:33" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
         <v>134</v>
       </c>
@@ -4934,7 +4318,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:30">
+    <row r="27" spans="1:33" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
         <v>135</v>
       </c>
@@ -5026,7 +4410,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:30">
+    <row r="28" spans="1:33" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
         <v>137</v>
       </c>
@@ -5118,7 +4502,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:30">
+    <row r="29" spans="1:33" s="2" customFormat="1">
       <c r="A29" s="2" t="s">
         <v>138</v>
       </c>
@@ -5210,7 +4594,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:30">
+    <row r="30" spans="1:33" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>141</v>
       </c>
@@ -5302,7 +4686,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:30">
+    <row r="31" spans="1:33" s="2" customFormat="1">
       <c r="A31" s="2" t="s">
         <v>142</v>
       </c>
@@ -5394,7 +4778,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:30">
+    <row r="32" spans="1:33" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
         <v>144</v>
       </c>
@@ -5486,7 +4870,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:30">
+    <row r="33" spans="1:32" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
         <v>145</v>
       </c>
@@ -5578,7 +4962,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:32">
+    <row r="34" spans="1:32" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
         <v>148</v>
       </c>
@@ -5676,7 +5060,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:30">
+    <row r="35" spans="1:32" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
         <v>151</v>
       </c>
@@ -5768,7 +5152,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:30">
+    <row r="36" spans="1:32" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
         <v>153</v>
       </c>
@@ -5860,7 +5244,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:32">
+    <row r="37" spans="1:32" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>154</v>
       </c>
@@ -5934,7 +5318,7 @@
         <v>43</v>
       </c>
       <c r="Y37" s="12" t="s">
-        <v>44</v>
+        <v>436</v>
       </c>
       <c r="Z37" s="2">
         <v>540</v>
@@ -5958,7 +5342,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:32">
+    <row r="38" spans="1:32" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
         <v>157</v>
       </c>
@@ -6032,7 +5416,7 @@
         <v>43</v>
       </c>
       <c r="Y38" s="12" t="s">
-        <v>44</v>
+        <v>436</v>
       </c>
       <c r="Z38" s="2">
         <v>540</v>
@@ -6056,7 +5440,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:30">
+    <row r="39" spans="1:32" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
         <v>158</v>
       </c>
@@ -6148,7 +5532,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:30">
+    <row r="40" spans="1:32" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
         <v>160</v>
       </c>
@@ -6240,7 +5624,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:25">
+    <row r="41" spans="1:32" s="2" customFormat="1">
       <c r="A41" s="2" t="s">
         <v>161</v>
       </c>
@@ -6285,7 +5669,7 @@
       </c>
       <c r="Y41" s="12"/>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:30">
+    <row r="42" spans="1:32" s="2" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>164</v>
       </c>
@@ -6377,7 +5761,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:30">
+    <row r="43" spans="1:32" s="2" customFormat="1">
       <c r="A43" s="2" t="s">
         <v>166</v>
       </c>
@@ -6469,7 +5853,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:32">
+    <row r="44" spans="1:32" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
         <v>167</v>
       </c>
@@ -6567,7 +5951,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:32">
+    <row r="45" spans="1:32" s="2" customFormat="1">
       <c r="A45" s="2" t="s">
         <v>171</v>
       </c>
@@ -6665,7 +6049,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:30">
+    <row r="46" spans="1:32" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
         <v>172</v>
       </c>
@@ -6757,7 +6141,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:30">
+    <row r="47" spans="1:32" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
         <v>173</v>
       </c>
@@ -6849,7 +6233,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:30">
+    <row r="48" spans="1:32" s="2" customFormat="1">
       <c r="A48" s="2" t="s">
         <v>174</v>
       </c>
@@ -6941,7 +6325,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:30">
+    <row r="49" spans="1:32" s="2" customFormat="1">
       <c r="A49" s="2" t="s">
         <v>177</v>
       </c>
@@ -7033,7 +6417,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:32">
+    <row r="50" spans="1:32" s="2" customFormat="1">
       <c r="A50" s="2" t="s">
         <v>178</v>
       </c>
@@ -7131,7 +6515,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:30">
+    <row r="51" spans="1:32" s="2" customFormat="1">
       <c r="A51" s="2" t="s">
         <v>181</v>
       </c>
@@ -7208,22 +6592,22 @@
         <v>44</v>
       </c>
       <c r="Z51" s="2">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AA51" s="2">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AB51" s="2">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AC51" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:30">
+    <row r="52" spans="1:32" s="2" customFormat="1">
       <c r="A52" s="2" t="s">
         <v>183</v>
       </c>
@@ -7315,7 +6699,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:32">
+    <row r="53" spans="1:32" s="2" customFormat="1">
       <c r="A53" s="2" t="s">
         <v>185</v>
       </c>
@@ -7413,7 +6797,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:32">
+    <row r="54" spans="1:32" s="2" customFormat="1">
       <c r="A54" s="2" t="s">
         <v>186</v>
       </c>
@@ -7511,7 +6895,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:32">
+    <row r="55" spans="1:32" s="2" customFormat="1">
       <c r="A55" s="2" t="s">
         <v>189</v>
       </c>
@@ -7609,7 +6993,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:32">
+    <row r="56" spans="1:32" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
         <v>190</v>
       </c>
@@ -7707,7 +7091,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:32">
+    <row r="57" spans="1:32" s="2" customFormat="1">
       <c r="A57" s="8" t="s">
         <v>193</v>
       </c>
@@ -7805,7 +7189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:30">
+    <row r="58" spans="1:32" s="2" customFormat="1">
       <c r="A58" s="2" t="s">
         <v>196</v>
       </c>
@@ -7897,7 +7281,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:30">
+    <row r="59" spans="1:32" s="2" customFormat="1">
       <c r="A59" s="2" t="s">
         <v>199</v>
       </c>
@@ -7989,7 +7373,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:30">
+    <row r="60" spans="1:32" s="2" customFormat="1">
       <c r="A60" s="2" t="s">
         <v>201</v>
       </c>
@@ -8081,7 +7465,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:30">
+    <row r="61" spans="1:32" s="2" customFormat="1">
       <c r="A61" s="2" t="s">
         <v>202</v>
       </c>
@@ -8173,7 +7557,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" spans="1:30">
+    <row r="62" spans="1:32" s="2" customFormat="1">
       <c r="A62" s="2" t="s">
         <v>204</v>
       </c>
@@ -8265,7 +7649,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" spans="1:30">
+    <row r="63" spans="1:32" s="2" customFormat="1">
       <c r="A63" s="2" t="s">
         <v>205</v>
       </c>
@@ -8357,7 +7741,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" spans="1:30">
+    <row r="64" spans="1:32" s="2" customFormat="1">
       <c r="A64" s="2" t="s">
         <v>207</v>
       </c>
@@ -8449,7 +7833,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" spans="1:30">
+    <row r="65" spans="1:32" s="2" customFormat="1">
       <c r="A65" s="2" t="s">
         <v>209</v>
       </c>
@@ -8541,7 +7925,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" spans="1:30">
+    <row r="66" spans="1:32" s="2" customFormat="1">
       <c r="A66" s="2" t="s">
         <v>211</v>
       </c>
@@ -8633,7 +8017,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" spans="1:25">
+    <row r="67" spans="1:32" s="2" customFormat="1">
       <c r="A67" s="2" t="s">
         <v>212</v>
       </c>
@@ -8678,7 +8062,7 @@
       </c>
       <c r="Y67" s="12"/>
     </row>
-    <row r="68" s="2" customFormat="1" spans="1:30">
+    <row r="68" spans="1:32" s="2" customFormat="1">
       <c r="A68" s="2" t="s">
         <v>215</v>
       </c>
@@ -8770,7 +8154,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" spans="1:30">
+    <row r="69" spans="1:32" s="2" customFormat="1">
       <c r="A69" s="2" t="s">
         <v>217</v>
       </c>
@@ -8862,7 +8246,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" spans="1:30">
+    <row r="70" spans="1:32" s="2" customFormat="1">
       <c r="A70" s="2" t="s">
         <v>218</v>
       </c>
@@ -8954,7 +8338,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" spans="1:30">
+    <row r="71" spans="1:32" s="2" customFormat="1">
       <c r="A71" s="2" t="s">
         <v>220</v>
       </c>
@@ -9046,7 +8430,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" spans="1:30">
+    <row r="72" spans="1:32" s="2" customFormat="1">
       <c r="A72" s="2" t="s">
         <v>222</v>
       </c>
@@ -9138,7 +8522,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" spans="1:30">
+    <row r="73" spans="1:32" s="2" customFormat="1">
       <c r="A73" s="2" t="s">
         <v>223</v>
       </c>
@@ -9230,7 +8614,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" spans="1:30">
+    <row r="74" spans="1:32" s="2" customFormat="1">
       <c r="A74" s="2" t="s">
         <v>226</v>
       </c>
@@ -9322,7 +8706,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" spans="1:30">
+    <row r="75" spans="1:32" s="2" customFormat="1">
       <c r="A75" s="2" t="s">
         <v>227</v>
       </c>
@@ -9414,7 +8798,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" spans="1:30">
+    <row r="76" spans="1:32" s="2" customFormat="1">
       <c r="A76" s="2" t="s">
         <v>229</v>
       </c>
@@ -9506,7 +8890,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" spans="1:32">
+    <row r="77" spans="1:32" s="2" customFormat="1">
       <c r="A77" s="2" t="s">
         <v>230</v>
       </c>
@@ -9604,7 +8988,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" spans="1:30">
+    <row r="78" spans="1:32" s="2" customFormat="1">
       <c r="A78" s="2" t="s">
         <v>233</v>
       </c>
@@ -9696,7 +9080,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" spans="1:30">
+    <row r="79" spans="1:32" s="2" customFormat="1">
       <c r="A79" s="2" t="s">
         <v>234</v>
       </c>
@@ -9788,7 +9172,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" spans="1:30">
+    <row r="80" spans="1:32" s="2" customFormat="1">
       <c r="A80" s="2" t="s">
         <v>235</v>
       </c>
@@ -9880,7 +9264,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" spans="1:30">
+    <row r="81" spans="1:32" s="2" customFormat="1">
       <c r="A81" s="2" t="s">
         <v>237</v>
       </c>
@@ -9972,7 +9356,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" spans="1:30">
+    <row r="82" spans="1:32" s="2" customFormat="1">
       <c r="A82" s="2" t="s">
         <v>238</v>
       </c>
@@ -10064,7 +9448,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" spans="1:30">
+    <row r="83" spans="1:32" s="2" customFormat="1">
       <c r="A83" s="2" t="s">
         <v>240</v>
       </c>
@@ -10156,7 +9540,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" spans="1:25">
+    <row r="84" spans="1:32" s="2" customFormat="1">
       <c r="A84" s="2" t="s">
         <v>241</v>
       </c>
@@ -10201,7 +9585,7 @@
       </c>
       <c r="Y84" s="12"/>
     </row>
-    <row r="85" s="2" customFormat="1" spans="1:25">
+    <row r="85" spans="1:32" s="2" customFormat="1">
       <c r="A85" s="2" t="s">
         <v>243</v>
       </c>
@@ -10246,7 +9630,7 @@
       </c>
       <c r="Y85" s="12"/>
     </row>
-    <row r="86" s="2" customFormat="1" spans="1:25">
+    <row r="86" spans="1:32" s="2" customFormat="1">
       <c r="A86" s="2" t="s">
         <v>245</v>
       </c>
@@ -10291,7 +9675,7 @@
       </c>
       <c r="Y86" s="12"/>
     </row>
-    <row r="87" s="2" customFormat="1" spans="1:30">
+    <row r="87" spans="1:32" s="2" customFormat="1">
       <c r="A87" s="2" t="s">
         <v>248</v>
       </c>
@@ -10383,7 +9767,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" spans="1:30">
+    <row r="88" spans="1:32" s="2" customFormat="1">
       <c r="A88" s="2" t="s">
         <v>250</v>
       </c>
@@ -10475,7 +9859,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" spans="1:25">
+    <row r="89" spans="1:32" s="2" customFormat="1">
       <c r="A89" s="2" t="s">
         <v>251</v>
       </c>
@@ -10520,7 +9904,7 @@
       </c>
       <c r="Y89" s="12"/>
     </row>
-    <row r="90" s="2" customFormat="1" spans="1:30">
+    <row r="90" spans="1:32" s="2" customFormat="1">
       <c r="A90" s="2" t="s">
         <v>254</v>
       </c>
@@ -10612,7 +9996,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" spans="1:30">
+    <row r="91" spans="1:32" s="2" customFormat="1">
       <c r="A91" s="2" t="s">
         <v>256</v>
       </c>
@@ -10704,7 +10088,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" spans="1:32">
+    <row r="92" spans="1:32" s="2" customFormat="1">
       <c r="A92" s="2" t="s">
         <v>257</v>
       </c>
@@ -10802,7 +10186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" spans="1:32">
+    <row r="93" spans="1:32" s="2" customFormat="1">
       <c r="A93" s="2" t="s">
         <v>260</v>
       </c>
@@ -10900,7 +10284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="1" spans="1:30">
+    <row r="94" spans="1:32" s="2" customFormat="1">
       <c r="A94" s="2" t="s">
         <v>261</v>
       </c>
@@ -10992,7 +10376,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" s="2" customFormat="1" spans="1:30">
+    <row r="95" spans="1:32" s="2" customFormat="1">
       <c r="A95" s="2" t="s">
         <v>263</v>
       </c>
@@ -11084,7 +10468,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" spans="1:30">
+    <row r="96" spans="1:32" s="2" customFormat="1">
       <c r="A96" s="2" t="s">
         <v>266</v>
       </c>
@@ -11176,7 +10560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" s="2" customFormat="1" spans="1:32">
+    <row r="97" spans="1:33" s="2" customFormat="1">
       <c r="A97" s="2" t="s">
         <v>267</v>
       </c>
@@ -11274,7 +10658,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98" s="2" customFormat="1" spans="1:30">
+    <row r="98" spans="1:33" s="2" customFormat="1">
       <c r="A98" s="2" t="s">
         <v>270</v>
       </c>
@@ -14770,7 +14154,7 @@
       </c>
       <c r="AG134" s="2"/>
     </row>
-    <row r="135" s="3" customFormat="1" spans="1:33">
+    <row r="135" spans="1:33" s="3" customFormat="1">
       <c r="A135" s="2" t="s">
         <v>343</v>
       </c>
@@ -18859,7 +18243,7 @@
       </c>
       <c r="AG177" s="2"/>
     </row>
-    <row r="178" s="3" customFormat="1" spans="1:32">
+    <row r="178" spans="1:33" s="3" customFormat="1">
       <c r="A178" s="3" t="s">
         <v>430</v>
       </c>
@@ -18957,7 +18341,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="179" spans="1:32">
+    <row r="179" spans="1:33">
       <c r="A179" s="2" t="s">
         <v>433</v>
       </c>
@@ -19055,59 +18439,58 @@
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:33">
       <c r="A180" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="11">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 H1:K1 M1:X1 AC1 AE1:AG1 B17 L17 Y17 B1:B16 B18:B56 B58:B1048576 L1:L16 L18:L56 L58:L177 Y1:Y6 Y8:Y16 Y18:Y56 Y58:Y1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C2:C16 C18:C56 C58:C179">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 H1:K1 M1:X1 AC1 AE1:AG1 B1:B56 B58:B1048576 L1:L56 L58:L177 Y1:Y6 Y58:Y1048576 Y8:Y56"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C56 C58:C179">
       <formula1>"魏,蜀,吴,群"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17 H179 H2:H16 H18:H56 H58:H177">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H179 H2:H56 H58:H177">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M17:N17 M2:N16 M58:N179 M18:N56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M58:N179 M2:N56">
       <formula1>"盾枪兵,长戟兵,重骑兵,骠骑兵,火矢兵,连弩兵"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I17 I2:I16 I18:I56 I58:I179">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I56 I58:I179">
       <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC17 AC2:AC16 AC18:AC179">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC179">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17 K179 K2:K16 K18:K56 K58:K177">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K179 K2:K56 K58:K177">
       <formula1>"刀,剑,枪,弓,扇"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17 J179 J2:J16 J18:J56 J58:J177">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J179 J2:J56 J58:J177">
       <formula1>"枪,弓,骑"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O17:X17 O179:P179 Q179:R179 S179:X179 O2:X16 O18:X55 O58:X178">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O58:X179 O2:X55">
       <formula1>"武锋,三疑,兵道,军略,金鼓,文伐"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD17 AD1:AD16 AD18:AD179 AD180:AD1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD1048576">
       <formula1>"逆命,逆命5,突破,未开命格"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE17:AG17 AG18:AG177 AE2:AG16 AE18:AF179">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG18:AG177 AE2:AG17 AE18:AF179">
       <formula1>"天机之钥,天相之圭,太阴之精,太阳之焰,贪狼之爪,廉贞之锋,七杀之气,破军之血"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="5" spans="3:5">
       <c r="C5" s="1">
@@ -19121,25 +18504,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/excel/data_temp.xlsx
+++ b/src/main/resources/excel/data_temp.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8010"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -345,6 +345,9 @@
     <t>陆逊,甘宁,孙权,张辽,孙尚香</t>
   </si>
   <si>
+    <t>砺战赵云</t>
+  </si>
+  <si>
     <t>赵云</t>
   </si>
   <si>
@@ -354,18 +357,33 @@
     <t>逆命5</t>
   </si>
   <si>
+    <t>御甲张辽</t>
+  </si>
+  <si>
     <t>张辽</t>
   </si>
   <si>
     <t>关羽,曹操,孙权,张郃,貂蝉</t>
   </si>
   <si>
+    <t>桀骜孙策</t>
+  </si>
+  <si>
     <t>孙策</t>
   </si>
   <si>
     <t>孙权,周瑜,孙坚,孙尚香,大乔</t>
   </si>
   <si>
+    <t>飞将吕布</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>张辽,董卓,貂蝉,吕玲绮,高顺</t>
+  </si>
+  <si>
     <t>武帝曹操</t>
   </si>
   <si>
@@ -480,6 +498,9 @@
     <t>贾诩,曹操,典韦,卞夫人,诸葛亮,刘备</t>
   </si>
   <si>
+    <t>巧局奇谋</t>
+  </si>
+  <si>
     <t>鬼谋郭嘉_限</t>
   </si>
   <si>
@@ -1077,6 +1098,15 @@
     <t>孙权,卞夫人,吕蒙,孙大虎,孙小虎,孙尚香</t>
   </si>
   <si>
+    <t>诛心孙大虎</t>
+  </si>
+  <si>
+    <t>孙大虎</t>
+  </si>
+  <si>
+    <t>孙权,孙小虎,步练师,孙亮,周瑜</t>
+  </si>
+  <si>
     <t>赤忠黄盖</t>
   </si>
   <si>
@@ -1218,9 +1248,6 @@
     <t>修罗吕布</t>
   </si>
   <si>
-    <t>吕布</t>
-  </si>
-  <si>
     <t>曹操,刘备,董卓,貂蝉</t>
   </si>
   <si>
@@ -1315,49 +1342,19 @@
   </si>
   <si>
     <t>赵云,刘备,袁绍,蔡文姬</t>
-  </si>
-  <si>
-    <t>巧局奇谋</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>砺战赵云</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>御甲张辽</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>桀骜孙策</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>诛心孙大虎</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙大虎</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙权,孙小虎,步练师,孙亮,周瑜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞将吕布</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>张辽,董卓,貂蝉,吕玲绮,高顺</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1384,7 +1381,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1395,7 +1411,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1404,32 +1442,125 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1442,8 +1573,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1451,9 +1768,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1470,16 +2029,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1488,44 +2056,82 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1816,19 +2422,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AG182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1836,111 +2443,111 @@
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="39.375" customWidth="1"/>
-    <col min="25" max="25" width="9" style="4"/>
+    <col min="25" max="25" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:33">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1">
+    <row r="2" s="2" customFormat="1" spans="1:33">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -2013,7 +2620,7 @@
       <c r="X2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z2" s="2">
@@ -2041,7 +2648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1">
+    <row r="3" s="2" customFormat="1" spans="1:33">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -2114,7 +2721,7 @@
       <c r="X3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z3" s="2">
@@ -2142,7 +2749,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1">
+    <row r="4" s="2" customFormat="1" spans="1:33">
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
@@ -2215,7 +2822,7 @@
       <c r="X4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="15" t="s">
         <v>64</v>
       </c>
       <c r="Z4" s="2">
@@ -2243,7 +2850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="2" customFormat="1">
+    <row r="5" s="2" customFormat="1" spans="1:33">
       <c r="A5" s="2" t="s">
         <v>65</v>
       </c>
@@ -2316,7 +2923,7 @@
       <c r="X5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Y5" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z5" s="2">
@@ -2344,7 +2951,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1">
+    <row r="6" s="2" customFormat="1" spans="1:33">
       <c r="A6" s="2" t="s">
         <v>74</v>
       </c>
@@ -2417,7 +3024,7 @@
       <c r="X6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Y6" s="12" t="s">
+      <c r="Y6" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z6" s="2">
@@ -2445,7 +3052,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1">
+    <row r="7" s="2" customFormat="1" spans="1:33">
       <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
@@ -2518,7 +3125,7 @@
       <c r="X7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="Y7" s="16" t="s">
         <v>83</v>
       </c>
       <c r="Z7" s="2">
@@ -2546,7 +3153,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="2" customFormat="1">
+    <row r="8" s="2" customFormat="1" spans="1:33">
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
@@ -2619,7 +3226,7 @@
       <c r="X8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y8" s="12" t="s">
+      <c r="Y8" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z8" s="2">
@@ -2647,7 +3254,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1">
+    <row r="9" s="2" customFormat="1" spans="1:33">
       <c r="A9" s="2" t="s">
         <v>87</v>
       </c>
@@ -2720,7 +3327,7 @@
       <c r="X9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y9" s="12" t="s">
+      <c r="Y9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z9" s="2">
@@ -2748,7 +3355,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1">
+    <row r="10" s="2" customFormat="1" spans="1:33">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -2821,7 +3428,7 @@
       <c r="X10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y10" s="12" t="s">
+      <c r="Y10" s="15" t="s">
         <v>94</v>
       </c>
       <c r="Z10" s="2">
@@ -2849,8 +3456,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1">
-      <c r="A11" s="6" t="s">
+    <row r="11" s="2" customFormat="1" spans="1:33">
+      <c r="A11" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2922,7 +3529,7 @@
       <c r="X11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y11" s="12" t="s">
+      <c r="Y11" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z11" s="2">
@@ -2950,7 +3557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1">
+    <row r="12" s="2" customFormat="1" spans="1:33">
       <c r="A12" s="2" t="s">
         <v>98</v>
       </c>
@@ -3023,7 +3630,7 @@
       <c r="X12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y12" s="12" t="s">
+      <c r="Y12" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z12" s="2">
@@ -3051,7 +3658,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1">
+    <row r="13" s="2" customFormat="1" spans="1:33">
       <c r="A13" s="2" t="s">
         <v>102</v>
       </c>
@@ -3124,7 +3731,7 @@
       <c r="X13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y13" s="12" t="s">
+      <c r="Y13" s="15" t="s">
         <v>105</v>
       </c>
       <c r="Z13" s="2">
@@ -3152,7 +3759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1">
+    <row r="14" s="2" customFormat="1" spans="1:33">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
@@ -3225,7 +3832,7 @@
       <c r="X14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y14" s="12" t="s">
+      <c r="Y14" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z14" s="2">
@@ -3253,12 +3860,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1">
+    <row r="15" s="2" customFormat="1" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>434</v>
+        <v>109</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>89</v>
@@ -3288,7 +3895,7 @@
         <v>34</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>36</v>
@@ -3326,7 +3933,7 @@
       <c r="X15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y15" s="12" t="s">
+      <c r="Y15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z15" s="1">
@@ -3342,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE15" s="1" t="s">
         <v>46</v>
@@ -3354,12 +3961,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1">
+    <row r="16" s="2" customFormat="1" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>435</v>
+        <v>113</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>76</v>
@@ -3389,7 +3996,7 @@
         <v>33</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>55</v>
@@ -3427,7 +4034,7 @@
       <c r="X16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y16" s="12" t="s">
+      <c r="Y16" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z16" s="1">
@@ -3443,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE16" s="1" t="s">
         <v>46</v>
@@ -3455,12 +4062,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>436</v>
+        <v>116</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>100</v>
@@ -3490,7 +4097,7 @@
         <v>33</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>36</v>
@@ -3528,7 +4135,7 @@
       <c r="X17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" s="12" t="s">
+      <c r="Y17" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z17" s="1">
@@ -3544,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE17" s="1" t="s">
         <v>46</v>
@@ -3557,47 +4164,47 @@
       </c>
     </row>
     <row r="18" spans="1:33">
-      <c r="A18" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="A18" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15">
-        <v>908</v>
-      </c>
-      <c r="F18" s="15">
-        <v>412</v>
-      </c>
-      <c r="G18" s="15">
-        <v>790</v>
-      </c>
-      <c r="H18" s="15" t="s">
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>860</v>
+      </c>
+      <c r="F18" s="9">
+        <v>441</v>
+      </c>
+      <c r="G18" s="9">
+        <v>509</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="15" t="s">
+      <c r="J18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="15" t="s">
-        <v>441</v>
+      <c r="L18" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>38</v>
@@ -3629,7 +4236,7 @@
       <c r="X18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y18" s="16" t="s">
+      <c r="Y18" s="17" t="s">
         <v>44</v>
       </c>
       <c r="Z18" s="1">
@@ -3641,19 +4248,19 @@
       <c r="AB18" s="1">
         <v>1947</v>
       </c>
-      <c r="AC18" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
+      <c r="AC18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
     </row>
-    <row r="19" spans="1:33" s="2" customFormat="1">
+    <row r="19" s="2" customFormat="1" spans="1:30">
       <c r="A19" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>80</v>
@@ -3686,7 +4293,7 @@
         <v>34</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>55</v>
@@ -3724,7 +4331,7 @@
       <c r="X19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y19" s="12" t="s">
+      <c r="Y19" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z19" s="2">
@@ -3740,12 +4347,12 @@
         <v>0</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1">
+    <row r="20" s="2" customFormat="1" spans="1:30">
       <c r="A20" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>80</v>
@@ -3778,7 +4385,7 @@
         <v>34</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>55</v>
@@ -3816,7 +4423,7 @@
       <c r="X20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y20" s="12" t="s">
+      <c r="Y20" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z20" s="2">
@@ -3832,12 +4439,12 @@
         <v>0</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1">
+    <row r="21" s="2" customFormat="1" spans="1:30">
       <c r="A21" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>80</v>
@@ -3870,7 +4477,7 @@
         <v>34</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>36</v>
@@ -3908,7 +4515,7 @@
       <c r="X21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y21" s="12" t="s">
+      <c r="Y21" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z21" s="2">
@@ -3924,12 +4531,12 @@
         <v>0</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="2" customFormat="1">
+    <row r="22" s="2" customFormat="1" spans="1:30">
       <c r="A22" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>80</v>
@@ -3962,7 +4569,7 @@
         <v>34</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>36</v>
@@ -4000,7 +4607,7 @@
       <c r="X22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y22" s="12" t="s">
+      <c r="Y22" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z22" s="2">
@@ -4016,15 +4623,15 @@
         <v>0</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1">
+    <row r="23" s="2" customFormat="1" spans="1:30">
       <c r="A23" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>76</v>
@@ -4054,7 +4661,7 @@
         <v>69</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>71</v>
@@ -4092,7 +4699,7 @@
       <c r="X23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" s="12" t="s">
+      <c r="Y23" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z23" s="2">
@@ -4108,15 +4715,15 @@
         <v>0</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="2" customFormat="1">
+    <row r="24" s="2" customFormat="1" spans="1:30">
       <c r="A24" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>76</v>
@@ -4146,7 +4753,7 @@
         <v>69</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>55</v>
@@ -4184,7 +4791,7 @@
       <c r="X24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y24" s="12" t="s">
+      <c r="Y24" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z24" s="2">
@@ -4200,15 +4807,15 @@
         <v>0</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="2" customFormat="1">
+    <row r="25" s="2" customFormat="1" spans="1:30">
       <c r="A25" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>76</v>
@@ -4238,7 +4845,7 @@
         <v>69</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>55</v>
@@ -4276,7 +4883,7 @@
       <c r="X25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y25" s="12" t="s">
+      <c r="Y25" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z25" s="2">
@@ -4292,15 +4899,15 @@
         <v>0</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="2" customFormat="1">
+    <row r="26" s="2" customFormat="1" spans="1:30">
       <c r="A26" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>76</v>
@@ -4330,7 +4937,7 @@
         <v>33</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>55</v>
@@ -4368,7 +4975,7 @@
       <c r="X26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y26" s="12" t="s">
+      <c r="Y26" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z26" s="2">
@@ -4384,15 +4991,15 @@
         <v>0</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:33" s="2" customFormat="1">
+    <row r="27" s="2" customFormat="1" spans="1:30">
       <c r="A27" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>76</v>
@@ -4422,7 +5029,7 @@
         <v>33</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>55</v>
@@ -4460,7 +5067,7 @@
       <c r="X27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y27" s="12" t="s">
+      <c r="Y27" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z27" s="2">
@@ -4476,15 +5083,15 @@
         <v>0</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:33" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:30">
       <c r="A28" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>30</v>
@@ -4514,7 +5121,7 @@
         <v>33</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>55</v>
@@ -4552,7 +5159,7 @@
       <c r="X28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y28" s="12" t="s">
+      <c r="Y28" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z28" s="2">
@@ -4568,15 +5175,15 @@
         <v>0</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:33" s="2" customFormat="1">
+    <row r="29" s="2" customFormat="1" spans="1:30">
       <c r="A29" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>30</v>
@@ -4606,7 +5213,7 @@
         <v>33</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>55</v>
@@ -4644,7 +5251,7 @@
       <c r="X29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y29" s="12" t="s">
+      <c r="Y29" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z29" s="2">
@@ -4660,15 +5267,15 @@
         <v>0</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:33" s="2" customFormat="1">
+    <row r="30" s="2" customFormat="1" spans="1:30">
       <c r="A30" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>76</v>
@@ -4698,7 +5305,7 @@
         <v>62</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>55</v>
@@ -4736,7 +5343,7 @@
       <c r="X30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y30" s="12" t="s">
+      <c r="Y30" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z30" s="2">
@@ -4752,15 +5359,15 @@
         <v>0</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:33" s="2" customFormat="1">
+    <row r="31" s="2" customFormat="1" spans="1:30">
       <c r="A31" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>76</v>
@@ -4790,7 +5397,7 @@
         <v>62</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>55</v>
@@ -4828,7 +5435,7 @@
       <c r="X31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y31" s="12" t="s">
+      <c r="Y31" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z31" s="2">
@@ -4844,15 +5451,15 @@
         <v>0</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="2" customFormat="1">
+    <row r="32" s="2" customFormat="1" spans="1:30">
       <c r="A32" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>76</v>
@@ -4882,7 +5489,7 @@
         <v>62</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>55</v>
@@ -4920,7 +5527,7 @@
       <c r="X32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y32" s="12" t="s">
+      <c r="Y32" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z32" s="2">
@@ -4936,15 +5543,15 @@
         <v>0</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="2" customFormat="1">
+    <row r="33" s="2" customFormat="1" spans="1:30">
       <c r="A33" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>76</v>
@@ -4974,7 +5581,7 @@
         <v>62</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>55</v>
@@ -5012,7 +5619,7 @@
       <c r="X33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y33" s="12" t="s">
+      <c r="Y33" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z33" s="2">
@@ -5028,15 +5635,15 @@
         <v>0</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:32" s="2" customFormat="1">
+    <row r="34" s="2" customFormat="1" spans="1:30">
       <c r="A34" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>76</v>
@@ -5066,7 +5673,7 @@
         <v>62</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>36</v>
@@ -5104,7 +5711,7 @@
       <c r="X34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y34" s="12" t="s">
+      <c r="Y34" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z34" s="2">
@@ -5120,12 +5727,12 @@
         <v>0</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:32" s="2" customFormat="1">
+    <row r="35" s="2" customFormat="1" spans="1:32">
       <c r="A35" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>75</v>
@@ -5158,7 +5765,7 @@
         <v>33</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>55</v>
@@ -5196,7 +5803,7 @@
       <c r="X35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y35" s="12" t="s">
+      <c r="Y35" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z35" s="2">
@@ -5212,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE35" s="2" t="s">
         <v>57</v>
@@ -5221,9 +5828,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="2" customFormat="1">
+    <row r="36" s="2" customFormat="1" spans="1:30">
       <c r="A36" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>75</v>
@@ -5256,7 +5863,7 @@
         <v>33</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>36</v>
@@ -5294,7 +5901,7 @@
       <c r="X36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y36" s="12" t="s">
+      <c r="Y36" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z36" s="2">
@@ -5310,12 +5917,12 @@
         <v>0</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="2" customFormat="1">
+    <row r="37" s="2" customFormat="1" spans="1:30">
       <c r="A37" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>75</v>
@@ -5348,7 +5955,7 @@
         <v>33</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>36</v>
@@ -5386,7 +5993,7 @@
       <c r="X37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y37" s="12" t="s">
+      <c r="Y37" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z37" s="2">
@@ -5402,15 +6009,15 @@
         <v>0</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="2" customFormat="1">
+    <row r="38" s="2" customFormat="1" spans="1:32">
       <c r="A38" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>76</v>
@@ -5440,7 +6047,7 @@
         <v>34</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>55</v>
@@ -5478,8 +6085,8 @@
       <c r="X38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y38" s="12" t="s">
-        <v>433</v>
+      <c r="Y38" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="Z38" s="2">
         <v>540</v>
@@ -5494,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE38" s="2" t="s">
         <v>47</v>
@@ -5503,12 +6110,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:32" s="2" customFormat="1">
+    <row r="39" s="2" customFormat="1" spans="1:32">
       <c r="A39" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>76</v>
@@ -5538,7 +6145,7 @@
         <v>34</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>55</v>
@@ -5576,8 +6183,8 @@
       <c r="X39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y39" s="12" t="s">
-        <v>433</v>
+      <c r="Y39" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="Z39" s="2">
         <v>540</v>
@@ -5592,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE39" s="2" t="s">
         <v>47</v>
@@ -5601,12 +6208,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:32" s="2" customFormat="1">
+    <row r="40" s="2" customFormat="1" spans="1:30">
       <c r="A40" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>76</v>
@@ -5636,7 +6243,7 @@
         <v>34</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>71</v>
@@ -5674,7 +6281,7 @@
       <c r="X40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y40" s="12" t="s">
+      <c r="Y40" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z40" s="2">
@@ -5690,15 +6297,15 @@
         <v>0</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:32" s="2" customFormat="1">
+    <row r="41" s="2" customFormat="1" spans="1:30">
       <c r="A41" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>76</v>
@@ -5728,7 +6335,7 @@
         <v>34</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>71</v>
@@ -5766,7 +6373,7 @@
       <c r="X41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y41" s="12" t="s">
+      <c r="Y41" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z41" s="2">
@@ -5782,15 +6389,15 @@
         <v>0</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:32" s="2" customFormat="1">
+    <row r="42" s="2" customFormat="1" spans="1:25">
       <c r="A42" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>76</v>
@@ -5820,7 +6427,7 @@
         <v>33</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>36</v>
@@ -5828,14 +6435,14 @@
       <c r="N42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y42" s="12"/>
+      <c r="Y42" s="15"/>
     </row>
-    <row r="43" spans="1:32" s="2" customFormat="1">
-      <c r="A43" s="7" t="s">
-        <v>161</v>
+    <row r="43" s="2" customFormat="1" spans="1:30">
+      <c r="A43" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>76</v>
@@ -5865,7 +6472,7 @@
         <v>33</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>55</v>
@@ -5903,7 +6510,7 @@
       <c r="X43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y43" s="12" t="s">
+      <c r="Y43" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z43" s="2">
@@ -5919,15 +6526,15 @@
         <v>0</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:32" s="2" customFormat="1">
+    <row r="44" s="2" customFormat="1" spans="1:30">
       <c r="A44" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>76</v>
@@ -5957,7 +6564,7 @@
         <v>33</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>55</v>
@@ -5995,7 +6602,7 @@
       <c r="X44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y44" s="12" t="s">
+      <c r="Y44" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z44" s="2">
@@ -6011,15 +6618,15 @@
         <v>0</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:32" s="2" customFormat="1">
+    <row r="45" s="2" customFormat="1" spans="1:32">
       <c r="A45" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>76</v>
@@ -6049,7 +6656,7 @@
         <v>69</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>55</v>
@@ -6087,8 +6694,8 @@
       <c r="X45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y45" s="12" t="s">
-        <v>167</v>
+      <c r="Y45" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="Z45" s="1">
         <v>540</v>
@@ -6103,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE45" s="1" t="s">
         <v>73</v>
@@ -6112,12 +6719,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:32" s="2" customFormat="1">
+    <row r="46" s="2" customFormat="1" spans="1:32">
       <c r="A46" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>76</v>
@@ -6147,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>55</v>
@@ -6185,8 +6792,8 @@
       <c r="X46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y46" s="12" t="s">
-        <v>167</v>
+      <c r="Y46" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="Z46" s="1">
         <v>540</v>
@@ -6201,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE46" s="1" t="s">
         <v>73</v>
@@ -6210,12 +6817,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="2" customFormat="1">
+    <row r="47" s="2" customFormat="1" spans="1:30">
       <c r="A47" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>76</v>
@@ -6245,7 +6852,7 @@
         <v>69</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>71</v>
@@ -6283,7 +6890,7 @@
       <c r="X47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y47" s="12" t="s">
+      <c r="Y47" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z47" s="2">
@@ -6299,15 +6906,15 @@
         <v>0</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:32" s="2" customFormat="1">
+    <row r="48" s="2" customFormat="1" spans="1:30">
       <c r="A48" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>76</v>
@@ -6337,7 +6944,7 @@
         <v>69</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>71</v>
@@ -6375,7 +6982,7 @@
       <c r="X48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y48" s="12" t="s">
+      <c r="Y48" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z48" s="2">
@@ -6391,15 +6998,15 @@
         <v>0</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:32" s="2" customFormat="1">
+    <row r="49" s="2" customFormat="1" spans="1:30">
       <c r="A49" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>76</v>
@@ -6429,7 +7036,7 @@
         <v>34</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>55</v>
@@ -6467,7 +7074,7 @@
       <c r="X49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y49" s="12" t="s">
+      <c r="Y49" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z49" s="2">
@@ -6483,15 +7090,15 @@
         <v>0</v>
       </c>
       <c r="AD49" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:32" s="2" customFormat="1">
+    <row r="50" s="2" customFormat="1" spans="1:30">
       <c r="A50" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>76</v>
@@ -6521,7 +7128,7 @@
         <v>34</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>36</v>
@@ -6559,7 +7166,7 @@
       <c r="X50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y50" s="12" t="s">
+      <c r="Y50" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z50" s="2">
@@ -6575,15 +7182,15 @@
         <v>0</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:32" s="2" customFormat="1">
+    <row r="51" s="2" customFormat="1" spans="1:32">
       <c r="A51" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>76</v>
@@ -6613,7 +7220,7 @@
         <v>68</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>71</v>
@@ -6651,7 +7258,7 @@
       <c r="X51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y51" s="12" t="s">
+      <c r="Y51" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z51" s="2">
@@ -6667,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE51" s="2" t="s">
         <v>46</v>
@@ -6676,12 +7283,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:32" s="2" customFormat="1">
+    <row r="52" s="2" customFormat="1" spans="1:30">
       <c r="A52" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>76</v>
@@ -6711,7 +7318,7 @@
         <v>68</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>55</v>
@@ -6749,7 +7356,7 @@
       <c r="X52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y52" s="12" t="s">
+      <c r="Y52" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z52" s="2">
@@ -6765,12 +7372,12 @@
         <v>1</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:32" s="2" customFormat="1">
+    <row r="53" s="2" customFormat="1" spans="1:30">
       <c r="A53" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>85</v>
@@ -6803,7 +7410,7 @@
         <v>34</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>71</v>
@@ -6841,7 +7448,7 @@
       <c r="X53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y53" s="12" t="s">
+      <c r="Y53" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z53" s="2">
@@ -6857,12 +7464,12 @@
         <v>0</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:32" s="2" customFormat="1">
+    <row r="54" s="2" customFormat="1" spans="1:32">
       <c r="A54" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>85</v>
@@ -6895,7 +7502,7 @@
         <v>34</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>71</v>
@@ -6933,7 +7540,7 @@
       <c r="X54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y54" s="12" t="s">
+      <c r="Y54" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z54" s="2">
@@ -6949,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE54" s="2" t="s">
         <v>58</v>
@@ -6958,12 +7565,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:32" s="2" customFormat="1">
+    <row r="55" s="2" customFormat="1" spans="1:32">
       <c r="A55" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>76</v>
@@ -6993,7 +7600,7 @@
         <v>34</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>55</v>
@@ -7031,7 +7638,7 @@
       <c r="X55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y55" s="12" t="s">
+      <c r="Y55" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z55" s="2">
@@ -7047,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE55" s="2" t="s">
         <v>58</v>
@@ -7056,12 +7663,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:32" s="2" customFormat="1">
+    <row r="56" s="2" customFormat="1" spans="1:32">
       <c r="A56" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>76</v>
@@ -7091,7 +7698,7 @@
         <v>34</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>55</v>
@@ -7129,7 +7736,7 @@
       <c r="X56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y56" s="12" t="s">
+      <c r="Y56" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z56" s="2">
@@ -7145,7 +7752,7 @@
         <v>1</v>
       </c>
       <c r="AD56" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE56" s="2" t="s">
         <v>58</v>
@@ -7154,12 +7761,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:32" s="2" customFormat="1">
+    <row r="57" s="2" customFormat="1" spans="1:32">
       <c r="A57" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>76</v>
@@ -7189,7 +7796,7 @@
         <v>69</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>71</v>
@@ -7197,37 +7804,37 @@
       <c r="N57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O57" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P57" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q57" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R57" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S57" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T57" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="U57" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V57" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="W57" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="X57" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y57" s="12" t="s">
+      <c r="O57" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q57" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R57" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S57" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T57" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U57" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V57" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W57" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X57" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y57" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z57" s="2">
@@ -7243,7 +7850,7 @@
         <v>1</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE57" s="2" t="s">
         <v>47</v>
@@ -7252,96 +7859,96 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:32" s="2" customFormat="1">
-      <c r="A58" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C58" s="8" t="s">
+    <row r="58" s="2" customFormat="1" spans="1:32">
+      <c r="A58" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="9">
-        <v>1</v>
-      </c>
-      <c r="E58" s="9">
+      <c r="D58" s="12">
+        <v>1</v>
+      </c>
+      <c r="E58" s="12">
         <v>758</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="12">
         <v>446</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="12">
         <v>695</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="I58" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="J58" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L58" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="M58" s="8" t="s">
+      <c r="L58" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="M58" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="N58" s="8" t="s">
+      <c r="N58" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O58" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q58" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R58" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S58" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T58" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U58" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V58" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="W58" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="X58" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y58" s="14" t="s">
+      <c r="O58" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P58" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q58" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S58" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T58" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="U58" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V58" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W58" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X58" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y58" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Z58" s="9">
+      <c r="Z58" s="12">
         <v>540</v>
       </c>
-      <c r="AA58" s="9">
+      <c r="AA58" s="12">
         <v>330</v>
       </c>
-      <c r="AB58" s="9">
+      <c r="AB58" s="12">
         <v>585</v>
       </c>
       <c r="AC58" s="2" t="b">
         <v>1</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE58" s="2" t="s">
         <v>58</v>
@@ -7350,12 +7957,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:32" s="2" customFormat="1">
+    <row r="59" s="2" customFormat="1" spans="1:30">
       <c r="A59" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>76</v>
@@ -7385,7 +7992,7 @@
         <v>69</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>71</v>
@@ -7423,7 +8030,7 @@
       <c r="X59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y59" s="12" t="s">
+      <c r="Y59" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z59" s="2">
@@ -7439,15 +8046,15 @@
         <v>0</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:32" s="2" customFormat="1">
+    <row r="60" s="2" customFormat="1" spans="1:30">
       <c r="A60" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>30</v>
@@ -7477,7 +8084,7 @@
         <v>69</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>71</v>
@@ -7515,7 +8122,7 @@
       <c r="X60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y60" s="12" t="s">
+      <c r="Y60" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z60" s="2">
@@ -7531,15 +8138,15 @@
         <v>0</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:32" s="2" customFormat="1">
+    <row r="61" s="2" customFormat="1" spans="1:30">
       <c r="A61" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>30</v>
@@ -7569,7 +8176,7 @@
         <v>69</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>71</v>
@@ -7607,7 +8214,7 @@
       <c r="X61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y61" s="12" t="s">
+      <c r="Y61" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z61" s="2">
@@ -7623,15 +8230,15 @@
         <v>0</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:32" s="2" customFormat="1">
+    <row r="62" s="2" customFormat="1" spans="1:30">
       <c r="A62" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>89</v>
@@ -7661,7 +8268,7 @@
         <v>34</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>36</v>
@@ -7699,7 +8306,7 @@
       <c r="X62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y62" s="12" t="s">
+      <c r="Y62" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z62" s="2">
@@ -7715,15 +8322,15 @@
         <v>0</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:32" s="2" customFormat="1">
+    <row r="63" s="2" customFormat="1" spans="1:30">
       <c r="A63" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>89</v>
@@ -7753,7 +8360,7 @@
         <v>34</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>36</v>
@@ -7791,7 +8398,7 @@
       <c r="X63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y63" s="12" t="s">
+      <c r="Y63" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z63" s="2">
@@ -7807,15 +8414,15 @@
         <v>0</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:32" s="2" customFormat="1">
+    <row r="64" s="2" customFormat="1" spans="1:30">
       <c r="A64" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>30</v>
@@ -7845,7 +8452,7 @@
         <v>34</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>55</v>
@@ -7883,7 +8490,7 @@
       <c r="X64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y64" s="12" t="s">
+      <c r="Y64" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z64" s="2">
@@ -7899,15 +8506,15 @@
         <v>0</v>
       </c>
       <c r="AD64" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:32" s="2" customFormat="1">
+    <row r="65" s="2" customFormat="1" spans="1:30">
       <c r="A65" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>76</v>
@@ -7937,7 +8544,7 @@
         <v>62</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>55</v>
@@ -7975,7 +8582,7 @@
       <c r="X65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y65" s="12" t="s">
+      <c r="Y65" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z65" s="2">
@@ -7991,15 +8598,15 @@
         <v>0</v>
       </c>
       <c r="AD65" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:32" s="2" customFormat="1">
+    <row r="66" s="2" customFormat="1" spans="1:30">
       <c r="A66" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>89</v>
@@ -8029,7 +8636,7 @@
         <v>62</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>36</v>
@@ -8067,7 +8674,7 @@
       <c r="X66" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y66" s="12" t="s">
+      <c r="Y66" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z66" s="2">
@@ -8083,15 +8690,15 @@
         <v>0</v>
       </c>
       <c r="AD66" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:32" s="2" customFormat="1">
+    <row r="67" s="2" customFormat="1" spans="1:30">
       <c r="A67" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>89</v>
@@ -8121,7 +8728,7 @@
         <v>62</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>36</v>
@@ -8159,7 +8766,7 @@
       <c r="X67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y67" s="12" t="s">
+      <c r="Y67" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z67" s="2">
@@ -8175,15 +8782,15 @@
         <v>0</v>
       </c>
       <c r="AD67" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:32" s="2" customFormat="1">
+    <row r="68" s="2" customFormat="1" spans="1:25">
       <c r="A68" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>89</v>
@@ -8213,7 +8820,7 @@
         <v>69</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>71</v>
@@ -8221,14 +8828,14 @@
       <c r="N68" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Y68" s="12"/>
+      <c r="Y68" s="15"/>
     </row>
-    <row r="69" spans="1:32" s="2" customFormat="1">
+    <row r="69" s="2" customFormat="1" spans="1:30">
       <c r="A69" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>89</v>
@@ -8258,7 +8865,7 @@
         <v>69</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>71</v>
@@ -8296,7 +8903,7 @@
       <c r="X69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y69" s="12" t="s">
+      <c r="Y69" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z69" s="2">
@@ -8312,15 +8919,15 @@
         <v>0</v>
       </c>
       <c r="AD69" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:32" s="2" customFormat="1">
+    <row r="70" s="2" customFormat="1" spans="1:30">
       <c r="A70" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>89</v>
@@ -8350,7 +8957,7 @@
         <v>69</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>71</v>
@@ -8388,7 +8995,7 @@
       <c r="X70" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y70" s="12" t="s">
+      <c r="Y70" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z70" s="2">
@@ -8404,12 +9011,12 @@
         <v>0</v>
       </c>
       <c r="AD70" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:32" s="2" customFormat="1">
+    <row r="71" s="2" customFormat="1" spans="1:30">
       <c r="A71" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>96</v>
@@ -8442,7 +9049,7 @@
         <v>68</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>71</v>
@@ -8480,7 +9087,7 @@
       <c r="X71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y71" s="12" t="s">
+      <c r="Y71" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z71" s="2">
@@ -8496,12 +9103,12 @@
         <v>0</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:32" s="2" customFormat="1">
+    <row r="72" s="2" customFormat="1" spans="1:30">
       <c r="A72" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>96</v>
@@ -8534,7 +9141,7 @@
         <v>68</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>55</v>
@@ -8572,7 +9179,7 @@
       <c r="X72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y72" s="12" t="s">
+      <c r="Y72" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z72" s="2">
@@ -8588,12 +9195,12 @@
         <v>0</v>
       </c>
       <c r="AD72" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:32" s="2" customFormat="1">
+    <row r="73" s="2" customFormat="1" spans="1:30">
       <c r="A73" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>96</v>
@@ -8626,7 +9233,7 @@
         <v>68</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>55</v>
@@ -8664,7 +9271,7 @@
       <c r="X73" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y73" s="12" t="s">
+      <c r="Y73" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z73" s="2">
@@ -8680,15 +9287,15 @@
         <v>0</v>
       </c>
       <c r="AD73" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:32" s="2" customFormat="1">
+    <row r="74" s="2" customFormat="1" spans="1:30">
       <c r="A74" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>89</v>
@@ -8718,7 +9325,7 @@
         <v>33</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>55</v>
@@ -8756,7 +9363,7 @@
       <c r="X74" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y74" s="12" t="s">
+      <c r="Y74" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z74" s="2">
@@ -8772,15 +9379,15 @@
         <v>0</v>
       </c>
       <c r="AD74" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:32" s="2" customFormat="1">
+    <row r="75" s="2" customFormat="1" spans="1:30">
       <c r="A75" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>89</v>
@@ -8810,7 +9417,7 @@
         <v>33</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>55</v>
@@ -8848,7 +9455,7 @@
       <c r="X75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y75" s="12" t="s">
+      <c r="Y75" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z75" s="2">
@@ -8864,15 +9471,15 @@
         <v>0</v>
       </c>
       <c r="AD75" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:32" s="2" customFormat="1">
+    <row r="76" s="2" customFormat="1" spans="1:30">
       <c r="A76" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>30</v>
@@ -8902,7 +9509,7 @@
         <v>33</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>55</v>
@@ -8940,7 +9547,7 @@
       <c r="X76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y76" s="12" t="s">
+      <c r="Y76" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z76" s="2">
@@ -8956,15 +9563,15 @@
         <v>0</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:32" s="2" customFormat="1">
+    <row r="77" s="2" customFormat="1" spans="1:30">
       <c r="A77" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>30</v>
@@ -8994,7 +9601,7 @@
         <v>33</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>55</v>
@@ -9032,7 +9639,7 @@
       <c r="X77" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y77" s="12" t="s">
+      <c r="Y77" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z77" s="2">
@@ -9048,15 +9655,15 @@
         <v>0</v>
       </c>
       <c r="AD77" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:32" s="2" customFormat="1">
+    <row r="78" s="2" customFormat="1" spans="1:32">
       <c r="A78" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>89</v>
@@ -9086,7 +9693,7 @@
         <v>33</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>55</v>
@@ -9124,7 +9731,7 @@
       <c r="X78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y78" s="12" t="s">
+      <c r="Y78" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z78" s="2">
@@ -9140,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="AD78" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE78" s="2" t="s">
         <v>57</v>
@@ -9149,12 +9756,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:32" s="2" customFormat="1">
+    <row r="79" s="2" customFormat="1" spans="1:30">
       <c r="A79" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>89</v>
@@ -9184,7 +9791,7 @@
         <v>33</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>36</v>
@@ -9222,7 +9829,7 @@
       <c r="X79" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y79" s="12" t="s">
+      <c r="Y79" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z79" s="2">
@@ -9238,15 +9845,15 @@
         <v>0</v>
       </c>
       <c r="AD79" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:32" s="2" customFormat="1">
+    <row r="80" s="2" customFormat="1" spans="1:30">
       <c r="A80" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>89</v>
@@ -9276,7 +9883,7 @@
         <v>33</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>36</v>
@@ -9314,7 +9921,7 @@
       <c r="X80" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y80" s="12" t="s">
+      <c r="Y80" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z80" s="2">
@@ -9330,12 +9937,12 @@
         <v>0</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:32" s="2" customFormat="1">
+    <row r="81" s="2" customFormat="1" spans="1:30">
       <c r="A81" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>92</v>
@@ -9368,7 +9975,7 @@
         <v>34</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>36</v>
@@ -9406,7 +10013,7 @@
       <c r="X81" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y81" s="12" t="s">
+      <c r="Y81" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z81" s="2">
@@ -9422,12 +10029,12 @@
         <v>0</v>
       </c>
       <c r="AD81" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:32" s="2" customFormat="1">
+    <row r="82" s="2" customFormat="1" spans="1:30">
       <c r="A82" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>92</v>
@@ -9460,7 +10067,7 @@
         <v>34</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>36</v>
@@ -9498,7 +10105,7 @@
       <c r="X82" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y82" s="12" t="s">
+      <c r="Y82" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z82" s="2">
@@ -9514,12 +10121,12 @@
         <v>0</v>
       </c>
       <c r="AD82" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:32" s="2" customFormat="1">
+    <row r="83" s="2" customFormat="1" spans="1:30">
       <c r="A83" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>92</v>
@@ -9552,7 +10159,7 @@
         <v>34</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>36</v>
@@ -9590,7 +10197,7 @@
       <c r="X83" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y83" s="12" t="s">
+      <c r="Y83" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z83" s="2">
@@ -9606,12 +10213,12 @@
         <v>0</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:32" s="2" customFormat="1">
+    <row r="84" s="2" customFormat="1" spans="1:30">
       <c r="A84" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>92</v>
@@ -9644,7 +10251,7 @@
         <v>34</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>36</v>
@@ -9682,7 +10289,7 @@
       <c r="X84" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y84" s="12" t="s">
+      <c r="Y84" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z84" s="2">
@@ -9698,12 +10305,12 @@
         <v>0</v>
       </c>
       <c r="AD84" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:32" s="2" customFormat="1">
+    <row r="85" s="2" customFormat="1" spans="1:25">
       <c r="A85" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>88</v>
@@ -9736,7 +10343,7 @@
         <v>62</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>36</v>
@@ -9744,11 +10351,11 @@
       <c r="N85" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y85" s="12"/>
+      <c r="Y85" s="15"/>
     </row>
-    <row r="86" spans="1:32" s="2" customFormat="1">
+    <row r="86" s="2" customFormat="1" spans="1:25">
       <c r="A86" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>88</v>
@@ -9781,7 +10388,7 @@
         <v>62</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>36</v>
@@ -9789,14 +10396,14 @@
       <c r="N86" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y86" s="12"/>
+      <c r="Y86" s="15"/>
     </row>
-    <row r="87" spans="1:32" s="2" customFormat="1">
+    <row r="87" s="2" customFormat="1" spans="1:25">
       <c r="A87" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>89</v>
@@ -9826,7 +10433,7 @@
         <v>68</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>55</v>
@@ -9834,14 +10441,14 @@
       <c r="N87" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Y87" s="12"/>
+      <c r="Y87" s="15"/>
     </row>
-    <row r="88" spans="1:32" s="2" customFormat="1">
+    <row r="88" s="2" customFormat="1" spans="1:30">
       <c r="A88" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>89</v>
@@ -9871,7 +10478,7 @@
         <v>68</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>71</v>
@@ -9909,7 +10516,7 @@
       <c r="X88" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y88" s="12" t="s">
+      <c r="Y88" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z88" s="2">
@@ -9925,15 +10532,15 @@
         <v>0</v>
       </c>
       <c r="AD88" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:32" s="2" customFormat="1">
+    <row r="89" s="2" customFormat="1" spans="1:30">
       <c r="A89" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>89</v>
@@ -9963,7 +10570,7 @@
         <v>68</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>71</v>
@@ -10001,7 +10608,7 @@
       <c r="X89" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y89" s="12" t="s">
+      <c r="Y89" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z89" s="2">
@@ -10017,15 +10624,15 @@
         <v>0</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:32" s="2" customFormat="1">
+    <row r="90" s="2" customFormat="1" spans="1:25">
       <c r="A90" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>89</v>
@@ -10055,7 +10662,7 @@
         <v>62</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>36</v>
@@ -10063,14 +10670,14 @@
       <c r="N90" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y90" s="12"/>
+      <c r="Y90" s="15"/>
     </row>
-    <row r="91" spans="1:32" s="2" customFormat="1">
+    <row r="91" s="2" customFormat="1" spans="1:30">
       <c r="A91" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>89</v>
@@ -10100,7 +10707,7 @@
         <v>62</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>55</v>
@@ -10138,7 +10745,7 @@
       <c r="X91" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y91" s="12" t="s">
+      <c r="Y91" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z91" s="2">
@@ -10154,15 +10761,15 @@
         <v>0</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:32" s="2" customFormat="1">
+    <row r="92" s="2" customFormat="1" spans="1:30">
       <c r="A92" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>89</v>
@@ -10192,7 +10799,7 @@
         <v>62</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>55</v>
@@ -10230,7 +10837,7 @@
       <c r="X92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y92" s="12" t="s">
+      <c r="Y92" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z92" s="2">
@@ -10246,15 +10853,15 @@
         <v>0</v>
       </c>
       <c r="AD92" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:32" s="2" customFormat="1">
+    <row r="93" s="2" customFormat="1" spans="1:32">
       <c r="A93" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>89</v>
@@ -10284,7 +10891,7 @@
         <v>68</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>71</v>
@@ -10322,7 +10929,7 @@
       <c r="X93" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y93" s="12" t="s">
+      <c r="Y93" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z93" s="2">
@@ -10338,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="AD93" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE93" s="2" t="s">
         <v>47</v>
@@ -10347,12 +10954,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:32" s="2" customFormat="1">
+    <row r="94" s="2" customFormat="1" spans="1:32">
       <c r="A94" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>89</v>
@@ -10382,7 +10989,7 @@
         <v>68</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>71</v>
@@ -10420,7 +11027,7 @@
       <c r="X94" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y94" s="12" t="s">
+      <c r="Y94" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z94" s="2">
@@ -10436,7 +11043,7 @@
         <v>1</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE94" s="2" t="s">
         <v>47</v>
@@ -10445,12 +11052,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:32" s="2" customFormat="1">
+    <row r="95" s="2" customFormat="1" spans="1:30">
       <c r="A95" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>89</v>
@@ -10480,7 +11087,7 @@
         <v>68</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>71</v>
@@ -10518,7 +11125,7 @@
       <c r="X95" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y95" s="12" t="s">
+      <c r="Y95" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z95" s="2">
@@ -10534,15 +11141,15 @@
         <v>0</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:32" s="2" customFormat="1">
+    <row r="96" s="2" customFormat="1" spans="1:30">
       <c r="A96" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>89</v>
@@ -10572,7 +11179,7 @@
         <v>68</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>71</v>
@@ -10610,7 +11217,7 @@
       <c r="X96" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y96" s="12" t="s">
+      <c r="Y96" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z96" s="2">
@@ -10626,15 +11233,15 @@
         <v>0</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:33" s="2" customFormat="1">
+    <row r="97" s="2" customFormat="1" spans="1:30">
       <c r="A97" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>89</v>
@@ -10664,7 +11271,7 @@
         <v>68</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>71</v>
@@ -10702,7 +11309,7 @@
       <c r="X97" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y97" s="12" t="s">
+      <c r="Y97" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z97" s="2">
@@ -10718,15 +11325,15 @@
         <v>0</v>
       </c>
       <c r="AD97" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:33" s="2" customFormat="1">
+    <row r="98" s="2" customFormat="1" spans="1:32">
       <c r="A98" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>100</v>
@@ -10756,7 +11363,7 @@
         <v>68</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>71</v>
@@ -10794,8 +11401,8 @@
       <c r="X98" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y98" s="12" t="s">
-        <v>266</v>
+      <c r="Y98" s="15" t="s">
+        <v>273</v>
       </c>
       <c r="Z98" s="2">
         <v>540</v>
@@ -10810,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="AD98" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE98" s="2" t="s">
         <v>47</v>
@@ -10819,12 +11426,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:33" s="2" customFormat="1">
+    <row r="99" s="2" customFormat="1" spans="1:30">
       <c r="A99" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>89</v>
@@ -10854,7 +11461,7 @@
         <v>68</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>71</v>
@@ -10892,7 +11499,7 @@
       <c r="X99" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y99" s="12" t="s">
+      <c r="Y99" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z99" s="2">
@@ -10908,15 +11515,15 @@
         <v>0</v>
       </c>
       <c r="AD99" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:33">
       <c r="A100" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>89</v>
@@ -10946,7 +11553,7 @@
         <v>68</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>36</v>
@@ -10984,7 +11591,7 @@
       <c r="X100" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y100" s="12" t="s">
+      <c r="Y100" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z100" s="2">
@@ -11000,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="AD100" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
@@ -11008,10 +11615,10 @@
     </row>
     <row r="101" spans="1:33">
       <c r="A101" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>89</v>
@@ -11041,7 +11648,7 @@
         <v>68</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>36</v>
@@ -11079,7 +11686,7 @@
       <c r="X101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y101" s="12" t="s">
+      <c r="Y101" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z101" s="2">
@@ -11095,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
@@ -11103,10 +11710,10 @@
     </row>
     <row r="102" spans="1:33">
       <c r="A102" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>89</v>
@@ -11136,7 +11743,7 @@
         <v>33</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>55</v>
@@ -11174,8 +11781,8 @@
       <c r="X102" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y102" s="12" t="s">
-        <v>276</v>
+      <c r="Y102" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="Z102" s="2">
         <v>540</v>
@@ -11190,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="AD102" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE102" s="2" t="s">
         <v>58</v>
@@ -11202,10 +11809,10 @@
     </row>
     <row r="103" spans="1:33">
       <c r="A103" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>89</v>
@@ -11235,7 +11842,7 @@
         <v>69</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>71</v>
@@ -11273,7 +11880,7 @@
       <c r="X103" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y103" s="12" t="s">
+      <c r="Y103" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z103" s="2">
@@ -11289,7 +11896,7 @@
         <v>1</v>
       </c>
       <c r="AD103" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE103" s="2" t="s">
         <v>58</v>
@@ -11301,10 +11908,10 @@
     </row>
     <row r="104" spans="1:33">
       <c r="A104" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>100</v>
@@ -11334,7 +11941,7 @@
         <v>68</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>71</v>
@@ -11372,7 +11979,7 @@
       <c r="X104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y104" s="12" t="s">
+      <c r="Y104" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z104" s="2">
@@ -11388,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="AD104" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
@@ -11396,10 +12003,10 @@
     </row>
     <row r="105" spans="1:33">
       <c r="A105" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>100</v>
@@ -11429,7 +12036,7 @@
         <v>68</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>71</v>
@@ -11467,7 +12074,7 @@
       <c r="X105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y105" s="12" t="s">
+      <c r="Y105" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z105" s="2">
@@ -11483,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="AD105" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
@@ -11491,10 +12098,10 @@
     </row>
     <row r="106" spans="1:33">
       <c r="A106" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>100</v>
@@ -11524,7 +12131,7 @@
         <v>68</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>71</v>
@@ -11542,7 +12149,7 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
-      <c r="Y106" s="12"/>
+      <c r="Y106" s="15"/>
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
@@ -11554,7 +12161,7 @@
     </row>
     <row r="107" spans="1:33">
       <c r="A107" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>99</v>
@@ -11587,7 +12194,7 @@
         <v>68</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>71</v>
@@ -11625,7 +12232,7 @@
       <c r="X107" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y107" s="12" t="s">
+      <c r="Y107" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z107" s="2">
@@ -11641,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
@@ -11649,7 +12256,7 @@
     </row>
     <row r="108" spans="1:33">
       <c r="A108" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>99</v>
@@ -11682,7 +12289,7 @@
         <v>68</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>71</v>
@@ -11720,7 +12327,7 @@
       <c r="X108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y108" s="12" t="s">
+      <c r="Y108" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z108" s="2">
@@ -11736,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="AD108" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
@@ -11744,10 +12351,10 @@
     </row>
     <row r="109" spans="1:33">
       <c r="A109" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>100</v>
@@ -11777,7 +12384,7 @@
         <v>69</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>36</v>
@@ -11815,7 +12422,7 @@
       <c r="X109" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y109" s="12" t="s">
+      <c r="Y109" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z109" s="2">
@@ -11831,7 +12438,7 @@
         <v>1</v>
       </c>
       <c r="AD109" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE109" s="2" t="s">
         <v>46</v>
@@ -11843,10 +12450,10 @@
     </row>
     <row r="110" spans="1:33">
       <c r="A110" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>100</v>
@@ -11876,7 +12483,7 @@
         <v>69</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>71</v>
@@ -11914,7 +12521,7 @@
       <c r="X110" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y110" s="12" t="s">
+      <c r="Y110" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z110" s="2">
@@ -11930,7 +12537,7 @@
         <v>0</v>
       </c>
       <c r="AD110" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
@@ -11938,10 +12545,10 @@
     </row>
     <row r="111" spans="1:33">
       <c r="A111" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>100</v>
@@ -11971,7 +12578,7 @@
         <v>69</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>71</v>
@@ -12009,7 +12616,7 @@
       <c r="X111" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y111" s="12" t="s">
+      <c r="Y111" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z111" s="2">
@@ -12025,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="AD111" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
@@ -12033,10 +12640,10 @@
     </row>
     <row r="112" spans="1:33">
       <c r="A112" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>100</v>
@@ -12066,7 +12673,7 @@
         <v>68</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>71</v>
@@ -12104,7 +12711,7 @@
       <c r="X112" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y112" s="12" t="s">
+      <c r="Y112" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z112" s="2">
@@ -12120,7 +12727,7 @@
         <v>0</v>
       </c>
       <c r="AD112" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
@@ -12128,10 +12735,10 @@
     </row>
     <row r="113" spans="1:33">
       <c r="A113" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>100</v>
@@ -12161,7 +12768,7 @@
         <v>68</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>71</v>
@@ -12199,7 +12806,7 @@
       <c r="X113" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y113" s="12" t="s">
+      <c r="Y113" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z113" s="2">
@@ -12215,7 +12822,7 @@
         <v>0</v>
       </c>
       <c r="AD113" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
@@ -12223,10 +12830,10 @@
     </row>
     <row r="114" spans="1:33">
       <c r="A114" s="2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>100</v>
@@ -12256,7 +12863,7 @@
         <v>68</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>71</v>
@@ -12294,7 +12901,7 @@
       <c r="X114" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y114" s="12" t="s">
+      <c r="Y114" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z114" s="2">
@@ -12310,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="AD114" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE114" s="2"/>
       <c r="AF114" s="2"/>
@@ -12318,7 +12925,7 @@
     </row>
     <row r="115" spans="1:33">
       <c r="A115" s="2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>103</v>
@@ -12351,7 +12958,7 @@
         <v>33</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>71</v>
@@ -12389,7 +12996,7 @@
       <c r="X115" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y115" s="12" t="s">
+      <c r="Y115" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z115" s="2">
@@ -12405,7 +13012,7 @@
         <v>0</v>
       </c>
       <c r="AD115" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
@@ -12413,7 +13020,7 @@
     </row>
     <row r="116" spans="1:33">
       <c r="A116" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>103</v>
@@ -12446,7 +13053,7 @@
         <v>33</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>71</v>
@@ -12484,7 +13091,7 @@
       <c r="X116" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y116" s="12" t="s">
+      <c r="Y116" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z116" s="2">
@@ -12500,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="AD116" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
@@ -12508,7 +13115,7 @@
     </row>
     <row r="117" spans="1:33">
       <c r="A117" s="2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>103</v>
@@ -12541,7 +13148,7 @@
         <v>33</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>71</v>
@@ -12579,7 +13186,7 @@
       <c r="X117" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y117" s="12" t="s">
+      <c r="Y117" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z117" s="2">
@@ -12595,7 +13202,7 @@
         <v>0</v>
       </c>
       <c r="AD117" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
@@ -12603,10 +13210,10 @@
     </row>
     <row r="118" spans="1:33">
       <c r="A118" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>100</v>
@@ -12636,7 +13243,7 @@
         <v>62</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>71</v>
@@ -12674,7 +13281,7 @@
       <c r="X118" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y118" s="12" t="s">
+      <c r="Y118" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z118" s="2">
@@ -12690,7 +13297,7 @@
         <v>0</v>
       </c>
       <c r="AD118" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
@@ -12698,10 +13305,10 @@
     </row>
     <row r="119" spans="1:33">
       <c r="A119" s="2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>100</v>
@@ -12731,7 +13338,7 @@
         <v>62</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>36</v>
@@ -12769,7 +13376,7 @@
       <c r="X119" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y119" s="12" t="s">
+      <c r="Y119" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z119" s="2">
@@ -12785,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="AD119" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
@@ -12793,10 +13400,10 @@
     </row>
     <row r="120" spans="1:33">
       <c r="A120" s="2" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>100</v>
@@ -12826,7 +13433,7 @@
         <v>62</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>36</v>
@@ -12864,7 +13471,7 @@
       <c r="X120" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y120" s="12" t="s">
+      <c r="Y120" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z120" s="2">
@@ -12880,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="AD120" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE120" s="2"/>
       <c r="AF120" s="2"/>
@@ -12888,10 +13495,10 @@
     </row>
     <row r="121" spans="1:33">
       <c r="A121" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>100</v>
@@ -12921,7 +13528,7 @@
         <v>33</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>71</v>
@@ -12959,7 +13566,7 @@
       <c r="X121" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y121" s="12" t="s">
+      <c r="Y121" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z121" s="2">
@@ -12975,7 +13582,7 @@
         <v>0</v>
       </c>
       <c r="AD121" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
@@ -12983,10 +13590,10 @@
     </row>
     <row r="122" spans="1:33">
       <c r="A122" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>100</v>
@@ -13016,7 +13623,7 @@
         <v>33</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="M122" s="2" t="s">
         <v>71</v>
@@ -13054,7 +13661,7 @@
       <c r="X122" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y122" s="12" t="s">
+      <c r="Y122" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z122" s="2">
@@ -13070,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="AD122" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE122" s="2"/>
       <c r="AF122" s="2"/>
@@ -13078,10 +13685,10 @@
     </row>
     <row r="123" spans="1:33">
       <c r="A123" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>100</v>
@@ -13111,7 +13718,7 @@
         <v>33</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="M123" s="2" t="s">
         <v>36</v>
@@ -13149,7 +13756,7 @@
       <c r="X123" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y123" s="12" t="s">
+      <c r="Y123" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z123" s="2">
@@ -13165,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="AD123" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
@@ -13173,10 +13780,10 @@
     </row>
     <row r="124" spans="1:33">
       <c r="A124" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>100</v>
@@ -13206,7 +13813,7 @@
         <v>33</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>36</v>
@@ -13244,7 +13851,7 @@
       <c r="X124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y124" s="12" t="s">
+      <c r="Y124" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z124" s="2">
@@ -13260,7 +13867,7 @@
         <v>0</v>
       </c>
       <c r="AD124" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
@@ -13268,10 +13875,10 @@
     </row>
     <row r="125" spans="1:33">
       <c r="A125" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>100</v>
@@ -13301,7 +13908,7 @@
         <v>62</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M125" s="2" t="s">
         <v>71</v>
@@ -13339,7 +13946,7 @@
       <c r="X125" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y125" s="12" t="s">
+      <c r="Y125" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z125" s="2">
@@ -13355,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="AD125" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
@@ -13363,10 +13970,10 @@
     </row>
     <row r="126" spans="1:33">
       <c r="A126" s="2" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>100</v>
@@ -13396,7 +14003,7 @@
         <v>62</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>55</v>
@@ -13434,7 +14041,7 @@
       <c r="X126" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y126" s="12" t="s">
+      <c r="Y126" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z126" s="2">
@@ -13450,7 +14057,7 @@
         <v>0</v>
       </c>
       <c r="AD126" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
@@ -13458,10 +14065,10 @@
     </row>
     <row r="127" spans="1:33">
       <c r="A127" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>100</v>
@@ -13491,7 +14098,7 @@
         <v>62</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>55</v>
@@ -13529,7 +14136,7 @@
       <c r="X127" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y127" s="12" t="s">
+      <c r="Y127" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z127" s="2">
@@ -13545,7 +14152,7 @@
         <v>0</v>
       </c>
       <c r="AD127" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
@@ -13553,10 +14160,10 @@
     </row>
     <row r="128" spans="1:33">
       <c r="A128" s="2" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>100</v>
@@ -13586,7 +14193,7 @@
         <v>68</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>36</v>
@@ -13624,7 +14231,7 @@
       <c r="X128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y128" s="12" t="s">
+      <c r="Y128" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z128" s="2">
@@ -13640,7 +14247,7 @@
         <v>0</v>
       </c>
       <c r="AD128" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
@@ -13648,10 +14255,10 @@
     </row>
     <row r="129" spans="1:33">
       <c r="A129" s="2" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>100</v>
@@ -13681,7 +14288,7 @@
         <v>68</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>71</v>
@@ -13719,7 +14326,7 @@
       <c r="X129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y129" s="12" t="s">
+      <c r="Y129" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z129" s="2">
@@ -13735,7 +14342,7 @@
         <v>0</v>
       </c>
       <c r="AD129" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
@@ -13743,10 +14350,10 @@
     </row>
     <row r="130" spans="1:33">
       <c r="A130" s="2" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>100</v>
@@ -13776,7 +14383,7 @@
         <v>68</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M130" s="2" t="s">
         <v>71</v>
@@ -13814,7 +14421,7 @@
       <c r="X130" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y130" s="12" t="s">
+      <c r="Y130" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z130" s="2">
@@ -13830,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="AD130" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE130" s="2"/>
       <c r="AF130" s="2"/>
@@ -13838,7 +14445,7 @@
     </row>
     <row r="131" spans="1:33">
       <c r="A131" s="2" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>107</v>
@@ -13871,7 +14478,7 @@
         <v>34</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M131" s="2" t="s">
         <v>36</v>
@@ -13909,7 +14516,7 @@
       <c r="X131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y131" s="12" t="s">
+      <c r="Y131" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z131" s="2">
@@ -13925,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
@@ -13933,7 +14540,7 @@
     </row>
     <row r="132" spans="1:33">
       <c r="A132" s="2" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>107</v>
@@ -13966,7 +14573,7 @@
         <v>34</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M132" s="2" t="s">
         <v>36</v>
@@ -14004,7 +14611,7 @@
       <c r="X132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y132" s="12" t="s">
+      <c r="Y132" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z132" s="2">
@@ -14020,7 +14627,7 @@
         <v>0</v>
       </c>
       <c r="AD132" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
@@ -14028,7 +14635,7 @@
     </row>
     <row r="133" spans="1:33">
       <c r="A133" s="2" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>107</v>
@@ -14061,7 +14668,7 @@
         <v>34</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M133" s="2" t="s">
         <v>55</v>
@@ -14099,7 +14706,7 @@
       <c r="X133" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y133" s="12" t="s">
+      <c r="Y133" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z133" s="2">
@@ -14115,7 +14722,7 @@
         <v>0</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE133" s="2"/>
       <c r="AF133" s="2"/>
@@ -14123,7 +14730,7 @@
     </row>
     <row r="134" spans="1:33">
       <c r="A134" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>107</v>
@@ -14156,7 +14763,7 @@
         <v>34</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M134" s="2" t="s">
         <v>55</v>
@@ -14194,7 +14801,7 @@
       <c r="X134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y134" s="12" t="s">
+      <c r="Y134" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z134" s="2">
@@ -14210,7 +14817,7 @@
         <v>0</v>
       </c>
       <c r="AD134" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE134" s="2"/>
       <c r="AF134" s="2"/>
@@ -14218,10 +14825,10 @@
     </row>
     <row r="135" spans="1:33">
       <c r="A135" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>100</v>
@@ -14251,7 +14858,7 @@
         <v>33</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M135" s="2" t="s">
         <v>55</v>
@@ -14289,7 +14896,7 @@
       <c r="X135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y135" s="12" t="s">
+      <c r="Y135" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z135" s="2">
@@ -14305,7 +14912,7 @@
         <v>1</v>
       </c>
       <c r="AD135" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE135" s="2" t="s">
         <v>46</v>
@@ -14315,12 +14922,12 @@
       </c>
       <c r="AG135" s="2"/>
     </row>
-    <row r="136" spans="1:33" s="3" customFormat="1">
+    <row r="136" s="3" customFormat="1" spans="1:33">
       <c r="A136" s="2" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>100</v>
@@ -14350,7 +14957,7 @@
         <v>33</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M136" s="2" t="s">
         <v>55</v>
@@ -14388,7 +14995,7 @@
       <c r="X136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y136" s="12" t="s">
+      <c r="Y136" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z136" s="2">
@@ -14404,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="AD136" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE136" s="2" t="s">
         <v>46</v>
@@ -14416,10 +15023,10 @@
     </row>
     <row r="137" spans="1:33">
       <c r="A137" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>100</v>
@@ -14449,7 +15056,7 @@
         <v>69</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>71</v>
@@ -14487,7 +15094,7 @@
       <c r="X137" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y137" s="12" t="s">
+      <c r="Y137" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z137" s="2">
@@ -14503,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AD137" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE137" s="2"/>
       <c r="AF137" s="2"/>
@@ -14511,10 +15118,10 @@
     </row>
     <row r="138" spans="1:33">
       <c r="A138" s="2" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>100</v>
@@ -14544,7 +15151,7 @@
         <v>69</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>71</v>
@@ -14582,7 +15189,7 @@
       <c r="X138" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y138" s="12" t="s">
+      <c r="Y138" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z138" s="2">
@@ -14598,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="AD138" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE138" s="2"/>
       <c r="AF138" s="2"/>
@@ -14606,10 +15213,10 @@
     </row>
     <row r="139" spans="1:33">
       <c r="A139" s="2" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>100</v>
@@ -14639,7 +15246,7 @@
         <v>69</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M139" s="2" t="s">
         <v>71</v>
@@ -14677,7 +15284,7 @@
       <c r="X139" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y139" s="12" t="s">
+      <c r="Y139" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z139" s="2">
@@ -14693,7 +15300,7 @@
         <v>0</v>
       </c>
       <c r="AD139" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE139" s="2"/>
       <c r="AF139" s="2"/>
@@ -14701,10 +15308,10 @@
     </row>
     <row r="140" spans="1:33">
       <c r="A140" s="2" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>100</v>
@@ -14734,7 +15341,7 @@
         <v>68</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M140" s="2" t="s">
         <v>55</v>
@@ -14772,8 +15379,8 @@
       <c r="X140" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y140" s="12" t="s">
-        <v>349</v>
+      <c r="Y140" s="15" t="s">
+        <v>356</v>
       </c>
       <c r="Z140" s="2">
         <v>540</v>
@@ -14788,7 +15395,7 @@
         <v>1</v>
       </c>
       <c r="AD140" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE140" s="2" t="s">
         <v>57</v>
@@ -14800,10 +15407,10 @@
     </row>
     <row r="141" spans="1:33">
       <c r="A141" s="2" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>100</v>
@@ -14833,7 +15440,7 @@
         <v>33</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M141" s="2" t="s">
         <v>71</v>
@@ -14871,7 +15478,7 @@
       <c r="X141" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y141" s="12" t="s">
+      <c r="Y141" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z141" s="2">
@@ -14887,7 +15494,7 @@
         <v>1</v>
       </c>
       <c r="AD141" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE141" s="2" t="s">
         <v>57</v>
@@ -14897,111 +15504,111 @@
       </c>
       <c r="AG141" s="2"/>
     </row>
-    <row r="142" spans="1:33" s="20" customFormat="1">
-      <c r="A142" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="C142" s="15" t="s">
+    <row r="142" s="4" customFormat="1" spans="1:33">
+      <c r="A142" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C142" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D142" s="15">
-        <v>1</v>
-      </c>
-      <c r="E142" s="15">
+      <c r="D142" s="9">
+        <v>1</v>
+      </c>
+      <c r="E142" s="9">
         <v>517</v>
       </c>
-      <c r="F142" s="15">
+      <c r="F142" s="9">
         <v>574</v>
       </c>
-      <c r="G142" s="15">
+      <c r="G142" s="9">
         <v>702</v>
       </c>
-      <c r="H142" s="15" t="s">
+      <c r="H142" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I142" s="15" t="s">
+      <c r="I142" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J142" s="15" t="s">
+      <c r="J142" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K142" s="15" t="s">
+      <c r="K142" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L142" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="M142" s="15" t="s">
+      <c r="L142" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="M142" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N142" s="15" t="s">
+      <c r="N142" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O142" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P142" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q142" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="R142" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="S142" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="T142" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="U142" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V142" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="W142" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="X142" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y142" s="16" t="s">
+      <c r="O142" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P142" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q142" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R142" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S142" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T142" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U142" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V142" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W142" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="X142" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y142" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="Z142" s="15">
+      <c r="Z142" s="9">
         <v>540</v>
       </c>
-      <c r="AA142" s="15">
+      <c r="AA142" s="9">
         <v>330</v>
       </c>
-      <c r="AB142" s="15">
+      <c r="AB142" s="9">
         <v>585</v>
       </c>
-      <c r="AC142" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD142" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE142" s="15" t="s">
+      <c r="AC142" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD142" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE142" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AF142" s="15" t="s">
+      <c r="AF142" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AG142" s="15"/>
+      <c r="AG142" s="9"/>
     </row>
     <row r="143" spans="1:33">
       <c r="A143" s="2" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>100</v>
@@ -15031,7 +15638,7 @@
         <v>62</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="M143" s="2" t="s">
         <v>55</v>
@@ -15069,7 +15676,7 @@
       <c r="X143" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y143" s="12" t="s">
+      <c r="Y143" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z143" s="2">
@@ -15085,7 +15692,7 @@
         <v>0</v>
       </c>
       <c r="AD143" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE143" s="2"/>
       <c r="AF143" s="2"/>
@@ -15093,10 +15700,10 @@
     </row>
     <row r="144" spans="1:33">
       <c r="A144" s="2" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>100</v>
@@ -15126,7 +15733,7 @@
         <v>34</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="M144" s="2" t="s">
         <v>36</v>
@@ -15164,7 +15771,7 @@
       <c r="X144" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y144" s="12" t="s">
+      <c r="Y144" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z144" s="2">
@@ -15180,117 +15787,117 @@
         <v>0</v>
       </c>
       <c r="AD144" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE144" s="2"/>
       <c r="AF144" s="2"/>
       <c r="AG144" s="2"/>
     </row>
-    <row r="145" spans="1:33" s="19" customFormat="1">
-      <c r="A145" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="B145" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="C145" s="17" t="s">
+    <row r="145" s="5" customFormat="1" spans="1:33">
+      <c r="A145" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C145" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D145" s="17">
-        <v>1</v>
-      </c>
-      <c r="E145" s="17">
+      <c r="D145" s="19">
+        <v>1</v>
+      </c>
+      <c r="E145" s="19">
         <v>698</v>
       </c>
-      <c r="F145" s="17">
+      <c r="F145" s="19">
         <v>623</v>
       </c>
-      <c r="G145" s="17">
+      <c r="G145" s="19">
         <v>513</v>
       </c>
-      <c r="H145" s="17" t="s">
+      <c r="H145" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I145" s="17" t="s">
+      <c r="I145" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J145" s="17" t="s">
+      <c r="J145" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K145" s="17" t="s">
+      <c r="K145" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="L145" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="M145" s="17" t="s">
+      <c r="L145" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="M145" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="N145" s="17" t="s">
+      <c r="N145" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O145" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P145" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q145" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="R145" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="S145" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="T145" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="U145" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V145" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="W145" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="X145" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y145" s="18" t="s">
+      <c r="O145" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P145" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q145" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="R145" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S145" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="T145" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="U145" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="V145" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="W145" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="X145" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y145" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="Z145" s="17">
+      <c r="Z145" s="19">
         <v>540</v>
       </c>
-      <c r="AA145" s="17">
+      <c r="AA145" s="19">
         <v>330</v>
       </c>
-      <c r="AB145" s="17">
+      <c r="AB145" s="19">
         <v>585</v>
       </c>
-      <c r="AC145" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD145" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE145" s="17" t="s">
+      <c r="AC145" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD145" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE145" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AF145" s="17" t="s">
+      <c r="AF145" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AG145" s="17"/>
+      <c r="AG145" s="19"/>
     </row>
     <row r="146" spans="1:33">
       <c r="A146" s="2" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>30</v>
@@ -15320,7 +15927,7 @@
         <v>68</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="M146" s="2" t="s">
         <v>55</v>
@@ -15358,7 +15965,7 @@
       <c r="X146" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y146" s="12" t="s">
+      <c r="Y146" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z146" s="2">
@@ -15374,7 +15981,7 @@
         <v>0</v>
       </c>
       <c r="AD146" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE146" s="2"/>
       <c r="AF146" s="2"/>
@@ -15382,10 +15989,10 @@
     </row>
     <row r="147" spans="1:33">
       <c r="A147" s="2" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>30</v>
@@ -15415,7 +16022,7 @@
         <v>68</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="M147" s="2" t="s">
         <v>55</v>
@@ -15453,7 +16060,7 @@
       <c r="X147" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y147" s="12" t="s">
+      <c r="Y147" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z147" s="2">
@@ -15469,7 +16076,7 @@
         <v>0</v>
       </c>
       <c r="AD147" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE147" s="2"/>
       <c r="AF147" s="2"/>
@@ -15477,10 +16084,10 @@
     </row>
     <row r="148" spans="1:33">
       <c r="A148" s="2" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>30</v>
@@ -15510,7 +16117,7 @@
         <v>68</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="M148" s="2" t="s">
         <v>71</v>
@@ -15548,7 +16155,7 @@
       <c r="X148" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y148" s="12" t="s">
+      <c r="Y148" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z148" s="2">
@@ -15564,7 +16171,7 @@
         <v>0</v>
       </c>
       <c r="AD148" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE148" s="2"/>
       <c r="AF148" s="2"/>
@@ -15572,10 +16179,10 @@
     </row>
     <row r="149" spans="1:33">
       <c r="A149" s="2" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>30</v>
@@ -15605,7 +16212,7 @@
         <v>68</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="M149" s="2" t="s">
         <v>71</v>
@@ -15643,7 +16250,7 @@
       <c r="X149" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y149" s="12" t="s">
+      <c r="Y149" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z149" s="2">
@@ -15659,7 +16266,7 @@
         <v>0</v>
       </c>
       <c r="AD149" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE149" s="2"/>
       <c r="AF149" s="2"/>
@@ -15667,7 +16274,7 @@
     </row>
     <row r="150" spans="1:33">
       <c r="A150" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>50</v>
@@ -15700,7 +16307,7 @@
         <v>33</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M150" s="2" t="s">
         <v>55</v>
@@ -15738,7 +16345,7 @@
       <c r="X150" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y150" s="12" t="s">
+      <c r="Y150" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z150" s="2">
@@ -15754,7 +16361,7 @@
         <v>0</v>
       </c>
       <c r="AD150" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE150" s="2"/>
       <c r="AF150" s="2"/>
@@ -15762,7 +16369,7 @@
     </row>
     <row r="151" spans="1:33">
       <c r="A151" s="2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>50</v>
@@ -15795,7 +16402,7 @@
         <v>33</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M151" s="2" t="s">
         <v>55</v>
@@ -15833,7 +16440,7 @@
       <c r="X151" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y151" s="12" t="s">
+      <c r="Y151" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z151" s="2">
@@ -15849,7 +16456,7 @@
         <v>0</v>
       </c>
       <c r="AD151" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE151" s="2"/>
       <c r="AF151" s="2"/>
@@ -15857,7 +16464,7 @@
     </row>
     <row r="152" spans="1:33">
       <c r="A152" s="2" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>50</v>
@@ -15890,7 +16497,7 @@
         <v>33</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M152" s="2" t="s">
         <v>55</v>
@@ -15928,7 +16535,7 @@
       <c r="X152" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y152" s="12" t="s">
+      <c r="Y152" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z152" s="2">
@@ -15944,7 +16551,7 @@
         <v>0</v>
       </c>
       <c r="AD152" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE152" s="2"/>
       <c r="AF152" s="2"/>
@@ -15952,7 +16559,7 @@
     </row>
     <row r="153" spans="1:33">
       <c r="A153" s="2" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>50</v>
@@ -15985,7 +16592,7 @@
         <v>33</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M153" s="2" t="s">
         <v>55</v>
@@ -16023,7 +16630,7 @@
       <c r="X153" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y153" s="12" t="s">
+      <c r="Y153" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z153" s="2">
@@ -16039,7 +16646,7 @@
         <v>0</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE153" s="2"/>
       <c r="AF153" s="2"/>
@@ -16047,7 +16654,7 @@
     </row>
     <row r="154" spans="1:33">
       <c r="A154" s="2" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>66</v>
@@ -16080,7 +16687,7 @@
         <v>69</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="M154" s="2" t="s">
         <v>71</v>
@@ -16118,7 +16725,7 @@
       <c r="X154" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y154" s="12" t="s">
+      <c r="Y154" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z154" s="2">
@@ -16134,7 +16741,7 @@
         <v>0</v>
       </c>
       <c r="AD154" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE154" s="2"/>
       <c r="AF154" s="2"/>
@@ -16142,7 +16749,7 @@
     </row>
     <row r="155" spans="1:33">
       <c r="A155" s="2" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>66</v>
@@ -16175,7 +16782,7 @@
         <v>69</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="M155" s="2" t="s">
         <v>71</v>
@@ -16213,7 +16820,7 @@
       <c r="X155" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y155" s="12" t="s">
+      <c r="Y155" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z155" s="2">
@@ -16229,7 +16836,7 @@
         <v>0</v>
       </c>
       <c r="AD155" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE155" s="2"/>
       <c r="AF155" s="2"/>
@@ -16237,7 +16844,7 @@
     </row>
     <row r="156" spans="1:33">
       <c r="A156" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>66</v>
@@ -16270,7 +16877,7 @@
         <v>69</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="M156" s="2" t="s">
         <v>71</v>
@@ -16308,7 +16915,7 @@
       <c r="X156" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y156" s="12" t="s">
+      <c r="Y156" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z156" s="2">
@@ -16324,7 +16931,7 @@
         <v>0</v>
       </c>
       <c r="AD156" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE156" s="2"/>
       <c r="AF156" s="2"/>
@@ -16332,7 +16939,7 @@
     </row>
     <row r="157" spans="1:33">
       <c r="A157" s="2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>66</v>
@@ -16365,7 +16972,7 @@
         <v>69</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="M157" s="2" t="s">
         <v>71</v>
@@ -16403,7 +17010,7 @@
       <c r="X157" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y157" s="12" t="s">
+      <c r="Y157" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z157" s="2">
@@ -16419,7 +17026,7 @@
         <v>0</v>
       </c>
       <c r="AD157" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE157" s="2"/>
       <c r="AF157" s="2"/>
@@ -16427,7 +17034,7 @@
     </row>
     <row r="158" spans="1:33">
       <c r="A158" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>61</v>
@@ -16460,7 +17067,7 @@
         <v>62</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="M158" s="2" t="s">
         <v>36</v>
@@ -16498,7 +17105,7 @@
       <c r="X158" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y158" s="12" t="s">
+      <c r="Y158" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z158" s="2">
@@ -16514,7 +17121,7 @@
         <v>0</v>
       </c>
       <c r="AD158" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE158" s="2"/>
       <c r="AF158" s="2"/>
@@ -16522,7 +17129,7 @@
     </row>
     <row r="159" spans="1:33">
       <c r="A159" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>61</v>
@@ -16555,7 +17162,7 @@
         <v>62</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="M159" s="2" t="s">
         <v>55</v>
@@ -16593,7 +17200,7 @@
       <c r="X159" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y159" s="12" t="s">
+      <c r="Y159" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z159" s="2">
@@ -16609,7 +17216,7 @@
         <v>0</v>
       </c>
       <c r="AD159" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE159" s="2"/>
       <c r="AF159" s="2"/>
@@ -16617,7 +17224,7 @@
     </row>
     <row r="160" spans="1:33">
       <c r="A160" s="2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>61</v>
@@ -16650,7 +17257,7 @@
         <v>62</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="M160" s="2" t="s">
         <v>55</v>
@@ -16688,7 +17295,7 @@
       <c r="X160" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y160" s="12" t="s">
+      <c r="Y160" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z160" s="2">
@@ -16704,7 +17311,7 @@
         <v>0</v>
       </c>
       <c r="AD160" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE160" s="2"/>
       <c r="AF160" s="2"/>
@@ -16712,7 +17319,7 @@
     </row>
     <row r="161" spans="1:33">
       <c r="A161" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>29</v>
@@ -16745,7 +17352,7 @@
         <v>34</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M161" s="2" t="s">
         <v>55</v>
@@ -16783,7 +17390,7 @@
       <c r="X161" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y161" s="12" t="s">
+      <c r="Y161" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z161" s="2">
@@ -16799,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="AD161" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE161" s="2"/>
       <c r="AF161" s="2"/>
@@ -16807,7 +17414,7 @@
     </row>
     <row r="162" spans="1:33">
       <c r="A162" s="2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>29</v>
@@ -16840,7 +17447,7 @@
         <v>34</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M162" s="2" t="s">
         <v>36</v>
@@ -16878,7 +17485,7 @@
       <c r="X162" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y162" s="12" t="s">
+      <c r="Y162" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z162" s="2">
@@ -16894,7 +17501,7 @@
         <v>0</v>
       </c>
       <c r="AD162" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE162" s="2"/>
       <c r="AF162" s="2"/>
@@ -16902,7 +17509,7 @@
     </row>
     <row r="163" spans="1:33">
       <c r="A163" s="2" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>29</v>
@@ -16935,7 +17542,7 @@
         <v>34</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M163" s="2" t="s">
         <v>36</v>
@@ -16973,7 +17580,7 @@
       <c r="X163" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y163" s="12" t="s">
+      <c r="Y163" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z163" s="2">
@@ -16989,7 +17596,7 @@
         <v>0</v>
       </c>
       <c r="AD163" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE163" s="2"/>
       <c r="AF163" s="2"/>
@@ -16997,10 +17604,10 @@
     </row>
     <row r="164" spans="1:33">
       <c r="A164" s="2" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>30</v>
@@ -17030,7 +17637,7 @@
         <v>33</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="M164" s="2" t="s">
         <v>55</v>
@@ -17068,7 +17675,7 @@
       <c r="X164" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y164" s="12" t="s">
+      <c r="Y164" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z164" s="2">
@@ -17084,7 +17691,7 @@
         <v>0</v>
       </c>
       <c r="AD164" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE164" s="2"/>
       <c r="AF164" s="2"/>
@@ -17092,10 +17699,10 @@
     </row>
     <row r="165" spans="1:33">
       <c r="A165" s="2" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>30</v>
@@ -17125,7 +17732,7 @@
         <v>33</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="M165" s="2" t="s">
         <v>36</v>
@@ -17163,7 +17770,7 @@
       <c r="X165" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y165" s="12" t="s">
+      <c r="Y165" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z165" s="2">
@@ -17179,7 +17786,7 @@
         <v>0</v>
       </c>
       <c r="AD165" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE165" s="2"/>
       <c r="AF165" s="2"/>
@@ -17187,10 +17794,10 @@
     </row>
     <row r="166" spans="1:33">
       <c r="A166" s="2" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>30</v>
@@ -17220,7 +17827,7 @@
         <v>33</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="M166" s="2" t="s">
         <v>55</v>
@@ -17258,7 +17865,7 @@
       <c r="X166" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y166" s="12" t="s">
+      <c r="Y166" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z166" s="2">
@@ -17274,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="AD166" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE166" s="2"/>
       <c r="AF166" s="2"/>
@@ -17282,10 +17889,10 @@
     </row>
     <row r="167" spans="1:33">
       <c r="A167" s="2" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>30</v>
@@ -17315,7 +17922,7 @@
         <v>33</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="M167" s="2" t="s">
         <v>36</v>
@@ -17353,7 +17960,7 @@
       <c r="X167" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y167" s="12" t="s">
+      <c r="Y167" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z167" s="2">
@@ -17369,7 +17976,7 @@
         <v>1</v>
       </c>
       <c r="AD167" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE167" s="2" t="s">
         <v>46</v>
@@ -17381,10 +17988,10 @@
     </row>
     <row r="168" spans="1:33">
       <c r="A168" s="2" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>30</v>
@@ -17414,7 +18021,7 @@
         <v>33</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="M168" s="2" t="s">
         <v>55</v>
@@ -17432,7 +18039,7 @@
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
       <c r="X168" s="2"/>
-      <c r="Y168" s="12"/>
+      <c r="Y168" s="15"/>
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
       <c r="AB168" s="2"/>
@@ -17444,10 +18051,10 @@
     </row>
     <row r="169" spans="1:33">
       <c r="A169" s="2" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>30</v>
@@ -17477,7 +18084,7 @@
         <v>33</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="M169" s="2" t="s">
         <v>55</v>
@@ -17515,7 +18122,7 @@
       <c r="X169" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y169" s="12" t="s">
+      <c r="Y169" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z169" s="2">
@@ -17531,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="AD169" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE169" s="2"/>
       <c r="AF169" s="2"/>
@@ -17539,10 +18146,10 @@
     </row>
     <row r="170" spans="1:33">
       <c r="A170" s="2" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>30</v>
@@ -17572,7 +18179,7 @@
         <v>33</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="M170" s="2" t="s">
         <v>55</v>
@@ -17610,7 +18217,7 @@
       <c r="X170" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y170" s="12" t="s">
+      <c r="Y170" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z170" s="2">
@@ -17626,7 +18233,7 @@
         <v>0</v>
       </c>
       <c r="AD170" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE170" s="2"/>
       <c r="AF170" s="2"/>
@@ -17634,10 +18241,10 @@
     </row>
     <row r="171" spans="1:33">
       <c r="A171" s="2" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>30</v>
@@ -17667,7 +18274,7 @@
         <v>68</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M171" s="2" t="s">
         <v>71</v>
@@ -17705,7 +18312,7 @@
       <c r="X171" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y171" s="12" t="s">
+      <c r="Y171" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z171" s="2">
@@ -17721,7 +18328,7 @@
         <v>0</v>
       </c>
       <c r="AD171" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE171" s="2"/>
       <c r="AF171" s="2"/>
@@ -17729,10 +18336,10 @@
     </row>
     <row r="172" spans="1:33">
       <c r="A172" s="2" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>30</v>
@@ -17762,7 +18369,7 @@
         <v>68</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="M172" s="2" t="s">
         <v>71</v>
@@ -17800,7 +18407,7 @@
       <c r="X172" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y172" s="12" t="s">
+      <c r="Y172" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z172" s="2">
@@ -17816,7 +18423,7 @@
         <v>0</v>
       </c>
       <c r="AD172" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE172" s="2"/>
       <c r="AF172" s="2"/>
@@ -17824,10 +18431,10 @@
     </row>
     <row r="173" spans="1:33">
       <c r="A173" s="2" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>30</v>
@@ -17857,7 +18464,7 @@
         <v>68</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="M173" s="2" t="s">
         <v>71</v>
@@ -17895,7 +18502,7 @@
       <c r="X173" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y173" s="12" t="s">
+      <c r="Y173" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z173" s="2">
@@ -17911,7 +18518,7 @@
         <v>0</v>
       </c>
       <c r="AD173" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE173" s="2"/>
       <c r="AF173" s="2"/>
@@ -17919,10 +18526,10 @@
     </row>
     <row r="174" spans="1:33">
       <c r="A174" s="2" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>30</v>
@@ -17952,7 +18559,7 @@
         <v>33</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M174" s="2" t="s">
         <v>55</v>
@@ -17990,8 +18597,8 @@
       <c r="X174" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y174" s="12" t="s">
-        <v>414</v>
+      <c r="Y174" s="15" t="s">
+        <v>423</v>
       </c>
       <c r="Z174" s="2">
         <v>540</v>
@@ -18006,7 +18613,7 @@
         <v>1</v>
       </c>
       <c r="AD174" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE174" s="2" t="s">
         <v>57</v>
@@ -18018,10 +18625,10 @@
     </row>
     <row r="175" spans="1:33">
       <c r="A175" s="2" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>30</v>
@@ -18051,7 +18658,7 @@
         <v>33</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M175" s="2" t="s">
         <v>55</v>
@@ -18089,8 +18696,8 @@
       <c r="X175" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y175" s="12" t="s">
-        <v>414</v>
+      <c r="Y175" s="15" t="s">
+        <v>423</v>
       </c>
       <c r="Z175" s="2">
         <v>540</v>
@@ -18105,7 +18712,7 @@
         <v>1</v>
       </c>
       <c r="AD175" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE175" s="2" t="s">
         <v>57</v>
@@ -18117,10 +18724,10 @@
     </row>
     <row r="176" spans="1:33">
       <c r="A176" s="2" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>30</v>
@@ -18150,7 +18757,7 @@
         <v>33</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="M176" s="2" t="s">
         <v>36</v>
@@ -18188,7 +18795,7 @@
       <c r="X176" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y176" s="12" t="s">
+      <c r="Y176" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z176" s="1">
@@ -18204,7 +18811,7 @@
         <v>1</v>
       </c>
       <c r="AD176" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE176" s="1" t="s">
         <v>73</v>
@@ -18216,10 +18823,10 @@
     </row>
     <row r="177" spans="1:33">
       <c r="A177" s="2" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>30</v>
@@ -18249,7 +18856,7 @@
         <v>33</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="M177" s="2" t="s">
         <v>36</v>
@@ -18287,7 +18894,7 @@
       <c r="X177" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y177" s="12" t="s">
+      <c r="Y177" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z177" s="2">
@@ -18303,7 +18910,7 @@
         <v>0</v>
       </c>
       <c r="AD177" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE177" s="2"/>
       <c r="AF177" s="2"/>
@@ -18311,10 +18918,10 @@
     </row>
     <row r="178" spans="1:33">
       <c r="A178" s="2" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>30</v>
@@ -18344,7 +18951,7 @@
         <v>69</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="M178" s="2" t="s">
         <v>55</v>
@@ -18382,7 +18989,7 @@
       <c r="X178" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y178" s="12" t="s">
+      <c r="Y178" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z178" s="2">
@@ -18398,7 +19005,7 @@
         <v>0</v>
       </c>
       <c r="AD178" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE178" s="2"/>
       <c r="AF178" s="2"/>
@@ -18406,10 +19013,10 @@
     </row>
     <row r="179" spans="1:33">
       <c r="A179" s="2" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>30</v>
@@ -18439,7 +19046,7 @@
         <v>33</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="M179" s="2" t="s">
         <v>36</v>
@@ -18477,7 +19084,7 @@
       <c r="X179" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Y179" s="12" t="s">
+      <c r="Y179" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z179" s="2">
@@ -18493,7 +19100,7 @@
         <v>1</v>
       </c>
       <c r="AD179" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE179" s="2" t="s">
         <v>47</v>
@@ -18503,12 +19110,12 @@
       </c>
       <c r="AG179" s="2"/>
     </row>
-    <row r="180" spans="1:33" s="3" customFormat="1">
+    <row r="180" s="3" customFormat="1" spans="1:32">
       <c r="A180" s="3" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>30</v>
@@ -18538,7 +19145,7 @@
         <v>62</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="M180" s="2" t="s">
         <v>55</v>
@@ -18576,7 +19183,7 @@
       <c r="X180" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y180" s="12" t="s">
+      <c r="Y180" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z180" s="2">
@@ -18592,7 +19199,7 @@
         <v>1</v>
       </c>
       <c r="AD180" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE180" s="2" t="s">
         <v>57</v>
@@ -18601,12 +19208,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="181" spans="1:33">
+    <row r="181" spans="1:32">
       <c r="A181" s="2" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>30</v>
@@ -18636,7 +19243,7 @@
         <v>33</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="M181" s="2" t="s">
         <v>55</v>
@@ -18674,7 +19281,7 @@
       <c r="X181" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y181" s="12" t="s">
+      <c r="Y181" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Z181" s="2">
@@ -18690,7 +19297,7 @@
         <v>1</v>
       </c>
       <c r="AD181" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE181" s="2" t="s">
         <v>58</v>
@@ -18699,58 +19306,59 @@
         <v>59</v>
       </c>
     </row>
-    <row r="182" spans="1:33">
+    <row r="182" spans="1:1">
       <c r="A182" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="11">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 H1:K1 M1:X1 AC1 AE1:AG1 Y1:Y6 B1:B57 Y8:Y57 L1:L57 Y59:Y1048576 L59:L179 B59:B1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC181">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I57 I59:I181">
+      <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 H1:K1 M1:X1 AC1 AE1:AG1 B1:B57 B59:B1048576 L1:L57 L59:L179 Y1:Y6 Y8:Y57 Y59:Y1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H181 H2:H57 H59:H179">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J181 J2:J57 J59:J179">
+      <formula1>"枪,弓,骑"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K181 K2:K57 K59:K179">
+      <formula1>"刀,剑,枪,弓,扇"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD$1:AD$1048576">
+      <formula1>"逆命,逆命5,突破,未开命格"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C57 C59:C181">
       <formula1>"魏,蜀,吴,群"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H181 H2:H57 H59:H179">
-      <formula1>"男,女"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG18:AG179 AE2:AG17 AE18:AF181">
+      <formula1>"天机之钥,天相之圭,太阴之精,太阳之焰,贪狼之爪,廉贞之锋,七杀之气,破军之血"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N57 M59:N181">
       <formula1>"盾枪兵,长戟兵,重骑兵,骠骑兵,火矢兵,连弩兵"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I57 I59:I181">
-      <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC181">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K181 K2:K57 K59:K179">
-      <formula1>"刀,剑,枪,弓,扇"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J181 J2:J57 J59:J179">
-      <formula1>"枪,弓,骑"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:X56 O59:X181">
       <formula1>"武锋,三疑,兵道,军略,金鼓,文伐"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD1048576">
-      <formula1>"逆命,逆命5,突破,未开命格"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AG17 AE18:AF181 AG18:AG179">
-      <formula1>"天机之钥,天相之圭,太阴之精,太阳之焰,贪狼之爪,廉贞之锋,七杀之气,破军之血"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C5:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="5" spans="3:5">
       <c r="C5" s="1">
@@ -18764,22 +19372,25 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>